--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pmis\AMS\library\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BA7897-C014-4EF2-87FF-115CEC0FD4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
@@ -807,8 +801,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -900,54 +936,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 4 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma 6 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 4 4 2" xfId="2"/>
+    <cellStyle name="Comma 6 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -982,7 +976,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1032,7 +1026,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1076,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,17 +1400,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N877"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A66" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="55" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="A78" sqref="A76:XFD78"/>
     </sheetView>
   </sheetViews>
@@ -1592,9 +1586,9 @@
       <c r="K12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="138"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="140"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="109"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -1603,17 +1597,17 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="142"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="111"/>
       <c r="K13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="143"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="145"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="114"/>
     </row>
     <row r="14" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
@@ -1632,66 +1626,66 @@
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="140"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="109"/>
     </row>
     <row r="16" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="140"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="109"/>
     </row>
     <row r="17" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="140"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="109"/>
     </row>
     <row r="18" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -1704,12 +1698,12 @@
       <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -1722,12 +1716,12 @@
       <c r="N19" s="41"/>
     </row>
     <row r="20" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="151" t="s">
+      <c r="A20" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -1776,38 +1770,38 @@
       <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="149"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
     </row>
     <row r="24" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="149"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
-      <c r="L24" s="149"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="149"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="118"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
     </row>
     <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
@@ -2068,16 +2062,16 @@
       <c r="N37" s="83"/>
     </row>
     <row r="38" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="107" t="s">
+      <c r="A38" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="107"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
       <c r="I38" s="84"/>
       <c r="J38" s="84"/>
       <c r="K38" s="85"/>
@@ -2086,14 +2080,14 @@
       <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="107"/>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
       <c r="I39" s="87"/>
       <c r="J39" s="87"/>
       <c r="K39" s="43"/>
@@ -2102,14 +2096,14 @@
       <c r="N39" s="88"/>
     </row>
     <row r="40" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="107"/>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="120"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="120"/>
+      <c r="H40" s="120"/>
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
       <c r="K40" s="17" t="s">
@@ -2120,14 +2114,14 @@
       <c r="N40" s="88"/>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="107"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
       <c r="I41" s="90"/>
       <c r="J41" s="19" t="s">
         <v>41</v>
@@ -2138,160 +2132,160 @@
       <c r="N41" s="91"/>
     </row>
     <row r="42" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="146"/>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="147"/>
-      <c r="N42" s="148"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="117"/>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="107" t="s">
+      <c r="A43" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="109" t="s">
+      <c r="B43" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="108" t="s">
+      <c r="C43" s="124"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="107" t="s">
+      <c r="F43" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="123" t="s">
+      <c r="G43" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="121" t="s">
+      <c r="H43" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="121"/>
-      <c r="J43" s="121"/>
-      <c r="K43" s="121"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="121"/>
-      <c r="N43" s="122"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="136"/>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="107"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="119" t="s">
+      <c r="A44" s="119"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="120"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="118" t="s">
+      <c r="I44" s="134"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="L44" s="118"/>
-      <c r="M44" s="124" t="s">
+      <c r="L44" s="132"/>
+      <c r="M44" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="125"/>
+      <c r="N44" s="139"/>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="107"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="114"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="126"/>
-      <c r="N45" s="127"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="134"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="132"/>
+      <c r="L45" s="132"/>
+      <c r="M45" s="140"/>
+      <c r="N45" s="141"/>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="107"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="119"/>
-      <c r="I46" s="120"/>
-      <c r="J46" s="120"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="126"/>
-      <c r="N46" s="127"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="126"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="140"/>
+      <c r="N46" s="141"/>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="107"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="120"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="126"/>
-      <c r="N47" s="127"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="126"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="119"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="140"/>
+      <c r="N47" s="141"/>
     </row>
     <row r="48" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="107"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="114"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="130" t="s">
+      <c r="A48" s="119"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="132" t="s">
+      <c r="I48" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="J48" s="134" t="s">
+      <c r="J48" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="K48" s="136" t="s">
+      <c r="K48" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="137" t="s">
+      <c r="L48" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="M48" s="126"/>
-      <c r="N48" s="127"/>
+      <c r="M48" s="140"/>
+      <c r="N48" s="141"/>
     </row>
     <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="107"/>
-      <c r="B49" s="115"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="131"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="135"/>
-      <c r="K49" s="137"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="128"/>
-      <c r="N49" s="129"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="149"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="134"/>
+      <c r="M49" s="142"/>
+      <c r="N49" s="143"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="44"/>
@@ -15543,6 +15537,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="K44:L47"/>
+    <mergeCell ref="H44:J47"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="M44:N49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="L13:N13"/>
@@ -15559,20 +15567,6 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="K44:L47"/>
-    <mergeCell ref="H44:J47"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="M44:N49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
   </bookViews>
@@ -213,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
@@ -567,7 +572,7 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -795,56 +800,20 @@
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -936,6 +905,48 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 4 4 2" xfId="2"/>
@@ -976,7 +987,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1037,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,7 +1087,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1410,28 +1421,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N877"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="55" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="A78" sqref="A76:XFD78"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="145" zoomScaleNormal="55" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="45"/>
-    <col min="2" max="2" width="19.140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="0.28515625" style="45" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="45"/>
+    <col min="2" max="2" width="19.109375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="0.33203125" style="45" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="1" style="45" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="51" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="52" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="52" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="45" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="45"/>
+    <col min="5" max="5" width="5.44140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="52" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="52" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="45" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42"/>
       <c r="B1" s="43"/>
       <c r="C1" s="1" t="s">
@@ -1449,7 +1460,7 @@
       <c r="M1" s="43"/>
       <c r="N1" s="43"/>
     </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
@@ -1461,7 +1472,7 @@
       <c r="J2" s="44"/>
       <c r="K2" s="43"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
       <c r="C3" s="1"/>
@@ -1474,7 +1485,7 @@
       <c r="J3" s="48"/>
       <c r="K3" s="43"/>
     </row>
-    <row r="4" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="C4" s="22"/>
       <c r="D4" s="4"/>
@@ -1486,7 +1497,7 @@
       <c r="J4" s="48"/>
       <c r="K4" s="43"/>
     </row>
-    <row r="5" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="4"/>
       <c r="C5" s="22"/>
@@ -1499,7 +1510,7 @@
       <c r="J5" s="48"/>
       <c r="K5" s="43"/>
     </row>
-    <row r="6" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="5"/>
       <c r="C6" s="22"/>
@@ -1512,12 +1523,12 @@
       <c r="J6" s="48"/>
       <c r="K6" s="43"/>
     </row>
-    <row r="7" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
       <c r="B7" s="5"/>
       <c r="K7" s="43"/>
     </row>
-    <row r="8" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="5"/>
       <c r="C8" s="22"/>
@@ -1530,7 +1541,7 @@
       <c r="J8" s="48"/>
       <c r="K8" s="43"/>
     </row>
-    <row r="9" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49"/>
       <c r="B9" s="5"/>
       <c r="C9" s="22"/>
@@ -1543,7 +1554,7 @@
       <c r="J9" s="48"/>
       <c r="K9" s="43"/>
     </row>
-    <row r="10" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="5"/>
       <c r="C10" s="22"/>
@@ -1556,8 +1567,8 @@
       <c r="J10" s="48"/>
       <c r="K10" s="43"/>
     </row>
-    <row r="11" spans="1:14" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
+    <row r="11" spans="1:14" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="6"/>
@@ -1570,7 +1581,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
         <v>1</v>
@@ -1586,30 +1597,30 @@
       <c r="K12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="107"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="109"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="140"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="142"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="112"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="114"/>
-    </row>
-    <row r="14" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="145"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="147"/>
+    </row>
+    <row r="14" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="10"/>
       <c r="C14" s="53"/>
@@ -1625,67 +1636,67 @@
       <c r="M14" s="20"/>
       <c r="N14" s="21"/>
     </row>
-    <row r="15" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="121" t="s">
+    <row r="15" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="109"/>
-    </row>
-    <row r="16" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="121" t="s">
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="142"/>
+    </row>
+    <row r="16" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="109"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="121" t="s">
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="142"/>
+    </row>
+    <row r="17" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="109"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="121" t="s">
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
+    </row>
+    <row r="18" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="121"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
@@ -1697,13 +1708,13 @@
       <c r="M18" s="40"/>
       <c r="N18" s="41"/>
     </row>
-    <row r="19" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="s">
+    <row r="19" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -1715,13 +1726,13 @@
       <c r="M19" s="40"/>
       <c r="N19" s="41"/>
     </row>
-    <row r="20" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="121" t="s">
+    <row r="20" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -1733,7 +1744,7 @@
       <c r="M20" s="40"/>
       <c r="N20" s="41"/>
     </row>
-    <row r="21" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
@@ -1751,7 +1762,7 @@
       <c r="M21" s="56"/>
       <c r="N21" s="57"/>
     </row>
-    <row r="22" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1769,41 +1780,41 @@
       <c r="M22" s="63"/>
       <c r="N22" s="64"/>
     </row>
-    <row r="23" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="118" t="s">
+    <row r="23" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="118"/>
-    </row>
-    <row r="24" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="118"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="118"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="118"/>
-    </row>
-    <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+    </row>
+    <row r="24" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="151"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+    </row>
+    <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1834,7 @@
       <c r="M25" s="68"/>
       <c r="N25" s="67"/>
     </row>
-    <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>16</v>
       </c>
@@ -1843,7 +1854,7 @@
       <c r="M26" s="72"/>
       <c r="N26" s="71"/>
     </row>
-    <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>18</v>
       </c>
@@ -1863,7 +1874,7 @@
       <c r="M27" s="72"/>
       <c r="N27" s="71"/>
     </row>
-    <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>20</v>
       </c>
@@ -1883,7 +1894,7 @@
       <c r="M28" s="74"/>
       <c r="N28" s="71"/>
     </row>
-    <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>22</v>
       </c>
@@ -1903,7 +1914,7 @@
       <c r="M29" s="72"/>
       <c r="N29" s="71"/>
     </row>
-    <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>24</v>
       </c>
@@ -1923,7 +1934,7 @@
       <c r="M30" s="72"/>
       <c r="N30" s="71"/>
     </row>
-    <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>26</v>
       </c>
@@ -1943,7 +1954,7 @@
       <c r="M31" s="72"/>
       <c r="N31" s="71"/>
     </row>
-    <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>28</v>
       </c>
@@ -1963,7 +1974,7 @@
       <c r="M32" s="72"/>
       <c r="N32" s="71"/>
     </row>
-    <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>30</v>
       </c>
@@ -1983,7 +1994,7 @@
       <c r="M33" s="72"/>
       <c r="N33" s="71"/>
     </row>
-    <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>32</v>
       </c>
@@ -2003,7 +2014,7 @@
       <c r="M34" s="72"/>
       <c r="N34" s="71"/>
     </row>
-    <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>34</v>
       </c>
@@ -2023,7 +2034,7 @@
       <c r="M35" s="72"/>
       <c r="N35" s="71"/>
     </row>
-    <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>36</v>
       </c>
@@ -2043,7 +2054,7 @@
       <c r="M36" s="72"/>
       <c r="N36" s="71"/>
     </row>
-    <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>38</v>
       </c>
@@ -2061,17 +2072,17 @@
       <c r="M37" s="82"/>
       <c r="N37" s="83"/>
     </row>
-    <row r="38" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="119" t="s">
+    <row r="38" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="119"/>
-      <c r="C38" s="119"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="120"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
       <c r="I38" s="84"/>
       <c r="J38" s="84"/>
       <c r="K38" s="85"/>
@@ -2079,15 +2090,15 @@
       <c r="M38" s="85"/>
       <c r="N38" s="86"/>
     </row>
-    <row r="39" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="119"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="120"/>
+    <row r="39" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
       <c r="I39" s="87"/>
       <c r="J39" s="87"/>
       <c r="K39" s="43"/>
@@ -2095,15 +2106,15 @@
       <c r="M39" s="43"/>
       <c r="N39" s="88"/>
     </row>
-    <row r="40" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
+    <row r="40" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
       <c r="I40" s="89"/>
       <c r="J40" s="89"/>
       <c r="K40" s="17" t="s">
@@ -2113,15 +2124,15 @@
       <c r="M40" s="18"/>
       <c r="N40" s="88"/>
     </row>
-    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="119"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
+    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
       <c r="I41" s="90"/>
       <c r="J41" s="19" t="s">
         <v>41</v>
@@ -2131,165 +2142,165 @@
       <c r="M41" s="19"/>
       <c r="N41" s="91"/>
     </row>
-    <row r="42" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="115"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="117"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="119" t="s">
+    <row r="42" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="148"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="150"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="123" t="s">
+      <c r="B43" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="125"/>
-      <c r="E43" s="122" t="s">
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="119" t="s">
+      <c r="F43" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="137" t="s">
+      <c r="G43" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="H43" s="135" t="s">
+      <c r="H43" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
-      <c r="N43" s="136"/>
-    </row>
-    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="119"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="133" t="s">
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="124"/>
+    </row>
+    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="109"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="132" t="s">
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="L44" s="132"/>
-      <c r="M44" s="138" t="s">
+      <c r="L44" s="120"/>
+      <c r="M44" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="N44" s="139"/>
-    </row>
-    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="119"/>
-      <c r="B45" s="126"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="132"/>
-      <c r="L45" s="132"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="141"/>
-    </row>
-    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="119"/>
-      <c r="B46" s="126"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="140"/>
-      <c r="N46" s="141"/>
-    </row>
-    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="119"/>
-      <c r="B47" s="126"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="140"/>
-      <c r="N47" s="141"/>
-    </row>
-    <row r="48" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="119"/>
-      <c r="B48" s="126"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="144" t="s">
+      <c r="N44" s="127"/>
+    </row>
+    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="109"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="129"/>
+    </row>
+    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="109"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="129"/>
+    </row>
+    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="109"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="122"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="129"/>
+    </row>
+    <row r="48" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="109"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="I48" s="146" t="s">
+      <c r="I48" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="J48" s="148" t="s">
+      <c r="J48" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="K48" s="150" t="s">
+      <c r="K48" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="L48" s="151" t="s">
+      <c r="L48" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="M48" s="140"/>
-      <c r="N48" s="141"/>
-    </row>
-    <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="119"/>
-      <c r="B49" s="129"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="149"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="142"/>
-      <c r="N49" s="143"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M48" s="128"/>
+      <c r="N48" s="129"/>
+    </row>
+    <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="109"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="131"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
-      <c r="B50" s="105"/>
+      <c r="B50" s="106"/>
       <c r="C50" s="92"/>
       <c r="D50" s="92"/>
       <c r="E50" s="92"/>
@@ -2303,9 +2314,9 @@
       <c r="M50" s="93"/>
       <c r="N50" s="93"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="92"/>
-      <c r="B51" s="92"/>
+      <c r="B51" s="106"/>
       <c r="C51" s="92"/>
       <c r="D51" s="92"/>
       <c r="E51" s="92"/>
@@ -2319,9 +2330,9 @@
       <c r="M51" s="93"/>
       <c r="N51" s="93"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="92"/>
-      <c r="B52" s="92"/>
+      <c r="B52" s="106"/>
       <c r="C52" s="92"/>
       <c r="D52" s="92"/>
       <c r="E52" s="92"/>
@@ -2335,9 +2346,9 @@
       <c r="M52" s="93"/>
       <c r="N52" s="93"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="93"/>
-      <c r="B53" s="93"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="93"/>
       <c r="D53" s="93"/>
       <c r="E53" s="93"/>
@@ -2351,9 +2362,9 @@
       <c r="M53" s="93"/>
       <c r="N53" s="93"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="93"/>
-      <c r="B54" s="93"/>
+      <c r="B54" s="107"/>
       <c r="C54" s="93"/>
       <c r="D54" s="93"/>
       <c r="E54" s="93"/>
@@ -2367,9 +2378,9 @@
       <c r="M54" s="93"/>
       <c r="N54" s="93"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="93"/>
-      <c r="B55" s="93"/>
+      <c r="B55" s="107"/>
       <c r="C55" s="93"/>
       <c r="D55" s="93"/>
       <c r="E55" s="93"/>
@@ -2383,9 +2394,9 @@
       <c r="M55" s="93"/>
       <c r="N55" s="93"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="93"/>
-      <c r="B56" s="93"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="93"/>
       <c r="D56" s="93"/>
       <c r="E56" s="93"/>
@@ -2399,9 +2410,9 @@
       <c r="M56" s="93"/>
       <c r="N56" s="93"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="93"/>
-      <c r="B57" s="93"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="93"/>
       <c r="D57" s="93"/>
       <c r="E57" s="93"/>
@@ -2415,9 +2426,9 @@
       <c r="M57" s="93"/>
       <c r="N57" s="93"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="93"/>
-      <c r="B58" s="93"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="93"/>
       <c r="D58" s="93"/>
       <c r="E58" s="93"/>
@@ -2431,9 +2442,9 @@
       <c r="M58" s="93"/>
       <c r="N58" s="93"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="93"/>
-      <c r="B59" s="93"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="93"/>
       <c r="D59" s="93"/>
       <c r="E59" s="93"/>
@@ -2447,9 +2458,9 @@
       <c r="M59" s="93"/>
       <c r="N59" s="93"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="93"/>
-      <c r="B60" s="93"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="93"/>
       <c r="D60" s="93"/>
       <c r="E60" s="93"/>
@@ -2463,9 +2474,9 @@
       <c r="M60" s="93"/>
       <c r="N60" s="93"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="93"/>
-      <c r="B61" s="93"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="93"/>
       <c r="D61" s="93"/>
       <c r="E61" s="93"/>
@@ -2479,9 +2490,9 @@
       <c r="M61" s="93"/>
       <c r="N61" s="93"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="93"/>
-      <c r="B62" s="93"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="93"/>
       <c r="D62" s="93"/>
       <c r="E62" s="93"/>
@@ -2495,9 +2506,9 @@
       <c r="M62" s="93"/>
       <c r="N62" s="93"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="93"/>
-      <c r="B63" s="93"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="93"/>
       <c r="D63" s="93"/>
       <c r="E63" s="93"/>
@@ -2511,9 +2522,9 @@
       <c r="M63" s="93"/>
       <c r="N63" s="93"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="93"/>
-      <c r="B64" s="93"/>
+      <c r="B64" s="107"/>
       <c r="C64" s="93"/>
       <c r="D64" s="93"/>
       <c r="E64" s="93"/>
@@ -2527,9 +2538,9 @@
       <c r="M64" s="93"/>
       <c r="N64" s="93"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
+      <c r="B65" s="108"/>
       <c r="C65" s="94"/>
       <c r="D65" s="94"/>
       <c r="E65" s="94"/>
@@ -2543,7 +2554,7 @@
       <c r="M65" s="94"/>
       <c r="N65" s="94"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="94"/>
       <c r="B66" s="94"/>
       <c r="C66" s="94"/>
@@ -2559,9 +2570,9 @@
       <c r="M66" s="94"/>
       <c r="N66" s="94"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="94"/>
-      <c r="B67" s="94"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="94"/>
       <c r="D67" s="94"/>
       <c r="E67" s="94"/>
@@ -2575,9 +2586,9 @@
       <c r="M67" s="94"/>
       <c r="N67" s="94"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="94"/>
-      <c r="B68" s="94"/>
+      <c r="B68" s="108"/>
       <c r="C68" s="94"/>
       <c r="D68" s="94"/>
       <c r="E68" s="94"/>
@@ -2591,9 +2602,9 @@
       <c r="M68" s="94"/>
       <c r="N68" s="94"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="94"/>
-      <c r="B69" s="94"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="94"/>
       <c r="D69" s="94"/>
       <c r="E69" s="94"/>
@@ -2607,9 +2618,9 @@
       <c r="M69" s="94"/>
       <c r="N69" s="94"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
+      <c r="B70" s="108"/>
       <c r="C70" s="94"/>
       <c r="D70" s="94"/>
       <c r="E70" s="94"/>
@@ -2623,9 +2634,9 @@
       <c r="M70" s="94"/>
       <c r="N70" s="94"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="94"/>
-      <c r="B71" s="94"/>
+      <c r="B71" s="108"/>
       <c r="C71" s="94"/>
       <c r="D71" s="94"/>
       <c r="E71" s="94"/>
@@ -2639,9 +2650,9 @@
       <c r="M71" s="94"/>
       <c r="N71" s="94"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="94"/>
-      <c r="B72" s="94"/>
+      <c r="B72" s="108"/>
       <c r="C72" s="94"/>
       <c r="D72" s="94"/>
       <c r="E72" s="94"/>
@@ -2655,9 +2666,9 @@
       <c r="M72" s="94"/>
       <c r="N72" s="94"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="94"/>
-      <c r="B73" s="94"/>
+      <c r="B73" s="108"/>
       <c r="C73" s="94"/>
       <c r="D73" s="94"/>
       <c r="E73" s="94"/>
@@ -2671,9 +2682,9 @@
       <c r="M73" s="94"/>
       <c r="N73" s="94"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="94"/>
-      <c r="B74" s="94"/>
+      <c r="B74" s="108"/>
       <c r="C74" s="94"/>
       <c r="D74" s="94"/>
       <c r="E74" s="94"/>
@@ -2687,9 +2698,9 @@
       <c r="M74" s="94"/>
       <c r="N74" s="94"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="94"/>
-      <c r="B75" s="94"/>
+      <c r="B75" s="108"/>
       <c r="C75" s="94"/>
       <c r="D75" s="94"/>
       <c r="E75" s="94"/>
@@ -2703,7 +2714,7 @@
       <c r="M75" s="94"/>
       <c r="N75" s="94"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="94"/>
       <c r="B76" s="94"/>
       <c r="C76" s="94"/>
@@ -2719,7 +2730,7 @@
       <c r="M76" s="94"/>
       <c r="N76" s="94"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="94"/>
       <c r="B77" s="94"/>
       <c r="C77" s="94"/>
@@ -2735,7 +2746,7 @@
       <c r="M77" s="94"/>
       <c r="N77" s="94"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="94"/>
       <c r="B78" s="94"/>
       <c r="C78" s="94"/>
@@ -2751,7 +2762,7 @@
       <c r="M78" s="94"/>
       <c r="N78" s="94"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="94"/>
       <c r="B79" s="94"/>
       <c r="C79" s="94"/>
@@ -2767,7 +2778,7 @@
       <c r="M79" s="94"/>
       <c r="N79" s="94"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="94"/>
       <c r="B80" s="94"/>
       <c r="C80" s="94"/>
@@ -2783,7 +2794,7 @@
       <c r="M80" s="94"/>
       <c r="N80" s="94"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="94"/>
       <c r="B81" s="94"/>
       <c r="C81" s="94"/>
@@ -2799,7 +2810,7 @@
       <c r="M81" s="94"/>
       <c r="N81" s="94"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="94"/>
       <c r="B82" s="94"/>
       <c r="C82" s="94"/>
@@ -2815,7 +2826,7 @@
       <c r="M82" s="94"/>
       <c r="N82" s="94"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="94"/>
       <c r="B83" s="94"/>
       <c r="C83" s="94"/>
@@ -2831,7 +2842,7 @@
       <c r="M83" s="94"/>
       <c r="N83" s="94"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="94"/>
       <c r="B84" s="94"/>
       <c r="C84" s="94"/>
@@ -2847,7 +2858,7 @@
       <c r="M84" s="94"/>
       <c r="N84" s="94"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="94"/>
       <c r="B85" s="94"/>
       <c r="C85" s="94"/>
@@ -2863,7 +2874,7 @@
       <c r="M85" s="94"/>
       <c r="N85" s="94"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="94"/>
       <c r="B86" s="94"/>
       <c r="C86" s="94"/>
@@ -2879,7 +2890,7 @@
       <c r="M86" s="94"/>
       <c r="N86" s="94"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="94"/>
       <c r="B87" s="94"/>
       <c r="C87" s="94"/>
@@ -2895,7 +2906,7 @@
       <c r="M87" s="94"/>
       <c r="N87" s="94"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="94"/>
       <c r="B88" s="94"/>
       <c r="C88" s="94"/>
@@ -2911,7 +2922,7 @@
       <c r="M88" s="94"/>
       <c r="N88" s="94"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="94"/>
       <c r="B89" s="94"/>
       <c r="C89" s="94"/>
@@ -2927,7 +2938,7 @@
       <c r="M89" s="94"/>
       <c r="N89" s="94"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="94"/>
       <c r="B90" s="94"/>
       <c r="C90" s="94"/>
@@ -2943,7 +2954,7 @@
       <c r="M90" s="94"/>
       <c r="N90" s="94"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="94"/>
       <c r="B91" s="94"/>
       <c r="C91" s="94"/>
@@ -2959,7 +2970,7 @@
       <c r="M91" s="94"/>
       <c r="N91" s="94"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="94"/>
       <c r="B92" s="94"/>
       <c r="C92" s="94"/>
@@ -2975,7 +2986,7 @@
       <c r="M92" s="94"/>
       <c r="N92" s="94"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="94"/>
       <c r="B93" s="94"/>
       <c r="C93" s="94"/>
@@ -2991,7 +3002,7 @@
       <c r="M93" s="94"/>
       <c r="N93" s="94"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="94"/>
       <c r="B94" s="94"/>
       <c r="C94" s="94"/>
@@ -3007,7 +3018,7 @@
       <c r="M94" s="94"/>
       <c r="N94" s="94"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="94"/>
       <c r="B95" s="94"/>
       <c r="C95" s="94"/>
@@ -3023,7 +3034,7 @@
       <c r="M95" s="94"/>
       <c r="N95" s="94"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="94"/>
       <c r="B96" s="94"/>
       <c r="C96" s="94"/>
@@ -3039,7 +3050,7 @@
       <c r="M96" s="94"/>
       <c r="N96" s="94"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="94"/>
       <c r="B97" s="94"/>
       <c r="C97" s="94"/>
@@ -3055,7 +3066,7 @@
       <c r="M97" s="94"/>
       <c r="N97" s="94"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="94"/>
       <c r="B98" s="94"/>
       <c r="C98" s="94"/>
@@ -3071,7 +3082,7 @@
       <c r="M98" s="94"/>
       <c r="N98" s="94"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="94"/>
       <c r="B99" s="94"/>
       <c r="C99" s="94"/>
@@ -3087,7 +3098,7 @@
       <c r="M99" s="94"/>
       <c r="N99" s="94"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="94"/>
       <c r="B100" s="94"/>
       <c r="C100" s="94"/>
@@ -3103,7 +3114,7 @@
       <c r="M100" s="94"/>
       <c r="N100" s="94"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="94"/>
       <c r="B101" s="94"/>
       <c r="C101" s="94"/>
@@ -3119,7 +3130,7 @@
       <c r="M101" s="94"/>
       <c r="N101" s="94"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="94"/>
       <c r="B102" s="94"/>
       <c r="C102" s="94"/>
@@ -3135,7 +3146,7 @@
       <c r="M102" s="94"/>
       <c r="N102" s="94"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="94"/>
       <c r="B103" s="94"/>
       <c r="C103" s="94"/>
@@ -3151,7 +3162,7 @@
       <c r="M103" s="94"/>
       <c r="N103" s="94"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="94"/>
       <c r="B104" s="94"/>
       <c r="C104" s="94"/>
@@ -3167,7 +3178,7 @@
       <c r="M104" s="94"/>
       <c r="N104" s="94"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="94"/>
       <c r="B105" s="94"/>
       <c r="C105" s="94"/>
@@ -3183,7 +3194,7 @@
       <c r="M105" s="94"/>
       <c r="N105" s="94"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="94"/>
       <c r="B106" s="94"/>
       <c r="C106" s="94"/>
@@ -3199,7 +3210,7 @@
       <c r="M106" s="94"/>
       <c r="N106" s="94"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="94"/>
       <c r="B107" s="94"/>
       <c r="C107" s="94"/>
@@ -3215,7 +3226,7 @@
       <c r="M107" s="94"/>
       <c r="N107" s="94"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="94"/>
       <c r="B108" s="94"/>
       <c r="C108" s="94"/>
@@ -3231,7 +3242,7 @@
       <c r="M108" s="94"/>
       <c r="N108" s="94"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="94"/>
       <c r="B109" s="94"/>
       <c r="C109" s="94"/>
@@ -3247,7 +3258,7 @@
       <c r="M109" s="94"/>
       <c r="N109" s="94"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="94"/>
       <c r="B110" s="94"/>
       <c r="C110" s="94"/>
@@ -3263,7 +3274,7 @@
       <c r="M110" s="94"/>
       <c r="N110" s="94"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="94"/>
       <c r="B111" s="94"/>
       <c r="C111" s="94"/>
@@ -3279,7 +3290,7 @@
       <c r="M111" s="94"/>
       <c r="N111" s="94"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="94"/>
       <c r="B112" s="94"/>
       <c r="C112" s="94"/>
@@ -3295,7 +3306,7 @@
       <c r="M112" s="94"/>
       <c r="N112" s="94"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="94"/>
       <c r="B113" s="94"/>
       <c r="C113" s="94"/>
@@ -3311,7 +3322,7 @@
       <c r="M113" s="94"/>
       <c r="N113" s="94"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="94"/>
       <c r="B114" s="94"/>
       <c r="C114" s="94"/>
@@ -3327,7 +3338,7 @@
       <c r="M114" s="94"/>
       <c r="N114" s="94"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="94"/>
       <c r="B115" s="94"/>
       <c r="C115" s="94"/>
@@ -3343,7 +3354,7 @@
       <c r="M115" s="94"/>
       <c r="N115" s="94"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="94"/>
       <c r="B116" s="94"/>
       <c r="C116" s="94"/>
@@ -3359,7 +3370,7 @@
       <c r="M116" s="94"/>
       <c r="N116" s="94"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="94"/>
       <c r="B117" s="94"/>
       <c r="C117" s="94"/>
@@ -3375,7 +3386,7 @@
       <c r="M117" s="94"/>
       <c r="N117" s="94"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="94"/>
       <c r="B118" s="94"/>
       <c r="C118" s="94"/>
@@ -3391,7 +3402,7 @@
       <c r="M118" s="94"/>
       <c r="N118" s="94"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="94"/>
       <c r="B119" s="94"/>
       <c r="C119" s="94"/>
@@ -3407,7 +3418,7 @@
       <c r="M119" s="94"/>
       <c r="N119" s="94"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="94"/>
       <c r="B120" s="94"/>
       <c r="C120" s="94"/>
@@ -3423,7 +3434,7 @@
       <c r="M120" s="94"/>
       <c r="N120" s="94"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="94"/>
       <c r="B121" s="94"/>
       <c r="C121" s="94"/>
@@ -3439,7 +3450,7 @@
       <c r="M121" s="94"/>
       <c r="N121" s="94"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="94"/>
       <c r="B122" s="94"/>
       <c r="C122" s="94"/>
@@ -3455,7 +3466,7 @@
       <c r="M122" s="94"/>
       <c r="N122" s="94"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="94"/>
       <c r="B123" s="94"/>
       <c r="C123" s="94"/>
@@ -3471,7 +3482,7 @@
       <c r="M123" s="94"/>
       <c r="N123" s="94"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="94"/>
       <c r="B124" s="94"/>
       <c r="C124" s="94"/>
@@ -3487,7 +3498,7 @@
       <c r="M124" s="94"/>
       <c r="N124" s="94"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="94"/>
       <c r="B125" s="94"/>
       <c r="C125" s="94"/>
@@ -3503,7 +3514,7 @@
       <c r="M125" s="94"/>
       <c r="N125" s="94"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="94"/>
       <c r="B126" s="94"/>
       <c r="C126" s="94"/>
@@ -3519,7 +3530,7 @@
       <c r="M126" s="94"/>
       <c r="N126" s="94"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="94"/>
       <c r="B127" s="94"/>
       <c r="C127" s="94"/>
@@ -3535,7 +3546,7 @@
       <c r="M127" s="94"/>
       <c r="N127" s="94"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="94"/>
       <c r="B128" s="94"/>
       <c r="C128" s="94"/>
@@ -3551,7 +3562,7 @@
       <c r="M128" s="94"/>
       <c r="N128" s="94"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="94"/>
       <c r="B129" s="94"/>
       <c r="C129" s="94"/>
@@ -3567,7 +3578,7 @@
       <c r="M129" s="94"/>
       <c r="N129" s="94"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="94"/>
       <c r="B130" s="94"/>
       <c r="C130" s="94"/>
@@ -3583,7 +3594,7 @@
       <c r="M130" s="94"/>
       <c r="N130" s="94"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="94"/>
       <c r="B131" s="94"/>
       <c r="C131" s="94"/>
@@ -3599,7 +3610,7 @@
       <c r="M131" s="94"/>
       <c r="N131" s="94"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="94"/>
       <c r="B132" s="94"/>
       <c r="C132" s="94"/>
@@ -3615,7 +3626,7 @@
       <c r="M132" s="94"/>
       <c r="N132" s="94"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="94"/>
       <c r="B133" s="94"/>
       <c r="C133" s="94"/>
@@ -3631,7 +3642,7 @@
       <c r="M133" s="94"/>
       <c r="N133" s="94"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="94"/>
       <c r="B134" s="94"/>
       <c r="C134" s="94"/>
@@ -3647,7 +3658,7 @@
       <c r="M134" s="94"/>
       <c r="N134" s="94"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="94"/>
       <c r="B135" s="94"/>
       <c r="C135" s="94"/>
@@ -3663,7 +3674,7 @@
       <c r="M135" s="94"/>
       <c r="N135" s="94"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="94"/>
       <c r="B136" s="94"/>
       <c r="C136" s="94"/>
@@ -3679,7 +3690,7 @@
       <c r="M136" s="94"/>
       <c r="N136" s="94"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="94"/>
       <c r="B137" s="94"/>
       <c r="C137" s="94"/>
@@ -3695,7 +3706,7 @@
       <c r="M137" s="94"/>
       <c r="N137" s="94"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="94"/>
       <c r="B138" s="94"/>
       <c r="C138" s="94"/>
@@ -3711,7 +3722,7 @@
       <c r="M138" s="94"/>
       <c r="N138" s="94"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="94"/>
       <c r="B139" s="94"/>
       <c r="C139" s="94"/>
@@ -3727,7 +3738,7 @@
       <c r="M139" s="94"/>
       <c r="N139" s="94"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="94"/>
       <c r="B140" s="94"/>
       <c r="C140" s="94"/>
@@ -3743,7 +3754,7 @@
       <c r="M140" s="94"/>
       <c r="N140" s="94"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="94"/>
       <c r="B141" s="94"/>
       <c r="C141" s="94"/>
@@ -3759,7 +3770,7 @@
       <c r="M141" s="94"/>
       <c r="N141" s="94"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="94"/>
       <c r="B142" s="94"/>
       <c r="C142" s="94"/>
@@ -3775,7 +3786,7 @@
       <c r="M142" s="94"/>
       <c r="N142" s="94"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="94"/>
       <c r="B143" s="94"/>
       <c r="C143" s="94"/>
@@ -3791,7 +3802,7 @@
       <c r="M143" s="94"/>
       <c r="N143" s="94"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="94"/>
       <c r="B144" s="94"/>
       <c r="C144" s="94"/>
@@ -3807,7 +3818,7 @@
       <c r="M144" s="94"/>
       <c r="N144" s="94"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="94"/>
       <c r="B145" s="94"/>
       <c r="C145" s="94"/>
@@ -3823,7 +3834,7 @@
       <c r="M145" s="94"/>
       <c r="N145" s="94"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="94"/>
       <c r="B146" s="94"/>
       <c r="C146" s="94"/>
@@ -3839,7 +3850,7 @@
       <c r="M146" s="94"/>
       <c r="N146" s="94"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="94"/>
       <c r="B147" s="94"/>
       <c r="C147" s="94"/>
@@ -3855,7 +3866,7 @@
       <c r="M147" s="94"/>
       <c r="N147" s="94"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="94"/>
       <c r="B148" s="94"/>
       <c r="C148" s="94"/>
@@ -3871,7 +3882,7 @@
       <c r="M148" s="94"/>
       <c r="N148" s="94"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="94"/>
       <c r="B149" s="94"/>
       <c r="C149" s="94"/>
@@ -3887,7 +3898,7 @@
       <c r="M149" s="94"/>
       <c r="N149" s="94"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="94"/>
       <c r="B150" s="94"/>
       <c r="C150" s="94"/>
@@ -3903,7 +3914,7 @@
       <c r="M150" s="94"/>
       <c r="N150" s="94"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="94"/>
       <c r="B151" s="94"/>
       <c r="C151" s="94"/>
@@ -3919,7 +3930,7 @@
       <c r="M151" s="94"/>
       <c r="N151" s="94"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="94"/>
       <c r="B152" s="94"/>
       <c r="C152" s="94"/>
@@ -3935,7 +3946,7 @@
       <c r="M152" s="94"/>
       <c r="N152" s="94"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="94"/>
       <c r="B153" s="94"/>
       <c r="C153" s="94"/>
@@ -3951,7 +3962,7 @@
       <c r="M153" s="94"/>
       <c r="N153" s="94"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="94"/>
       <c r="B154" s="94"/>
       <c r="C154" s="94"/>
@@ -3967,7 +3978,7 @@
       <c r="M154" s="94"/>
       <c r="N154" s="94"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="94"/>
       <c r="B155" s="94"/>
       <c r="C155" s="94"/>
@@ -3983,7 +3994,7 @@
       <c r="M155" s="94"/>
       <c r="N155" s="94"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="94"/>
       <c r="B156" s="94"/>
       <c r="C156" s="94"/>
@@ -3999,7 +4010,7 @@
       <c r="M156" s="94"/>
       <c r="N156" s="94"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="94"/>
       <c r="B157" s="94"/>
       <c r="C157" s="94"/>
@@ -4015,7 +4026,7 @@
       <c r="M157" s="94"/>
       <c r="N157" s="94"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="94"/>
       <c r="B158" s="94"/>
       <c r="C158" s="94"/>
@@ -4031,7 +4042,7 @@
       <c r="M158" s="94"/>
       <c r="N158" s="94"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="94"/>
       <c r="B159" s="94"/>
       <c r="C159" s="94"/>
@@ -4047,7 +4058,7 @@
       <c r="M159" s="94"/>
       <c r="N159" s="94"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="94"/>
       <c r="B160" s="94"/>
       <c r="C160" s="94"/>
@@ -4063,7 +4074,7 @@
       <c r="M160" s="94"/>
       <c r="N160" s="94"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="94"/>
       <c r="B161" s="94"/>
       <c r="C161" s="94"/>
@@ -4079,7 +4090,7 @@
       <c r="M161" s="94"/>
       <c r="N161" s="94"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="94"/>
       <c r="B162" s="94"/>
       <c r="C162" s="94"/>
@@ -4095,7 +4106,7 @@
       <c r="M162" s="94"/>
       <c r="N162" s="94"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="94"/>
       <c r="B163" s="94"/>
       <c r="C163" s="94"/>
@@ -4111,7 +4122,7 @@
       <c r="M163" s="94"/>
       <c r="N163" s="94"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="94"/>
       <c r="B164" s="94"/>
       <c r="C164" s="94"/>
@@ -4127,7 +4138,7 @@
       <c r="M164" s="94"/>
       <c r="N164" s="94"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="94"/>
       <c r="B165" s="94"/>
       <c r="C165" s="94"/>
@@ -4143,7 +4154,7 @@
       <c r="M165" s="94"/>
       <c r="N165" s="94"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="94"/>
       <c r="B166" s="94"/>
       <c r="C166" s="94"/>
@@ -4159,7 +4170,7 @@
       <c r="M166" s="94"/>
       <c r="N166" s="94"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="94"/>
       <c r="B167" s="94"/>
       <c r="C167" s="94"/>
@@ -4175,7 +4186,7 @@
       <c r="M167" s="94"/>
       <c r="N167" s="94"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="94"/>
       <c r="B168" s="94"/>
       <c r="C168" s="94"/>
@@ -4191,7 +4202,7 @@
       <c r="M168" s="94"/>
       <c r="N168" s="94"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="94"/>
       <c r="B169" s="94"/>
       <c r="C169" s="94"/>
@@ -4207,7 +4218,7 @@
       <c r="M169" s="94"/>
       <c r="N169" s="94"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="94"/>
       <c r="B170" s="94"/>
       <c r="C170" s="94"/>
@@ -4223,7 +4234,7 @@
       <c r="M170" s="94"/>
       <c r="N170" s="94"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="94"/>
       <c r="B171" s="94"/>
       <c r="C171" s="94"/>
@@ -4239,7 +4250,7 @@
       <c r="M171" s="94"/>
       <c r="N171" s="94"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="94"/>
       <c r="B172" s="94"/>
       <c r="C172" s="94"/>
@@ -4255,7 +4266,7 @@
       <c r="M172" s="94"/>
       <c r="N172" s="94"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="94"/>
       <c r="B173" s="94"/>
       <c r="C173" s="94"/>
@@ -4271,7 +4282,7 @@
       <c r="M173" s="94"/>
       <c r="N173" s="94"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="94"/>
       <c r="B174" s="94"/>
       <c r="C174" s="94"/>
@@ -4287,7 +4298,7 @@
       <c r="M174" s="94"/>
       <c r="N174" s="94"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="94"/>
       <c r="B175" s="94"/>
       <c r="C175" s="94"/>
@@ -4303,7 +4314,7 @@
       <c r="M175" s="94"/>
       <c r="N175" s="94"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="94"/>
       <c r="B176" s="94"/>
       <c r="C176" s="94"/>
@@ -4319,7 +4330,7 @@
       <c r="M176" s="94"/>
       <c r="N176" s="94"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="94"/>
       <c r="B177" s="94"/>
       <c r="C177" s="94"/>
@@ -4335,7 +4346,7 @@
       <c r="M177" s="94"/>
       <c r="N177" s="94"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="94"/>
       <c r="B178" s="94"/>
       <c r="C178" s="94"/>
@@ -4351,7 +4362,7 @@
       <c r="M178" s="94"/>
       <c r="N178" s="94"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="94"/>
       <c r="B179" s="94"/>
       <c r="C179" s="94"/>
@@ -4367,7 +4378,7 @@
       <c r="M179" s="94"/>
       <c r="N179" s="94"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="94"/>
       <c r="B180" s="94"/>
       <c r="C180" s="94"/>
@@ -4383,7 +4394,7 @@
       <c r="M180" s="94"/>
       <c r="N180" s="94"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="94"/>
       <c r="B181" s="94"/>
       <c r="C181" s="94"/>
@@ -4399,7 +4410,7 @@
       <c r="M181" s="94"/>
       <c r="N181" s="94"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="94"/>
       <c r="B182" s="94"/>
       <c r="C182" s="94"/>
@@ -4415,7 +4426,7 @@
       <c r="M182" s="94"/>
       <c r="N182" s="94"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="94"/>
       <c r="B183" s="94"/>
       <c r="C183" s="94"/>
@@ -4431,7 +4442,7 @@
       <c r="M183" s="94"/>
       <c r="N183" s="94"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="94"/>
       <c r="B184" s="94"/>
       <c r="C184" s="94"/>
@@ -4447,7 +4458,7 @@
       <c r="M184" s="94"/>
       <c r="N184" s="94"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="94"/>
       <c r="B185" s="94"/>
       <c r="C185" s="94"/>
@@ -4463,7 +4474,7 @@
       <c r="M185" s="94"/>
       <c r="N185" s="94"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="94"/>
       <c r="B186" s="94"/>
       <c r="C186" s="94"/>
@@ -4479,7 +4490,7 @@
       <c r="M186" s="94"/>
       <c r="N186" s="94"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="94"/>
       <c r="B187" s="94"/>
       <c r="C187" s="94"/>
@@ -4495,7 +4506,7 @@
       <c r="M187" s="94"/>
       <c r="N187" s="94"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="94"/>
       <c r="B188" s="94"/>
       <c r="C188" s="94"/>
@@ -4511,7 +4522,7 @@
       <c r="M188" s="94"/>
       <c r="N188" s="94"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="94"/>
       <c r="B189" s="94"/>
       <c r="C189" s="94"/>
@@ -4527,7 +4538,7 @@
       <c r="M189" s="94"/>
       <c r="N189" s="94"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="94"/>
       <c r="B190" s="94"/>
       <c r="C190" s="94"/>
@@ -4543,7 +4554,7 @@
       <c r="M190" s="94"/>
       <c r="N190" s="94"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="94"/>
       <c r="B191" s="94"/>
       <c r="C191" s="94"/>
@@ -4559,7 +4570,7 @@
       <c r="M191" s="94"/>
       <c r="N191" s="94"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="94"/>
       <c r="B192" s="94"/>
       <c r="C192" s="94"/>
@@ -4575,7 +4586,7 @@
       <c r="M192" s="94"/>
       <c r="N192" s="94"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="94"/>
       <c r="B193" s="94"/>
       <c r="C193" s="94"/>
@@ -4591,7 +4602,7 @@
       <c r="M193" s="94"/>
       <c r="N193" s="94"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="94"/>
       <c r="B194" s="94"/>
       <c r="C194" s="94"/>
@@ -4607,7 +4618,7 @@
       <c r="M194" s="94"/>
       <c r="N194" s="94"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="94"/>
       <c r="B195" s="94"/>
       <c r="C195" s="94"/>
@@ -4623,7 +4634,7 @@
       <c r="M195" s="94"/>
       <c r="N195" s="94"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="94"/>
       <c r="B196" s="94"/>
       <c r="C196" s="94"/>
@@ -4639,7 +4650,7 @@
       <c r="M196" s="94"/>
       <c r="N196" s="94"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="94"/>
       <c r="B197" s="94"/>
       <c r="C197" s="94"/>
@@ -4655,7 +4666,7 @@
       <c r="M197" s="94"/>
       <c r="N197" s="94"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="94"/>
       <c r="B198" s="94"/>
       <c r="C198" s="94"/>
@@ -4671,7 +4682,7 @@
       <c r="M198" s="94"/>
       <c r="N198" s="94"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="94"/>
       <c r="B199" s="94"/>
       <c r="C199" s="94"/>
@@ -4687,7 +4698,7 @@
       <c r="M199" s="94"/>
       <c r="N199" s="94"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="94"/>
       <c r="B200" s="94"/>
       <c r="C200" s="94"/>
@@ -4703,7 +4714,7 @@
       <c r="M200" s="94"/>
       <c r="N200" s="94"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="94"/>
       <c r="B201" s="94"/>
       <c r="C201" s="94"/>
@@ -4719,7 +4730,7 @@
       <c r="M201" s="94"/>
       <c r="N201" s="94"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="94"/>
       <c r="B202" s="94"/>
       <c r="C202" s="94"/>
@@ -4735,7 +4746,7 @@
       <c r="M202" s="94"/>
       <c r="N202" s="94"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="94"/>
       <c r="B203" s="94"/>
       <c r="C203" s="94"/>
@@ -4751,7 +4762,7 @@
       <c r="M203" s="94"/>
       <c r="N203" s="94"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="94"/>
       <c r="B204" s="94"/>
       <c r="C204" s="94"/>
@@ -4767,7 +4778,7 @@
       <c r="M204" s="94"/>
       <c r="N204" s="94"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="94"/>
       <c r="B205" s="94"/>
       <c r="C205" s="94"/>
@@ -4783,7 +4794,7 @@
       <c r="M205" s="94"/>
       <c r="N205" s="94"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="94"/>
       <c r="B206" s="94"/>
       <c r="C206" s="94"/>
@@ -4799,7 +4810,7 @@
       <c r="M206" s="94"/>
       <c r="N206" s="94"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="94"/>
       <c r="B207" s="94"/>
       <c r="C207" s="94"/>
@@ -4815,7 +4826,7 @@
       <c r="M207" s="94"/>
       <c r="N207" s="94"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="94"/>
       <c r="B208" s="94"/>
       <c r="C208" s="94"/>
@@ -4831,7 +4842,7 @@
       <c r="M208" s="94"/>
       <c r="N208" s="94"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="94"/>
       <c r="B209" s="94"/>
       <c r="C209" s="94"/>
@@ -4847,7 +4858,7 @@
       <c r="M209" s="94"/>
       <c r="N209" s="94"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="94"/>
       <c r="B210" s="94"/>
       <c r="C210" s="94"/>
@@ -4863,7 +4874,7 @@
       <c r="M210" s="94"/>
       <c r="N210" s="94"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="94"/>
       <c r="B211" s="94"/>
       <c r="C211" s="94"/>
@@ -4879,7 +4890,7 @@
       <c r="M211" s="94"/>
       <c r="N211" s="94"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="94"/>
       <c r="B212" s="94"/>
       <c r="C212" s="94"/>
@@ -4895,7 +4906,7 @@
       <c r="M212" s="94"/>
       <c r="N212" s="94"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="94"/>
       <c r="B213" s="94"/>
       <c r="C213" s="94"/>
@@ -4911,7 +4922,7 @@
       <c r="M213" s="94"/>
       <c r="N213" s="94"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="94"/>
       <c r="B214" s="94"/>
       <c r="C214" s="94"/>
@@ -4927,7 +4938,7 @@
       <c r="M214" s="94"/>
       <c r="N214" s="94"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="94"/>
       <c r="B215" s="94"/>
       <c r="C215" s="94"/>
@@ -4943,7 +4954,7 @@
       <c r="M215" s="94"/>
       <c r="N215" s="94"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="94"/>
       <c r="B216" s="94"/>
       <c r="C216" s="94"/>
@@ -4959,7 +4970,7 @@
       <c r="M216" s="94"/>
       <c r="N216" s="94"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="94"/>
       <c r="B217" s="94"/>
       <c r="C217" s="94"/>
@@ -4975,7 +4986,7 @@
       <c r="M217" s="94"/>
       <c r="N217" s="94"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="94"/>
       <c r="B218" s="94"/>
       <c r="C218" s="94"/>
@@ -4991,7 +5002,7 @@
       <c r="M218" s="94"/>
       <c r="N218" s="94"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="94"/>
       <c r="B219" s="94"/>
       <c r="C219" s="94"/>
@@ -5007,7 +5018,7 @@
       <c r="M219" s="94"/>
       <c r="N219" s="94"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="94"/>
       <c r="B220" s="94"/>
       <c r="C220" s="94"/>
@@ -5023,7 +5034,7 @@
       <c r="M220" s="94"/>
       <c r="N220" s="94"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="94"/>
       <c r="B221" s="94"/>
       <c r="C221" s="94"/>
@@ -5039,7 +5050,7 @@
       <c r="M221" s="94"/>
       <c r="N221" s="94"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="94"/>
       <c r="B222" s="94"/>
       <c r="C222" s="94"/>
@@ -5055,7 +5066,7 @@
       <c r="M222" s="94"/>
       <c r="N222" s="94"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="94"/>
       <c r="B223" s="94"/>
       <c r="C223" s="94"/>
@@ -5071,7 +5082,7 @@
       <c r="M223" s="94"/>
       <c r="N223" s="94"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="94"/>
       <c r="B224" s="94"/>
       <c r="C224" s="94"/>
@@ -5087,7 +5098,7 @@
       <c r="M224" s="94"/>
       <c r="N224" s="94"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="94"/>
       <c r="B225" s="94"/>
       <c r="C225" s="94"/>
@@ -5103,7 +5114,7 @@
       <c r="M225" s="94"/>
       <c r="N225" s="94"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="94"/>
       <c r="B226" s="94"/>
       <c r="C226" s="94"/>
@@ -5119,7 +5130,7 @@
       <c r="M226" s="94"/>
       <c r="N226" s="94"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="94"/>
       <c r="B227" s="94"/>
       <c r="C227" s="94"/>
@@ -5135,7 +5146,7 @@
       <c r="M227" s="94"/>
       <c r="N227" s="94"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="94"/>
       <c r="B228" s="94"/>
       <c r="C228" s="94"/>
@@ -5151,7 +5162,7 @@
       <c r="M228" s="94"/>
       <c r="N228" s="94"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="94"/>
       <c r="B229" s="94"/>
       <c r="C229" s="94"/>
@@ -5167,7 +5178,7 @@
       <c r="M229" s="94"/>
       <c r="N229" s="94"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="94"/>
       <c r="B230" s="94"/>
       <c r="C230" s="94"/>
@@ -5183,7 +5194,7 @@
       <c r="M230" s="94"/>
       <c r="N230" s="94"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="94"/>
       <c r="B231" s="94"/>
       <c r="C231" s="94"/>
@@ -5199,7 +5210,7 @@
       <c r="M231" s="94"/>
       <c r="N231" s="94"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="94"/>
       <c r="B232" s="94"/>
       <c r="C232" s="94"/>
@@ -5215,7 +5226,7 @@
       <c r="M232" s="94"/>
       <c r="N232" s="94"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="94"/>
       <c r="B233" s="94"/>
       <c r="C233" s="94"/>
@@ -5231,7 +5242,7 @@
       <c r="M233" s="94"/>
       <c r="N233" s="94"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="94"/>
       <c r="B234" s="94"/>
       <c r="C234" s="94"/>
@@ -5247,7 +5258,7 @@
       <c r="M234" s="94"/>
       <c r="N234" s="94"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="94"/>
       <c r="B235" s="94"/>
       <c r="C235" s="94"/>
@@ -5263,7 +5274,7 @@
       <c r="M235" s="94"/>
       <c r="N235" s="94"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="94"/>
       <c r="B236" s="94"/>
       <c r="C236" s="94"/>
@@ -5279,7 +5290,7 @@
       <c r="M236" s="94"/>
       <c r="N236" s="94"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="94"/>
       <c r="B237" s="94"/>
       <c r="C237" s="94"/>
@@ -5295,7 +5306,7 @@
       <c r="M237" s="94"/>
       <c r="N237" s="94"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="94"/>
       <c r="B238" s="94"/>
       <c r="C238" s="94"/>
@@ -5311,7 +5322,7 @@
       <c r="M238" s="94"/>
       <c r="N238" s="94"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="94"/>
       <c r="B239" s="94"/>
       <c r="C239" s="94"/>
@@ -5327,7 +5338,7 @@
       <c r="M239" s="94"/>
       <c r="N239" s="94"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="94"/>
       <c r="B240" s="94"/>
       <c r="C240" s="94"/>
@@ -5343,7 +5354,7 @@
       <c r="M240" s="94"/>
       <c r="N240" s="94"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="94"/>
       <c r="B241" s="94"/>
       <c r="C241" s="94"/>
@@ -5359,7 +5370,7 @@
       <c r="M241" s="94"/>
       <c r="N241" s="94"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="94"/>
       <c r="B242" s="94"/>
       <c r="C242" s="94"/>
@@ -5375,7 +5386,7 @@
       <c r="M242" s="94"/>
       <c r="N242" s="94"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="94"/>
       <c r="B243" s="94"/>
       <c r="C243" s="94"/>
@@ -5391,7 +5402,7 @@
       <c r="M243" s="94"/>
       <c r="N243" s="94"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="94"/>
       <c r="B244" s="94"/>
       <c r="C244" s="94"/>
@@ -5407,7 +5418,7 @@
       <c r="M244" s="94"/>
       <c r="N244" s="94"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="94"/>
       <c r="B245" s="94"/>
       <c r="C245" s="94"/>
@@ -5423,7 +5434,7 @@
       <c r="M245" s="94"/>
       <c r="N245" s="94"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="94"/>
       <c r="B246" s="94"/>
       <c r="C246" s="94"/>
@@ -5439,7 +5450,7 @@
       <c r="M246" s="94"/>
       <c r="N246" s="94"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="94"/>
       <c r="B247" s="94"/>
       <c r="C247" s="94"/>
@@ -5455,7 +5466,7 @@
       <c r="M247" s="94"/>
       <c r="N247" s="94"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="94"/>
       <c r="B248" s="94"/>
       <c r="C248" s="94"/>
@@ -5471,7 +5482,7 @@
       <c r="M248" s="94"/>
       <c r="N248" s="94"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="94"/>
       <c r="B249" s="94"/>
       <c r="C249" s="94"/>
@@ -5487,7 +5498,7 @@
       <c r="M249" s="94"/>
       <c r="N249" s="94"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="94"/>
       <c r="B250" s="94"/>
       <c r="C250" s="94"/>
@@ -5503,7 +5514,7 @@
       <c r="M250" s="94"/>
       <c r="N250" s="94"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="94"/>
       <c r="B251" s="94"/>
       <c r="C251" s="94"/>
@@ -5519,7 +5530,7 @@
       <c r="M251" s="94"/>
       <c r="N251" s="94"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="94"/>
       <c r="B252" s="94"/>
       <c r="C252" s="94"/>
@@ -5535,7 +5546,7 @@
       <c r="M252" s="94"/>
       <c r="N252" s="94"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="94"/>
       <c r="B253" s="94"/>
       <c r="C253" s="94"/>
@@ -5551,7 +5562,7 @@
       <c r="M253" s="94"/>
       <c r="N253" s="94"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="94"/>
       <c r="B254" s="94"/>
       <c r="C254" s="94"/>
@@ -5567,7 +5578,7 @@
       <c r="M254" s="94"/>
       <c r="N254" s="94"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="94"/>
       <c r="B255" s="94"/>
       <c r="C255" s="94"/>
@@ -5583,7 +5594,7 @@
       <c r="M255" s="94"/>
       <c r="N255" s="94"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="94"/>
       <c r="B256" s="94"/>
       <c r="C256" s="94"/>
@@ -5599,7 +5610,7 @@
       <c r="M256" s="94"/>
       <c r="N256" s="94"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="94"/>
       <c r="B257" s="94"/>
       <c r="C257" s="94"/>
@@ -5615,7 +5626,7 @@
       <c r="M257" s="94"/>
       <c r="N257" s="94"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="94"/>
       <c r="B258" s="94"/>
       <c r="C258" s="94"/>
@@ -5631,7 +5642,7 @@
       <c r="M258" s="94"/>
       <c r="N258" s="94"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="94"/>
       <c r="B259" s="94"/>
       <c r="C259" s="94"/>
@@ -5647,7 +5658,7 @@
       <c r="M259" s="94"/>
       <c r="N259" s="94"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="94"/>
       <c r="B260" s="94"/>
       <c r="C260" s="94"/>
@@ -5663,7 +5674,7 @@
       <c r="M260" s="94"/>
       <c r="N260" s="94"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="94"/>
       <c r="B261" s="94"/>
       <c r="C261" s="94"/>
@@ -5679,7 +5690,7 @@
       <c r="M261" s="94"/>
       <c r="N261" s="94"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="94"/>
       <c r="B262" s="94"/>
       <c r="C262" s="94"/>
@@ -5695,7 +5706,7 @@
       <c r="M262" s="94"/>
       <c r="N262" s="94"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="94"/>
       <c r="B263" s="94"/>
       <c r="C263" s="94"/>
@@ -5711,7 +5722,7 @@
       <c r="M263" s="94"/>
       <c r="N263" s="94"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="94"/>
       <c r="B264" s="94"/>
       <c r="C264" s="94"/>
@@ -5727,7 +5738,7 @@
       <c r="M264" s="94"/>
       <c r="N264" s="94"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="94"/>
       <c r="B265" s="94"/>
       <c r="C265" s="94"/>
@@ -5743,7 +5754,7 @@
       <c r="M265" s="94"/>
       <c r="N265" s="94"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="94"/>
       <c r="B266" s="94"/>
       <c r="C266" s="94"/>
@@ -5759,7 +5770,7 @@
       <c r="M266" s="94"/>
       <c r="N266" s="94"/>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="94"/>
       <c r="B267" s="94"/>
       <c r="C267" s="94"/>
@@ -5775,7 +5786,7 @@
       <c r="M267" s="94"/>
       <c r="N267" s="94"/>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="94"/>
       <c r="B268" s="94"/>
       <c r="C268" s="94"/>
@@ -5791,7 +5802,7 @@
       <c r="M268" s="94"/>
       <c r="N268" s="94"/>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="94"/>
       <c r="B269" s="94"/>
       <c r="C269" s="94"/>
@@ -5807,7 +5818,7 @@
       <c r="M269" s="94"/>
       <c r="N269" s="94"/>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="94"/>
       <c r="B270" s="94"/>
       <c r="C270" s="94"/>
@@ -5823,7 +5834,7 @@
       <c r="M270" s="94"/>
       <c r="N270" s="94"/>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="94"/>
       <c r="B271" s="94"/>
       <c r="C271" s="94"/>
@@ -5839,7 +5850,7 @@
       <c r="M271" s="94"/>
       <c r="N271" s="94"/>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="94"/>
       <c r="B272" s="94"/>
       <c r="C272" s="94"/>
@@ -5855,7 +5866,7 @@
       <c r="M272" s="94"/>
       <c r="N272" s="94"/>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="94"/>
       <c r="B273" s="94"/>
       <c r="C273" s="94"/>
@@ -5871,7 +5882,7 @@
       <c r="M273" s="94"/>
       <c r="N273" s="94"/>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="94"/>
       <c r="B274" s="94"/>
       <c r="C274" s="94"/>
@@ -5887,7 +5898,7 @@
       <c r="M274" s="94"/>
       <c r="N274" s="94"/>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="94"/>
       <c r="B275" s="94"/>
       <c r="C275" s="94"/>
@@ -5903,7 +5914,7 @@
       <c r="M275" s="94"/>
       <c r="N275" s="94"/>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="94"/>
       <c r="B276" s="94"/>
       <c r="C276" s="94"/>
@@ -5919,7 +5930,7 @@
       <c r="M276" s="94"/>
       <c r="N276" s="94"/>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="94"/>
       <c r="B277" s="94"/>
       <c r="C277" s="94"/>
@@ -5935,7 +5946,7 @@
       <c r="M277" s="94"/>
       <c r="N277" s="94"/>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="94"/>
       <c r="B278" s="94"/>
       <c r="C278" s="94"/>
@@ -5951,7 +5962,7 @@
       <c r="M278" s="94"/>
       <c r="N278" s="94"/>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="94"/>
       <c r="B279" s="94"/>
       <c r="C279" s="94"/>
@@ -5967,7 +5978,7 @@
       <c r="M279" s="94"/>
       <c r="N279" s="94"/>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="94"/>
       <c r="B280" s="94"/>
       <c r="C280" s="94"/>
@@ -5983,7 +5994,7 @@
       <c r="M280" s="94"/>
       <c r="N280" s="94"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="94"/>
       <c r="B281" s="94"/>
       <c r="C281" s="94"/>
@@ -5999,7 +6010,7 @@
       <c r="M281" s="94"/>
       <c r="N281" s="94"/>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="94"/>
       <c r="B282" s="94"/>
       <c r="C282" s="94"/>
@@ -6015,7 +6026,7 @@
       <c r="M282" s="94"/>
       <c r="N282" s="94"/>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="94"/>
       <c r="B283" s="94"/>
       <c r="C283" s="94"/>
@@ -6031,7 +6042,7 @@
       <c r="M283" s="94"/>
       <c r="N283" s="94"/>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="94"/>
       <c r="B284" s="94"/>
       <c r="C284" s="94"/>
@@ -6047,7 +6058,7 @@
       <c r="M284" s="94"/>
       <c r="N284" s="94"/>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="94"/>
       <c r="B285" s="94"/>
       <c r="C285" s="94"/>
@@ -6063,7 +6074,7 @@
       <c r="M285" s="94"/>
       <c r="N285" s="94"/>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="94"/>
       <c r="B286" s="94"/>
       <c r="C286" s="94"/>
@@ -6079,7 +6090,7 @@
       <c r="M286" s="94"/>
       <c r="N286" s="94"/>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="94"/>
       <c r="B287" s="94"/>
       <c r="C287" s="94"/>
@@ -6095,7 +6106,7 @@
       <c r="M287" s="94"/>
       <c r="N287" s="94"/>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="94"/>
       <c r="B288" s="94"/>
       <c r="C288" s="94"/>
@@ -6111,7 +6122,7 @@
       <c r="M288" s="94"/>
       <c r="N288" s="94"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="94"/>
       <c r="B289" s="94"/>
       <c r="C289" s="94"/>
@@ -6127,7 +6138,7 @@
       <c r="M289" s="94"/>
       <c r="N289" s="94"/>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="94"/>
       <c r="B290" s="94"/>
       <c r="C290" s="94"/>
@@ -6143,7 +6154,7 @@
       <c r="M290" s="94"/>
       <c r="N290" s="94"/>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="94"/>
       <c r="B291" s="94"/>
       <c r="C291" s="94"/>
@@ -6159,7 +6170,7 @@
       <c r="M291" s="94"/>
       <c r="N291" s="94"/>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="94"/>
       <c r="B292" s="94"/>
       <c r="C292" s="94"/>
@@ -6175,7 +6186,7 @@
       <c r="M292" s="94"/>
       <c r="N292" s="94"/>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="94"/>
       <c r="B293" s="94"/>
       <c r="C293" s="94"/>
@@ -6191,7 +6202,7 @@
       <c r="M293" s="94"/>
       <c r="N293" s="94"/>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="94"/>
       <c r="B294" s="94"/>
       <c r="C294" s="94"/>
@@ -6207,7 +6218,7 @@
       <c r="M294" s="94"/>
       <c r="N294" s="94"/>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="94"/>
       <c r="B295" s="94"/>
       <c r="C295" s="94"/>
@@ -6223,7 +6234,7 @@
       <c r="M295" s="94"/>
       <c r="N295" s="94"/>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="94"/>
       <c r="B296" s="94"/>
       <c r="C296" s="94"/>
@@ -6239,7 +6250,7 @@
       <c r="M296" s="94"/>
       <c r="N296" s="94"/>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="94"/>
       <c r="B297" s="94"/>
       <c r="C297" s="94"/>
@@ -6255,7 +6266,7 @@
       <c r="M297" s="94"/>
       <c r="N297" s="94"/>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="94"/>
       <c r="B298" s="94"/>
       <c r="C298" s="94"/>
@@ -6271,7 +6282,7 @@
       <c r="M298" s="94"/>
       <c r="N298" s="94"/>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="94"/>
       <c r="B299" s="94"/>
       <c r="C299" s="94"/>
@@ -6287,7 +6298,7 @@
       <c r="M299" s="94"/>
       <c r="N299" s="94"/>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="94"/>
       <c r="B300" s="94"/>
       <c r="C300" s="94"/>
@@ -6303,7 +6314,7 @@
       <c r="M300" s="94"/>
       <c r="N300" s="94"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="94"/>
       <c r="B301" s="94"/>
       <c r="C301" s="94"/>
@@ -6319,7 +6330,7 @@
       <c r="M301" s="94"/>
       <c r="N301" s="94"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="94"/>
       <c r="B302" s="94"/>
       <c r="C302" s="94"/>
@@ -6335,7 +6346,7 @@
       <c r="M302" s="94"/>
       <c r="N302" s="94"/>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="94"/>
       <c r="B303" s="94"/>
       <c r="C303" s="94"/>
@@ -6351,7 +6362,7 @@
       <c r="M303" s="94"/>
       <c r="N303" s="94"/>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="94"/>
       <c r="B304" s="94"/>
       <c r="C304" s="94"/>
@@ -6367,7 +6378,7 @@
       <c r="M304" s="94"/>
       <c r="N304" s="94"/>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="94"/>
       <c r="B305" s="94"/>
       <c r="C305" s="94"/>
@@ -6383,7 +6394,7 @@
       <c r="M305" s="94"/>
       <c r="N305" s="94"/>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="94"/>
       <c r="B306" s="94"/>
       <c r="C306" s="94"/>
@@ -6399,7 +6410,7 @@
       <c r="M306" s="94"/>
       <c r="N306" s="94"/>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="94"/>
       <c r="B307" s="94"/>
       <c r="C307" s="94"/>
@@ -6415,7 +6426,7 @@
       <c r="M307" s="94"/>
       <c r="N307" s="94"/>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="94"/>
       <c r="B308" s="94"/>
       <c r="C308" s="94"/>
@@ -6431,7 +6442,7 @@
       <c r="M308" s="94"/>
       <c r="N308" s="94"/>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="94"/>
       <c r="B309" s="94"/>
       <c r="C309" s="94"/>
@@ -6447,7 +6458,7 @@
       <c r="M309" s="94"/>
       <c r="N309" s="94"/>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="94"/>
       <c r="B310" s="94"/>
       <c r="C310" s="94"/>
@@ -6463,7 +6474,7 @@
       <c r="M310" s="94"/>
       <c r="N310" s="94"/>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="94"/>
       <c r="B311" s="94"/>
       <c r="C311" s="94"/>
@@ -6479,7 +6490,7 @@
       <c r="M311" s="94"/>
       <c r="N311" s="94"/>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="94"/>
       <c r="B312" s="94"/>
       <c r="C312" s="94"/>
@@ -6495,7 +6506,7 @@
       <c r="M312" s="94"/>
       <c r="N312" s="94"/>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="94"/>
       <c r="B313" s="94"/>
       <c r="C313" s="94"/>
@@ -6511,7 +6522,7 @@
       <c r="M313" s="94"/>
       <c r="N313" s="94"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="94"/>
       <c r="B314" s="94"/>
       <c r="C314" s="94"/>
@@ -6527,7 +6538,7 @@
       <c r="M314" s="94"/>
       <c r="N314" s="94"/>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="94"/>
       <c r="B315" s="94"/>
       <c r="C315" s="94"/>
@@ -6543,7 +6554,7 @@
       <c r="M315" s="94"/>
       <c r="N315" s="94"/>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="94"/>
       <c r="B316" s="94"/>
       <c r="C316" s="94"/>
@@ -6559,7 +6570,7 @@
       <c r="M316" s="94"/>
       <c r="N316" s="94"/>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="94"/>
       <c r="B317" s="94"/>
       <c r="C317" s="94"/>
@@ -6575,7 +6586,7 @@
       <c r="M317" s="94"/>
       <c r="N317" s="94"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="94"/>
       <c r="B318" s="94"/>
       <c r="C318" s="94"/>
@@ -6591,7 +6602,7 @@
       <c r="M318" s="94"/>
       <c r="N318" s="94"/>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="94"/>
       <c r="B319" s="94"/>
       <c r="C319" s="94"/>
@@ -6607,7 +6618,7 @@
       <c r="M319" s="94"/>
       <c r="N319" s="94"/>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="94"/>
       <c r="B320" s="94"/>
       <c r="C320" s="94"/>
@@ -6623,7 +6634,7 @@
       <c r="M320" s="94"/>
       <c r="N320" s="94"/>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="94"/>
       <c r="B321" s="94"/>
       <c r="C321" s="94"/>
@@ -6639,7 +6650,7 @@
       <c r="M321" s="94"/>
       <c r="N321" s="94"/>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="94"/>
       <c r="B322" s="94"/>
       <c r="C322" s="94"/>
@@ -6655,7 +6666,7 @@
       <c r="M322" s="94"/>
       <c r="N322" s="94"/>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="94"/>
       <c r="B323" s="94"/>
       <c r="C323" s="94"/>
@@ -6671,7 +6682,7 @@
       <c r="M323" s="94"/>
       <c r="N323" s="94"/>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="94"/>
       <c r="B324" s="94"/>
       <c r="C324" s="94"/>
@@ -6687,7 +6698,7 @@
       <c r="M324" s="94"/>
       <c r="N324" s="94"/>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="94"/>
       <c r="B325" s="94"/>
       <c r="C325" s="94"/>
@@ -6703,7 +6714,7 @@
       <c r="M325" s="94"/>
       <c r="N325" s="94"/>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="94"/>
       <c r="B326" s="94"/>
       <c r="C326" s="94"/>
@@ -6719,7 +6730,7 @@
       <c r="M326" s="94"/>
       <c r="N326" s="94"/>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="94"/>
       <c r="B327" s="94"/>
       <c r="C327" s="94"/>
@@ -6735,7 +6746,7 @@
       <c r="M327" s="94"/>
       <c r="N327" s="94"/>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="94"/>
       <c r="B328" s="94"/>
       <c r="C328" s="94"/>
@@ -6751,7 +6762,7 @@
       <c r="M328" s="94"/>
       <c r="N328" s="94"/>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="94"/>
       <c r="B329" s="94"/>
       <c r="C329" s="94"/>
@@ -6767,7 +6778,7 @@
       <c r="M329" s="94"/>
       <c r="N329" s="94"/>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="94"/>
       <c r="B330" s="94"/>
       <c r="C330" s="94"/>
@@ -6783,7 +6794,7 @@
       <c r="M330" s="94"/>
       <c r="N330" s="94"/>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="95"/>
       <c r="B331" s="95"/>
       <c r="C331" s="95"/>
@@ -6799,7 +6810,7 @@
       <c r="M331" s="95"/>
       <c r="N331" s="95"/>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="95"/>
       <c r="B332" s="95"/>
       <c r="C332" s="95"/>
@@ -6815,7 +6826,7 @@
       <c r="M332" s="95"/>
       <c r="N332" s="95"/>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="95"/>
       <c r="B333" s="95"/>
       <c r="C333" s="95"/>
@@ -6831,7 +6842,7 @@
       <c r="M333" s="95"/>
       <c r="N333" s="95"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="95"/>
       <c r="B334" s="95"/>
       <c r="C334" s="95"/>
@@ -6847,7 +6858,7 @@
       <c r="M334" s="95"/>
       <c r="N334" s="95"/>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="95"/>
       <c r="B335" s="95"/>
       <c r="C335" s="95"/>
@@ -6863,7 +6874,7 @@
       <c r="M335" s="95"/>
       <c r="N335" s="95"/>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="95"/>
       <c r="B336" s="95"/>
       <c r="C336" s="95"/>
@@ -6879,7 +6890,7 @@
       <c r="M336" s="95"/>
       <c r="N336" s="95"/>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="95"/>
       <c r="B337" s="95"/>
       <c r="C337" s="95"/>
@@ -6895,7 +6906,7 @@
       <c r="M337" s="95"/>
       <c r="N337" s="95"/>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="95"/>
       <c r="B338" s="95"/>
       <c r="C338" s="95"/>
@@ -6911,7 +6922,7 @@
       <c r="M338" s="95"/>
       <c r="N338" s="95"/>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="95"/>
       <c r="B339" s="95"/>
       <c r="C339" s="95"/>
@@ -6927,7 +6938,7 @@
       <c r="M339" s="95"/>
       <c r="N339" s="95"/>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="95"/>
       <c r="B340" s="95"/>
       <c r="C340" s="95"/>
@@ -6943,7 +6954,7 @@
       <c r="M340" s="95"/>
       <c r="N340" s="95"/>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="95"/>
       <c r="B341" s="95"/>
       <c r="C341" s="95"/>
@@ -6959,7 +6970,7 @@
       <c r="M341" s="95"/>
       <c r="N341" s="95"/>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="95"/>
       <c r="B342" s="95"/>
       <c r="C342" s="95"/>
@@ -6975,7 +6986,7 @@
       <c r="M342" s="95"/>
       <c r="N342" s="95"/>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="95"/>
       <c r="B343" s="95"/>
       <c r="C343" s="95"/>
@@ -6991,7 +7002,7 @@
       <c r="M343" s="95"/>
       <c r="N343" s="95"/>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="95"/>
       <c r="B344" s="95"/>
       <c r="C344" s="95"/>
@@ -7007,7 +7018,7 @@
       <c r="M344" s="95"/>
       <c r="N344" s="95"/>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="95"/>
       <c r="B345" s="95"/>
       <c r="C345" s="95"/>
@@ -7023,7 +7034,7 @@
       <c r="M345" s="95"/>
       <c r="N345" s="95"/>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="95"/>
       <c r="B346" s="95"/>
       <c r="C346" s="95"/>
@@ -7039,7 +7050,7 @@
       <c r="M346" s="95"/>
       <c r="N346" s="95"/>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="95"/>
       <c r="B347" s="95"/>
       <c r="C347" s="95"/>
@@ -7055,7 +7066,7 @@
       <c r="M347" s="95"/>
       <c r="N347" s="95"/>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="95"/>
       <c r="B348" s="95"/>
       <c r="C348" s="95"/>
@@ -7071,7 +7082,7 @@
       <c r="M348" s="95"/>
       <c r="N348" s="95"/>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="95"/>
       <c r="B349" s="95"/>
       <c r="C349" s="95"/>
@@ -7087,7 +7098,7 @@
       <c r="M349" s="95"/>
       <c r="N349" s="95"/>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="95"/>
       <c r="B350" s="95"/>
       <c r="C350" s="95"/>
@@ -7103,7 +7114,7 @@
       <c r="M350" s="95"/>
       <c r="N350" s="95"/>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="95"/>
       <c r="B351" s="95"/>
       <c r="C351" s="95"/>
@@ -7119,7 +7130,7 @@
       <c r="M351" s="95"/>
       <c r="N351" s="95"/>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="95"/>
       <c r="B352" s="95"/>
       <c r="C352" s="95"/>
@@ -7135,7 +7146,7 @@
       <c r="M352" s="95"/>
       <c r="N352" s="95"/>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="95"/>
       <c r="B353" s="95"/>
       <c r="C353" s="95"/>
@@ -7151,7 +7162,7 @@
       <c r="M353" s="95"/>
       <c r="N353" s="95"/>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="95"/>
       <c r="B354" s="95"/>
       <c r="C354" s="95"/>
@@ -7167,7 +7178,7 @@
       <c r="M354" s="95"/>
       <c r="N354" s="95"/>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="95"/>
       <c r="B355" s="95"/>
       <c r="C355" s="95"/>
@@ -7183,7 +7194,7 @@
       <c r="M355" s="95"/>
       <c r="N355" s="95"/>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="95"/>
       <c r="B356" s="95"/>
       <c r="C356" s="95"/>
@@ -7199,7 +7210,7 @@
       <c r="M356" s="95"/>
       <c r="N356" s="95"/>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="95"/>
       <c r="B357" s="95"/>
       <c r="C357" s="95"/>
@@ -7215,7 +7226,7 @@
       <c r="M357" s="95"/>
       <c r="N357" s="95"/>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="95"/>
       <c r="B358" s="95"/>
       <c r="C358" s="95"/>
@@ -7231,7 +7242,7 @@
       <c r="M358" s="95"/>
       <c r="N358" s="95"/>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="95"/>
       <c r="B359" s="95"/>
       <c r="C359" s="95"/>
@@ -7247,7 +7258,7 @@
       <c r="M359" s="95"/>
       <c r="N359" s="95"/>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="95"/>
       <c r="B360" s="95"/>
       <c r="C360" s="95"/>
@@ -7263,7 +7274,7 @@
       <c r="M360" s="95"/>
       <c r="N360" s="95"/>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="95"/>
       <c r="B361" s="95"/>
       <c r="C361" s="95"/>
@@ -7279,7 +7290,7 @@
       <c r="M361" s="95"/>
       <c r="N361" s="95"/>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="95"/>
       <c r="B362" s="95"/>
       <c r="C362" s="95"/>
@@ -7295,7 +7306,7 @@
       <c r="M362" s="95"/>
       <c r="N362" s="95"/>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="95"/>
       <c r="B363" s="95"/>
       <c r="C363" s="95"/>
@@ -7311,7 +7322,7 @@
       <c r="M363" s="95"/>
       <c r="N363" s="95"/>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="95"/>
       <c r="B364" s="95"/>
       <c r="C364" s="95"/>
@@ -7327,7 +7338,7 @@
       <c r="M364" s="95"/>
       <c r="N364" s="95"/>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="95"/>
       <c r="B365" s="95"/>
       <c r="C365" s="95"/>
@@ -7343,7 +7354,7 @@
       <c r="M365" s="95"/>
       <c r="N365" s="95"/>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="95"/>
       <c r="B366" s="95"/>
       <c r="C366" s="95"/>
@@ -7359,7 +7370,7 @@
       <c r="M366" s="95"/>
       <c r="N366" s="95"/>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="95"/>
       <c r="B367" s="95"/>
       <c r="C367" s="95"/>
@@ -7375,7 +7386,7 @@
       <c r="M367" s="95"/>
       <c r="N367" s="95"/>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="95"/>
       <c r="B368" s="95"/>
       <c r="C368" s="95"/>
@@ -7391,7 +7402,7 @@
       <c r="M368" s="95"/>
       <c r="N368" s="95"/>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" s="95"/>
       <c r="B369" s="95"/>
       <c r="C369" s="95"/>
@@ -7407,7 +7418,7 @@
       <c r="M369" s="95"/>
       <c r="N369" s="95"/>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" s="95"/>
       <c r="B370" s="95"/>
       <c r="C370" s="95"/>
@@ -7423,7 +7434,7 @@
       <c r="M370" s="95"/>
       <c r="N370" s="95"/>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" s="95"/>
       <c r="B371" s="95"/>
       <c r="C371" s="95"/>
@@ -7439,7 +7450,7 @@
       <c r="M371" s="95"/>
       <c r="N371" s="95"/>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" s="95"/>
       <c r="B372" s="95"/>
       <c r="C372" s="95"/>
@@ -7455,7 +7466,7 @@
       <c r="M372" s="95"/>
       <c r="N372" s="95"/>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" s="95"/>
       <c r="B373" s="95"/>
       <c r="C373" s="95"/>
@@ -7471,7 +7482,7 @@
       <c r="M373" s="95"/>
       <c r="N373" s="95"/>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" s="95"/>
       <c r="B374" s="95"/>
       <c r="C374" s="95"/>
@@ -7487,7 +7498,7 @@
       <c r="M374" s="95"/>
       <c r="N374" s="95"/>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" s="95"/>
       <c r="B375" s="95"/>
       <c r="C375" s="95"/>
@@ -7503,7 +7514,7 @@
       <c r="M375" s="95"/>
       <c r="N375" s="95"/>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" s="95"/>
       <c r="B376" s="95"/>
       <c r="C376" s="95"/>
@@ -7519,7 +7530,7 @@
       <c r="M376" s="95"/>
       <c r="N376" s="95"/>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" s="95"/>
       <c r="B377" s="95"/>
       <c r="C377" s="95"/>
@@ -7535,7 +7546,7 @@
       <c r="M377" s="95"/>
       <c r="N377" s="95"/>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" s="95"/>
       <c r="B378" s="95"/>
       <c r="C378" s="95"/>
@@ -7551,7 +7562,7 @@
       <c r="M378" s="95"/>
       <c r="N378" s="95"/>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" s="95"/>
       <c r="B379" s="95"/>
       <c r="C379" s="95"/>
@@ -7567,7 +7578,7 @@
       <c r="M379" s="95"/>
       <c r="N379" s="95"/>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" s="95"/>
       <c r="B380" s="95"/>
       <c r="C380" s="95"/>
@@ -7583,7 +7594,7 @@
       <c r="M380" s="95"/>
       <c r="N380" s="95"/>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" s="95"/>
       <c r="B381" s="95"/>
       <c r="C381" s="95"/>
@@ -7599,7 +7610,7 @@
       <c r="M381" s="95"/>
       <c r="N381" s="95"/>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" s="95"/>
       <c r="B382" s="95"/>
       <c r="C382" s="95"/>
@@ -7615,7 +7626,7 @@
       <c r="M382" s="95"/>
       <c r="N382" s="95"/>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" s="95"/>
       <c r="B383" s="95"/>
       <c r="C383" s="95"/>
@@ -7631,7 +7642,7 @@
       <c r="M383" s="95"/>
       <c r="N383" s="95"/>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" s="95"/>
       <c r="B384" s="95"/>
       <c r="C384" s="95"/>
@@ -7647,7 +7658,7 @@
       <c r="M384" s="95"/>
       <c r="N384" s="95"/>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" s="95"/>
       <c r="B385" s="95"/>
       <c r="C385" s="95"/>
@@ -7663,7 +7674,7 @@
       <c r="M385" s="95"/>
       <c r="N385" s="95"/>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" s="95"/>
       <c r="B386" s="95"/>
       <c r="C386" s="95"/>
@@ -7679,7 +7690,7 @@
       <c r="M386" s="95"/>
       <c r="N386" s="95"/>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" s="95"/>
       <c r="B387" s="95"/>
       <c r="C387" s="95"/>
@@ -7695,7 +7706,7 @@
       <c r="M387" s="95"/>
       <c r="N387" s="95"/>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" s="95"/>
       <c r="B388" s="95"/>
       <c r="C388" s="95"/>
@@ -7711,7 +7722,7 @@
       <c r="M388" s="95"/>
       <c r="N388" s="95"/>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" s="95"/>
       <c r="B389" s="95"/>
       <c r="C389" s="95"/>
@@ -7727,7 +7738,7 @@
       <c r="M389" s="95"/>
       <c r="N389" s="95"/>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" s="95"/>
       <c r="B390" s="95"/>
       <c r="C390" s="95"/>
@@ -7743,7 +7754,7 @@
       <c r="M390" s="95"/>
       <c r="N390" s="95"/>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" s="95"/>
       <c r="B391" s="95"/>
       <c r="C391" s="95"/>
@@ -7759,7 +7770,7 @@
       <c r="M391" s="95"/>
       <c r="N391" s="95"/>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" s="95"/>
       <c r="B392" s="95"/>
       <c r="C392" s="95"/>
@@ -7775,7 +7786,7 @@
       <c r="M392" s="95"/>
       <c r="N392" s="95"/>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" s="95"/>
       <c r="B393" s="95"/>
       <c r="C393" s="95"/>
@@ -7791,7 +7802,7 @@
       <c r="M393" s="95"/>
       <c r="N393" s="95"/>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" s="95"/>
       <c r="B394" s="95"/>
       <c r="C394" s="95"/>
@@ -7807,7 +7818,7 @@
       <c r="M394" s="95"/>
       <c r="N394" s="95"/>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" s="95"/>
       <c r="B395" s="95"/>
       <c r="C395" s="95"/>
@@ -7823,7 +7834,7 @@
       <c r="M395" s="95"/>
       <c r="N395" s="95"/>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396" s="95"/>
       <c r="B396" s="95"/>
       <c r="C396" s="95"/>
@@ -7839,7 +7850,7 @@
       <c r="M396" s="95"/>
       <c r="N396" s="95"/>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397" s="95"/>
       <c r="B397" s="95"/>
       <c r="C397" s="95"/>
@@ -7855,7 +7866,7 @@
       <c r="M397" s="95"/>
       <c r="N397" s="95"/>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" s="95"/>
       <c r="B398" s="95"/>
       <c r="C398" s="95"/>
@@ -7871,7 +7882,7 @@
       <c r="M398" s="95"/>
       <c r="N398" s="95"/>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" s="95"/>
       <c r="B399" s="95"/>
       <c r="C399" s="95"/>
@@ -7887,7 +7898,7 @@
       <c r="M399" s="95"/>
       <c r="N399" s="95"/>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" s="95"/>
       <c r="B400" s="95"/>
       <c r="C400" s="95"/>
@@ -7903,7 +7914,7 @@
       <c r="M400" s="95"/>
       <c r="N400" s="95"/>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" s="95"/>
       <c r="B401" s="95"/>
       <c r="C401" s="95"/>
@@ -7919,7 +7930,7 @@
       <c r="M401" s="95"/>
       <c r="N401" s="95"/>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" s="95"/>
       <c r="B402" s="95"/>
       <c r="C402" s="95"/>
@@ -7935,7 +7946,7 @@
       <c r="M402" s="95"/>
       <c r="N402" s="95"/>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" s="95"/>
       <c r="B403" s="95"/>
       <c r="C403" s="95"/>
@@ -7951,7 +7962,7 @@
       <c r="M403" s="95"/>
       <c r="N403" s="95"/>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" s="95"/>
       <c r="B404" s="95"/>
       <c r="C404" s="95"/>
@@ -7967,7 +7978,7 @@
       <c r="M404" s="95"/>
       <c r="N404" s="95"/>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" s="95"/>
       <c r="B405" s="95"/>
       <c r="C405" s="95"/>
@@ -7983,7 +7994,7 @@
       <c r="M405" s="95"/>
       <c r="N405" s="95"/>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" s="95"/>
       <c r="B406" s="95"/>
       <c r="C406" s="95"/>
@@ -7999,7 +8010,7 @@
       <c r="M406" s="95"/>
       <c r="N406" s="95"/>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" s="95"/>
       <c r="B407" s="95"/>
       <c r="C407" s="95"/>
@@ -8015,7 +8026,7 @@
       <c r="M407" s="95"/>
       <c r="N407" s="95"/>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" s="95"/>
       <c r="B408" s="95"/>
       <c r="C408" s="95"/>
@@ -8031,7 +8042,7 @@
       <c r="M408" s="95"/>
       <c r="N408" s="95"/>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" s="95"/>
       <c r="B409" s="95"/>
       <c r="C409" s="95"/>
@@ -8047,7 +8058,7 @@
       <c r="M409" s="95"/>
       <c r="N409" s="95"/>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" s="95"/>
       <c r="B410" s="95"/>
       <c r="C410" s="95"/>
@@ -8063,7 +8074,7 @@
       <c r="M410" s="95"/>
       <c r="N410" s="95"/>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" s="95"/>
       <c r="B411" s="95"/>
       <c r="C411" s="95"/>
@@ -8079,7 +8090,7 @@
       <c r="M411" s="95"/>
       <c r="N411" s="95"/>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" s="95"/>
       <c r="B412" s="95"/>
       <c r="C412" s="95"/>
@@ -8095,7 +8106,7 @@
       <c r="M412" s="95"/>
       <c r="N412" s="95"/>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" s="95"/>
       <c r="B413" s="95"/>
       <c r="C413" s="95"/>
@@ -8111,7 +8122,7 @@
       <c r="M413" s="95"/>
       <c r="N413" s="95"/>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" s="95"/>
       <c r="B414" s="95"/>
       <c r="C414" s="95"/>
@@ -8127,7 +8138,7 @@
       <c r="M414" s="95"/>
       <c r="N414" s="95"/>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" s="95"/>
       <c r="B415" s="95"/>
       <c r="C415" s="95"/>
@@ -8143,7 +8154,7 @@
       <c r="M415" s="95"/>
       <c r="N415" s="95"/>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" s="95"/>
       <c r="B416" s="95"/>
       <c r="C416" s="95"/>
@@ -8159,7 +8170,7 @@
       <c r="M416" s="95"/>
       <c r="N416" s="95"/>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" s="95"/>
       <c r="B417" s="95"/>
       <c r="C417" s="95"/>
@@ -8175,7 +8186,7 @@
       <c r="M417" s="95"/>
       <c r="N417" s="95"/>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" s="95"/>
       <c r="B418" s="95"/>
       <c r="C418" s="95"/>
@@ -8191,7 +8202,7 @@
       <c r="M418" s="95"/>
       <c r="N418" s="95"/>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" s="95"/>
       <c r="B419" s="95"/>
       <c r="C419" s="95"/>
@@ -8207,7 +8218,7 @@
       <c r="M419" s="95"/>
       <c r="N419" s="95"/>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" s="95"/>
       <c r="B420" s="95"/>
       <c r="C420" s="95"/>
@@ -8223,7 +8234,7 @@
       <c r="M420" s="95"/>
       <c r="N420" s="95"/>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" s="95"/>
       <c r="B421" s="95"/>
       <c r="C421" s="95"/>
@@ -8239,7 +8250,7 @@
       <c r="M421" s="95"/>
       <c r="N421" s="95"/>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" s="95"/>
       <c r="B422" s="95"/>
       <c r="C422" s="95"/>
@@ -8255,7 +8266,7 @@
       <c r="M422" s="95"/>
       <c r="N422" s="95"/>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" s="95"/>
       <c r="B423" s="95"/>
       <c r="C423" s="95"/>
@@ -8271,7 +8282,7 @@
       <c r="M423" s="95"/>
       <c r="N423" s="95"/>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" s="95"/>
       <c r="B424" s="95"/>
       <c r="C424" s="95"/>
@@ -8287,7 +8298,7 @@
       <c r="M424" s="95"/>
       <c r="N424" s="95"/>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" s="95"/>
       <c r="B425" s="95"/>
       <c r="C425" s="95"/>
@@ -8303,7 +8314,7 @@
       <c r="M425" s="95"/>
       <c r="N425" s="95"/>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" s="95"/>
       <c r="B426" s="95"/>
       <c r="C426" s="95"/>
@@ -8319,7 +8330,7 @@
       <c r="M426" s="95"/>
       <c r="N426" s="95"/>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" s="95"/>
       <c r="B427" s="95"/>
       <c r="C427" s="95"/>
@@ -8335,7 +8346,7 @@
       <c r="M427" s="95"/>
       <c r="N427" s="95"/>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" s="95"/>
       <c r="B428" s="95"/>
       <c r="C428" s="95"/>
@@ -8351,7 +8362,7 @@
       <c r="M428" s="95"/>
       <c r="N428" s="95"/>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" s="95"/>
       <c r="B429" s="95"/>
       <c r="C429" s="95"/>
@@ -8367,7 +8378,7 @@
       <c r="M429" s="95"/>
       <c r="N429" s="95"/>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" s="95"/>
       <c r="B430" s="95"/>
       <c r="C430" s="95"/>
@@ -8383,7 +8394,7 @@
       <c r="M430" s="95"/>
       <c r="N430" s="95"/>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" s="95"/>
       <c r="B431" s="95"/>
       <c r="C431" s="95"/>
@@ -8399,7 +8410,7 @@
       <c r="M431" s="95"/>
       <c r="N431" s="95"/>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" s="95"/>
       <c r="B432" s="95"/>
       <c r="C432" s="95"/>
@@ -8415,7 +8426,7 @@
       <c r="M432" s="95"/>
       <c r="N432" s="95"/>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" s="95"/>
       <c r="B433" s="95"/>
       <c r="C433" s="95"/>
@@ -8431,7 +8442,7 @@
       <c r="M433" s="95"/>
       <c r="N433" s="95"/>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" s="95"/>
       <c r="B434" s="95"/>
       <c r="C434" s="95"/>
@@ -8447,7 +8458,7 @@
       <c r="M434" s="95"/>
       <c r="N434" s="95"/>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" s="95"/>
       <c r="B435" s="95"/>
       <c r="C435" s="95"/>
@@ -8463,7 +8474,7 @@
       <c r="M435" s="95"/>
       <c r="N435" s="95"/>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" s="95"/>
       <c r="B436" s="95"/>
       <c r="C436" s="95"/>
@@ -8479,7 +8490,7 @@
       <c r="M436" s="95"/>
       <c r="N436" s="95"/>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" s="95"/>
       <c r="B437" s="95"/>
       <c r="C437" s="95"/>
@@ -8495,7 +8506,7 @@
       <c r="M437" s="95"/>
       <c r="N437" s="95"/>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" s="95"/>
       <c r="B438" s="95"/>
       <c r="C438" s="95"/>
@@ -8511,7 +8522,7 @@
       <c r="M438" s="95"/>
       <c r="N438" s="95"/>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" s="95"/>
       <c r="B439" s="95"/>
       <c r="C439" s="95"/>
@@ -8527,7 +8538,7 @@
       <c r="M439" s="95"/>
       <c r="N439" s="95"/>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" s="95"/>
       <c r="B440" s="95"/>
       <c r="C440" s="95"/>
@@ -8543,7 +8554,7 @@
       <c r="M440" s="95"/>
       <c r="N440" s="95"/>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" s="95"/>
       <c r="B441" s="95"/>
       <c r="C441" s="95"/>
@@ -8559,7 +8570,7 @@
       <c r="M441" s="95"/>
       <c r="N441" s="95"/>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" s="95"/>
       <c r="B442" s="95"/>
       <c r="C442" s="95"/>
@@ -8575,7 +8586,7 @@
       <c r="M442" s="95"/>
       <c r="N442" s="95"/>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" s="95"/>
       <c r="B443" s="95"/>
       <c r="C443" s="95"/>
@@ -8591,7 +8602,7 @@
       <c r="M443" s="95"/>
       <c r="N443" s="95"/>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" s="95"/>
       <c r="B444" s="95"/>
       <c r="C444" s="95"/>
@@ -8607,7 +8618,7 @@
       <c r="M444" s="95"/>
       <c r="N444" s="95"/>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" s="95"/>
       <c r="B445" s="95"/>
       <c r="C445" s="95"/>
@@ -8623,7 +8634,7 @@
       <c r="M445" s="95"/>
       <c r="N445" s="95"/>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" s="95"/>
       <c r="B446" s="95"/>
       <c r="C446" s="95"/>
@@ -8639,7 +8650,7 @@
       <c r="M446" s="95"/>
       <c r="N446" s="95"/>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" s="95"/>
       <c r="B447" s="95"/>
       <c r="C447" s="95"/>
@@ -8655,7 +8666,7 @@
       <c r="M447" s="95"/>
       <c r="N447" s="95"/>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" s="95"/>
       <c r="B448" s="95"/>
       <c r="C448" s="95"/>
@@ -8671,7 +8682,7 @@
       <c r="M448" s="95"/>
       <c r="N448" s="95"/>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" s="95"/>
       <c r="B449" s="95"/>
       <c r="C449" s="95"/>
@@ -8687,7 +8698,7 @@
       <c r="M449" s="95"/>
       <c r="N449" s="95"/>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" s="95"/>
       <c r="B450" s="95"/>
       <c r="C450" s="95"/>
@@ -8703,7 +8714,7 @@
       <c r="M450" s="95"/>
       <c r="N450" s="95"/>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" s="95"/>
       <c r="B451" s="95"/>
       <c r="C451" s="95"/>
@@ -8719,7 +8730,7 @@
       <c r="M451" s="95"/>
       <c r="N451" s="95"/>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" s="95"/>
       <c r="B452" s="95"/>
       <c r="C452" s="95"/>
@@ -8735,7 +8746,7 @@
       <c r="M452" s="95"/>
       <c r="N452" s="95"/>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" s="95"/>
       <c r="B453" s="95"/>
       <c r="C453" s="95"/>
@@ -8751,7 +8762,7 @@
       <c r="M453" s="95"/>
       <c r="N453" s="95"/>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" s="95"/>
       <c r="B454" s="95"/>
       <c r="C454" s="95"/>
@@ -8767,7 +8778,7 @@
       <c r="M454" s="95"/>
       <c r="N454" s="95"/>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" s="95"/>
       <c r="B455" s="95"/>
       <c r="C455" s="95"/>
@@ -8783,7 +8794,7 @@
       <c r="M455" s="95"/>
       <c r="N455" s="95"/>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" s="95"/>
       <c r="B456" s="95"/>
       <c r="C456" s="95"/>
@@ -8799,7 +8810,7 @@
       <c r="M456" s="95"/>
       <c r="N456" s="95"/>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" s="95"/>
       <c r="B457" s="95"/>
       <c r="C457" s="95"/>
@@ -8815,7 +8826,7 @@
       <c r="M457" s="95"/>
       <c r="N457" s="95"/>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" s="95"/>
       <c r="B458" s="95"/>
       <c r="C458" s="95"/>
@@ -8831,7 +8842,7 @@
       <c r="M458" s="95"/>
       <c r="N458" s="95"/>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" s="95"/>
       <c r="B459" s="95"/>
       <c r="C459" s="95"/>
@@ -8847,7 +8858,7 @@
       <c r="M459" s="95"/>
       <c r="N459" s="95"/>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" s="95"/>
       <c r="B460" s="95"/>
       <c r="C460" s="95"/>
@@ -8863,7 +8874,7 @@
       <c r="M460" s="95"/>
       <c r="N460" s="95"/>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" s="95"/>
       <c r="B461" s="95"/>
       <c r="C461" s="95"/>
@@ -8879,7 +8890,7 @@
       <c r="M461" s="95"/>
       <c r="N461" s="95"/>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" s="95"/>
       <c r="B462" s="95"/>
       <c r="C462" s="95"/>
@@ -8895,7 +8906,7 @@
       <c r="M462" s="95"/>
       <c r="N462" s="95"/>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" s="95"/>
       <c r="B463" s="95"/>
       <c r="C463" s="95"/>
@@ -8911,7 +8922,7 @@
       <c r="M463" s="95"/>
       <c r="N463" s="95"/>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" s="95"/>
       <c r="B464" s="95"/>
       <c r="C464" s="95"/>
@@ -8927,7 +8938,7 @@
       <c r="M464" s="95"/>
       <c r="N464" s="95"/>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" s="95"/>
       <c r="B465" s="95"/>
       <c r="C465" s="95"/>
@@ -8943,7 +8954,7 @@
       <c r="M465" s="95"/>
       <c r="N465" s="95"/>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" s="95"/>
       <c r="B466" s="95"/>
       <c r="C466" s="95"/>
@@ -8959,7 +8970,7 @@
       <c r="M466" s="95"/>
       <c r="N466" s="95"/>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" s="95"/>
       <c r="B467" s="95"/>
       <c r="C467" s="95"/>
@@ -8975,7 +8986,7 @@
       <c r="M467" s="95"/>
       <c r="N467" s="95"/>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" s="95"/>
       <c r="B468" s="95"/>
       <c r="C468" s="95"/>
@@ -8991,7 +9002,7 @@
       <c r="M468" s="95"/>
       <c r="N468" s="95"/>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" s="95"/>
       <c r="B469" s="95"/>
       <c r="C469" s="95"/>
@@ -9007,7 +9018,7 @@
       <c r="M469" s="95"/>
       <c r="N469" s="95"/>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" s="95"/>
       <c r="B470" s="95"/>
       <c r="C470" s="95"/>
@@ -9023,7 +9034,7 @@
       <c r="M470" s="95"/>
       <c r="N470" s="95"/>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" s="95"/>
       <c r="B471" s="95"/>
       <c r="C471" s="95"/>
@@ -9039,7 +9050,7 @@
       <c r="M471" s="95"/>
       <c r="N471" s="95"/>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" s="95"/>
       <c r="B472" s="95"/>
       <c r="C472" s="95"/>
@@ -9055,7 +9066,7 @@
       <c r="M472" s="95"/>
       <c r="N472" s="95"/>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" s="95"/>
       <c r="B473" s="95"/>
       <c r="C473" s="95"/>
@@ -9071,7 +9082,7 @@
       <c r="M473" s="95"/>
       <c r="N473" s="95"/>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" s="95"/>
       <c r="B474" s="95"/>
       <c r="C474" s="95"/>
@@ -9087,7 +9098,7 @@
       <c r="M474" s="95"/>
       <c r="N474" s="95"/>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" s="95"/>
       <c r="B475" s="95"/>
       <c r="C475" s="95"/>
@@ -9103,7 +9114,7 @@
       <c r="M475" s="95"/>
       <c r="N475" s="95"/>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" s="95"/>
       <c r="B476" s="95"/>
       <c r="C476" s="95"/>
@@ -9119,7 +9130,7 @@
       <c r="M476" s="95"/>
       <c r="N476" s="95"/>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" s="95"/>
       <c r="B477" s="95"/>
       <c r="C477" s="95"/>
@@ -9135,7 +9146,7 @@
       <c r="M477" s="95"/>
       <c r="N477" s="95"/>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" s="95"/>
       <c r="B478" s="95"/>
       <c r="C478" s="95"/>
@@ -9151,7 +9162,7 @@
       <c r="M478" s="95"/>
       <c r="N478" s="95"/>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" s="95"/>
       <c r="B479" s="95"/>
       <c r="C479" s="95"/>
@@ -9167,7 +9178,7 @@
       <c r="M479" s="95"/>
       <c r="N479" s="95"/>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" s="95"/>
       <c r="B480" s="95"/>
       <c r="C480" s="95"/>
@@ -9183,7 +9194,7 @@
       <c r="M480" s="95"/>
       <c r="N480" s="95"/>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" s="95"/>
       <c r="B481" s="95"/>
       <c r="C481" s="95"/>
@@ -9199,7 +9210,7 @@
       <c r="M481" s="95"/>
       <c r="N481" s="95"/>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" s="95"/>
       <c r="B482" s="95"/>
       <c r="C482" s="95"/>
@@ -9215,7 +9226,7 @@
       <c r="M482" s="95"/>
       <c r="N482" s="95"/>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" s="95"/>
       <c r="B483" s="95"/>
       <c r="C483" s="95"/>
@@ -9231,7 +9242,7 @@
       <c r="M483" s="95"/>
       <c r="N483" s="95"/>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" s="95"/>
       <c r="B484" s="95"/>
       <c r="C484" s="95"/>
@@ -9247,7 +9258,7 @@
       <c r="M484" s="95"/>
       <c r="N484" s="95"/>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" s="95"/>
       <c r="B485" s="95"/>
       <c r="C485" s="95"/>
@@ -9263,7 +9274,7 @@
       <c r="M485" s="95"/>
       <c r="N485" s="95"/>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" s="95"/>
       <c r="B486" s="95"/>
       <c r="C486" s="95"/>
@@ -9279,7 +9290,7 @@
       <c r="M486" s="95"/>
       <c r="N486" s="95"/>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" s="95"/>
       <c r="B487" s="95"/>
       <c r="C487" s="95"/>
@@ -9295,7 +9306,7 @@
       <c r="M487" s="95"/>
       <c r="N487" s="95"/>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" s="95"/>
       <c r="B488" s="95"/>
       <c r="C488" s="95"/>
@@ -9311,7 +9322,7 @@
       <c r="M488" s="95"/>
       <c r="N488" s="95"/>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" s="95"/>
       <c r="B489" s="95"/>
       <c r="C489" s="95"/>
@@ -9327,7 +9338,7 @@
       <c r="M489" s="95"/>
       <c r="N489" s="95"/>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" s="95"/>
       <c r="B490" s="95"/>
       <c r="C490" s="95"/>
@@ -9343,7 +9354,7 @@
       <c r="M490" s="95"/>
       <c r="N490" s="95"/>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" s="95"/>
       <c r="B491" s="95"/>
       <c r="C491" s="95"/>
@@ -9359,7 +9370,7 @@
       <c r="M491" s="95"/>
       <c r="N491" s="95"/>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" s="95"/>
       <c r="B492" s="95"/>
       <c r="C492" s="95"/>
@@ -9375,7 +9386,7 @@
       <c r="M492" s="95"/>
       <c r="N492" s="95"/>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" s="95"/>
       <c r="B493" s="95"/>
       <c r="C493" s="95"/>
@@ -9391,7 +9402,7 @@
       <c r="M493" s="95"/>
       <c r="N493" s="95"/>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" s="95"/>
       <c r="B494" s="95"/>
       <c r="C494" s="95"/>
@@ -9407,7 +9418,7 @@
       <c r="M494" s="95"/>
       <c r="N494" s="95"/>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" s="95"/>
       <c r="B495" s="95"/>
       <c r="C495" s="95"/>
@@ -9423,7 +9434,7 @@
       <c r="M495" s="95"/>
       <c r="N495" s="95"/>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" s="95"/>
       <c r="B496" s="95"/>
       <c r="C496" s="95"/>
@@ -9439,7 +9450,7 @@
       <c r="M496" s="95"/>
       <c r="N496" s="95"/>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" s="95"/>
       <c r="B497" s="95"/>
       <c r="C497" s="95"/>
@@ -9455,7 +9466,7 @@
       <c r="M497" s="95"/>
       <c r="N497" s="95"/>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" s="95"/>
       <c r="B498" s="95"/>
       <c r="C498" s="95"/>
@@ -9471,7 +9482,7 @@
       <c r="M498" s="95"/>
       <c r="N498" s="95"/>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" s="95"/>
       <c r="B499" s="95"/>
       <c r="C499" s="95"/>
@@ -9487,7 +9498,7 @@
       <c r="M499" s="95"/>
       <c r="N499" s="95"/>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" s="95"/>
       <c r="B500" s="95"/>
       <c r="C500" s="95"/>
@@ -9503,7 +9514,7 @@
       <c r="M500" s="95"/>
       <c r="N500" s="95"/>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" s="95"/>
       <c r="B501" s="95"/>
       <c r="C501" s="95"/>
@@ -9519,7 +9530,7 @@
       <c r="M501" s="95"/>
       <c r="N501" s="95"/>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" s="95"/>
       <c r="B502" s="95"/>
       <c r="C502" s="95"/>
@@ -9535,7 +9546,7 @@
       <c r="M502" s="95"/>
       <c r="N502" s="95"/>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" s="95"/>
       <c r="B503" s="95"/>
       <c r="C503" s="95"/>
@@ -9551,7 +9562,7 @@
       <c r="M503" s="95"/>
       <c r="N503" s="95"/>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" s="95"/>
       <c r="B504" s="95"/>
       <c r="C504" s="95"/>
@@ -9567,7 +9578,7 @@
       <c r="M504" s="95"/>
       <c r="N504" s="95"/>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" s="95"/>
       <c r="B505" s="95"/>
       <c r="C505" s="95"/>
@@ -9583,7 +9594,7 @@
       <c r="M505" s="95"/>
       <c r="N505" s="95"/>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" s="95"/>
       <c r="B506" s="95"/>
       <c r="C506" s="95"/>
@@ -9599,7 +9610,7 @@
       <c r="M506" s="95"/>
       <c r="N506" s="95"/>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" s="95"/>
       <c r="B507" s="95"/>
       <c r="C507" s="95"/>
@@ -9615,7 +9626,7 @@
       <c r="M507" s="95"/>
       <c r="N507" s="95"/>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" s="95"/>
       <c r="B508" s="95"/>
       <c r="C508" s="95"/>
@@ -9631,7 +9642,7 @@
       <c r="M508" s="95"/>
       <c r="N508" s="95"/>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" s="95"/>
       <c r="B509" s="95"/>
       <c r="C509" s="95"/>
@@ -9647,7 +9658,7 @@
       <c r="M509" s="95"/>
       <c r="N509" s="95"/>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" s="95"/>
       <c r="B510" s="95"/>
       <c r="C510" s="95"/>
@@ -9663,7 +9674,7 @@
       <c r="M510" s="95"/>
       <c r="N510" s="95"/>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" s="95"/>
       <c r="B511" s="95"/>
       <c r="C511" s="95"/>
@@ -9679,7 +9690,7 @@
       <c r="M511" s="95"/>
       <c r="N511" s="95"/>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" s="95"/>
       <c r="B512" s="95"/>
       <c r="C512" s="95"/>
@@ -9695,7 +9706,7 @@
       <c r="M512" s="95"/>
       <c r="N512" s="95"/>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" s="95"/>
       <c r="B513" s="95"/>
       <c r="C513" s="95"/>
@@ -9711,7 +9722,7 @@
       <c r="M513" s="95"/>
       <c r="N513" s="95"/>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" s="95"/>
       <c r="B514" s="95"/>
       <c r="C514" s="95"/>
@@ -9727,7 +9738,7 @@
       <c r="M514" s="95"/>
       <c r="N514" s="95"/>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" s="95"/>
       <c r="B515" s="95"/>
       <c r="C515" s="95"/>
@@ -9743,7 +9754,7 @@
       <c r="M515" s="95"/>
       <c r="N515" s="95"/>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" s="95"/>
       <c r="B516" s="95"/>
       <c r="C516" s="95"/>
@@ -9759,7 +9770,7 @@
       <c r="M516" s="95"/>
       <c r="N516" s="95"/>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" s="95"/>
       <c r="B517" s="95"/>
       <c r="C517" s="95"/>
@@ -9775,7 +9786,7 @@
       <c r="M517" s="95"/>
       <c r="N517" s="95"/>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" s="95"/>
       <c r="B518" s="95"/>
       <c r="C518" s="95"/>
@@ -9791,7 +9802,7 @@
       <c r="M518" s="95"/>
       <c r="N518" s="95"/>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519" s="95"/>
       <c r="B519" s="95"/>
       <c r="C519" s="95"/>
@@ -9807,7 +9818,7 @@
       <c r="M519" s="95"/>
       <c r="N519" s="95"/>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520" s="95"/>
       <c r="B520" s="95"/>
       <c r="C520" s="95"/>
@@ -9823,7 +9834,7 @@
       <c r="M520" s="95"/>
       <c r="N520" s="95"/>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521" s="95"/>
       <c r="B521" s="95"/>
       <c r="C521" s="95"/>
@@ -9839,7 +9850,7 @@
       <c r="M521" s="95"/>
       <c r="N521" s="95"/>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522" s="95"/>
       <c r="B522" s="95"/>
       <c r="C522" s="95"/>
@@ -9855,7 +9866,7 @@
       <c r="M522" s="95"/>
       <c r="N522" s="95"/>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523" s="95"/>
       <c r="B523" s="95"/>
       <c r="C523" s="95"/>
@@ -9871,7 +9882,7 @@
       <c r="M523" s="95"/>
       <c r="N523" s="95"/>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524" s="95"/>
       <c r="B524" s="95"/>
       <c r="C524" s="95"/>
@@ -9887,7 +9898,7 @@
       <c r="M524" s="95"/>
       <c r="N524" s="95"/>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525" s="95"/>
       <c r="B525" s="95"/>
       <c r="C525" s="95"/>
@@ -9903,7 +9914,7 @@
       <c r="M525" s="95"/>
       <c r="N525" s="95"/>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526" s="95"/>
       <c r="B526" s="95"/>
       <c r="C526" s="95"/>
@@ -9919,7 +9930,7 @@
       <c r="M526" s="95"/>
       <c r="N526" s="95"/>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527" s="95"/>
       <c r="B527" s="95"/>
       <c r="C527" s="95"/>
@@ -9935,7 +9946,7 @@
       <c r="M527" s="95"/>
       <c r="N527" s="95"/>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528" s="95"/>
       <c r="B528" s="95"/>
       <c r="C528" s="95"/>
@@ -9951,7 +9962,7 @@
       <c r="M528" s="95"/>
       <c r="N528" s="95"/>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529" s="95"/>
       <c r="B529" s="95"/>
       <c r="C529" s="95"/>
@@ -9967,7 +9978,7 @@
       <c r="M529" s="95"/>
       <c r="N529" s="95"/>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530" s="95"/>
       <c r="B530" s="95"/>
       <c r="C530" s="95"/>
@@ -9983,7 +9994,7 @@
       <c r="M530" s="95"/>
       <c r="N530" s="95"/>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531" s="95"/>
       <c r="B531" s="95"/>
       <c r="C531" s="95"/>
@@ -9999,7 +10010,7 @@
       <c r="M531" s="95"/>
       <c r="N531" s="95"/>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532" s="95"/>
       <c r="B532" s="95"/>
       <c r="C532" s="95"/>
@@ -10015,7 +10026,7 @@
       <c r="M532" s="95"/>
       <c r="N532" s="95"/>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533" s="95"/>
       <c r="B533" s="95"/>
       <c r="C533" s="95"/>
@@ -10031,7 +10042,7 @@
       <c r="M533" s="95"/>
       <c r="N533" s="95"/>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534" s="95"/>
       <c r="B534" s="95"/>
       <c r="C534" s="95"/>
@@ -10047,7 +10058,7 @@
       <c r="M534" s="95"/>
       <c r="N534" s="95"/>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" s="95"/>
       <c r="B535" s="95"/>
       <c r="C535" s="95"/>
@@ -10063,7 +10074,7 @@
       <c r="M535" s="95"/>
       <c r="N535" s="95"/>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536" s="95"/>
       <c r="B536" s="95"/>
       <c r="C536" s="95"/>
@@ -10079,7 +10090,7 @@
       <c r="M536" s="95"/>
       <c r="N536" s="95"/>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537" s="95"/>
       <c r="B537" s="95"/>
       <c r="C537" s="95"/>
@@ -10095,7 +10106,7 @@
       <c r="M537" s="95"/>
       <c r="N537" s="95"/>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538" s="95"/>
       <c r="B538" s="95"/>
       <c r="C538" s="95"/>
@@ -10111,7 +10122,7 @@
       <c r="M538" s="95"/>
       <c r="N538" s="95"/>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539" s="95"/>
       <c r="B539" s="95"/>
       <c r="C539" s="95"/>
@@ -10127,7 +10138,7 @@
       <c r="M539" s="95"/>
       <c r="N539" s="95"/>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540" s="95"/>
       <c r="B540" s="95"/>
       <c r="C540" s="95"/>
@@ -10143,7 +10154,7 @@
       <c r="M540" s="95"/>
       <c r="N540" s="95"/>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541" s="95"/>
       <c r="B541" s="95"/>
       <c r="C541" s="95"/>
@@ -10159,7 +10170,7 @@
       <c r="M541" s="95"/>
       <c r="N541" s="95"/>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542" s="95"/>
       <c r="B542" s="95"/>
       <c r="C542" s="95"/>
@@ -10175,7 +10186,7 @@
       <c r="M542" s="95"/>
       <c r="N542" s="95"/>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543" s="95"/>
       <c r="B543" s="95"/>
       <c r="C543" s="95"/>
@@ -10191,7 +10202,7 @@
       <c r="M543" s="95"/>
       <c r="N543" s="95"/>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544" s="95"/>
       <c r="B544" s="95"/>
       <c r="C544" s="95"/>
@@ -10207,7 +10218,7 @@
       <c r="M544" s="95"/>
       <c r="N544" s="95"/>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545" s="95"/>
       <c r="B545" s="95"/>
       <c r="C545" s="95"/>
@@ -10223,7 +10234,7 @@
       <c r="M545" s="95"/>
       <c r="N545" s="95"/>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546" s="95"/>
       <c r="B546" s="95"/>
       <c r="C546" s="95"/>
@@ -10239,7 +10250,7 @@
       <c r="M546" s="95"/>
       <c r="N546" s="95"/>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547" s="95"/>
       <c r="B547" s="95"/>
       <c r="C547" s="95"/>
@@ -10255,7 +10266,7 @@
       <c r="M547" s="95"/>
       <c r="N547" s="95"/>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548" s="95"/>
       <c r="B548" s="95"/>
       <c r="C548" s="95"/>
@@ -10271,7 +10282,7 @@
       <c r="M548" s="95"/>
       <c r="N548" s="95"/>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549" s="95"/>
       <c r="B549" s="95"/>
       <c r="C549" s="95"/>
@@ -10287,7 +10298,7 @@
       <c r="M549" s="95"/>
       <c r="N549" s="95"/>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550" s="95"/>
       <c r="B550" s="95"/>
       <c r="C550" s="95"/>
@@ -10303,7 +10314,7 @@
       <c r="M550" s="95"/>
       <c r="N550" s="95"/>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551" s="95"/>
       <c r="B551" s="95"/>
       <c r="C551" s="95"/>
@@ -10319,7 +10330,7 @@
       <c r="M551" s="95"/>
       <c r="N551" s="95"/>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A552" s="95"/>
       <c r="B552" s="95"/>
       <c r="C552" s="95"/>
@@ -10335,7 +10346,7 @@
       <c r="M552" s="95"/>
       <c r="N552" s="95"/>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553" s="95"/>
       <c r="B553" s="95"/>
       <c r="C553" s="95"/>
@@ -10351,7 +10362,7 @@
       <c r="M553" s="95"/>
       <c r="N553" s="95"/>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554" s="95"/>
       <c r="B554" s="95"/>
       <c r="C554" s="95"/>
@@ -10367,7 +10378,7 @@
       <c r="M554" s="95"/>
       <c r="N554" s="95"/>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A555" s="95"/>
       <c r="B555" s="95"/>
       <c r="C555" s="95"/>
@@ -10383,7 +10394,7 @@
       <c r="M555" s="95"/>
       <c r="N555" s="95"/>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A556" s="95"/>
       <c r="B556" s="95"/>
       <c r="C556" s="95"/>
@@ -10399,7 +10410,7 @@
       <c r="M556" s="95"/>
       <c r="N556" s="95"/>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A557" s="95"/>
       <c r="B557" s="95"/>
       <c r="C557" s="95"/>
@@ -10415,7 +10426,7 @@
       <c r="M557" s="95"/>
       <c r="N557" s="95"/>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A558" s="95"/>
       <c r="B558" s="95"/>
       <c r="C558" s="95"/>
@@ -10431,7 +10442,7 @@
       <c r="M558" s="95"/>
       <c r="N558" s="95"/>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A559" s="95"/>
       <c r="B559" s="95"/>
       <c r="C559" s="95"/>
@@ -10447,7 +10458,7 @@
       <c r="M559" s="95"/>
       <c r="N559" s="95"/>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A560" s="95"/>
       <c r="B560" s="95"/>
       <c r="C560" s="95"/>
@@ -10463,7 +10474,7 @@
       <c r="M560" s="95"/>
       <c r="N560" s="95"/>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A561" s="95"/>
       <c r="B561" s="95"/>
       <c r="C561" s="95"/>
@@ -10479,7 +10490,7 @@
       <c r="M561" s="95"/>
       <c r="N561" s="95"/>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A562" s="95"/>
       <c r="B562" s="95"/>
       <c r="C562" s="95"/>
@@ -10495,7 +10506,7 @@
       <c r="M562" s="95"/>
       <c r="N562" s="95"/>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A563" s="95"/>
       <c r="B563" s="95"/>
       <c r="C563" s="95"/>
@@ -10511,7 +10522,7 @@
       <c r="M563" s="95"/>
       <c r="N563" s="95"/>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A564" s="95"/>
       <c r="B564" s="95"/>
       <c r="C564" s="95"/>
@@ -10527,7 +10538,7 @@
       <c r="M564" s="95"/>
       <c r="N564" s="95"/>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A565" s="95"/>
       <c r="B565" s="95"/>
       <c r="C565" s="95"/>
@@ -10543,7 +10554,7 @@
       <c r="M565" s="95"/>
       <c r="N565" s="95"/>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A566" s="95"/>
       <c r="B566" s="95"/>
       <c r="C566" s="95"/>
@@ -10559,7 +10570,7 @@
       <c r="M566" s="95"/>
       <c r="N566" s="95"/>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A567" s="95"/>
       <c r="B567" s="95"/>
       <c r="C567" s="95"/>
@@ -10575,7 +10586,7 @@
       <c r="M567" s="95"/>
       <c r="N567" s="95"/>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A568" s="95"/>
       <c r="B568" s="95"/>
       <c r="C568" s="95"/>
@@ -10591,7 +10602,7 @@
       <c r="M568" s="95"/>
       <c r="N568" s="95"/>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A569" s="95"/>
       <c r="B569" s="95"/>
       <c r="C569" s="95"/>
@@ -10607,7 +10618,7 @@
       <c r="M569" s="95"/>
       <c r="N569" s="95"/>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A570" s="95"/>
       <c r="B570" s="95"/>
       <c r="C570" s="95"/>
@@ -10623,7 +10634,7 @@
       <c r="M570" s="95"/>
       <c r="N570" s="95"/>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A571" s="95"/>
       <c r="B571" s="95"/>
       <c r="C571" s="95"/>
@@ -10639,7 +10650,7 @@
       <c r="M571" s="95"/>
       <c r="N571" s="95"/>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A572" s="95"/>
       <c r="B572" s="95"/>
       <c r="C572" s="95"/>
@@ -10655,7 +10666,7 @@
       <c r="M572" s="95"/>
       <c r="N572" s="95"/>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A573" s="95"/>
       <c r="B573" s="95"/>
       <c r="C573" s="95"/>
@@ -10671,7 +10682,7 @@
       <c r="M573" s="95"/>
       <c r="N573" s="95"/>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A574" s="95"/>
       <c r="B574" s="95"/>
       <c r="C574" s="95"/>
@@ -10687,7 +10698,7 @@
       <c r="M574" s="95"/>
       <c r="N574" s="95"/>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A575" s="95"/>
       <c r="B575" s="95"/>
       <c r="C575" s="95"/>
@@ -10703,7 +10714,7 @@
       <c r="M575" s="95"/>
       <c r="N575" s="95"/>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A576" s="95"/>
       <c r="B576" s="95"/>
       <c r="C576" s="95"/>
@@ -10719,7 +10730,7 @@
       <c r="M576" s="95"/>
       <c r="N576" s="95"/>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577" s="95"/>
       <c r="B577" s="95"/>
       <c r="C577" s="95"/>
@@ -10735,7 +10746,7 @@
       <c r="M577" s="95"/>
       <c r="N577" s="95"/>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A578" s="95"/>
       <c r="B578" s="95"/>
       <c r="C578" s="95"/>
@@ -10751,7 +10762,7 @@
       <c r="M578" s="95"/>
       <c r="N578" s="95"/>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A579" s="95"/>
       <c r="B579" s="95"/>
       <c r="C579" s="95"/>
@@ -10767,7 +10778,7 @@
       <c r="M579" s="95"/>
       <c r="N579" s="95"/>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A580" s="95"/>
       <c r="B580" s="95"/>
       <c r="C580" s="95"/>
@@ -10783,7 +10794,7 @@
       <c r="M580" s="95"/>
       <c r="N580" s="95"/>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581" s="95"/>
       <c r="B581" s="95"/>
       <c r="C581" s="95"/>
@@ -10799,7 +10810,7 @@
       <c r="M581" s="95"/>
       <c r="N581" s="95"/>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582" s="95"/>
       <c r="B582" s="95"/>
       <c r="C582" s="95"/>
@@ -10815,7 +10826,7 @@
       <c r="M582" s="95"/>
       <c r="N582" s="95"/>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583" s="95"/>
       <c r="B583" s="95"/>
       <c r="C583" s="95"/>
@@ -10831,7 +10842,7 @@
       <c r="M583" s="95"/>
       <c r="N583" s="95"/>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A584" s="95"/>
       <c r="B584" s="95"/>
       <c r="C584" s="95"/>
@@ -10847,7 +10858,7 @@
       <c r="M584" s="95"/>
       <c r="N584" s="95"/>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A585" s="95"/>
       <c r="B585" s="95"/>
       <c r="C585" s="95"/>
@@ -10863,7 +10874,7 @@
       <c r="M585" s="95"/>
       <c r="N585" s="95"/>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A586" s="95"/>
       <c r="B586" s="95"/>
       <c r="C586" s="95"/>
@@ -10879,7 +10890,7 @@
       <c r="M586" s="95"/>
       <c r="N586" s="95"/>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A587" s="95"/>
       <c r="B587" s="95"/>
       <c r="C587" s="95"/>
@@ -10895,7 +10906,7 @@
       <c r="M587" s="95"/>
       <c r="N587" s="95"/>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588" s="95"/>
       <c r="B588" s="95"/>
       <c r="C588" s="95"/>
@@ -10911,7 +10922,7 @@
       <c r="M588" s="95"/>
       <c r="N588" s="95"/>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A589" s="95"/>
       <c r="B589" s="95"/>
       <c r="C589" s="95"/>
@@ -10927,7 +10938,7 @@
       <c r="M589" s="95"/>
       <c r="N589" s="95"/>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A590" s="95"/>
       <c r="B590" s="95"/>
       <c r="C590" s="95"/>
@@ -10943,7 +10954,7 @@
       <c r="M590" s="95"/>
       <c r="N590" s="95"/>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A591" s="95"/>
       <c r="B591" s="95"/>
       <c r="C591" s="95"/>
@@ -10959,7 +10970,7 @@
       <c r="M591" s="95"/>
       <c r="N591" s="95"/>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A592" s="95"/>
       <c r="B592" s="95"/>
       <c r="C592" s="95"/>
@@ -10975,7 +10986,7 @@
       <c r="M592" s="95"/>
       <c r="N592" s="95"/>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A593" s="95"/>
       <c r="B593" s="95"/>
       <c r="C593" s="95"/>
@@ -10991,7 +11002,7 @@
       <c r="M593" s="95"/>
       <c r="N593" s="95"/>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A594" s="95"/>
       <c r="B594" s="95"/>
       <c r="C594" s="95"/>
@@ -11007,7 +11018,7 @@
       <c r="M594" s="95"/>
       <c r="N594" s="95"/>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A595" s="95"/>
       <c r="B595" s="95"/>
       <c r="C595" s="95"/>
@@ -11023,7 +11034,7 @@
       <c r="M595" s="95"/>
       <c r="N595" s="95"/>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A596" s="95"/>
       <c r="B596" s="95"/>
       <c r="C596" s="95"/>
@@ -11039,7 +11050,7 @@
       <c r="M596" s="95"/>
       <c r="N596" s="95"/>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A597" s="95"/>
       <c r="B597" s="95"/>
       <c r="C597" s="95"/>
@@ -11055,7 +11066,7 @@
       <c r="M597" s="95"/>
       <c r="N597" s="95"/>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598" s="95"/>
       <c r="B598" s="95"/>
       <c r="C598" s="95"/>
@@ -11071,7 +11082,7 @@
       <c r="M598" s="95"/>
       <c r="N598" s="95"/>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599" s="95"/>
       <c r="B599" s="95"/>
       <c r="C599" s="95"/>
@@ -11087,7 +11098,7 @@
       <c r="M599" s="95"/>
       <c r="N599" s="95"/>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600" s="95"/>
       <c r="B600" s="95"/>
       <c r="C600" s="95"/>
@@ -11103,7 +11114,7 @@
       <c r="M600" s="95"/>
       <c r="N600" s="95"/>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A601" s="95"/>
       <c r="B601" s="95"/>
       <c r="C601" s="95"/>
@@ -11119,7 +11130,7 @@
       <c r="M601" s="95"/>
       <c r="N601" s="95"/>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A602" s="95"/>
       <c r="B602" s="95"/>
       <c r="C602" s="95"/>
@@ -11135,7 +11146,7 @@
       <c r="M602" s="95"/>
       <c r="N602" s="95"/>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A603" s="95"/>
       <c r="B603" s="95"/>
       <c r="C603" s="95"/>
@@ -11151,7 +11162,7 @@
       <c r="M603" s="95"/>
       <c r="N603" s="95"/>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A604" s="95"/>
       <c r="B604" s="95"/>
       <c r="C604" s="95"/>
@@ -11167,7 +11178,7 @@
       <c r="M604" s="95"/>
       <c r="N604" s="95"/>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A605" s="95"/>
       <c r="B605" s="95"/>
       <c r="C605" s="95"/>
@@ -11183,7 +11194,7 @@
       <c r="M605" s="95"/>
       <c r="N605" s="95"/>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A606" s="95"/>
       <c r="B606" s="95"/>
       <c r="C606" s="95"/>
@@ -11199,7 +11210,7 @@
       <c r="M606" s="95"/>
       <c r="N606" s="95"/>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607" s="95"/>
       <c r="B607" s="95"/>
       <c r="C607" s="95"/>
@@ -11215,7 +11226,7 @@
       <c r="M607" s="95"/>
       <c r="N607" s="95"/>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A608" s="95"/>
       <c r="B608" s="95"/>
       <c r="C608" s="95"/>
@@ -11231,7 +11242,7 @@
       <c r="M608" s="95"/>
       <c r="N608" s="95"/>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A609" s="95"/>
       <c r="B609" s="95"/>
       <c r="C609" s="95"/>
@@ -11247,7 +11258,7 @@
       <c r="M609" s="95"/>
       <c r="N609" s="95"/>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A610" s="95"/>
       <c r="B610" s="95"/>
       <c r="C610" s="95"/>
@@ -11263,7 +11274,7 @@
       <c r="M610" s="95"/>
       <c r="N610" s="95"/>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A611" s="95"/>
       <c r="B611" s="95"/>
       <c r="C611" s="95"/>
@@ -11279,7 +11290,7 @@
       <c r="M611" s="95"/>
       <c r="N611" s="95"/>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A612" s="95"/>
       <c r="B612" s="95"/>
       <c r="C612" s="95"/>
@@ -11295,7 +11306,7 @@
       <c r="M612" s="95"/>
       <c r="N612" s="95"/>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A613" s="95"/>
       <c r="B613" s="95"/>
       <c r="C613" s="95"/>
@@ -11311,7 +11322,7 @@
       <c r="M613" s="95"/>
       <c r="N613" s="95"/>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A614" s="95"/>
       <c r="B614" s="95"/>
       <c r="C614" s="95"/>
@@ -11327,7 +11338,7 @@
       <c r="M614" s="95"/>
       <c r="N614" s="95"/>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615" s="95"/>
       <c r="B615" s="95"/>
       <c r="C615" s="95"/>
@@ -11343,7 +11354,7 @@
       <c r="M615" s="95"/>
       <c r="N615" s="95"/>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616" s="95"/>
       <c r="B616" s="95"/>
       <c r="C616" s="95"/>
@@ -11359,7 +11370,7 @@
       <c r="M616" s="95"/>
       <c r="N616" s="95"/>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A617" s="95"/>
       <c r="B617" s="95"/>
       <c r="C617" s="95"/>
@@ -11375,7 +11386,7 @@
       <c r="M617" s="95"/>
       <c r="N617" s="95"/>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A618" s="95"/>
       <c r="B618" s="95"/>
       <c r="C618" s="95"/>
@@ -11391,7 +11402,7 @@
       <c r="M618" s="95"/>
       <c r="N618" s="95"/>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A619" s="95"/>
       <c r="B619" s="95"/>
       <c r="C619" s="95"/>
@@ -11407,7 +11418,7 @@
       <c r="M619" s="95"/>
       <c r="N619" s="95"/>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620" s="95"/>
       <c r="B620" s="95"/>
       <c r="C620" s="95"/>
@@ -11423,7 +11434,7 @@
       <c r="M620" s="95"/>
       <c r="N620" s="95"/>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621" s="95"/>
       <c r="B621" s="95"/>
       <c r="C621" s="95"/>
@@ -11439,7 +11450,7 @@
       <c r="M621" s="95"/>
       <c r="N621" s="95"/>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622" s="95"/>
       <c r="B622" s="95"/>
       <c r="C622" s="95"/>
@@ -11455,7 +11466,7 @@
       <c r="M622" s="95"/>
       <c r="N622" s="95"/>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A623" s="95"/>
       <c r="B623" s="95"/>
       <c r="C623" s="95"/>
@@ -11471,7 +11482,7 @@
       <c r="M623" s="95"/>
       <c r="N623" s="95"/>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624" s="95"/>
       <c r="B624" s="95"/>
       <c r="C624" s="95"/>
@@ -11487,7 +11498,7 @@
       <c r="M624" s="95"/>
       <c r="N624" s="95"/>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A625" s="95"/>
       <c r="B625" s="95"/>
       <c r="C625" s="95"/>
@@ -11503,7 +11514,7 @@
       <c r="M625" s="95"/>
       <c r="N625" s="95"/>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A626" s="95"/>
       <c r="B626" s="95"/>
       <c r="C626" s="95"/>
@@ -11519,7 +11530,7 @@
       <c r="M626" s="95"/>
       <c r="N626" s="95"/>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A627" s="95"/>
       <c r="B627" s="95"/>
       <c r="C627" s="95"/>
@@ -11535,7 +11546,7 @@
       <c r="M627" s="95"/>
       <c r="N627" s="95"/>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A628" s="95"/>
       <c r="B628" s="95"/>
       <c r="C628" s="95"/>
@@ -11551,7 +11562,7 @@
       <c r="M628" s="95"/>
       <c r="N628" s="95"/>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629" s="95"/>
       <c r="B629" s="95"/>
       <c r="C629" s="95"/>
@@ -11567,7 +11578,7 @@
       <c r="M629" s="95"/>
       <c r="N629" s="95"/>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A630" s="95"/>
       <c r="B630" s="95"/>
       <c r="C630" s="95"/>
@@ -11583,7 +11594,7 @@
       <c r="M630" s="95"/>
       <c r="N630" s="95"/>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A631" s="95"/>
       <c r="B631" s="95"/>
       <c r="C631" s="95"/>
@@ -11599,7 +11610,7 @@
       <c r="M631" s="95"/>
       <c r="N631" s="95"/>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632" s="95"/>
       <c r="B632" s="95"/>
       <c r="C632" s="95"/>
@@ -11615,7 +11626,7 @@
       <c r="M632" s="95"/>
       <c r="N632" s="95"/>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633" s="95"/>
       <c r="B633" s="95"/>
       <c r="C633" s="95"/>
@@ -11631,7 +11642,7 @@
       <c r="M633" s="95"/>
       <c r="N633" s="95"/>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634" s="95"/>
       <c r="B634" s="95"/>
       <c r="C634" s="95"/>
@@ -11647,7 +11658,7 @@
       <c r="M634" s="95"/>
       <c r="N634" s="95"/>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635" s="95"/>
       <c r="B635" s="95"/>
       <c r="C635" s="95"/>
@@ -11663,7 +11674,7 @@
       <c r="M635" s="95"/>
       <c r="N635" s="95"/>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636" s="95"/>
       <c r="B636" s="95"/>
       <c r="C636" s="95"/>
@@ -11679,7 +11690,7 @@
       <c r="M636" s="95"/>
       <c r="N636" s="95"/>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637" s="95"/>
       <c r="B637" s="95"/>
       <c r="C637" s="95"/>
@@ -11695,7 +11706,7 @@
       <c r="M637" s="95"/>
       <c r="N637" s="95"/>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638" s="95"/>
       <c r="B638" s="95"/>
       <c r="C638" s="95"/>
@@ -11711,7 +11722,7 @@
       <c r="M638" s="95"/>
       <c r="N638" s="95"/>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A639" s="95"/>
       <c r="B639" s="95"/>
       <c r="C639" s="95"/>
@@ -11727,7 +11738,7 @@
       <c r="M639" s="95"/>
       <c r="N639" s="95"/>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640" s="95"/>
       <c r="B640" s="95"/>
       <c r="C640" s="95"/>
@@ -11743,7 +11754,7 @@
       <c r="M640" s="95"/>
       <c r="N640" s="95"/>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641" s="95"/>
       <c r="B641" s="95"/>
       <c r="C641" s="95"/>
@@ -11759,7 +11770,7 @@
       <c r="M641" s="95"/>
       <c r="N641" s="95"/>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642" s="95"/>
       <c r="B642" s="95"/>
       <c r="C642" s="95"/>
@@ -11775,7 +11786,7 @@
       <c r="M642" s="95"/>
       <c r="N642" s="95"/>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A643" s="95"/>
       <c r="B643" s="95"/>
       <c r="C643" s="95"/>
@@ -11791,7 +11802,7 @@
       <c r="M643" s="95"/>
       <c r="N643" s="95"/>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A644" s="95"/>
       <c r="B644" s="95"/>
       <c r="C644" s="95"/>
@@ -11807,7 +11818,7 @@
       <c r="M644" s="95"/>
       <c r="N644" s="95"/>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A645" s="95"/>
       <c r="B645" s="95"/>
       <c r="C645" s="95"/>
@@ -11823,7 +11834,7 @@
       <c r="M645" s="95"/>
       <c r="N645" s="95"/>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A646" s="95"/>
       <c r="B646" s="95"/>
       <c r="C646" s="95"/>
@@ -11839,7 +11850,7 @@
       <c r="M646" s="95"/>
       <c r="N646" s="95"/>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A647" s="95"/>
       <c r="B647" s="95"/>
       <c r="C647" s="95"/>
@@ -11855,7 +11866,7 @@
       <c r="M647" s="95"/>
       <c r="N647" s="95"/>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A648" s="95"/>
       <c r="B648" s="95"/>
       <c r="C648" s="95"/>
@@ -11871,7 +11882,7 @@
       <c r="M648" s="95"/>
       <c r="N648" s="95"/>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A649" s="95"/>
       <c r="B649" s="95"/>
       <c r="C649" s="95"/>
@@ -11887,7 +11898,7 @@
       <c r="M649" s="95"/>
       <c r="N649" s="95"/>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A650" s="95"/>
       <c r="B650" s="95"/>
       <c r="C650" s="95"/>
@@ -11903,7 +11914,7 @@
       <c r="M650" s="95"/>
       <c r="N650" s="95"/>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A651" s="95"/>
       <c r="B651" s="95"/>
       <c r="C651" s="95"/>
@@ -11919,7 +11930,7 @@
       <c r="M651" s="95"/>
       <c r="N651" s="95"/>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A652" s="95"/>
       <c r="B652" s="95"/>
       <c r="C652" s="95"/>
@@ -11935,7 +11946,7 @@
       <c r="M652" s="95"/>
       <c r="N652" s="95"/>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A653" s="95"/>
       <c r="B653" s="95"/>
       <c r="C653" s="95"/>
@@ -11951,7 +11962,7 @@
       <c r="M653" s="95"/>
       <c r="N653" s="95"/>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A654" s="95"/>
       <c r="B654" s="95"/>
       <c r="C654" s="95"/>
@@ -11967,7 +11978,7 @@
       <c r="M654" s="95"/>
       <c r="N654" s="95"/>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A655" s="95"/>
       <c r="B655" s="95"/>
       <c r="C655" s="95"/>
@@ -11983,7 +11994,7 @@
       <c r="M655" s="95"/>
       <c r="N655" s="95"/>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A656" s="95"/>
       <c r="B656" s="95"/>
       <c r="C656" s="95"/>
@@ -11999,7 +12010,7 @@
       <c r="M656" s="95"/>
       <c r="N656" s="95"/>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A657" s="95"/>
       <c r="B657" s="95"/>
       <c r="C657" s="95"/>
@@ -12015,7 +12026,7 @@
       <c r="M657" s="95"/>
       <c r="N657" s="95"/>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A658" s="95"/>
       <c r="B658" s="95"/>
       <c r="C658" s="95"/>
@@ -12031,7 +12042,7 @@
       <c r="M658" s="95"/>
       <c r="N658" s="95"/>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A659" s="95"/>
       <c r="B659" s="95"/>
       <c r="C659" s="95"/>
@@ -12047,7 +12058,7 @@
       <c r="M659" s="95"/>
       <c r="N659" s="95"/>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A660" s="95"/>
       <c r="B660" s="95"/>
       <c r="C660" s="95"/>
@@ -12063,7 +12074,7 @@
       <c r="M660" s="95"/>
       <c r="N660" s="95"/>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A661" s="95"/>
       <c r="B661" s="95"/>
       <c r="C661" s="95"/>
@@ -12079,7 +12090,7 @@
       <c r="M661" s="95"/>
       <c r="N661" s="95"/>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A662" s="95"/>
       <c r="B662" s="95"/>
       <c r="C662" s="95"/>
@@ -12095,7 +12106,7 @@
       <c r="M662" s="95"/>
       <c r="N662" s="95"/>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A663" s="95"/>
       <c r="B663" s="95"/>
       <c r="C663" s="95"/>
@@ -12111,7 +12122,7 @@
       <c r="M663" s="95"/>
       <c r="N663" s="95"/>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A664" s="95"/>
       <c r="B664" s="95"/>
       <c r="C664" s="95"/>
@@ -12127,7 +12138,7 @@
       <c r="M664" s="95"/>
       <c r="N664" s="95"/>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665" s="95"/>
       <c r="B665" s="95"/>
       <c r="C665" s="95"/>
@@ -12143,7 +12154,7 @@
       <c r="M665" s="95"/>
       <c r="N665" s="95"/>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A666" s="95"/>
       <c r="B666" s="95"/>
       <c r="C666" s="95"/>
@@ -12159,7 +12170,7 @@
       <c r="M666" s="95"/>
       <c r="N666" s="95"/>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A667" s="95"/>
       <c r="B667" s="95"/>
       <c r="C667" s="95"/>
@@ -12175,7 +12186,7 @@
       <c r="M667" s="95"/>
       <c r="N667" s="95"/>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A668" s="95"/>
       <c r="B668" s="95"/>
       <c r="C668" s="95"/>
@@ -12191,7 +12202,7 @@
       <c r="M668" s="95"/>
       <c r="N668" s="95"/>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A669" s="95"/>
       <c r="B669" s="95"/>
       <c r="C669" s="95"/>
@@ -12207,7 +12218,7 @@
       <c r="M669" s="95"/>
       <c r="N669" s="95"/>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A670" s="95"/>
       <c r="B670" s="95"/>
       <c r="C670" s="95"/>
@@ -12223,7 +12234,7 @@
       <c r="M670" s="95"/>
       <c r="N670" s="95"/>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A671" s="95"/>
       <c r="B671" s="95"/>
       <c r="C671" s="95"/>
@@ -12239,7 +12250,7 @@
       <c r="M671" s="95"/>
       <c r="N671" s="95"/>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A672" s="95"/>
       <c r="B672" s="95"/>
       <c r="C672" s="95"/>
@@ -12255,7 +12266,7 @@
       <c r="M672" s="95"/>
       <c r="N672" s="95"/>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A673" s="95"/>
       <c r="B673" s="95"/>
       <c r="C673" s="95"/>
@@ -12271,7 +12282,7 @@
       <c r="M673" s="95"/>
       <c r="N673" s="95"/>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A674" s="95"/>
       <c r="B674" s="95"/>
       <c r="C674" s="95"/>
@@ -12287,7 +12298,7 @@
       <c r="M674" s="95"/>
       <c r="N674" s="95"/>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A675" s="95"/>
       <c r="B675" s="95"/>
       <c r="C675" s="95"/>
@@ -12303,7 +12314,7 @@
       <c r="M675" s="95"/>
       <c r="N675" s="95"/>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A676" s="95"/>
       <c r="B676" s="95"/>
       <c r="C676" s="95"/>
@@ -12319,7 +12330,7 @@
       <c r="M676" s="95"/>
       <c r="N676" s="95"/>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A677" s="95"/>
       <c r="B677" s="95"/>
       <c r="C677" s="95"/>
@@ -12335,7 +12346,7 @@
       <c r="M677" s="95"/>
       <c r="N677" s="95"/>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A678" s="95"/>
       <c r="B678" s="95"/>
       <c r="C678" s="95"/>
@@ -12351,7 +12362,7 @@
       <c r="M678" s="95"/>
       <c r="N678" s="95"/>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A679" s="95"/>
       <c r="B679" s="95"/>
       <c r="C679" s="95"/>
@@ -12367,7 +12378,7 @@
       <c r="M679" s="95"/>
       <c r="N679" s="95"/>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A680" s="95"/>
       <c r="B680" s="95"/>
       <c r="C680" s="95"/>
@@ -12383,7 +12394,7 @@
       <c r="M680" s="95"/>
       <c r="N680" s="95"/>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A681" s="95"/>
       <c r="B681" s="95"/>
       <c r="C681" s="95"/>
@@ -12399,7 +12410,7 @@
       <c r="M681" s="95"/>
       <c r="N681" s="95"/>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A682" s="95"/>
       <c r="B682" s="95"/>
       <c r="C682" s="95"/>
@@ -12415,7 +12426,7 @@
       <c r="M682" s="95"/>
       <c r="N682" s="95"/>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A683" s="95"/>
       <c r="B683" s="95"/>
       <c r="C683" s="95"/>
@@ -12431,7 +12442,7 @@
       <c r="M683" s="95"/>
       <c r="N683" s="95"/>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A684" s="95"/>
       <c r="B684" s="95"/>
       <c r="C684" s="95"/>
@@ -12447,7 +12458,7 @@
       <c r="M684" s="95"/>
       <c r="N684" s="95"/>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A685" s="95"/>
       <c r="B685" s="95"/>
       <c r="C685" s="95"/>
@@ -12463,7 +12474,7 @@
       <c r="M685" s="95"/>
       <c r="N685" s="95"/>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A686" s="95"/>
       <c r="B686" s="95"/>
       <c r="C686" s="95"/>
@@ -12479,7 +12490,7 @@
       <c r="M686" s="95"/>
       <c r="N686" s="95"/>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A687" s="95"/>
       <c r="B687" s="95"/>
       <c r="C687" s="95"/>
@@ -12495,7 +12506,7 @@
       <c r="M687" s="95"/>
       <c r="N687" s="95"/>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A688" s="95"/>
       <c r="B688" s="95"/>
       <c r="C688" s="95"/>
@@ -12511,7 +12522,7 @@
       <c r="M688" s="95"/>
       <c r="N688" s="95"/>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A689" s="95"/>
       <c r="B689" s="95"/>
       <c r="C689" s="95"/>
@@ -12527,7 +12538,7 @@
       <c r="M689" s="95"/>
       <c r="N689" s="95"/>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A690" s="95"/>
       <c r="B690" s="95"/>
       <c r="C690" s="95"/>
@@ -12543,7 +12554,7 @@
       <c r="M690" s="95"/>
       <c r="N690" s="95"/>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A691" s="95"/>
       <c r="B691" s="95"/>
       <c r="C691" s="95"/>
@@ -12559,7 +12570,7 @@
       <c r="M691" s="95"/>
       <c r="N691" s="95"/>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A692" s="95"/>
       <c r="B692" s="95"/>
       <c r="C692" s="95"/>
@@ -12575,7 +12586,7 @@
       <c r="M692" s="95"/>
       <c r="N692" s="95"/>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A693" s="95"/>
       <c r="B693" s="95"/>
       <c r="C693" s="95"/>
@@ -12591,7 +12602,7 @@
       <c r="M693" s="95"/>
       <c r="N693" s="95"/>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A694" s="95"/>
       <c r="B694" s="95"/>
       <c r="C694" s="95"/>
@@ -12607,7 +12618,7 @@
       <c r="M694" s="95"/>
       <c r="N694" s="95"/>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A695" s="95"/>
       <c r="B695" s="95"/>
       <c r="C695" s="95"/>
@@ -12623,7 +12634,7 @@
       <c r="M695" s="95"/>
       <c r="N695" s="95"/>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A696" s="95"/>
       <c r="B696" s="95"/>
       <c r="C696" s="95"/>
@@ -12639,7 +12650,7 @@
       <c r="M696" s="95"/>
       <c r="N696" s="95"/>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A697" s="95"/>
       <c r="B697" s="95"/>
       <c r="C697" s="95"/>
@@ -12655,7 +12666,7 @@
       <c r="M697" s="95"/>
       <c r="N697" s="95"/>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A698" s="95"/>
       <c r="B698" s="95"/>
       <c r="C698" s="95"/>
@@ -12671,7 +12682,7 @@
       <c r="M698" s="95"/>
       <c r="N698" s="95"/>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A699" s="95"/>
       <c r="B699" s="95"/>
       <c r="C699" s="95"/>
@@ -12687,7 +12698,7 @@
       <c r="M699" s="95"/>
       <c r="N699" s="95"/>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A700" s="95"/>
       <c r="B700" s="95"/>
       <c r="C700" s="95"/>
@@ -12703,7 +12714,7 @@
       <c r="M700" s="95"/>
       <c r="N700" s="95"/>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A701" s="95"/>
       <c r="B701" s="95"/>
       <c r="C701" s="95"/>
@@ -12719,7 +12730,7 @@
       <c r="M701" s="95"/>
       <c r="N701" s="95"/>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A702" s="95"/>
       <c r="B702" s="95"/>
       <c r="C702" s="95"/>
@@ -12735,7 +12746,7 @@
       <c r="M702" s="95"/>
       <c r="N702" s="95"/>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A703" s="95"/>
       <c r="B703" s="95"/>
       <c r="C703" s="95"/>
@@ -12751,7 +12762,7 @@
       <c r="M703" s="95"/>
       <c r="N703" s="95"/>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A704" s="95"/>
       <c r="B704" s="95"/>
       <c r="C704" s="95"/>
@@ -12767,7 +12778,7 @@
       <c r="M704" s="95"/>
       <c r="N704" s="95"/>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A705" s="95"/>
       <c r="B705" s="95"/>
       <c r="C705" s="95"/>
@@ -12783,7 +12794,7 @@
       <c r="M705" s="95"/>
       <c r="N705" s="95"/>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A706" s="95"/>
       <c r="B706" s="95"/>
       <c r="C706" s="95"/>
@@ -12799,7 +12810,7 @@
       <c r="M706" s="95"/>
       <c r="N706" s="95"/>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A707" s="95"/>
       <c r="B707" s="95"/>
       <c r="C707" s="95"/>
@@ -12815,7 +12826,7 @@
       <c r="M707" s="95"/>
       <c r="N707" s="95"/>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A708" s="95"/>
       <c r="B708" s="95"/>
       <c r="C708" s="95"/>
@@ -12831,7 +12842,7 @@
       <c r="M708" s="95"/>
       <c r="N708" s="95"/>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A709" s="95"/>
       <c r="B709" s="95"/>
       <c r="C709" s="95"/>
@@ -12847,7 +12858,7 @@
       <c r="M709" s="95"/>
       <c r="N709" s="95"/>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A710" s="95"/>
       <c r="B710" s="95"/>
       <c r="C710" s="95"/>
@@ -12863,7 +12874,7 @@
       <c r="M710" s="95"/>
       <c r="N710" s="95"/>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A711" s="95"/>
       <c r="B711" s="95"/>
       <c r="C711" s="95"/>
@@ -12879,7 +12890,7 @@
       <c r="M711" s="95"/>
       <c r="N711" s="95"/>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A712" s="95"/>
       <c r="B712" s="95"/>
       <c r="C712" s="95"/>
@@ -12895,7 +12906,7 @@
       <c r="M712" s="95"/>
       <c r="N712" s="95"/>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A713" s="95"/>
       <c r="B713" s="95"/>
       <c r="C713" s="95"/>
@@ -12911,7 +12922,7 @@
       <c r="M713" s="95"/>
       <c r="N713" s="95"/>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A714" s="95"/>
       <c r="B714" s="95"/>
       <c r="C714" s="95"/>
@@ -12927,7 +12938,7 @@
       <c r="M714" s="95"/>
       <c r="N714" s="95"/>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A715" s="95"/>
       <c r="B715" s="95"/>
       <c r="C715" s="95"/>
@@ -12943,7 +12954,7 @@
       <c r="M715" s="95"/>
       <c r="N715" s="95"/>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A716" s="95"/>
       <c r="B716" s="95"/>
       <c r="C716" s="95"/>
@@ -12959,7 +12970,7 @@
       <c r="M716" s="95"/>
       <c r="N716" s="95"/>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A717" s="95"/>
       <c r="B717" s="95"/>
       <c r="C717" s="95"/>
@@ -12975,7 +12986,7 @@
       <c r="M717" s="95"/>
       <c r="N717" s="95"/>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A718" s="95"/>
       <c r="B718" s="95"/>
       <c r="C718" s="95"/>
@@ -12991,7 +13002,7 @@
       <c r="M718" s="95"/>
       <c r="N718" s="95"/>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A719" s="95"/>
       <c r="B719" s="95"/>
       <c r="C719" s="95"/>
@@ -13007,7 +13018,7 @@
       <c r="M719" s="95"/>
       <c r="N719" s="95"/>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A720" s="95"/>
       <c r="B720" s="95"/>
       <c r="C720" s="95"/>
@@ -13023,7 +13034,7 @@
       <c r="M720" s="95"/>
       <c r="N720" s="95"/>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A721" s="95"/>
       <c r="B721" s="95"/>
       <c r="C721" s="95"/>
@@ -13039,7 +13050,7 @@
       <c r="M721" s="95"/>
       <c r="N721" s="95"/>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A722" s="95"/>
       <c r="B722" s="95"/>
       <c r="C722" s="95"/>
@@ -13055,7 +13066,7 @@
       <c r="M722" s="95"/>
       <c r="N722" s="95"/>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A723" s="95"/>
       <c r="B723" s="95"/>
       <c r="C723" s="95"/>
@@ -13071,7 +13082,7 @@
       <c r="M723" s="95"/>
       <c r="N723" s="95"/>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A724" s="95"/>
       <c r="B724" s="95"/>
       <c r="C724" s="95"/>
@@ -13087,7 +13098,7 @@
       <c r="M724" s="95"/>
       <c r="N724" s="95"/>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A725" s="95"/>
       <c r="B725" s="95"/>
       <c r="C725" s="95"/>
@@ -13103,7 +13114,7 @@
       <c r="M725" s="95"/>
       <c r="N725" s="95"/>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A726" s="95"/>
       <c r="B726" s="95"/>
       <c r="C726" s="95"/>
@@ -13119,7 +13130,7 @@
       <c r="M726" s="95"/>
       <c r="N726" s="95"/>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A727" s="95"/>
       <c r="B727" s="95"/>
       <c r="C727" s="95"/>
@@ -13135,7 +13146,7 @@
       <c r="M727" s="95"/>
       <c r="N727" s="95"/>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A728" s="95"/>
       <c r="B728" s="95"/>
       <c r="C728" s="95"/>
@@ -13151,7 +13162,7 @@
       <c r="M728" s="95"/>
       <c r="N728" s="95"/>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A729" s="95"/>
       <c r="B729" s="95"/>
       <c r="C729" s="95"/>
@@ -13167,7 +13178,7 @@
       <c r="M729" s="95"/>
       <c r="N729" s="95"/>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A730" s="95"/>
       <c r="B730" s="95"/>
       <c r="C730" s="95"/>
@@ -13183,7 +13194,7 @@
       <c r="M730" s="95"/>
       <c r="N730" s="95"/>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A731" s="95"/>
       <c r="B731" s="95"/>
       <c r="C731" s="95"/>
@@ -13199,7 +13210,7 @@
       <c r="M731" s="95"/>
       <c r="N731" s="95"/>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A732" s="95"/>
       <c r="B732" s="95"/>
       <c r="C732" s="95"/>
@@ -13215,7 +13226,7 @@
       <c r="M732" s="95"/>
       <c r="N732" s="95"/>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A733" s="95"/>
       <c r="B733" s="95"/>
       <c r="C733" s="95"/>
@@ -13231,7 +13242,7 @@
       <c r="M733" s="95"/>
       <c r="N733" s="95"/>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A734" s="95"/>
       <c r="B734" s="95"/>
       <c r="C734" s="95"/>
@@ -13247,7 +13258,7 @@
       <c r="M734" s="95"/>
       <c r="N734" s="95"/>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A735" s="95"/>
       <c r="B735" s="95"/>
       <c r="C735" s="95"/>
@@ -13263,7 +13274,7 @@
       <c r="M735" s="95"/>
       <c r="N735" s="95"/>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A736" s="95"/>
       <c r="B736" s="95"/>
       <c r="C736" s="95"/>
@@ -13279,7 +13290,7 @@
       <c r="M736" s="95"/>
       <c r="N736" s="95"/>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A737" s="95"/>
       <c r="B737" s="95"/>
       <c r="C737" s="95"/>
@@ -13295,7 +13306,7 @@
       <c r="M737" s="95"/>
       <c r="N737" s="95"/>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A738" s="95"/>
       <c r="B738" s="95"/>
       <c r="C738" s="95"/>
@@ -13311,7 +13322,7 @@
       <c r="M738" s="95"/>
       <c r="N738" s="95"/>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A739" s="95"/>
       <c r="B739" s="95"/>
       <c r="C739" s="95"/>
@@ -13327,7 +13338,7 @@
       <c r="M739" s="95"/>
       <c r="N739" s="95"/>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A740" s="95"/>
       <c r="B740" s="95"/>
       <c r="C740" s="95"/>
@@ -13343,7 +13354,7 @@
       <c r="M740" s="95"/>
       <c r="N740" s="95"/>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A741" s="95"/>
       <c r="B741" s="95"/>
       <c r="C741" s="95"/>
@@ -13359,7 +13370,7 @@
       <c r="M741" s="95"/>
       <c r="N741" s="95"/>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A742" s="95"/>
       <c r="B742" s="95"/>
       <c r="C742" s="95"/>
@@ -13375,7 +13386,7 @@
       <c r="M742" s="95"/>
       <c r="N742" s="95"/>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A743" s="95"/>
       <c r="B743" s="95"/>
       <c r="C743" s="95"/>
@@ -13391,7 +13402,7 @@
       <c r="M743" s="95"/>
       <c r="N743" s="95"/>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A744" s="95"/>
       <c r="B744" s="95"/>
       <c r="C744" s="95"/>
@@ -13407,7 +13418,7 @@
       <c r="M744" s="95"/>
       <c r="N744" s="95"/>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A745" s="95"/>
       <c r="B745" s="95"/>
       <c r="C745" s="95"/>
@@ -13423,7 +13434,7 @@
       <c r="M745" s="95"/>
       <c r="N745" s="95"/>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A746" s="95"/>
       <c r="B746" s="95"/>
       <c r="C746" s="95"/>
@@ -13439,7 +13450,7 @@
       <c r="M746" s="95"/>
       <c r="N746" s="95"/>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A747" s="95"/>
       <c r="B747" s="95"/>
       <c r="C747" s="95"/>
@@ -13455,7 +13466,7 @@
       <c r="M747" s="95"/>
       <c r="N747" s="95"/>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A748" s="95"/>
       <c r="B748" s="95"/>
       <c r="C748" s="95"/>
@@ -13471,7 +13482,7 @@
       <c r="M748" s="95"/>
       <c r="N748" s="95"/>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A749" s="95"/>
       <c r="B749" s="95"/>
       <c r="C749" s="95"/>
@@ -13487,7 +13498,7 @@
       <c r="M749" s="95"/>
       <c r="N749" s="95"/>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A750" s="95"/>
       <c r="B750" s="95"/>
       <c r="C750" s="95"/>
@@ -13503,7 +13514,7 @@
       <c r="M750" s="95"/>
       <c r="N750" s="95"/>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A751" s="95"/>
       <c r="B751" s="95"/>
       <c r="C751" s="95"/>
@@ -13519,7 +13530,7 @@
       <c r="M751" s="95"/>
       <c r="N751" s="95"/>
     </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A752" s="95"/>
       <c r="B752" s="95"/>
       <c r="C752" s="95"/>
@@ -13535,7 +13546,7 @@
       <c r="M752" s="95"/>
       <c r="N752" s="95"/>
     </row>
-    <row r="753" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A753" s="95"/>
       <c r="B753" s="95"/>
       <c r="C753" s="95"/>
@@ -13551,7 +13562,7 @@
       <c r="M753" s="95"/>
       <c r="N753" s="95"/>
     </row>
-    <row r="754" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A754" s="95"/>
       <c r="B754" s="95"/>
       <c r="C754" s="95"/>
@@ -13567,7 +13578,7 @@
       <c r="M754" s="95"/>
       <c r="N754" s="95"/>
     </row>
-    <row r="755" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A755" s="95"/>
       <c r="B755" s="95"/>
       <c r="C755" s="95"/>
@@ -13583,7 +13594,7 @@
       <c r="M755" s="95"/>
       <c r="N755" s="95"/>
     </row>
-    <row r="756" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A756" s="95"/>
       <c r="B756" s="95"/>
       <c r="C756" s="95"/>
@@ -13599,7 +13610,7 @@
       <c r="M756" s="95"/>
       <c r="N756" s="95"/>
     </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A757" s="95"/>
       <c r="B757" s="95"/>
       <c r="C757" s="95"/>
@@ -13615,7 +13626,7 @@
       <c r="M757" s="95"/>
       <c r="N757" s="95"/>
     </row>
-    <row r="758" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A758" s="95"/>
       <c r="B758" s="95"/>
       <c r="C758" s="95"/>
@@ -13631,7 +13642,7 @@
       <c r="M758" s="95"/>
       <c r="N758" s="95"/>
     </row>
-    <row r="759" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A759" s="95"/>
       <c r="B759" s="95"/>
       <c r="C759" s="95"/>
@@ -13647,7 +13658,7 @@
       <c r="M759" s="95"/>
       <c r="N759" s="95"/>
     </row>
-    <row r="760" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A760" s="95"/>
       <c r="B760" s="95"/>
       <c r="C760" s="95"/>
@@ -13663,7 +13674,7 @@
       <c r="M760" s="95"/>
       <c r="N760" s="95"/>
     </row>
-    <row r="761" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A761" s="95"/>
       <c r="B761" s="95"/>
       <c r="C761" s="95"/>
@@ -13679,7 +13690,7 @@
       <c r="M761" s="95"/>
       <c r="N761" s="95"/>
     </row>
-    <row r="762" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A762" s="95"/>
       <c r="B762" s="95"/>
       <c r="C762" s="95"/>
@@ -13695,7 +13706,7 @@
       <c r="M762" s="95"/>
       <c r="N762" s="95"/>
     </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A763" s="95"/>
       <c r="B763" s="95"/>
       <c r="C763" s="95"/>
@@ -13711,7 +13722,7 @@
       <c r="M763" s="95"/>
       <c r="N763" s="95"/>
     </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A764" s="95"/>
       <c r="B764" s="95"/>
       <c r="C764" s="95"/>
@@ -13727,7 +13738,7 @@
       <c r="M764" s="95"/>
       <c r="N764" s="95"/>
     </row>
-    <row r="765" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A765" s="95"/>
       <c r="B765" s="95"/>
       <c r="C765" s="95"/>
@@ -13743,7 +13754,7 @@
       <c r="M765" s="95"/>
       <c r="N765" s="95"/>
     </row>
-    <row r="766" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A766" s="95"/>
       <c r="B766" s="95"/>
       <c r="C766" s="95"/>
@@ -13759,7 +13770,7 @@
       <c r="M766" s="95"/>
       <c r="N766" s="95"/>
     </row>
-    <row r="767" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A767" s="95"/>
       <c r="B767" s="95"/>
       <c r="C767" s="95"/>
@@ -13775,7 +13786,7 @@
       <c r="M767" s="95"/>
       <c r="N767" s="95"/>
     </row>
-    <row r="768" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A768" s="95"/>
       <c r="B768" s="95"/>
       <c r="C768" s="95"/>
@@ -13791,7 +13802,7 @@
       <c r="M768" s="95"/>
       <c r="N768" s="95"/>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A769" s="95"/>
       <c r="B769" s="95"/>
       <c r="C769" s="95"/>
@@ -13807,7 +13818,7 @@
       <c r="M769" s="95"/>
       <c r="N769" s="95"/>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A770" s="95"/>
       <c r="B770" s="95"/>
       <c r="C770" s="95"/>
@@ -13823,7 +13834,7 @@
       <c r="M770" s="95"/>
       <c r="N770" s="95"/>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A771" s="95"/>
       <c r="B771" s="95"/>
       <c r="C771" s="95"/>
@@ -13839,7 +13850,7 @@
       <c r="M771" s="95"/>
       <c r="N771" s="95"/>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A772" s="95"/>
       <c r="B772" s="95"/>
       <c r="C772" s="95"/>
@@ -13855,7 +13866,7 @@
       <c r="M772" s="95"/>
       <c r="N772" s="95"/>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A773" s="95"/>
       <c r="B773" s="95"/>
       <c r="C773" s="95"/>
@@ -13871,7 +13882,7 @@
       <c r="M773" s="95"/>
       <c r="N773" s="95"/>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A774" s="95"/>
       <c r="B774" s="95"/>
       <c r="C774" s="95"/>
@@ -13887,7 +13898,7 @@
       <c r="M774" s="95"/>
       <c r="N774" s="95"/>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A775" s="95"/>
       <c r="B775" s="95"/>
       <c r="C775" s="95"/>
@@ -13903,7 +13914,7 @@
       <c r="M775" s="95"/>
       <c r="N775" s="95"/>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A776" s="95"/>
       <c r="B776" s="95"/>
       <c r="C776" s="95"/>
@@ -13919,7 +13930,7 @@
       <c r="M776" s="95"/>
       <c r="N776" s="95"/>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A777" s="95"/>
       <c r="B777" s="95"/>
       <c r="C777" s="95"/>
@@ -13935,7 +13946,7 @@
       <c r="M777" s="95"/>
       <c r="N777" s="95"/>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A778" s="95"/>
       <c r="B778" s="95"/>
       <c r="C778" s="95"/>
@@ -13951,7 +13962,7 @@
       <c r="M778" s="95"/>
       <c r="N778" s="95"/>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A779" s="95"/>
       <c r="B779" s="95"/>
       <c r="C779" s="95"/>
@@ -13967,7 +13978,7 @@
       <c r="M779" s="95"/>
       <c r="N779" s="95"/>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A780" s="95"/>
       <c r="B780" s="95"/>
       <c r="C780" s="95"/>
@@ -13983,7 +13994,7 @@
       <c r="M780" s="95"/>
       <c r="N780" s="95"/>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A781" s="95"/>
       <c r="B781" s="95"/>
       <c r="C781" s="95"/>
@@ -13999,7 +14010,7 @@
       <c r="M781" s="95"/>
       <c r="N781" s="95"/>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A782" s="95"/>
       <c r="B782" s="95"/>
       <c r="C782" s="95"/>
@@ -14015,7 +14026,7 @@
       <c r="M782" s="95"/>
       <c r="N782" s="95"/>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A783" s="95"/>
       <c r="B783" s="95"/>
       <c r="C783" s="95"/>
@@ -14031,7 +14042,7 @@
       <c r="M783" s="95"/>
       <c r="N783" s="95"/>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A784" s="95"/>
       <c r="B784" s="95"/>
       <c r="C784" s="95"/>
@@ -14047,7 +14058,7 @@
       <c r="M784" s="95"/>
       <c r="N784" s="95"/>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A785" s="95"/>
       <c r="B785" s="95"/>
       <c r="C785" s="95"/>
@@ -14063,7 +14074,7 @@
       <c r="M785" s="95"/>
       <c r="N785" s="95"/>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A786" s="95"/>
       <c r="B786" s="95"/>
       <c r="C786" s="95"/>
@@ -14079,7 +14090,7 @@
       <c r="M786" s="95"/>
       <c r="N786" s="95"/>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A787" s="95"/>
       <c r="B787" s="95"/>
       <c r="C787" s="95"/>
@@ -14095,7 +14106,7 @@
       <c r="M787" s="95"/>
       <c r="N787" s="95"/>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A788" s="95"/>
       <c r="B788" s="95"/>
       <c r="C788" s="95"/>
@@ -14111,7 +14122,7 @@
       <c r="M788" s="95"/>
       <c r="N788" s="95"/>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A789" s="95"/>
       <c r="B789" s="95"/>
       <c r="C789" s="95"/>
@@ -14127,7 +14138,7 @@
       <c r="M789" s="95"/>
       <c r="N789" s="95"/>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A790" s="95"/>
       <c r="B790" s="95"/>
       <c r="C790" s="95"/>
@@ -14143,7 +14154,7 @@
       <c r="M790" s="95"/>
       <c r="N790" s="95"/>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A791" s="95"/>
       <c r="B791" s="95"/>
       <c r="C791" s="95"/>
@@ -14159,7 +14170,7 @@
       <c r="M791" s="95"/>
       <c r="N791" s="95"/>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A792" s="95"/>
       <c r="B792" s="95"/>
       <c r="C792" s="95"/>
@@ -14175,7 +14186,7 @@
       <c r="M792" s="95"/>
       <c r="N792" s="95"/>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A793" s="95"/>
       <c r="B793" s="95"/>
       <c r="C793" s="95"/>
@@ -14191,7 +14202,7 @@
       <c r="M793" s="95"/>
       <c r="N793" s="95"/>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A794" s="95"/>
       <c r="B794" s="95"/>
       <c r="C794" s="95"/>
@@ -14207,7 +14218,7 @@
       <c r="M794" s="95"/>
       <c r="N794" s="95"/>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A795" s="95"/>
       <c r="B795" s="95"/>
       <c r="C795" s="95"/>
@@ -14223,7 +14234,7 @@
       <c r="M795" s="95"/>
       <c r="N795" s="95"/>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A796" s="95"/>
       <c r="B796" s="95"/>
       <c r="C796" s="95"/>
@@ -14239,7 +14250,7 @@
       <c r="M796" s="95"/>
       <c r="N796" s="95"/>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A797" s="95"/>
       <c r="B797" s="95"/>
       <c r="C797" s="95"/>
@@ -14255,7 +14266,7 @@
       <c r="M797" s="95"/>
       <c r="N797" s="95"/>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A798" s="95"/>
       <c r="B798" s="95"/>
       <c r="C798" s="95"/>
@@ -14271,7 +14282,7 @@
       <c r="M798" s="95"/>
       <c r="N798" s="95"/>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A799" s="95"/>
       <c r="B799" s="95"/>
       <c r="C799" s="95"/>
@@ -14287,7 +14298,7 @@
       <c r="M799" s="95"/>
       <c r="N799" s="95"/>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A800" s="95"/>
       <c r="B800" s="95"/>
       <c r="C800" s="95"/>
@@ -14303,7 +14314,7 @@
       <c r="M800" s="95"/>
       <c r="N800" s="95"/>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A801" s="95"/>
       <c r="B801" s="95"/>
       <c r="C801" s="95"/>
@@ -14319,7 +14330,7 @@
       <c r="M801" s="95"/>
       <c r="N801" s="95"/>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A802" s="95"/>
       <c r="B802" s="95"/>
       <c r="C802" s="95"/>
@@ -14335,7 +14346,7 @@
       <c r="M802" s="95"/>
       <c r="N802" s="95"/>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A803" s="95"/>
       <c r="B803" s="95"/>
       <c r="C803" s="95"/>
@@ -14351,7 +14362,7 @@
       <c r="M803" s="95"/>
       <c r="N803" s="95"/>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A804" s="95"/>
       <c r="B804" s="95"/>
       <c r="C804" s="95"/>
@@ -14367,7 +14378,7 @@
       <c r="M804" s="95"/>
       <c r="N804" s="95"/>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A805" s="95"/>
       <c r="B805" s="95"/>
       <c r="C805" s="95"/>
@@ -14383,7 +14394,7 @@
       <c r="M805" s="95"/>
       <c r="N805" s="95"/>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A806" s="95"/>
       <c r="B806" s="95"/>
       <c r="C806" s="95"/>
@@ -14399,7 +14410,7 @@
       <c r="M806" s="95"/>
       <c r="N806" s="95"/>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A807" s="95"/>
       <c r="B807" s="95"/>
       <c r="C807" s="95"/>
@@ -14415,7 +14426,7 @@
       <c r="M807" s="95"/>
       <c r="N807" s="95"/>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A808" s="95"/>
       <c r="B808" s="95"/>
       <c r="C808" s="95"/>
@@ -14431,7 +14442,7 @@
       <c r="M808" s="95"/>
       <c r="N808" s="95"/>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A809" s="95"/>
       <c r="B809" s="95"/>
       <c r="C809" s="95"/>
@@ -14447,7 +14458,7 @@
       <c r="M809" s="95"/>
       <c r="N809" s="95"/>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A810" s="95"/>
       <c r="B810" s="95"/>
       <c r="C810" s="95"/>
@@ -14463,7 +14474,7 @@
       <c r="M810" s="95"/>
       <c r="N810" s="95"/>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A811" s="95"/>
       <c r="B811" s="95"/>
       <c r="C811" s="95"/>
@@ -14479,7 +14490,7 @@
       <c r="M811" s="95"/>
       <c r="N811" s="95"/>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A812" s="95"/>
       <c r="B812" s="95"/>
       <c r="C812" s="95"/>
@@ -14495,7 +14506,7 @@
       <c r="M812" s="95"/>
       <c r="N812" s="95"/>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A813" s="95"/>
       <c r="B813" s="95"/>
       <c r="C813" s="95"/>
@@ -14511,7 +14522,7 @@
       <c r="M813" s="95"/>
       <c r="N813" s="95"/>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A814" s="95"/>
       <c r="B814" s="95"/>
       <c r="C814" s="95"/>
@@ -14527,7 +14538,7 @@
       <c r="M814" s="95"/>
       <c r="N814" s="95"/>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A815" s="95"/>
       <c r="B815" s="95"/>
       <c r="C815" s="95"/>
@@ -14543,7 +14554,7 @@
       <c r="M815" s="95"/>
       <c r="N815" s="95"/>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A816" s="95"/>
       <c r="B816" s="95"/>
       <c r="C816" s="95"/>
@@ -14559,7 +14570,7 @@
       <c r="M816" s="95"/>
       <c r="N816" s="95"/>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A817" s="95"/>
       <c r="B817" s="95"/>
       <c r="C817" s="95"/>
@@ -14575,7 +14586,7 @@
       <c r="M817" s="95"/>
       <c r="N817" s="95"/>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A818" s="95"/>
       <c r="B818" s="95"/>
       <c r="C818" s="95"/>
@@ -14591,7 +14602,7 @@
       <c r="M818" s="95"/>
       <c r="N818" s="95"/>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A819" s="95"/>
       <c r="B819" s="95"/>
       <c r="C819" s="95"/>
@@ -14607,7 +14618,7 @@
       <c r="M819" s="95"/>
       <c r="N819" s="95"/>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A820" s="95"/>
       <c r="B820" s="95"/>
       <c r="C820" s="95"/>
@@ -14623,7 +14634,7 @@
       <c r="M820" s="95"/>
       <c r="N820" s="95"/>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A821" s="95"/>
       <c r="B821" s="95"/>
       <c r="C821" s="95"/>
@@ -14639,7 +14650,7 @@
       <c r="M821" s="95"/>
       <c r="N821" s="95"/>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A822" s="95"/>
       <c r="B822" s="95"/>
       <c r="C822" s="95"/>
@@ -14655,7 +14666,7 @@
       <c r="M822" s="95"/>
       <c r="N822" s="95"/>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A823" s="95"/>
       <c r="B823" s="95"/>
       <c r="C823" s="95"/>
@@ -14671,7 +14682,7 @@
       <c r="M823" s="95"/>
       <c r="N823" s="95"/>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A824" s="95"/>
       <c r="B824" s="95"/>
       <c r="C824" s="95"/>
@@ -14687,7 +14698,7 @@
       <c r="M824" s="95"/>
       <c r="N824" s="95"/>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A825" s="95"/>
       <c r="B825" s="95"/>
       <c r="C825" s="95"/>
@@ -14703,7 +14714,7 @@
       <c r="M825" s="95"/>
       <c r="N825" s="95"/>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A826" s="95"/>
       <c r="B826" s="95"/>
       <c r="C826" s="95"/>
@@ -14719,7 +14730,7 @@
       <c r="M826" s="95"/>
       <c r="N826" s="95"/>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A827" s="95"/>
       <c r="B827" s="95"/>
       <c r="C827" s="95"/>
@@ -14735,7 +14746,7 @@
       <c r="M827" s="95"/>
       <c r="N827" s="95"/>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A828" s="95"/>
       <c r="B828" s="95"/>
       <c r="C828" s="95"/>
@@ -14751,7 +14762,7 @@
       <c r="M828" s="95"/>
       <c r="N828" s="95"/>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A829" s="95"/>
       <c r="B829" s="95"/>
       <c r="C829" s="95"/>
@@ -14767,7 +14778,7 @@
       <c r="M829" s="95"/>
       <c r="N829" s="95"/>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A830" s="95"/>
       <c r="B830" s="95"/>
       <c r="C830" s="95"/>
@@ -14783,7 +14794,7 @@
       <c r="M830" s="95"/>
       <c r="N830" s="95"/>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A831" s="95"/>
       <c r="B831" s="95"/>
       <c r="C831" s="95"/>
@@ -14799,7 +14810,7 @@
       <c r="M831" s="95"/>
       <c r="N831" s="95"/>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A832" s="95"/>
       <c r="B832" s="95"/>
       <c r="C832" s="95"/>
@@ -14815,7 +14826,7 @@
       <c r="M832" s="95"/>
       <c r="N832" s="95"/>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A833" s="95"/>
       <c r="B833" s="95"/>
       <c r="C833" s="95"/>
@@ -14831,7 +14842,7 @@
       <c r="M833" s="95"/>
       <c r="N833" s="95"/>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A834" s="95"/>
       <c r="B834" s="95"/>
       <c r="C834" s="95"/>
@@ -14847,7 +14858,7 @@
       <c r="M834" s="95"/>
       <c r="N834" s="95"/>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A835" s="95"/>
       <c r="B835" s="95"/>
       <c r="C835" s="95"/>
@@ -14863,7 +14874,7 @@
       <c r="M835" s="95"/>
       <c r="N835" s="95"/>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A836" s="95"/>
       <c r="B836" s="95"/>
       <c r="C836" s="95"/>
@@ -14879,7 +14890,7 @@
       <c r="M836" s="95"/>
       <c r="N836" s="95"/>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A837" s="95"/>
       <c r="B837" s="95"/>
       <c r="C837" s="95"/>
@@ -14895,7 +14906,7 @@
       <c r="M837" s="95"/>
       <c r="N837" s="95"/>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A838" s="95"/>
       <c r="B838" s="95"/>
       <c r="C838" s="95"/>
@@ -14911,7 +14922,7 @@
       <c r="M838" s="95"/>
       <c r="N838" s="95"/>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A839" s="95"/>
       <c r="B839" s="95"/>
       <c r="C839" s="95"/>
@@ -14927,7 +14938,7 @@
       <c r="M839" s="95"/>
       <c r="N839" s="95"/>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A840" s="95"/>
       <c r="B840" s="95"/>
       <c r="C840" s="95"/>
@@ -14943,7 +14954,7 @@
       <c r="M840" s="95"/>
       <c r="N840" s="95"/>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A841" s="95"/>
       <c r="B841" s="95"/>
       <c r="C841" s="95"/>
@@ -14959,7 +14970,7 @@
       <c r="M841" s="95"/>
       <c r="N841" s="95"/>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A842" s="95"/>
       <c r="B842" s="95"/>
       <c r="C842" s="95"/>
@@ -14975,7 +14986,7 @@
       <c r="M842" s="95"/>
       <c r="N842" s="95"/>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A843" s="95"/>
       <c r="B843" s="95"/>
       <c r="C843" s="95"/>
@@ -14991,7 +15002,7 @@
       <c r="M843" s="95"/>
       <c r="N843" s="95"/>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A844" s="95"/>
       <c r="B844" s="95"/>
       <c r="C844" s="95"/>
@@ -15007,7 +15018,7 @@
       <c r="M844" s="95"/>
       <c r="N844" s="95"/>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A845" s="95"/>
       <c r="B845" s="95"/>
       <c r="C845" s="95"/>
@@ -15023,7 +15034,7 @@
       <c r="M845" s="95"/>
       <c r="N845" s="95"/>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A846" s="95"/>
       <c r="B846" s="95"/>
       <c r="C846" s="95"/>
@@ -15039,7 +15050,7 @@
       <c r="M846" s="95"/>
       <c r="N846" s="95"/>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A847" s="95"/>
       <c r="B847" s="95"/>
       <c r="C847" s="95"/>
@@ -15055,7 +15066,7 @@
       <c r="M847" s="95"/>
       <c r="N847" s="95"/>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A848" s="95"/>
       <c r="B848" s="95"/>
       <c r="C848" s="95"/>
@@ -15071,7 +15082,7 @@
       <c r="M848" s="95"/>
       <c r="N848" s="95"/>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A849" s="95"/>
       <c r="B849" s="95"/>
       <c r="C849" s="95"/>
@@ -15087,7 +15098,7 @@
       <c r="M849" s="95"/>
       <c r="N849" s="95"/>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A850" s="95"/>
       <c r="B850" s="95"/>
       <c r="C850" s="95"/>
@@ -15103,7 +15114,7 @@
       <c r="M850" s="95"/>
       <c r="N850" s="95"/>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A851" s="95"/>
       <c r="B851" s="95"/>
       <c r="C851" s="95"/>
@@ -15119,7 +15130,7 @@
       <c r="M851" s="95"/>
       <c r="N851" s="95"/>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A852" s="95"/>
       <c r="B852" s="95"/>
       <c r="C852" s="95"/>
@@ -15135,7 +15146,7 @@
       <c r="M852" s="95"/>
       <c r="N852" s="95"/>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A853" s="95"/>
       <c r="B853" s="95"/>
       <c r="C853" s="95"/>
@@ -15151,7 +15162,7 @@
       <c r="M853" s="95"/>
       <c r="N853" s="95"/>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A854" s="95"/>
       <c r="B854" s="95"/>
       <c r="C854" s="95"/>
@@ -15167,7 +15178,7 @@
       <c r="M854" s="95"/>
       <c r="N854" s="95"/>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A855" s="95"/>
       <c r="B855" s="95"/>
       <c r="C855" s="95"/>
@@ -15183,7 +15194,7 @@
       <c r="M855" s="95"/>
       <c r="N855" s="95"/>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A856" s="95"/>
       <c r="B856" s="95"/>
       <c r="C856" s="95"/>
@@ -15199,7 +15210,7 @@
       <c r="M856" s="95"/>
       <c r="N856" s="95"/>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A857" s="95"/>
       <c r="B857" s="95"/>
       <c r="C857" s="95"/>
@@ -15215,7 +15226,7 @@
       <c r="M857" s="95"/>
       <c r="N857" s="95"/>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A858" s="95"/>
       <c r="B858" s="95"/>
       <c r="C858" s="95"/>
@@ -15231,7 +15242,7 @@
       <c r="M858" s="95"/>
       <c r="N858" s="95"/>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A859" s="95"/>
       <c r="B859" s="95"/>
       <c r="C859" s="95"/>
@@ -15247,7 +15258,7 @@
       <c r="M859" s="95"/>
       <c r="N859" s="95"/>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A860" s="95"/>
       <c r="B860" s="95"/>
       <c r="C860" s="95"/>
@@ -15263,7 +15274,7 @@
       <c r="M860" s="95"/>
       <c r="N860" s="95"/>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A861" s="95"/>
       <c r="B861" s="95"/>
       <c r="C861" s="95"/>
@@ -15279,7 +15290,7 @@
       <c r="M861" s="95"/>
       <c r="N861" s="95"/>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A862" s="95"/>
       <c r="B862" s="95"/>
       <c r="C862" s="95"/>
@@ -15295,7 +15306,7 @@
       <c r="M862" s="95"/>
       <c r="N862" s="95"/>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A863" s="95"/>
       <c r="B863" s="95"/>
       <c r="C863" s="95"/>
@@ -15311,7 +15322,7 @@
       <c r="M863" s="95"/>
       <c r="N863" s="95"/>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A864" s="95"/>
       <c r="B864" s="95"/>
       <c r="C864" s="95"/>
@@ -15327,7 +15338,7 @@
       <c r="M864" s="95"/>
       <c r="N864" s="95"/>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A865" s="95"/>
       <c r="B865" s="95"/>
       <c r="C865" s="95"/>
@@ -15343,7 +15354,7 @@
       <c r="M865" s="95"/>
       <c r="N865" s="95"/>
     </row>
-    <row r="866" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A866" s="95"/>
       <c r="B866" s="95"/>
       <c r="C866" s="95"/>
@@ -15359,7 +15370,7 @@
       <c r="M866" s="95"/>
       <c r="N866" s="95"/>
     </row>
-    <row r="867" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A867" s="95"/>
       <c r="B867" s="95"/>
       <c r="C867" s="95"/>
@@ -15375,7 +15386,7 @@
       <c r="M867" s="95"/>
       <c r="N867" s="95"/>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A868" s="95"/>
       <c r="B868" s="95"/>
       <c r="C868" s="95"/>
@@ -15391,7 +15402,7 @@
       <c r="M868" s="95"/>
       <c r="N868" s="95"/>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A869" s="95"/>
       <c r="B869" s="95"/>
       <c r="C869" s="95"/>
@@ -15407,7 +15418,7 @@
       <c r="M869" s="95"/>
       <c r="N869" s="95"/>
     </row>
-    <row r="870" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A870" s="95"/>
       <c r="B870" s="95"/>
       <c r="C870" s="95"/>
@@ -15423,7 +15434,7 @@
       <c r="M870" s="95"/>
       <c r="N870" s="95"/>
     </row>
-    <row r="871" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A871" s="95"/>
       <c r="B871" s="95"/>
       <c r="C871" s="95"/>
@@ -15439,7 +15450,7 @@
       <c r="M871" s="95"/>
       <c r="N871" s="95"/>
     </row>
-    <row r="872" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A872" s="95"/>
       <c r="B872" s="95"/>
       <c r="C872" s="95"/>
@@ -15455,7 +15466,7 @@
       <c r="M872" s="95"/>
       <c r="N872" s="95"/>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A873" s="95"/>
       <c r="B873" s="95"/>
       <c r="C873" s="95"/>
@@ -15471,7 +15482,7 @@
       <c r="M873" s="95"/>
       <c r="N873" s="95"/>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A874" s="95"/>
       <c r="B874" s="95"/>
       <c r="C874" s="95"/>
@@ -15487,7 +15498,7 @@
       <c r="M874" s="95"/>
       <c r="N874" s="95"/>
     </row>
-    <row r="875" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A875" s="95"/>
       <c r="B875" s="95"/>
       <c r="C875" s="95"/>
@@ -15503,7 +15514,7 @@
       <c r="M875" s="95"/>
       <c r="N875" s="95"/>
     </row>
-    <row r="876" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A876" s="95"/>
       <c r="B876" s="95"/>
       <c r="C876" s="95"/>
@@ -15519,7 +15530,7 @@
       <c r="M876" s="95"/>
       <c r="N876" s="95"/>
     </row>
-    <row r="877" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A877" s="95"/>
       <c r="B877" s="95"/>
       <c r="C877" s="95"/>
@@ -15537,20 +15548,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="K44:L47"/>
-    <mergeCell ref="H44:J47"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="M44:N49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="L13:N13"/>
@@ -15567,6 +15564,20 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="K44:L47"/>
+    <mergeCell ref="H44:J47"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="M44:N49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\FAS\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$82</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -809,44 +809,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -938,14 +905,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1421,28 +1421,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N877"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="55" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="145" zoomScaleNormal="55" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="E17" sqref="E17:N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="44"/>
-    <col min="2" max="2" width="19.109375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="0.33203125" style="44" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="44"/>
+    <col min="2" max="2" width="19.140625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="0.28515625" style="44" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="1" style="44" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="5.5546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="44" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="51" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="44" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="44"/>
+    <col min="5" max="5" width="5.42578125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="51" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="51" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="44" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="44" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="1" t="s">
@@ -1460,7 +1460,7 @@
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
     </row>
-    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45"/>
       <c r="C2" s="1"/>
       <c r="D2" s="3"/>
@@ -1472,7 +1472,7 @@
       <c r="J2" s="43"/>
       <c r="K2" s="42"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="B3" s="46"/>
       <c r="C3" s="1"/>
@@ -1485,7 +1485,7 @@
       <c r="J3" s="47"/>
       <c r="K3" s="42"/>
     </row>
-    <row r="4" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="48"/>
       <c r="C4" s="21"/>
       <c r="D4" s="4"/>
@@ -1497,7 +1497,7 @@
       <c r="J4" s="47"/>
       <c r="K4" s="42"/>
     </row>
-    <row r="5" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48"/>
       <c r="B5" s="4"/>
       <c r="C5" s="21"/>
@@ -1510,7 +1510,7 @@
       <c r="J5" s="47"/>
       <c r="K5" s="42"/>
     </row>
-    <row r="6" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
       <c r="B6" s="5"/>
       <c r="C6" s="21"/>
@@ -1523,12 +1523,12 @@
       <c r="J6" s="47"/>
       <c r="K6" s="42"/>
     </row>
-    <row r="7" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
       <c r="B7" s="5"/>
       <c r="K7" s="42"/>
     </row>
-    <row r="8" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
       <c r="B8" s="5"/>
       <c r="C8" s="21"/>
@@ -1541,7 +1541,7 @@
       <c r="J8" s="47"/>
       <c r="K8" s="42"/>
     </row>
-    <row r="9" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="48"/>
       <c r="B9" s="5"/>
       <c r="C9" s="21"/>
@@ -1554,7 +1554,7 @@
       <c r="J9" s="47"/>
       <c r="K9" s="42"/>
     </row>
-    <row r="10" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
       <c r="B10" s="5"/>
       <c r="C10" s="21"/>
@@ -1567,7 +1567,7 @@
       <c r="J10" s="47"/>
       <c r="K10" s="42"/>
     </row>
-    <row r="11" spans="1:14" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="104" t="s">
         <v>55</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="6" t="s">
         <v>1</v>
@@ -1597,30 +1597,30 @@
       <c r="K12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="108"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="110"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="140"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="142"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="111"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="113"/>
-    </row>
-    <row r="14" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="145"/>
+      <c r="M13" s="146"/>
+      <c r="N13" s="147"/>
+    </row>
+    <row r="14" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="10"/>
       <c r="C14" s="52"/>
@@ -1636,67 +1636,67 @@
       <c r="M14" s="19"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="s">
+    <row r="15" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="110"/>
-    </row>
-    <row r="16" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120" t="s">
+      <c r="B15" s="153"/>
+      <c r="C15" s="153"/>
+      <c r="D15" s="153"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="142"/>
+    </row>
+    <row r="16" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="110"/>
-    </row>
-    <row r="17" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120" t="s">
+      <c r="B16" s="153"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="142"/>
+    </row>
+    <row r="17" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="110"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+      <c r="B17" s="153"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="142"/>
+    </row>
+    <row r="18" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -1708,13 +1708,13 @@
       <c r="M18" s="39"/>
       <c r="N18" s="40"/>
     </row>
-    <row r="19" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120" t="s">
+    <row r="19" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="120"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
@@ -1726,13 +1726,13 @@
       <c r="M19" s="39"/>
       <c r="N19" s="40"/>
     </row>
-    <row r="20" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120" t="s">
+    <row r="20" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="120"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -1744,7 +1744,7 @@
       <c r="M20" s="39"/>
       <c r="N20" s="40"/>
     </row>
-    <row r="21" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>11</v>
       </c>
@@ -1762,7 +1762,7 @@
       <c r="M21" s="55"/>
       <c r="N21" s="56"/>
     </row>
-    <row r="22" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1780,41 +1780,41 @@
       <c r="M22" s="62"/>
       <c r="N22" s="63"/>
     </row>
-    <row r="23" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="117" t="s">
+    <row r="23" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="117"/>
-      <c r="N23" s="117"/>
-    </row>
-    <row r="24" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
-      <c r="M24" s="117"/>
-      <c r="N24" s="117"/>
-    </row>
-    <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+    </row>
+    <row r="24" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="151"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+    </row>
+    <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
         <v>14</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="M25" s="67"/>
       <c r="N25" s="66"/>
     </row>
-    <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>16</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="M26" s="71"/>
       <c r="N26" s="70"/>
     </row>
-    <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="M27" s="71"/>
       <c r="N27" s="70"/>
     </row>
-    <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="M28" s="73"/>
       <c r="N28" s="70"/>
     </row>
-    <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="M29" s="71"/>
       <c r="N29" s="70"/>
     </row>
-    <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>24</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="M30" s="71"/>
       <c r="N30" s="70"/>
     </row>
-    <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>26</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="M31" s="71"/>
       <c r="N31" s="70"/>
     </row>
-    <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>28</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="M32" s="71"/>
       <c r="N32" s="70"/>
     </row>
-    <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>30</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="M33" s="71"/>
       <c r="N33" s="70"/>
     </row>
-    <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="36" t="s">
         <v>32</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="M34" s="71"/>
       <c r="N34" s="70"/>
     </row>
-    <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
         <v>34</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="M35" s="71"/>
       <c r="N35" s="70"/>
     </row>
-    <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="36" t="s">
         <v>36</v>
       </c>
@@ -2054,7 +2054,7 @@
       <c r="M36" s="71"/>
       <c r="N36" s="70"/>
     </row>
-    <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
         <v>38</v>
       </c>
@@ -2072,17 +2072,17 @@
       <c r="M37" s="81"/>
       <c r="N37" s="82"/>
     </row>
-    <row r="38" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="118" t="s">
+    <row r="38" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="109" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
       <c r="I38" s="83"/>
       <c r="J38" s="83"/>
       <c r="K38" s="84"/>
@@ -2090,15 +2090,15 @@
       <c r="M38" s="84"/>
       <c r="N38" s="85"/>
     </row>
-    <row r="39" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="118"/>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
+    <row r="39" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="109"/>
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
       <c r="I39" s="86"/>
       <c r="J39" s="86"/>
       <c r="K39" s="42"/>
@@ -2106,15 +2106,15 @@
       <c r="M39" s="42"/>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="118"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
+    <row r="40" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="109"/>
+      <c r="B40" s="109"/>
+      <c r="C40" s="109"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
       <c r="I40" s="88"/>
       <c r="J40" s="88"/>
       <c r="K40" s="17" t="s">
@@ -2124,181 +2124,181 @@
       <c r="M40" s="18"/>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="118"/>
-      <c r="B41" s="118"/>
-      <c r="C41" s="118"/>
-      <c r="D41" s="118"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="119"/>
+    <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="109"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
       <c r="I41" s="89"/>
-      <c r="J41" s="151" t="s">
+      <c r="J41" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
       <c r="N41" s="90"/>
     </row>
-    <row r="42" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="116"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="118" t="s">
+    <row r="42" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="148"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="150"/>
+    </row>
+    <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="122" t="s">
+      <c r="B43" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="123"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="121" t="s">
+      <c r="C43" s="112"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="118" t="s">
+      <c r="F43" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="136" t="s">
+      <c r="G43" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="134" t="s">
+      <c r="H43" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="135"/>
-    </row>
-    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="118"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="132" t="s">
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="124"/>
+    </row>
+    <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="109"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="I44" s="133"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="131" t="s">
+      <c r="I44" s="122"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="L44" s="131"/>
-      <c r="M44" s="137" t="s">
+      <c r="L44" s="120"/>
+      <c r="M44" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="138"/>
-    </row>
-    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="118"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="131"/>
-      <c r="L45" s="131"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="140"/>
-    </row>
-    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="118"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="127"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="131"/>
-      <c r="L46" s="131"/>
-      <c r="M46" s="139"/>
-      <c r="N46" s="140"/>
-    </row>
-    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="118"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="127"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="131"/>
-      <c r="L47" s="131"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="140"/>
-    </row>
-    <row r="48" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="118"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="118"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="143" t="s">
+      <c r="N44" s="127"/>
+    </row>
+    <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="109"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="120"/>
+      <c r="L45" s="120"/>
+      <c r="M45" s="128"/>
+      <c r="N45" s="129"/>
+    </row>
+    <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="109"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="122"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="128"/>
+      <c r="N46" s="129"/>
+    </row>
+    <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="109"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="122"/>
+      <c r="K47" s="120"/>
+      <c r="L47" s="120"/>
+      <c r="M47" s="128"/>
+      <c r="N47" s="129"/>
+    </row>
+    <row r="48" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="109"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="I48" s="145" t="s">
+      <c r="I48" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="J48" s="147" t="s">
+      <c r="J48" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="K48" s="149" t="s">
+      <c r="K48" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="L48" s="150" t="s">
+      <c r="L48" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="M48" s="139"/>
-      <c r="N48" s="140"/>
-    </row>
-    <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
-      <c r="B49" s="128"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="118"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="148"/>
-      <c r="K49" s="150"/>
-      <c r="L49" s="133"/>
-      <c r="M49" s="141"/>
-      <c r="N49" s="142"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M48" s="128"/>
+      <c r="N48" s="129"/>
+    </row>
+    <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="109"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="139"/>
+      <c r="L49" s="122"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="131"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="43"/>
       <c r="B50" s="105"/>
       <c r="C50" s="91"/>
@@ -2314,7 +2314,7 @@
       <c r="M50" s="92"/>
       <c r="N50" s="92"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="91"/>
       <c r="B51" s="105"/>
       <c r="C51" s="91"/>
@@ -2330,7 +2330,7 @@
       <c r="M51" s="92"/>
       <c r="N51" s="92"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="91"/>
       <c r="B52" s="105"/>
       <c r="C52" s="91"/>
@@ -2346,7 +2346,7 @@
       <c r="M52" s="92"/>
       <c r="N52" s="92"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="92"/>
       <c r="B53" s="106"/>
       <c r="C53" s="92"/>
@@ -2362,7 +2362,7 @@
       <c r="M53" s="92"/>
       <c r="N53" s="92"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="92"/>
       <c r="B54" s="106"/>
       <c r="C54" s="92"/>
@@ -2378,7 +2378,7 @@
       <c r="M54" s="92"/>
       <c r="N54" s="92"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="92"/>
       <c r="B55" s="106"/>
       <c r="C55" s="92"/>
@@ -2394,7 +2394,7 @@
       <c r="M55" s="92"/>
       <c r="N55" s="92"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="92"/>
       <c r="B56" s="106"/>
       <c r="C56" s="92"/>
@@ -2410,7 +2410,7 @@
       <c r="M56" s="92"/>
       <c r="N56" s="92"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="92"/>
       <c r="B57" s="106"/>
       <c r="C57" s="92"/>
@@ -2426,7 +2426,7 @@
       <c r="M57" s="92"/>
       <c r="N57" s="92"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="92"/>
       <c r="B58" s="106"/>
       <c r="C58" s="92"/>
@@ -2442,7 +2442,7 @@
       <c r="M58" s="92"/>
       <c r="N58" s="92"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="92"/>
       <c r="B59" s="106"/>
       <c r="C59" s="92"/>
@@ -2458,7 +2458,7 @@
       <c r="M59" s="92"/>
       <c r="N59" s="92"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="92"/>
       <c r="B60" s="106"/>
       <c r="C60" s="92"/>
@@ -2474,7 +2474,7 @@
       <c r="M60" s="92"/>
       <c r="N60" s="92"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="92"/>
       <c r="B61" s="106"/>
       <c r="C61" s="92"/>
@@ -2490,7 +2490,7 @@
       <c r="M61" s="92"/>
       <c r="N61" s="92"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="92"/>
       <c r="B62" s="106"/>
       <c r="C62" s="92"/>
@@ -2506,7 +2506,7 @@
       <c r="M62" s="92"/>
       <c r="N62" s="92"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="92"/>
       <c r="B63" s="106"/>
       <c r="C63" s="92"/>
@@ -2522,7 +2522,7 @@
       <c r="M63" s="92"/>
       <c r="N63" s="92"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="92"/>
       <c r="B64" s="106"/>
       <c r="C64" s="92"/>
@@ -2538,7 +2538,7 @@
       <c r="M64" s="92"/>
       <c r="N64" s="92"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="93"/>
       <c r="B65" s="107"/>
       <c r="C65" s="93"/>
@@ -2554,7 +2554,7 @@
       <c r="M65" s="93"/>
       <c r="N65" s="93"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="93"/>
       <c r="B66" s="93"/>
       <c r="C66" s="93"/>
@@ -2570,7 +2570,7 @@
       <c r="M66" s="93"/>
       <c r="N66" s="93"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="93"/>
       <c r="B67" s="107"/>
       <c r="C67" s="93"/>
@@ -2586,7 +2586,7 @@
       <c r="M67" s="93"/>
       <c r="N67" s="93"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="93"/>
       <c r="B68" s="107"/>
       <c r="C68" s="93"/>
@@ -2602,7 +2602,7 @@
       <c r="M68" s="93"/>
       <c r="N68" s="93"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="93"/>
       <c r="B69" s="107"/>
       <c r="C69" s="93"/>
@@ -2618,7 +2618,7 @@
       <c r="M69" s="93"/>
       <c r="N69" s="93"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="93"/>
       <c r="B70" s="107"/>
       <c r="C70" s="93"/>
@@ -2634,7 +2634,7 @@
       <c r="M70" s="93"/>
       <c r="N70" s="93"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="93"/>
       <c r="B71" s="107"/>
       <c r="C71" s="93"/>
@@ -2650,7 +2650,7 @@
       <c r="M71" s="93"/>
       <c r="N71" s="93"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="93"/>
       <c r="B72" s="107"/>
       <c r="C72" s="93"/>
@@ -2666,7 +2666,7 @@
       <c r="M72" s="93"/>
       <c r="N72" s="93"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="93"/>
       <c r="B73" s="107"/>
       <c r="C73" s="93"/>
@@ -2682,7 +2682,7 @@
       <c r="M73" s="93"/>
       <c r="N73" s="93"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="93"/>
       <c r="B74" s="107"/>
       <c r="C74" s="93"/>
@@ -2698,7 +2698,7 @@
       <c r="M74" s="93"/>
       <c r="N74" s="93"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="93"/>
       <c r="B75" s="107"/>
       <c r="C75" s="93"/>
@@ -2714,7 +2714,7 @@
       <c r="M75" s="93"/>
       <c r="N75" s="93"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="93"/>
       <c r="B76" s="93"/>
       <c r="C76" s="93"/>
@@ -2730,7 +2730,7 @@
       <c r="M76" s="93"/>
       <c r="N76" s="93"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="93"/>
       <c r="B77" s="93"/>
       <c r="C77" s="93"/>
@@ -2746,7 +2746,7 @@
       <c r="M77" s="93"/>
       <c r="N77" s="93"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="93"/>
       <c r="B78" s="93"/>
       <c r="C78" s="93"/>
@@ -2762,7 +2762,7 @@
       <c r="M78" s="93"/>
       <c r="N78" s="93"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="93"/>
       <c r="B79" s="93"/>
       <c r="C79" s="93"/>
@@ -2778,7 +2778,7 @@
       <c r="M79" s="93"/>
       <c r="N79" s="93"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="93"/>
       <c r="B80" s="93"/>
       <c r="C80" s="93"/>
@@ -2794,7 +2794,7 @@
       <c r="M80" s="93"/>
       <c r="N80" s="93"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="93"/>
       <c r="B81" s="93"/>
       <c r="C81" s="93"/>
@@ -2810,7 +2810,7 @@
       <c r="M81" s="93"/>
       <c r="N81" s="93"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="93"/>
       <c r="B82" s="93"/>
       <c r="C82" s="93"/>
@@ -2826,7 +2826,7 @@
       <c r="M82" s="93"/>
       <c r="N82" s="93"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="93"/>
       <c r="B83" s="93"/>
       <c r="C83" s="93"/>
@@ -2842,7 +2842,7 @@
       <c r="M83" s="93"/>
       <c r="N83" s="93"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="93"/>
       <c r="B84" s="93"/>
       <c r="C84" s="93"/>
@@ -2858,7 +2858,7 @@
       <c r="M84" s="93"/>
       <c r="N84" s="93"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="93"/>
       <c r="B85" s="93"/>
       <c r="C85" s="93"/>
@@ -2874,7 +2874,7 @@
       <c r="M85" s="93"/>
       <c r="N85" s="93"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="93"/>
       <c r="B86" s="93"/>
       <c r="C86" s="93"/>
@@ -2890,7 +2890,7 @@
       <c r="M86" s="93"/>
       <c r="N86" s="93"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="93"/>
       <c r="B87" s="93"/>
       <c r="C87" s="93"/>
@@ -2906,7 +2906,7 @@
       <c r="M87" s="93"/>
       <c r="N87" s="93"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="93"/>
       <c r="B88" s="93"/>
       <c r="C88" s="93"/>
@@ -2922,7 +2922,7 @@
       <c r="M88" s="93"/>
       <c r="N88" s="93"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="93"/>
       <c r="B89" s="93"/>
       <c r="C89" s="93"/>
@@ -2938,7 +2938,7 @@
       <c r="M89" s="93"/>
       <c r="N89" s="93"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="93"/>
       <c r="B90" s="93"/>
       <c r="C90" s="93"/>
@@ -2954,7 +2954,7 @@
       <c r="M90" s="93"/>
       <c r="N90" s="93"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="93"/>
       <c r="B91" s="93"/>
       <c r="C91" s="93"/>
@@ -2970,7 +2970,7 @@
       <c r="M91" s="93"/>
       <c r="N91" s="93"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="93"/>
       <c r="B92" s="93"/>
       <c r="C92" s="93"/>
@@ -2986,7 +2986,7 @@
       <c r="M92" s="93"/>
       <c r="N92" s="93"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="93"/>
       <c r="B93" s="93"/>
       <c r="C93" s="93"/>
@@ -3002,7 +3002,7 @@
       <c r="M93" s="93"/>
       <c r="N93" s="93"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="93"/>
       <c r="B94" s="93"/>
       <c r="C94" s="93"/>
@@ -3018,7 +3018,7 @@
       <c r="M94" s="93"/>
       <c r="N94" s="93"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="93"/>
       <c r="B95" s="93"/>
       <c r="C95" s="93"/>
@@ -3034,7 +3034,7 @@
       <c r="M95" s="93"/>
       <c r="N95" s="93"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="93"/>
       <c r="B96" s="93"/>
       <c r="C96" s="93"/>
@@ -3050,7 +3050,7 @@
       <c r="M96" s="93"/>
       <c r="N96" s="93"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="93"/>
       <c r="B97" s="93"/>
       <c r="C97" s="93"/>
@@ -3066,7 +3066,7 @@
       <c r="M97" s="93"/>
       <c r="N97" s="93"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="93"/>
       <c r="B98" s="93"/>
       <c r="C98" s="93"/>
@@ -3082,7 +3082,7 @@
       <c r="M98" s="93"/>
       <c r="N98" s="93"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="93"/>
       <c r="B99" s="93"/>
       <c r="C99" s="93"/>
@@ -3098,7 +3098,7 @@
       <c r="M99" s="93"/>
       <c r="N99" s="93"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="93"/>
       <c r="B100" s="93"/>
       <c r="C100" s="93"/>
@@ -3114,7 +3114,7 @@
       <c r="M100" s="93"/>
       <c r="N100" s="93"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="93"/>
       <c r="B101" s="93"/>
       <c r="C101" s="93"/>
@@ -3130,7 +3130,7 @@
       <c r="M101" s="93"/>
       <c r="N101" s="93"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="93"/>
       <c r="B102" s="93"/>
       <c r="C102" s="93"/>
@@ -3146,7 +3146,7 @@
       <c r="M102" s="93"/>
       <c r="N102" s="93"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="93"/>
       <c r="B103" s="93"/>
       <c r="C103" s="93"/>
@@ -3162,7 +3162,7 @@
       <c r="M103" s="93"/>
       <c r="N103" s="93"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="93"/>
       <c r="B104" s="93"/>
       <c r="C104" s="93"/>
@@ -3178,7 +3178,7 @@
       <c r="M104" s="93"/>
       <c r="N104" s="93"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="93"/>
       <c r="B105" s="93"/>
       <c r="C105" s="93"/>
@@ -3194,7 +3194,7 @@
       <c r="M105" s="93"/>
       <c r="N105" s="93"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="93"/>
       <c r="B106" s="93"/>
       <c r="C106" s="93"/>
@@ -3210,7 +3210,7 @@
       <c r="M106" s="93"/>
       <c r="N106" s="93"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="93"/>
       <c r="B107" s="93"/>
       <c r="C107" s="93"/>
@@ -3226,7 +3226,7 @@
       <c r="M107" s="93"/>
       <c r="N107" s="93"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="93"/>
       <c r="B108" s="93"/>
       <c r="C108" s="93"/>
@@ -3242,7 +3242,7 @@
       <c r="M108" s="93"/>
       <c r="N108" s="93"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="93"/>
       <c r="B109" s="93"/>
       <c r="C109" s="93"/>
@@ -3258,7 +3258,7 @@
       <c r="M109" s="93"/>
       <c r="N109" s="93"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="93"/>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -3274,7 +3274,7 @@
       <c r="M110" s="93"/>
       <c r="N110" s="93"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="93"/>
       <c r="B111" s="93"/>
       <c r="C111" s="93"/>
@@ -3290,7 +3290,7 @@
       <c r="M111" s="93"/>
       <c r="N111" s="93"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="93"/>
       <c r="B112" s="93"/>
       <c r="C112" s="93"/>
@@ -3306,7 +3306,7 @@
       <c r="M112" s="93"/>
       <c r="N112" s="93"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="93"/>
       <c r="B113" s="93"/>
       <c r="C113" s="93"/>
@@ -3322,7 +3322,7 @@
       <c r="M113" s="93"/>
       <c r="N113" s="93"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="93"/>
       <c r="B114" s="93"/>
       <c r="C114" s="93"/>
@@ -3338,7 +3338,7 @@
       <c r="M114" s="93"/>
       <c r="N114" s="93"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="93"/>
       <c r="B115" s="93"/>
       <c r="C115" s="93"/>
@@ -3354,7 +3354,7 @@
       <c r="M115" s="93"/>
       <c r="N115" s="93"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="93"/>
       <c r="B116" s="93"/>
       <c r="C116" s="93"/>
@@ -3370,7 +3370,7 @@
       <c r="M116" s="93"/>
       <c r="N116" s="93"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="93"/>
       <c r="B117" s="93"/>
       <c r="C117" s="93"/>
@@ -3386,7 +3386,7 @@
       <c r="M117" s="93"/>
       <c r="N117" s="93"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="93"/>
       <c r="B118" s="93"/>
       <c r="C118" s="93"/>
@@ -3402,7 +3402,7 @@
       <c r="M118" s="93"/>
       <c r="N118" s="93"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="93"/>
       <c r="B119" s="93"/>
       <c r="C119" s="93"/>
@@ -3418,7 +3418,7 @@
       <c r="M119" s="93"/>
       <c r="N119" s="93"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="93"/>
       <c r="B120" s="93"/>
       <c r="C120" s="93"/>
@@ -3434,7 +3434,7 @@
       <c r="M120" s="93"/>
       <c r="N120" s="93"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="93"/>
       <c r="B121" s="93"/>
       <c r="C121" s="93"/>
@@ -3450,7 +3450,7 @@
       <c r="M121" s="93"/>
       <c r="N121" s="93"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="93"/>
       <c r="B122" s="93"/>
       <c r="C122" s="93"/>
@@ -3466,7 +3466,7 @@
       <c r="M122" s="93"/>
       <c r="N122" s="93"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="93"/>
       <c r="B123" s="93"/>
       <c r="C123" s="93"/>
@@ -3482,7 +3482,7 @@
       <c r="M123" s="93"/>
       <c r="N123" s="93"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="93"/>
       <c r="B124" s="93"/>
       <c r="C124" s="93"/>
@@ -3498,7 +3498,7 @@
       <c r="M124" s="93"/>
       <c r="N124" s="93"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="93"/>
       <c r="B125" s="93"/>
       <c r="C125" s="93"/>
@@ -3514,7 +3514,7 @@
       <c r="M125" s="93"/>
       <c r="N125" s="93"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="93"/>
       <c r="B126" s="93"/>
       <c r="C126" s="93"/>
@@ -3530,7 +3530,7 @@
       <c r="M126" s="93"/>
       <c r="N126" s="93"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="93"/>
       <c r="B127" s="93"/>
       <c r="C127" s="93"/>
@@ -3546,7 +3546,7 @@
       <c r="M127" s="93"/>
       <c r="N127" s="93"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="93"/>
       <c r="B128" s="93"/>
       <c r="C128" s="93"/>
@@ -3562,7 +3562,7 @@
       <c r="M128" s="93"/>
       <c r="N128" s="93"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="93"/>
       <c r="B129" s="93"/>
       <c r="C129" s="93"/>
@@ -3578,7 +3578,7 @@
       <c r="M129" s="93"/>
       <c r="N129" s="93"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="93"/>
       <c r="B130" s="93"/>
       <c r="C130" s="93"/>
@@ -3594,7 +3594,7 @@
       <c r="M130" s="93"/>
       <c r="N130" s="93"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="93"/>
       <c r="B131" s="93"/>
       <c r="C131" s="93"/>
@@ -3610,7 +3610,7 @@
       <c r="M131" s="93"/>
       <c r="N131" s="93"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="93"/>
       <c r="B132" s="93"/>
       <c r="C132" s="93"/>
@@ -3626,7 +3626,7 @@
       <c r="M132" s="93"/>
       <c r="N132" s="93"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="93"/>
       <c r="B133" s="93"/>
       <c r="C133" s="93"/>
@@ -3642,7 +3642,7 @@
       <c r="M133" s="93"/>
       <c r="N133" s="93"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="93"/>
       <c r="B134" s="93"/>
       <c r="C134" s="93"/>
@@ -3658,7 +3658,7 @@
       <c r="M134" s="93"/>
       <c r="N134" s="93"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="93"/>
       <c r="B135" s="93"/>
       <c r="C135" s="93"/>
@@ -3674,7 +3674,7 @@
       <c r="M135" s="93"/>
       <c r="N135" s="93"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="93"/>
       <c r="B136" s="93"/>
       <c r="C136" s="93"/>
@@ -3690,7 +3690,7 @@
       <c r="M136" s="93"/>
       <c r="N136" s="93"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="93"/>
       <c r="B137" s="93"/>
       <c r="C137" s="93"/>
@@ -3706,7 +3706,7 @@
       <c r="M137" s="93"/>
       <c r="N137" s="93"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="93"/>
       <c r="B138" s="93"/>
       <c r="C138" s="93"/>
@@ -3722,7 +3722,7 @@
       <c r="M138" s="93"/>
       <c r="N138" s="93"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="93"/>
       <c r="B139" s="93"/>
       <c r="C139" s="93"/>
@@ -3738,7 +3738,7 @@
       <c r="M139" s="93"/>
       <c r="N139" s="93"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="93"/>
       <c r="B140" s="93"/>
       <c r="C140" s="93"/>
@@ -3754,7 +3754,7 @@
       <c r="M140" s="93"/>
       <c r="N140" s="93"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="93"/>
       <c r="B141" s="93"/>
       <c r="C141" s="93"/>
@@ -3770,7 +3770,7 @@
       <c r="M141" s="93"/>
       <c r="N141" s="93"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="93"/>
       <c r="B142" s="93"/>
       <c r="C142" s="93"/>
@@ -3786,7 +3786,7 @@
       <c r="M142" s="93"/>
       <c r="N142" s="93"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="93"/>
       <c r="B143" s="93"/>
       <c r="C143" s="93"/>
@@ -3802,7 +3802,7 @@
       <c r="M143" s="93"/>
       <c r="N143" s="93"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="93"/>
       <c r="B144" s="93"/>
       <c r="C144" s="93"/>
@@ -3818,7 +3818,7 @@
       <c r="M144" s="93"/>
       <c r="N144" s="93"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="93"/>
       <c r="B145" s="93"/>
       <c r="C145" s="93"/>
@@ -3834,7 +3834,7 @@
       <c r="M145" s="93"/>
       <c r="N145" s="93"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="93"/>
       <c r="B146" s="93"/>
       <c r="C146" s="93"/>
@@ -3850,7 +3850,7 @@
       <c r="M146" s="93"/>
       <c r="N146" s="93"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="93"/>
       <c r="B147" s="93"/>
       <c r="C147" s="93"/>
@@ -3866,7 +3866,7 @@
       <c r="M147" s="93"/>
       <c r="N147" s="93"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="93"/>
       <c r="B148" s="93"/>
       <c r="C148" s="93"/>
@@ -3882,7 +3882,7 @@
       <c r="M148" s="93"/>
       <c r="N148" s="93"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="93"/>
       <c r="B149" s="93"/>
       <c r="C149" s="93"/>
@@ -3898,7 +3898,7 @@
       <c r="M149" s="93"/>
       <c r="N149" s="93"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="93"/>
       <c r="B150" s="93"/>
       <c r="C150" s="93"/>
@@ -3914,7 +3914,7 @@
       <c r="M150" s="93"/>
       <c r="N150" s="93"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="93"/>
       <c r="B151" s="93"/>
       <c r="C151" s="93"/>
@@ -3930,7 +3930,7 @@
       <c r="M151" s="93"/>
       <c r="N151" s="93"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="93"/>
       <c r="B152" s="93"/>
       <c r="C152" s="93"/>
@@ -3946,7 +3946,7 @@
       <c r="M152" s="93"/>
       <c r="N152" s="93"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="93"/>
       <c r="B153" s="93"/>
       <c r="C153" s="93"/>
@@ -3962,7 +3962,7 @@
       <c r="M153" s="93"/>
       <c r="N153" s="93"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="93"/>
       <c r="B154" s="93"/>
       <c r="C154" s="93"/>
@@ -3978,7 +3978,7 @@
       <c r="M154" s="93"/>
       <c r="N154" s="93"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="93"/>
       <c r="B155" s="93"/>
       <c r="C155" s="93"/>
@@ -3994,7 +3994,7 @@
       <c r="M155" s="93"/>
       <c r="N155" s="93"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="93"/>
       <c r="B156" s="93"/>
       <c r="C156" s="93"/>
@@ -4010,7 +4010,7 @@
       <c r="M156" s="93"/>
       <c r="N156" s="93"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="93"/>
       <c r="B157" s="93"/>
       <c r="C157" s="93"/>
@@ -4026,7 +4026,7 @@
       <c r="M157" s="93"/>
       <c r="N157" s="93"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="93"/>
       <c r="B158" s="93"/>
       <c r="C158" s="93"/>
@@ -4042,7 +4042,7 @@
       <c r="M158" s="93"/>
       <c r="N158" s="93"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="93"/>
       <c r="B159" s="93"/>
       <c r="C159" s="93"/>
@@ -4058,7 +4058,7 @@
       <c r="M159" s="93"/>
       <c r="N159" s="93"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="93"/>
       <c r="B160" s="93"/>
       <c r="C160" s="93"/>
@@ -4074,7 +4074,7 @@
       <c r="M160" s="93"/>
       <c r="N160" s="93"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="93"/>
       <c r="B161" s="93"/>
       <c r="C161" s="93"/>
@@ -4090,7 +4090,7 @@
       <c r="M161" s="93"/>
       <c r="N161" s="93"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="93"/>
       <c r="B162" s="93"/>
       <c r="C162" s="93"/>
@@ -4106,7 +4106,7 @@
       <c r="M162" s="93"/>
       <c r="N162" s="93"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="93"/>
       <c r="B163" s="93"/>
       <c r="C163" s="93"/>
@@ -4122,7 +4122,7 @@
       <c r="M163" s="93"/>
       <c r="N163" s="93"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="93"/>
       <c r="B164" s="93"/>
       <c r="C164" s="93"/>
@@ -4138,7 +4138,7 @@
       <c r="M164" s="93"/>
       <c r="N164" s="93"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="93"/>
       <c r="B165" s="93"/>
       <c r="C165" s="93"/>
@@ -4154,7 +4154,7 @@
       <c r="M165" s="93"/>
       <c r="N165" s="93"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="93"/>
       <c r="B166" s="93"/>
       <c r="C166" s="93"/>
@@ -4170,7 +4170,7 @@
       <c r="M166" s="93"/>
       <c r="N166" s="93"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="93"/>
       <c r="B167" s="93"/>
       <c r="C167" s="93"/>
@@ -4186,7 +4186,7 @@
       <c r="M167" s="93"/>
       <c r="N167" s="93"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="93"/>
       <c r="B168" s="93"/>
       <c r="C168" s="93"/>
@@ -4202,7 +4202,7 @@
       <c r="M168" s="93"/>
       <c r="N168" s="93"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="93"/>
       <c r="B169" s="93"/>
       <c r="C169" s="93"/>
@@ -4218,7 +4218,7 @@
       <c r="M169" s="93"/>
       <c r="N169" s="93"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="93"/>
       <c r="B170" s="93"/>
       <c r="C170" s="93"/>
@@ -4234,7 +4234,7 @@
       <c r="M170" s="93"/>
       <c r="N170" s="93"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="93"/>
       <c r="B171" s="93"/>
       <c r="C171" s="93"/>
@@ -4250,7 +4250,7 @@
       <c r="M171" s="93"/>
       <c r="N171" s="93"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="93"/>
       <c r="B172" s="93"/>
       <c r="C172" s="93"/>
@@ -4266,7 +4266,7 @@
       <c r="M172" s="93"/>
       <c r="N172" s="93"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="93"/>
       <c r="B173" s="93"/>
       <c r="C173" s="93"/>
@@ -4282,7 +4282,7 @@
       <c r="M173" s="93"/>
       <c r="N173" s="93"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="93"/>
       <c r="B174" s="93"/>
       <c r="C174" s="93"/>
@@ -4298,7 +4298,7 @@
       <c r="M174" s="93"/>
       <c r="N174" s="93"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="93"/>
       <c r="B175" s="93"/>
       <c r="C175" s="93"/>
@@ -4314,7 +4314,7 @@
       <c r="M175" s="93"/>
       <c r="N175" s="93"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="93"/>
       <c r="B176" s="93"/>
       <c r="C176" s="93"/>
@@ -4330,7 +4330,7 @@
       <c r="M176" s="93"/>
       <c r="N176" s="93"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="93"/>
       <c r="B177" s="93"/>
       <c r="C177" s="93"/>
@@ -4346,7 +4346,7 @@
       <c r="M177" s="93"/>
       <c r="N177" s="93"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="93"/>
       <c r="B178" s="93"/>
       <c r="C178" s="93"/>
@@ -4362,7 +4362,7 @@
       <c r="M178" s="93"/>
       <c r="N178" s="93"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="93"/>
       <c r="B179" s="93"/>
       <c r="C179" s="93"/>
@@ -4378,7 +4378,7 @@
       <c r="M179" s="93"/>
       <c r="N179" s="93"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="93"/>
       <c r="B180" s="93"/>
       <c r="C180" s="93"/>
@@ -4394,7 +4394,7 @@
       <c r="M180" s="93"/>
       <c r="N180" s="93"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="93"/>
       <c r="B181" s="93"/>
       <c r="C181" s="93"/>
@@ -4410,7 +4410,7 @@
       <c r="M181" s="93"/>
       <c r="N181" s="93"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="93"/>
       <c r="B182" s="93"/>
       <c r="C182" s="93"/>
@@ -4426,7 +4426,7 @@
       <c r="M182" s="93"/>
       <c r="N182" s="93"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="93"/>
       <c r="B183" s="93"/>
       <c r="C183" s="93"/>
@@ -4442,7 +4442,7 @@
       <c r="M183" s="93"/>
       <c r="N183" s="93"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="93"/>
       <c r="B184" s="93"/>
       <c r="C184" s="93"/>
@@ -4458,7 +4458,7 @@
       <c r="M184" s="93"/>
       <c r="N184" s="93"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="93"/>
       <c r="B185" s="93"/>
       <c r="C185" s="93"/>
@@ -4474,7 +4474,7 @@
       <c r="M185" s="93"/>
       <c r="N185" s="93"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="93"/>
       <c r="B186" s="93"/>
       <c r="C186" s="93"/>
@@ -4490,7 +4490,7 @@
       <c r="M186" s="93"/>
       <c r="N186" s="93"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="93"/>
       <c r="B187" s="93"/>
       <c r="C187" s="93"/>
@@ -4506,7 +4506,7 @@
       <c r="M187" s="93"/>
       <c r="N187" s="93"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="93"/>
       <c r="B188" s="93"/>
       <c r="C188" s="93"/>
@@ -4522,7 +4522,7 @@
       <c r="M188" s="93"/>
       <c r="N188" s="93"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="93"/>
       <c r="B189" s="93"/>
       <c r="C189" s="93"/>
@@ -4538,7 +4538,7 @@
       <c r="M189" s="93"/>
       <c r="N189" s="93"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="93"/>
       <c r="B190" s="93"/>
       <c r="C190" s="93"/>
@@ -4554,7 +4554,7 @@
       <c r="M190" s="93"/>
       <c r="N190" s="93"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="93"/>
       <c r="B191" s="93"/>
       <c r="C191" s="93"/>
@@ -4570,7 +4570,7 @@
       <c r="M191" s="93"/>
       <c r="N191" s="93"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="93"/>
       <c r="B192" s="93"/>
       <c r="C192" s="93"/>
@@ -4586,7 +4586,7 @@
       <c r="M192" s="93"/>
       <c r="N192" s="93"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="93"/>
       <c r="B193" s="93"/>
       <c r="C193" s="93"/>
@@ -4602,7 +4602,7 @@
       <c r="M193" s="93"/>
       <c r="N193" s="93"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="93"/>
       <c r="B194" s="93"/>
       <c r="C194" s="93"/>
@@ -4618,7 +4618,7 @@
       <c r="M194" s="93"/>
       <c r="N194" s="93"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="93"/>
       <c r="B195" s="93"/>
       <c r="C195" s="93"/>
@@ -4634,7 +4634,7 @@
       <c r="M195" s="93"/>
       <c r="N195" s="93"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="93"/>
       <c r="B196" s="93"/>
       <c r="C196" s="93"/>
@@ -4650,7 +4650,7 @@
       <c r="M196" s="93"/>
       <c r="N196" s="93"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="93"/>
       <c r="B197" s="93"/>
       <c r="C197" s="93"/>
@@ -4666,7 +4666,7 @@
       <c r="M197" s="93"/>
       <c r="N197" s="93"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="93"/>
       <c r="B198" s="93"/>
       <c r="C198" s="93"/>
@@ -4682,7 +4682,7 @@
       <c r="M198" s="93"/>
       <c r="N198" s="93"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="93"/>
       <c r="B199" s="93"/>
       <c r="C199" s="93"/>
@@ -4698,7 +4698,7 @@
       <c r="M199" s="93"/>
       <c r="N199" s="93"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="93"/>
       <c r="B200" s="93"/>
       <c r="C200" s="93"/>
@@ -4714,7 +4714,7 @@
       <c r="M200" s="93"/>
       <c r="N200" s="93"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="93"/>
       <c r="B201" s="93"/>
       <c r="C201" s="93"/>
@@ -4730,7 +4730,7 @@
       <c r="M201" s="93"/>
       <c r="N201" s="93"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="93"/>
       <c r="B202" s="93"/>
       <c r="C202" s="93"/>
@@ -4746,7 +4746,7 @@
       <c r="M202" s="93"/>
       <c r="N202" s="93"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="93"/>
       <c r="B203" s="93"/>
       <c r="C203" s="93"/>
@@ -4762,7 +4762,7 @@
       <c r="M203" s="93"/>
       <c r="N203" s="93"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="93"/>
       <c r="B204" s="93"/>
       <c r="C204" s="93"/>
@@ -4778,7 +4778,7 @@
       <c r="M204" s="93"/>
       <c r="N204" s="93"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="93"/>
       <c r="B205" s="93"/>
       <c r="C205" s="93"/>
@@ -4794,7 +4794,7 @@
       <c r="M205" s="93"/>
       <c r="N205" s="93"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="93"/>
       <c r="B206" s="93"/>
       <c r="C206" s="93"/>
@@ -4810,7 +4810,7 @@
       <c r="M206" s="93"/>
       <c r="N206" s="93"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="93"/>
       <c r="B207" s="93"/>
       <c r="C207" s="93"/>
@@ -4826,7 +4826,7 @@
       <c r="M207" s="93"/>
       <c r="N207" s="93"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="93"/>
       <c r="B208" s="93"/>
       <c r="C208" s="93"/>
@@ -4842,7 +4842,7 @@
       <c r="M208" s="93"/>
       <c r="N208" s="93"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="93"/>
       <c r="B209" s="93"/>
       <c r="C209" s="93"/>
@@ -4858,7 +4858,7 @@
       <c r="M209" s="93"/>
       <c r="N209" s="93"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="93"/>
       <c r="B210" s="93"/>
       <c r="C210" s="93"/>
@@ -4874,7 +4874,7 @@
       <c r="M210" s="93"/>
       <c r="N210" s="93"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="93"/>
       <c r="B211" s="93"/>
       <c r="C211" s="93"/>
@@ -4890,7 +4890,7 @@
       <c r="M211" s="93"/>
       <c r="N211" s="93"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="93"/>
       <c r="B212" s="93"/>
       <c r="C212" s="93"/>
@@ -4906,7 +4906,7 @@
       <c r="M212" s="93"/>
       <c r="N212" s="93"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="93"/>
       <c r="B213" s="93"/>
       <c r="C213" s="93"/>
@@ -4922,7 +4922,7 @@
       <c r="M213" s="93"/>
       <c r="N213" s="93"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="93"/>
       <c r="B214" s="93"/>
       <c r="C214" s="93"/>
@@ -4938,7 +4938,7 @@
       <c r="M214" s="93"/>
       <c r="N214" s="93"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="93"/>
       <c r="B215" s="93"/>
       <c r="C215" s="93"/>
@@ -4954,7 +4954,7 @@
       <c r="M215" s="93"/>
       <c r="N215" s="93"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="93"/>
       <c r="B216" s="93"/>
       <c r="C216" s="93"/>
@@ -4970,7 +4970,7 @@
       <c r="M216" s="93"/>
       <c r="N216" s="93"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="93"/>
       <c r="B217" s="93"/>
       <c r="C217" s="93"/>
@@ -4986,7 +4986,7 @@
       <c r="M217" s="93"/>
       <c r="N217" s="93"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="93"/>
       <c r="B218" s="93"/>
       <c r="C218" s="93"/>
@@ -5002,7 +5002,7 @@
       <c r="M218" s="93"/>
       <c r="N218" s="93"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="93"/>
       <c r="B219" s="93"/>
       <c r="C219" s="93"/>
@@ -5018,7 +5018,7 @@
       <c r="M219" s="93"/>
       <c r="N219" s="93"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="93"/>
       <c r="B220" s="93"/>
       <c r="C220" s="93"/>
@@ -5034,7 +5034,7 @@
       <c r="M220" s="93"/>
       <c r="N220" s="93"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="93"/>
       <c r="B221" s="93"/>
       <c r="C221" s="93"/>
@@ -5050,7 +5050,7 @@
       <c r="M221" s="93"/>
       <c r="N221" s="93"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="93"/>
       <c r="B222" s="93"/>
       <c r="C222" s="93"/>
@@ -5066,7 +5066,7 @@
       <c r="M222" s="93"/>
       <c r="N222" s="93"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="93"/>
       <c r="B223" s="93"/>
       <c r="C223" s="93"/>
@@ -5082,7 +5082,7 @@
       <c r="M223" s="93"/>
       <c r="N223" s="93"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="93"/>
       <c r="B224" s="93"/>
       <c r="C224" s="93"/>
@@ -5098,7 +5098,7 @@
       <c r="M224" s="93"/>
       <c r="N224" s="93"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="93"/>
       <c r="B225" s="93"/>
       <c r="C225" s="93"/>
@@ -5114,7 +5114,7 @@
       <c r="M225" s="93"/>
       <c r="N225" s="93"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" s="93"/>
       <c r="B226" s="93"/>
       <c r="C226" s="93"/>
@@ -5130,7 +5130,7 @@
       <c r="M226" s="93"/>
       <c r="N226" s="93"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" s="93"/>
       <c r="B227" s="93"/>
       <c r="C227" s="93"/>
@@ -5146,7 +5146,7 @@
       <c r="M227" s="93"/>
       <c r="N227" s="93"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="93"/>
       <c r="B228" s="93"/>
       <c r="C228" s="93"/>
@@ -5162,7 +5162,7 @@
       <c r="M228" s="93"/>
       <c r="N228" s="93"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="93"/>
       <c r="B229" s="93"/>
       <c r="C229" s="93"/>
@@ -5178,7 +5178,7 @@
       <c r="M229" s="93"/>
       <c r="N229" s="93"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="93"/>
       <c r="B230" s="93"/>
       <c r="C230" s="93"/>
@@ -5194,7 +5194,7 @@
       <c r="M230" s="93"/>
       <c r="N230" s="93"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="93"/>
       <c r="B231" s="93"/>
       <c r="C231" s="93"/>
@@ -5210,7 +5210,7 @@
       <c r="M231" s="93"/>
       <c r="N231" s="93"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="93"/>
       <c r="B232" s="93"/>
       <c r="C232" s="93"/>
@@ -5226,7 +5226,7 @@
       <c r="M232" s="93"/>
       <c r="N232" s="93"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="93"/>
       <c r="B233" s="93"/>
       <c r="C233" s="93"/>
@@ -5242,7 +5242,7 @@
       <c r="M233" s="93"/>
       <c r="N233" s="93"/>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="93"/>
       <c r="B234" s="93"/>
       <c r="C234" s="93"/>
@@ -5258,7 +5258,7 @@
       <c r="M234" s="93"/>
       <c r="N234" s="93"/>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="93"/>
       <c r="B235" s="93"/>
       <c r="C235" s="93"/>
@@ -5274,7 +5274,7 @@
       <c r="M235" s="93"/>
       <c r="N235" s="93"/>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="93"/>
       <c r="B236" s="93"/>
       <c r="C236" s="93"/>
@@ -5290,7 +5290,7 @@
       <c r="M236" s="93"/>
       <c r="N236" s="93"/>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="93"/>
       <c r="B237" s="93"/>
       <c r="C237" s="93"/>
@@ -5306,7 +5306,7 @@
       <c r="M237" s="93"/>
       <c r="N237" s="93"/>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="93"/>
       <c r="B238" s="93"/>
       <c r="C238" s="93"/>
@@ -5322,7 +5322,7 @@
       <c r="M238" s="93"/>
       <c r="N238" s="93"/>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="93"/>
       <c r="B239" s="93"/>
       <c r="C239" s="93"/>
@@ -5338,7 +5338,7 @@
       <c r="M239" s="93"/>
       <c r="N239" s="93"/>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="93"/>
       <c r="B240" s="93"/>
       <c r="C240" s="93"/>
@@ -5354,7 +5354,7 @@
       <c r="M240" s="93"/>
       <c r="N240" s="93"/>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="93"/>
       <c r="B241" s="93"/>
       <c r="C241" s="93"/>
@@ -5370,7 +5370,7 @@
       <c r="M241" s="93"/>
       <c r="N241" s="93"/>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="93"/>
       <c r="B242" s="93"/>
       <c r="C242" s="93"/>
@@ -5386,7 +5386,7 @@
       <c r="M242" s="93"/>
       <c r="N242" s="93"/>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="93"/>
       <c r="B243" s="93"/>
       <c r="C243" s="93"/>
@@ -5402,7 +5402,7 @@
       <c r="M243" s="93"/>
       <c r="N243" s="93"/>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="93"/>
       <c r="B244" s="93"/>
       <c r="C244" s="93"/>
@@ -5418,7 +5418,7 @@
       <c r="M244" s="93"/>
       <c r="N244" s="93"/>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="93"/>
       <c r="B245" s="93"/>
       <c r="C245" s="93"/>
@@ -5434,7 +5434,7 @@
       <c r="M245" s="93"/>
       <c r="N245" s="93"/>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="93"/>
       <c r="B246" s="93"/>
       <c r="C246" s="93"/>
@@ -5450,7 +5450,7 @@
       <c r="M246" s="93"/>
       <c r="N246" s="93"/>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="93"/>
       <c r="B247" s="93"/>
       <c r="C247" s="93"/>
@@ -5466,7 +5466,7 @@
       <c r="M247" s="93"/>
       <c r="N247" s="93"/>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="93"/>
       <c r="B248" s="93"/>
       <c r="C248" s="93"/>
@@ -5482,7 +5482,7 @@
       <c r="M248" s="93"/>
       <c r="N248" s="93"/>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="93"/>
       <c r="B249" s="93"/>
       <c r="C249" s="93"/>
@@ -5498,7 +5498,7 @@
       <c r="M249" s="93"/>
       <c r="N249" s="93"/>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="93"/>
       <c r="B250" s="93"/>
       <c r="C250" s="93"/>
@@ -5514,7 +5514,7 @@
       <c r="M250" s="93"/>
       <c r="N250" s="93"/>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="93"/>
       <c r="B251" s="93"/>
       <c r="C251" s="93"/>
@@ -5530,7 +5530,7 @@
       <c r="M251" s="93"/>
       <c r="N251" s="93"/>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="93"/>
       <c r="B252" s="93"/>
       <c r="C252" s="93"/>
@@ -5546,7 +5546,7 @@
       <c r="M252" s="93"/>
       <c r="N252" s="93"/>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="93"/>
       <c r="B253" s="93"/>
       <c r="C253" s="93"/>
@@ -5562,7 +5562,7 @@
       <c r="M253" s="93"/>
       <c r="N253" s="93"/>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="93"/>
       <c r="B254" s="93"/>
       <c r="C254" s="93"/>
@@ -5578,7 +5578,7 @@
       <c r="M254" s="93"/>
       <c r="N254" s="93"/>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="93"/>
       <c r="B255" s="93"/>
       <c r="C255" s="93"/>
@@ -5594,7 +5594,7 @@
       <c r="M255" s="93"/>
       <c r="N255" s="93"/>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="93"/>
       <c r="B256" s="93"/>
       <c r="C256" s="93"/>
@@ -5610,7 +5610,7 @@
       <c r="M256" s="93"/>
       <c r="N256" s="93"/>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="93"/>
       <c r="B257" s="93"/>
       <c r="C257" s="93"/>
@@ -5626,7 +5626,7 @@
       <c r="M257" s="93"/>
       <c r="N257" s="93"/>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="93"/>
       <c r="B258" s="93"/>
       <c r="C258" s="93"/>
@@ -5642,7 +5642,7 @@
       <c r="M258" s="93"/>
       <c r="N258" s="93"/>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="93"/>
       <c r="B259" s="93"/>
       <c r="C259" s="93"/>
@@ -5658,7 +5658,7 @@
       <c r="M259" s="93"/>
       <c r="N259" s="93"/>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="93"/>
       <c r="B260" s="93"/>
       <c r="C260" s="93"/>
@@ -5674,7 +5674,7 @@
       <c r="M260" s="93"/>
       <c r="N260" s="93"/>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="93"/>
       <c r="B261" s="93"/>
       <c r="C261" s="93"/>
@@ -5690,7 +5690,7 @@
       <c r="M261" s="93"/>
       <c r="N261" s="93"/>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="93"/>
       <c r="B262" s="93"/>
       <c r="C262" s="93"/>
@@ -5706,7 +5706,7 @@
       <c r="M262" s="93"/>
       <c r="N262" s="93"/>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" s="93"/>
       <c r="B263" s="93"/>
       <c r="C263" s="93"/>
@@ -5722,7 +5722,7 @@
       <c r="M263" s="93"/>
       <c r="N263" s="93"/>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="93"/>
       <c r="B264" s="93"/>
       <c r="C264" s="93"/>
@@ -5738,7 +5738,7 @@
       <c r="M264" s="93"/>
       <c r="N264" s="93"/>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="93"/>
       <c r="B265" s="93"/>
       <c r="C265" s="93"/>
@@ -5754,7 +5754,7 @@
       <c r="M265" s="93"/>
       <c r="N265" s="93"/>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="93"/>
       <c r="B266" s="93"/>
       <c r="C266" s="93"/>
@@ -5770,7 +5770,7 @@
       <c r="M266" s="93"/>
       <c r="N266" s="93"/>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="93"/>
       <c r="B267" s="93"/>
       <c r="C267" s="93"/>
@@ -5786,7 +5786,7 @@
       <c r="M267" s="93"/>
       <c r="N267" s="93"/>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="93"/>
       <c r="B268" s="93"/>
       <c r="C268" s="93"/>
@@ -5802,7 +5802,7 @@
       <c r="M268" s="93"/>
       <c r="N268" s="93"/>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="93"/>
       <c r="B269" s="93"/>
       <c r="C269" s="93"/>
@@ -5818,7 +5818,7 @@
       <c r="M269" s="93"/>
       <c r="N269" s="93"/>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="93"/>
       <c r="B270" s="93"/>
       <c r="C270" s="93"/>
@@ -5834,7 +5834,7 @@
       <c r="M270" s="93"/>
       <c r="N270" s="93"/>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="93"/>
       <c r="B271" s="93"/>
       <c r="C271" s="93"/>
@@ -5850,7 +5850,7 @@
       <c r="M271" s="93"/>
       <c r="N271" s="93"/>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="93"/>
       <c r="B272" s="93"/>
       <c r="C272" s="93"/>
@@ -5866,7 +5866,7 @@
       <c r="M272" s="93"/>
       <c r="N272" s="93"/>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="93"/>
       <c r="B273" s="93"/>
       <c r="C273" s="93"/>
@@ -5882,7 +5882,7 @@
       <c r="M273" s="93"/>
       <c r="N273" s="93"/>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="93"/>
       <c r="B274" s="93"/>
       <c r="C274" s="93"/>
@@ -5898,7 +5898,7 @@
       <c r="M274" s="93"/>
       <c r="N274" s="93"/>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="93"/>
       <c r="B275" s="93"/>
       <c r="C275" s="93"/>
@@ -5914,7 +5914,7 @@
       <c r="M275" s="93"/>
       <c r="N275" s="93"/>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="93"/>
       <c r="B276" s="93"/>
       <c r="C276" s="93"/>
@@ -5930,7 +5930,7 @@
       <c r="M276" s="93"/>
       <c r="N276" s="93"/>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="93"/>
       <c r="B277" s="93"/>
       <c r="C277" s="93"/>
@@ -5946,7 +5946,7 @@
       <c r="M277" s="93"/>
       <c r="N277" s="93"/>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="93"/>
       <c r="B278" s="93"/>
       <c r="C278" s="93"/>
@@ -5962,7 +5962,7 @@
       <c r="M278" s="93"/>
       <c r="N278" s="93"/>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="93"/>
       <c r="B279" s="93"/>
       <c r="C279" s="93"/>
@@ -5978,7 +5978,7 @@
       <c r="M279" s="93"/>
       <c r="N279" s="93"/>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="93"/>
       <c r="B280" s="93"/>
       <c r="C280" s="93"/>
@@ -5994,7 +5994,7 @@
       <c r="M280" s="93"/>
       <c r="N280" s="93"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="93"/>
       <c r="B281" s="93"/>
       <c r="C281" s="93"/>
@@ -6010,7 +6010,7 @@
       <c r="M281" s="93"/>
       <c r="N281" s="93"/>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="93"/>
       <c r="B282" s="93"/>
       <c r="C282" s="93"/>
@@ -6026,7 +6026,7 @@
       <c r="M282" s="93"/>
       <c r="N282" s="93"/>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="93"/>
       <c r="B283" s="93"/>
       <c r="C283" s="93"/>
@@ -6042,7 +6042,7 @@
       <c r="M283" s="93"/>
       <c r="N283" s="93"/>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="93"/>
       <c r="B284" s="93"/>
       <c r="C284" s="93"/>
@@ -6058,7 +6058,7 @@
       <c r="M284" s="93"/>
       <c r="N284" s="93"/>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="93"/>
       <c r="B285" s="93"/>
       <c r="C285" s="93"/>
@@ -6074,7 +6074,7 @@
       <c r="M285" s="93"/>
       <c r="N285" s="93"/>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="93"/>
       <c r="B286" s="93"/>
       <c r="C286" s="93"/>
@@ -6090,7 +6090,7 @@
       <c r="M286" s="93"/>
       <c r="N286" s="93"/>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="93"/>
       <c r="B287" s="93"/>
       <c r="C287" s="93"/>
@@ -6106,7 +6106,7 @@
       <c r="M287" s="93"/>
       <c r="N287" s="93"/>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="93"/>
       <c r="B288" s="93"/>
       <c r="C288" s="93"/>
@@ -6122,7 +6122,7 @@
       <c r="M288" s="93"/>
       <c r="N288" s="93"/>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="93"/>
       <c r="B289" s="93"/>
       <c r="C289" s="93"/>
@@ -6138,7 +6138,7 @@
       <c r="M289" s="93"/>
       <c r="N289" s="93"/>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="93"/>
       <c r="B290" s="93"/>
       <c r="C290" s="93"/>
@@ -6154,7 +6154,7 @@
       <c r="M290" s="93"/>
       <c r="N290" s="93"/>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="93"/>
       <c r="B291" s="93"/>
       <c r="C291" s="93"/>
@@ -6170,7 +6170,7 @@
       <c r="M291" s="93"/>
       <c r="N291" s="93"/>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="93"/>
       <c r="B292" s="93"/>
       <c r="C292" s="93"/>
@@ -6186,7 +6186,7 @@
       <c r="M292" s="93"/>
       <c r="N292" s="93"/>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="93"/>
       <c r="B293" s="93"/>
       <c r="C293" s="93"/>
@@ -6202,7 +6202,7 @@
       <c r="M293" s="93"/>
       <c r="N293" s="93"/>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="93"/>
       <c r="B294" s="93"/>
       <c r="C294" s="93"/>
@@ -6218,7 +6218,7 @@
       <c r="M294" s="93"/>
       <c r="N294" s="93"/>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="93"/>
       <c r="B295" s="93"/>
       <c r="C295" s="93"/>
@@ -6234,7 +6234,7 @@
       <c r="M295" s="93"/>
       <c r="N295" s="93"/>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="93"/>
       <c r="B296" s="93"/>
       <c r="C296" s="93"/>
@@ -6250,7 +6250,7 @@
       <c r="M296" s="93"/>
       <c r="N296" s="93"/>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="93"/>
       <c r="B297" s="93"/>
       <c r="C297" s="93"/>
@@ -6266,7 +6266,7 @@
       <c r="M297" s="93"/>
       <c r="N297" s="93"/>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="93"/>
       <c r="B298" s="93"/>
       <c r="C298" s="93"/>
@@ -6282,7 +6282,7 @@
       <c r="M298" s="93"/>
       <c r="N298" s="93"/>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="93"/>
       <c r="B299" s="93"/>
       <c r="C299" s="93"/>
@@ -6298,7 +6298,7 @@
       <c r="M299" s="93"/>
       <c r="N299" s="93"/>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="93"/>
       <c r="B300" s="93"/>
       <c r="C300" s="93"/>
@@ -6314,7 +6314,7 @@
       <c r="M300" s="93"/>
       <c r="N300" s="93"/>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="93"/>
       <c r="B301" s="93"/>
       <c r="C301" s="93"/>
@@ -6330,7 +6330,7 @@
       <c r="M301" s="93"/>
       <c r="N301" s="93"/>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="93"/>
       <c r="B302" s="93"/>
       <c r="C302" s="93"/>
@@ -6346,7 +6346,7 @@
       <c r="M302" s="93"/>
       <c r="N302" s="93"/>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="93"/>
       <c r="B303" s="93"/>
       <c r="C303" s="93"/>
@@ -6362,7 +6362,7 @@
       <c r="M303" s="93"/>
       <c r="N303" s="93"/>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="93"/>
       <c r="B304" s="93"/>
       <c r="C304" s="93"/>
@@ -6378,7 +6378,7 @@
       <c r="M304" s="93"/>
       <c r="N304" s="93"/>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="93"/>
       <c r="B305" s="93"/>
       <c r="C305" s="93"/>
@@ -6394,7 +6394,7 @@
       <c r="M305" s="93"/>
       <c r="N305" s="93"/>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="93"/>
       <c r="B306" s="93"/>
       <c r="C306" s="93"/>
@@ -6410,7 +6410,7 @@
       <c r="M306" s="93"/>
       <c r="N306" s="93"/>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="93"/>
       <c r="B307" s="93"/>
       <c r="C307" s="93"/>
@@ -6426,7 +6426,7 @@
       <c r="M307" s="93"/>
       <c r="N307" s="93"/>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="93"/>
       <c r="B308" s="93"/>
       <c r="C308" s="93"/>
@@ -6442,7 +6442,7 @@
       <c r="M308" s="93"/>
       <c r="N308" s="93"/>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="93"/>
       <c r="B309" s="93"/>
       <c r="C309" s="93"/>
@@ -6458,7 +6458,7 @@
       <c r="M309" s="93"/>
       <c r="N309" s="93"/>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="93"/>
       <c r="B310" s="93"/>
       <c r="C310" s="93"/>
@@ -6474,7 +6474,7 @@
       <c r="M310" s="93"/>
       <c r="N310" s="93"/>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="93"/>
       <c r="B311" s="93"/>
       <c r="C311" s="93"/>
@@ -6490,7 +6490,7 @@
       <c r="M311" s="93"/>
       <c r="N311" s="93"/>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="93"/>
       <c r="B312" s="93"/>
       <c r="C312" s="93"/>
@@ -6506,7 +6506,7 @@
       <c r="M312" s="93"/>
       <c r="N312" s="93"/>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="93"/>
       <c r="B313" s="93"/>
       <c r="C313" s="93"/>
@@ -6522,7 +6522,7 @@
       <c r="M313" s="93"/>
       <c r="N313" s="93"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="93"/>
       <c r="B314" s="93"/>
       <c r="C314" s="93"/>
@@ -6538,7 +6538,7 @@
       <c r="M314" s="93"/>
       <c r="N314" s="93"/>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="93"/>
       <c r="B315" s="93"/>
       <c r="C315" s="93"/>
@@ -6554,7 +6554,7 @@
       <c r="M315" s="93"/>
       <c r="N315" s="93"/>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="93"/>
       <c r="B316" s="93"/>
       <c r="C316" s="93"/>
@@ -6570,7 +6570,7 @@
       <c r="M316" s="93"/>
       <c r="N316" s="93"/>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="93"/>
       <c r="B317" s="93"/>
       <c r="C317" s="93"/>
@@ -6586,7 +6586,7 @@
       <c r="M317" s="93"/>
       <c r="N317" s="93"/>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="93"/>
       <c r="B318" s="93"/>
       <c r="C318" s="93"/>
@@ -6602,7 +6602,7 @@
       <c r="M318" s="93"/>
       <c r="N318" s="93"/>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="93"/>
       <c r="B319" s="93"/>
       <c r="C319" s="93"/>
@@ -6618,7 +6618,7 @@
       <c r="M319" s="93"/>
       <c r="N319" s="93"/>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="93"/>
       <c r="B320" s="93"/>
       <c r="C320" s="93"/>
@@ -6634,7 +6634,7 @@
       <c r="M320" s="93"/>
       <c r="N320" s="93"/>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="93"/>
       <c r="B321" s="93"/>
       <c r="C321" s="93"/>
@@ -6650,7 +6650,7 @@
       <c r="M321" s="93"/>
       <c r="N321" s="93"/>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="93"/>
       <c r="B322" s="93"/>
       <c r="C322" s="93"/>
@@ -6666,7 +6666,7 @@
       <c r="M322" s="93"/>
       <c r="N322" s="93"/>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="93"/>
       <c r="B323" s="93"/>
       <c r="C323" s="93"/>
@@ -6682,7 +6682,7 @@
       <c r="M323" s="93"/>
       <c r="N323" s="93"/>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="93"/>
       <c r="B324" s="93"/>
       <c r="C324" s="93"/>
@@ -6698,7 +6698,7 @@
       <c r="M324" s="93"/>
       <c r="N324" s="93"/>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="93"/>
       <c r="B325" s="93"/>
       <c r="C325" s="93"/>
@@ -6714,7 +6714,7 @@
       <c r="M325" s="93"/>
       <c r="N325" s="93"/>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="93"/>
       <c r="B326" s="93"/>
       <c r="C326" s="93"/>
@@ -6730,7 +6730,7 @@
       <c r="M326" s="93"/>
       <c r="N326" s="93"/>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="93"/>
       <c r="B327" s="93"/>
       <c r="C327" s="93"/>
@@ -6746,7 +6746,7 @@
       <c r="M327" s="93"/>
       <c r="N327" s="93"/>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="93"/>
       <c r="B328" s="93"/>
       <c r="C328" s="93"/>
@@ -6762,7 +6762,7 @@
       <c r="M328" s="93"/>
       <c r="N328" s="93"/>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" s="93"/>
       <c r="B329" s="93"/>
       <c r="C329" s="93"/>
@@ -6778,7 +6778,7 @@
       <c r="M329" s="93"/>
       <c r="N329" s="93"/>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="93"/>
       <c r="B330" s="93"/>
       <c r="C330" s="93"/>
@@ -6794,7 +6794,7 @@
       <c r="M330" s="93"/>
       <c r="N330" s="93"/>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="94"/>
       <c r="B331" s="94"/>
       <c r="C331" s="94"/>
@@ -6810,7 +6810,7 @@
       <c r="M331" s="94"/>
       <c r="N331" s="94"/>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="94"/>
       <c r="B332" s="94"/>
       <c r="C332" s="94"/>
@@ -6826,7 +6826,7 @@
       <c r="M332" s="94"/>
       <c r="N332" s="94"/>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="94"/>
       <c r="B333" s="94"/>
       <c r="C333" s="94"/>
@@ -6842,7 +6842,7 @@
       <c r="M333" s="94"/>
       <c r="N333" s="94"/>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="94"/>
       <c r="B334" s="94"/>
       <c r="C334" s="94"/>
@@ -6858,7 +6858,7 @@
       <c r="M334" s="94"/>
       <c r="N334" s="94"/>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="94"/>
       <c r="B335" s="94"/>
       <c r="C335" s="94"/>
@@ -6874,7 +6874,7 @@
       <c r="M335" s="94"/>
       <c r="N335" s="94"/>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="94"/>
       <c r="B336" s="94"/>
       <c r="C336" s="94"/>
@@ -6890,7 +6890,7 @@
       <c r="M336" s="94"/>
       <c r="N336" s="94"/>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="94"/>
       <c r="B337" s="94"/>
       <c r="C337" s="94"/>
@@ -6906,7 +6906,7 @@
       <c r="M337" s="94"/>
       <c r="N337" s="94"/>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="94"/>
       <c r="B338" s="94"/>
       <c r="C338" s="94"/>
@@ -6922,7 +6922,7 @@
       <c r="M338" s="94"/>
       <c r="N338" s="94"/>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="94"/>
       <c r="B339" s="94"/>
       <c r="C339" s="94"/>
@@ -6938,7 +6938,7 @@
       <c r="M339" s="94"/>
       <c r="N339" s="94"/>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" s="94"/>
       <c r="B340" s="94"/>
       <c r="C340" s="94"/>
@@ -6954,7 +6954,7 @@
       <c r="M340" s="94"/>
       <c r="N340" s="94"/>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" s="94"/>
       <c r="B341" s="94"/>
       <c r="C341" s="94"/>
@@ -6970,7 +6970,7 @@
       <c r="M341" s="94"/>
       <c r="N341" s="94"/>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" s="94"/>
       <c r="B342" s="94"/>
       <c r="C342" s="94"/>
@@ -6986,7 +6986,7 @@
       <c r="M342" s="94"/>
       <c r="N342" s="94"/>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" s="94"/>
       <c r="B343" s="94"/>
       <c r="C343" s="94"/>
@@ -7002,7 +7002,7 @@
       <c r="M343" s="94"/>
       <c r="N343" s="94"/>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" s="94"/>
       <c r="B344" s="94"/>
       <c r="C344" s="94"/>
@@ -7018,7 +7018,7 @@
       <c r="M344" s="94"/>
       <c r="N344" s="94"/>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" s="94"/>
       <c r="B345" s="94"/>
       <c r="C345" s="94"/>
@@ -7034,7 +7034,7 @@
       <c r="M345" s="94"/>
       <c r="N345" s="94"/>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" s="94"/>
       <c r="B346" s="94"/>
       <c r="C346" s="94"/>
@@ -7050,7 +7050,7 @@
       <c r="M346" s="94"/>
       <c r="N346" s="94"/>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" s="94"/>
       <c r="B347" s="94"/>
       <c r="C347" s="94"/>
@@ -7066,7 +7066,7 @@
       <c r="M347" s="94"/>
       <c r="N347" s="94"/>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" s="94"/>
       <c r="B348" s="94"/>
       <c r="C348" s="94"/>
@@ -7082,7 +7082,7 @@
       <c r="M348" s="94"/>
       <c r="N348" s="94"/>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" s="94"/>
       <c r="B349" s="94"/>
       <c r="C349" s="94"/>
@@ -7098,7 +7098,7 @@
       <c r="M349" s="94"/>
       <c r="N349" s="94"/>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" s="94"/>
       <c r="B350" s="94"/>
       <c r="C350" s="94"/>
@@ -7114,7 +7114,7 @@
       <c r="M350" s="94"/>
       <c r="N350" s="94"/>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" s="94"/>
       <c r="B351" s="94"/>
       <c r="C351" s="94"/>
@@ -7130,7 +7130,7 @@
       <c r="M351" s="94"/>
       <c r="N351" s="94"/>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" s="94"/>
       <c r="B352" s="94"/>
       <c r="C352" s="94"/>
@@ -7146,7 +7146,7 @@
       <c r="M352" s="94"/>
       <c r="N352" s="94"/>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" s="94"/>
       <c r="B353" s="94"/>
       <c r="C353" s="94"/>
@@ -7162,7 +7162,7 @@
       <c r="M353" s="94"/>
       <c r="N353" s="94"/>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" s="94"/>
       <c r="B354" s="94"/>
       <c r="C354" s="94"/>
@@ -7178,7 +7178,7 @@
       <c r="M354" s="94"/>
       <c r="N354" s="94"/>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" s="94"/>
       <c r="B355" s="94"/>
       <c r="C355" s="94"/>
@@ -7194,7 +7194,7 @@
       <c r="M355" s="94"/>
       <c r="N355" s="94"/>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" s="94"/>
       <c r="B356" s="94"/>
       <c r="C356" s="94"/>
@@ -7210,7 +7210,7 @@
       <c r="M356" s="94"/>
       <c r="N356" s="94"/>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" s="94"/>
       <c r="B357" s="94"/>
       <c r="C357" s="94"/>
@@ -7226,7 +7226,7 @@
       <c r="M357" s="94"/>
       <c r="N357" s="94"/>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" s="94"/>
       <c r="B358" s="94"/>
       <c r="C358" s="94"/>
@@ -7242,7 +7242,7 @@
       <c r="M358" s="94"/>
       <c r="N358" s="94"/>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" s="94"/>
       <c r="B359" s="94"/>
       <c r="C359" s="94"/>
@@ -7258,7 +7258,7 @@
       <c r="M359" s="94"/>
       <c r="N359" s="94"/>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" s="94"/>
       <c r="B360" s="94"/>
       <c r="C360" s="94"/>
@@ -7274,7 +7274,7 @@
       <c r="M360" s="94"/>
       <c r="N360" s="94"/>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" s="94"/>
       <c r="B361" s="94"/>
       <c r="C361" s="94"/>
@@ -7290,7 +7290,7 @@
       <c r="M361" s="94"/>
       <c r="N361" s="94"/>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" s="94"/>
       <c r="B362" s="94"/>
       <c r="C362" s="94"/>
@@ -7306,7 +7306,7 @@
       <c r="M362" s="94"/>
       <c r="N362" s="94"/>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" s="94"/>
       <c r="B363" s="94"/>
       <c r="C363" s="94"/>
@@ -7322,7 +7322,7 @@
       <c r="M363" s="94"/>
       <c r="N363" s="94"/>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" s="94"/>
       <c r="B364" s="94"/>
       <c r="C364" s="94"/>
@@ -7338,7 +7338,7 @@
       <c r="M364" s="94"/>
       <c r="N364" s="94"/>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" s="94"/>
       <c r="B365" s="94"/>
       <c r="C365" s="94"/>
@@ -7354,7 +7354,7 @@
       <c r="M365" s="94"/>
       <c r="N365" s="94"/>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" s="94"/>
       <c r="B366" s="94"/>
       <c r="C366" s="94"/>
@@ -7370,7 +7370,7 @@
       <c r="M366" s="94"/>
       <c r="N366" s="94"/>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" s="94"/>
       <c r="B367" s="94"/>
       <c r="C367" s="94"/>
@@ -7386,7 +7386,7 @@
       <c r="M367" s="94"/>
       <c r="N367" s="94"/>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" s="94"/>
       <c r="B368" s="94"/>
       <c r="C368" s="94"/>
@@ -7402,7 +7402,7 @@
       <c r="M368" s="94"/>
       <c r="N368" s="94"/>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" s="94"/>
       <c r="B369" s="94"/>
       <c r="C369" s="94"/>
@@ -7418,7 +7418,7 @@
       <c r="M369" s="94"/>
       <c r="N369" s="94"/>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" s="94"/>
       <c r="B370" s="94"/>
       <c r="C370" s="94"/>
@@ -7434,7 +7434,7 @@
       <c r="M370" s="94"/>
       <c r="N370" s="94"/>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" s="94"/>
       <c r="B371" s="94"/>
       <c r="C371" s="94"/>
@@ -7450,7 +7450,7 @@
       <c r="M371" s="94"/>
       <c r="N371" s="94"/>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" s="94"/>
       <c r="B372" s="94"/>
       <c r="C372" s="94"/>
@@ -7466,7 +7466,7 @@
       <c r="M372" s="94"/>
       <c r="N372" s="94"/>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" s="94"/>
       <c r="B373" s="94"/>
       <c r="C373" s="94"/>
@@ -7482,7 +7482,7 @@
       <c r="M373" s="94"/>
       <c r="N373" s="94"/>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" s="94"/>
       <c r="B374" s="94"/>
       <c r="C374" s="94"/>
@@ -7498,7 +7498,7 @@
       <c r="M374" s="94"/>
       <c r="N374" s="94"/>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" s="94"/>
       <c r="B375" s="94"/>
       <c r="C375" s="94"/>
@@ -7514,7 +7514,7 @@
       <c r="M375" s="94"/>
       <c r="N375" s="94"/>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" s="94"/>
       <c r="B376" s="94"/>
       <c r="C376" s="94"/>
@@ -7530,7 +7530,7 @@
       <c r="M376" s="94"/>
       <c r="N376" s="94"/>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" s="94"/>
       <c r="B377" s="94"/>
       <c r="C377" s="94"/>
@@ -7546,7 +7546,7 @@
       <c r="M377" s="94"/>
       <c r="N377" s="94"/>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" s="94"/>
       <c r="B378" s="94"/>
       <c r="C378" s="94"/>
@@ -7562,7 +7562,7 @@
       <c r="M378" s="94"/>
       <c r="N378" s="94"/>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" s="94"/>
       <c r="B379" s="94"/>
       <c r="C379" s="94"/>
@@ -7578,7 +7578,7 @@
       <c r="M379" s="94"/>
       <c r="N379" s="94"/>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" s="94"/>
       <c r="B380" s="94"/>
       <c r="C380" s="94"/>
@@ -7594,7 +7594,7 @@
       <c r="M380" s="94"/>
       <c r="N380" s="94"/>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" s="94"/>
       <c r="B381" s="94"/>
       <c r="C381" s="94"/>
@@ -7610,7 +7610,7 @@
       <c r="M381" s="94"/>
       <c r="N381" s="94"/>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" s="94"/>
       <c r="B382" s="94"/>
       <c r="C382" s="94"/>
@@ -7626,7 +7626,7 @@
       <c r="M382" s="94"/>
       <c r="N382" s="94"/>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" s="94"/>
       <c r="B383" s="94"/>
       <c r="C383" s="94"/>
@@ -7642,7 +7642,7 @@
       <c r="M383" s="94"/>
       <c r="N383" s="94"/>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" s="94"/>
       <c r="B384" s="94"/>
       <c r="C384" s="94"/>
@@ -7658,7 +7658,7 @@
       <c r="M384" s="94"/>
       <c r="N384" s="94"/>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" s="94"/>
       <c r="B385" s="94"/>
       <c r="C385" s="94"/>
@@ -7674,7 +7674,7 @@
       <c r="M385" s="94"/>
       <c r="N385" s="94"/>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" s="94"/>
       <c r="B386" s="94"/>
       <c r="C386" s="94"/>
@@ -7690,7 +7690,7 @@
       <c r="M386" s="94"/>
       <c r="N386" s="94"/>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" s="94"/>
       <c r="B387" s="94"/>
       <c r="C387" s="94"/>
@@ -7706,7 +7706,7 @@
       <c r="M387" s="94"/>
       <c r="N387" s="94"/>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" s="94"/>
       <c r="B388" s="94"/>
       <c r="C388" s="94"/>
@@ -7722,7 +7722,7 @@
       <c r="M388" s="94"/>
       <c r="N388" s="94"/>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" s="94"/>
       <c r="B389" s="94"/>
       <c r="C389" s="94"/>
@@ -7738,7 +7738,7 @@
       <c r="M389" s="94"/>
       <c r="N389" s="94"/>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" s="94"/>
       <c r="B390" s="94"/>
       <c r="C390" s="94"/>
@@ -7754,7 +7754,7 @@
       <c r="M390" s="94"/>
       <c r="N390" s="94"/>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" s="94"/>
       <c r="B391" s="94"/>
       <c r="C391" s="94"/>
@@ -7770,7 +7770,7 @@
       <c r="M391" s="94"/>
       <c r="N391" s="94"/>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" s="94"/>
       <c r="B392" s="94"/>
       <c r="C392" s="94"/>
@@ -7786,7 +7786,7 @@
       <c r="M392" s="94"/>
       <c r="N392" s="94"/>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" s="94"/>
       <c r="B393" s="94"/>
       <c r="C393" s="94"/>
@@ -7802,7 +7802,7 @@
       <c r="M393" s="94"/>
       <c r="N393" s="94"/>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" s="94"/>
       <c r="B394" s="94"/>
       <c r="C394" s="94"/>
@@ -7818,7 +7818,7 @@
       <c r="M394" s="94"/>
       <c r="N394" s="94"/>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" s="94"/>
       <c r="B395" s="94"/>
       <c r="C395" s="94"/>
@@ -7834,7 +7834,7 @@
       <c r="M395" s="94"/>
       <c r="N395" s="94"/>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" s="94"/>
       <c r="B396" s="94"/>
       <c r="C396" s="94"/>
@@ -7850,7 +7850,7 @@
       <c r="M396" s="94"/>
       <c r="N396" s="94"/>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" s="94"/>
       <c r="B397" s="94"/>
       <c r="C397" s="94"/>
@@ -7866,7 +7866,7 @@
       <c r="M397" s="94"/>
       <c r="N397" s="94"/>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" s="94"/>
       <c r="B398" s="94"/>
       <c r="C398" s="94"/>
@@ -7882,7 +7882,7 @@
       <c r="M398" s="94"/>
       <c r="N398" s="94"/>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" s="94"/>
       <c r="B399" s="94"/>
       <c r="C399" s="94"/>
@@ -7898,7 +7898,7 @@
       <c r="M399" s="94"/>
       <c r="N399" s="94"/>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" s="94"/>
       <c r="B400" s="94"/>
       <c r="C400" s="94"/>
@@ -7914,7 +7914,7 @@
       <c r="M400" s="94"/>
       <c r="N400" s="94"/>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" s="94"/>
       <c r="B401" s="94"/>
       <c r="C401" s="94"/>
@@ -7930,7 +7930,7 @@
       <c r="M401" s="94"/>
       <c r="N401" s="94"/>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" s="94"/>
       <c r="B402" s="94"/>
       <c r="C402" s="94"/>
@@ -7946,7 +7946,7 @@
       <c r="M402" s="94"/>
       <c r="N402" s="94"/>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" s="94"/>
       <c r="B403" s="94"/>
       <c r="C403" s="94"/>
@@ -7962,7 +7962,7 @@
       <c r="M403" s="94"/>
       <c r="N403" s="94"/>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" s="94"/>
       <c r="B404" s="94"/>
       <c r="C404" s="94"/>
@@ -7978,7 +7978,7 @@
       <c r="M404" s="94"/>
       <c r="N404" s="94"/>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" s="94"/>
       <c r="B405" s="94"/>
       <c r="C405" s="94"/>
@@ -7994,7 +7994,7 @@
       <c r="M405" s="94"/>
       <c r="N405" s="94"/>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" s="94"/>
       <c r="B406" s="94"/>
       <c r="C406" s="94"/>
@@ -8010,7 +8010,7 @@
       <c r="M406" s="94"/>
       <c r="N406" s="94"/>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" s="94"/>
       <c r="B407" s="94"/>
       <c r="C407" s="94"/>
@@ -8026,7 +8026,7 @@
       <c r="M407" s="94"/>
       <c r="N407" s="94"/>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" s="94"/>
       <c r="B408" s="94"/>
       <c r="C408" s="94"/>
@@ -8042,7 +8042,7 @@
       <c r="M408" s="94"/>
       <c r="N408" s="94"/>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" s="94"/>
       <c r="B409" s="94"/>
       <c r="C409" s="94"/>
@@ -8058,7 +8058,7 @@
       <c r="M409" s="94"/>
       <c r="N409" s="94"/>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" s="94"/>
       <c r="B410" s="94"/>
       <c r="C410" s="94"/>
@@ -8074,7 +8074,7 @@
       <c r="M410" s="94"/>
       <c r="N410" s="94"/>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" s="94"/>
       <c r="B411" s="94"/>
       <c r="C411" s="94"/>
@@ -8090,7 +8090,7 @@
       <c r="M411" s="94"/>
       <c r="N411" s="94"/>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" s="94"/>
       <c r="B412" s="94"/>
       <c r="C412" s="94"/>
@@ -8106,7 +8106,7 @@
       <c r="M412" s="94"/>
       <c r="N412" s="94"/>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" s="94"/>
       <c r="B413" s="94"/>
       <c r="C413" s="94"/>
@@ -8122,7 +8122,7 @@
       <c r="M413" s="94"/>
       <c r="N413" s="94"/>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" s="94"/>
       <c r="B414" s="94"/>
       <c r="C414" s="94"/>
@@ -8138,7 +8138,7 @@
       <c r="M414" s="94"/>
       <c r="N414" s="94"/>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" s="94"/>
       <c r="B415" s="94"/>
       <c r="C415" s="94"/>
@@ -8154,7 +8154,7 @@
       <c r="M415" s="94"/>
       <c r="N415" s="94"/>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" s="94"/>
       <c r="B416" s="94"/>
       <c r="C416" s="94"/>
@@ -8170,7 +8170,7 @@
       <c r="M416" s="94"/>
       <c r="N416" s="94"/>
     </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" s="94"/>
       <c r="B417" s="94"/>
       <c r="C417" s="94"/>
@@ -8186,7 +8186,7 @@
       <c r="M417" s="94"/>
       <c r="N417" s="94"/>
     </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" s="94"/>
       <c r="B418" s="94"/>
       <c r="C418" s="94"/>
@@ -8202,7 +8202,7 @@
       <c r="M418" s="94"/>
       <c r="N418" s="94"/>
     </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" s="94"/>
       <c r="B419" s="94"/>
       <c r="C419" s="94"/>
@@ -8218,7 +8218,7 @@
       <c r="M419" s="94"/>
       <c r="N419" s="94"/>
     </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" s="94"/>
       <c r="B420" s="94"/>
       <c r="C420" s="94"/>
@@ -8234,7 +8234,7 @@
       <c r="M420" s="94"/>
       <c r="N420" s="94"/>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" s="94"/>
       <c r="B421" s="94"/>
       <c r="C421" s="94"/>
@@ -8250,7 +8250,7 @@
       <c r="M421" s="94"/>
       <c r="N421" s="94"/>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" s="94"/>
       <c r="B422" s="94"/>
       <c r="C422" s="94"/>
@@ -8266,7 +8266,7 @@
       <c r="M422" s="94"/>
       <c r="N422" s="94"/>
     </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" s="94"/>
       <c r="B423" s="94"/>
       <c r="C423" s="94"/>
@@ -8282,7 +8282,7 @@
       <c r="M423" s="94"/>
       <c r="N423" s="94"/>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" s="94"/>
       <c r="B424" s="94"/>
       <c r="C424" s="94"/>
@@ -8298,7 +8298,7 @@
       <c r="M424" s="94"/>
       <c r="N424" s="94"/>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" s="94"/>
       <c r="B425" s="94"/>
       <c r="C425" s="94"/>
@@ -8314,7 +8314,7 @@
       <c r="M425" s="94"/>
       <c r="N425" s="94"/>
     </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" s="94"/>
       <c r="B426" s="94"/>
       <c r="C426" s="94"/>
@@ -8330,7 +8330,7 @@
       <c r="M426" s="94"/>
       <c r="N426" s="94"/>
     </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" s="94"/>
       <c r="B427" s="94"/>
       <c r="C427" s="94"/>
@@ -8346,7 +8346,7 @@
       <c r="M427" s="94"/>
       <c r="N427" s="94"/>
     </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" s="94"/>
       <c r="B428" s="94"/>
       <c r="C428" s="94"/>
@@ -8362,7 +8362,7 @@
       <c r="M428" s="94"/>
       <c r="N428" s="94"/>
     </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" s="94"/>
       <c r="B429" s="94"/>
       <c r="C429" s="94"/>
@@ -8378,7 +8378,7 @@
       <c r="M429" s="94"/>
       <c r="N429" s="94"/>
     </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" s="94"/>
       <c r="B430" s="94"/>
       <c r="C430" s="94"/>
@@ -8394,7 +8394,7 @@
       <c r="M430" s="94"/>
       <c r="N430" s="94"/>
     </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" s="94"/>
       <c r="B431" s="94"/>
       <c r="C431" s="94"/>
@@ -8410,7 +8410,7 @@
       <c r="M431" s="94"/>
       <c r="N431" s="94"/>
     </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" s="94"/>
       <c r="B432" s="94"/>
       <c r="C432" s="94"/>
@@ -8426,7 +8426,7 @@
       <c r="M432" s="94"/>
       <c r="N432" s="94"/>
     </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" s="94"/>
       <c r="B433" s="94"/>
       <c r="C433" s="94"/>
@@ -8442,7 +8442,7 @@
       <c r="M433" s="94"/>
       <c r="N433" s="94"/>
     </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" s="94"/>
       <c r="B434" s="94"/>
       <c r="C434" s="94"/>
@@ -8458,7 +8458,7 @@
       <c r="M434" s="94"/>
       <c r="N434" s="94"/>
     </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" s="94"/>
       <c r="B435" s="94"/>
       <c r="C435" s="94"/>
@@ -8474,7 +8474,7 @@
       <c r="M435" s="94"/>
       <c r="N435" s="94"/>
     </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" s="94"/>
       <c r="B436" s="94"/>
       <c r="C436" s="94"/>
@@ -8490,7 +8490,7 @@
       <c r="M436" s="94"/>
       <c r="N436" s="94"/>
     </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" s="94"/>
       <c r="B437" s="94"/>
       <c r="C437" s="94"/>
@@ -8506,7 +8506,7 @@
       <c r="M437" s="94"/>
       <c r="N437" s="94"/>
     </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" s="94"/>
       <c r="B438" s="94"/>
       <c r="C438" s="94"/>
@@ -8522,7 +8522,7 @@
       <c r="M438" s="94"/>
       <c r="N438" s="94"/>
     </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" s="94"/>
       <c r="B439" s="94"/>
       <c r="C439" s="94"/>
@@ -8538,7 +8538,7 @@
       <c r="M439" s="94"/>
       <c r="N439" s="94"/>
     </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" s="94"/>
       <c r="B440" s="94"/>
       <c r="C440" s="94"/>
@@ -8554,7 +8554,7 @@
       <c r="M440" s="94"/>
       <c r="N440" s="94"/>
     </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" s="94"/>
       <c r="B441" s="94"/>
       <c r="C441" s="94"/>
@@ -8570,7 +8570,7 @@
       <c r="M441" s="94"/>
       <c r="N441" s="94"/>
     </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" s="94"/>
       <c r="B442" s="94"/>
       <c r="C442" s="94"/>
@@ -8586,7 +8586,7 @@
       <c r="M442" s="94"/>
       <c r="N442" s="94"/>
     </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" s="94"/>
       <c r="B443" s="94"/>
       <c r="C443" s="94"/>
@@ -8602,7 +8602,7 @@
       <c r="M443" s="94"/>
       <c r="N443" s="94"/>
     </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" s="94"/>
       <c r="B444" s="94"/>
       <c r="C444" s="94"/>
@@ -8618,7 +8618,7 @@
       <c r="M444" s="94"/>
       <c r="N444" s="94"/>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" s="94"/>
       <c r="B445" s="94"/>
       <c r="C445" s="94"/>
@@ -8634,7 +8634,7 @@
       <c r="M445" s="94"/>
       <c r="N445" s="94"/>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" s="94"/>
       <c r="B446" s="94"/>
       <c r="C446" s="94"/>
@@ -8650,7 +8650,7 @@
       <c r="M446" s="94"/>
       <c r="N446" s="94"/>
     </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" s="94"/>
       <c r="B447" s="94"/>
       <c r="C447" s="94"/>
@@ -8666,7 +8666,7 @@
       <c r="M447" s="94"/>
       <c r="N447" s="94"/>
     </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" s="94"/>
       <c r="B448" s="94"/>
       <c r="C448" s="94"/>
@@ -8682,7 +8682,7 @@
       <c r="M448" s="94"/>
       <c r="N448" s="94"/>
     </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" s="94"/>
       <c r="B449" s="94"/>
       <c r="C449" s="94"/>
@@ -8698,7 +8698,7 @@
       <c r="M449" s="94"/>
       <c r="N449" s="94"/>
     </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" s="94"/>
       <c r="B450" s="94"/>
       <c r="C450" s="94"/>
@@ -8714,7 +8714,7 @@
       <c r="M450" s="94"/>
       <c r="N450" s="94"/>
     </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" s="94"/>
       <c r="B451" s="94"/>
       <c r="C451" s="94"/>
@@ -8730,7 +8730,7 @@
       <c r="M451" s="94"/>
       <c r="N451" s="94"/>
     </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" s="94"/>
       <c r="B452" s="94"/>
       <c r="C452" s="94"/>
@@ -8746,7 +8746,7 @@
       <c r="M452" s="94"/>
       <c r="N452" s="94"/>
     </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" s="94"/>
       <c r="B453" s="94"/>
       <c r="C453" s="94"/>
@@ -8762,7 +8762,7 @@
       <c r="M453" s="94"/>
       <c r="N453" s="94"/>
     </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" s="94"/>
       <c r="B454" s="94"/>
       <c r="C454" s="94"/>
@@ -8778,7 +8778,7 @@
       <c r="M454" s="94"/>
       <c r="N454" s="94"/>
     </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" s="94"/>
       <c r="B455" s="94"/>
       <c r="C455" s="94"/>
@@ -8794,7 +8794,7 @@
       <c r="M455" s="94"/>
       <c r="N455" s="94"/>
     </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" s="94"/>
       <c r="B456" s="94"/>
       <c r="C456" s="94"/>
@@ -8810,7 +8810,7 @@
       <c r="M456" s="94"/>
       <c r="N456" s="94"/>
     </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" s="94"/>
       <c r="B457" s="94"/>
       <c r="C457" s="94"/>
@@ -8826,7 +8826,7 @@
       <c r="M457" s="94"/>
       <c r="N457" s="94"/>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" s="94"/>
       <c r="B458" s="94"/>
       <c r="C458" s="94"/>
@@ -8842,7 +8842,7 @@
       <c r="M458" s="94"/>
       <c r="N458" s="94"/>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" s="94"/>
       <c r="B459" s="94"/>
       <c r="C459" s="94"/>
@@ -8858,7 +8858,7 @@
       <c r="M459" s="94"/>
       <c r="N459" s="94"/>
     </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" s="94"/>
       <c r="B460" s="94"/>
       <c r="C460" s="94"/>
@@ -8874,7 +8874,7 @@
       <c r="M460" s="94"/>
       <c r="N460" s="94"/>
     </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" s="94"/>
       <c r="B461" s="94"/>
       <c r="C461" s="94"/>
@@ -8890,7 +8890,7 @@
       <c r="M461" s="94"/>
       <c r="N461" s="94"/>
     </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" s="94"/>
       <c r="B462" s="94"/>
       <c r="C462" s="94"/>
@@ -8906,7 +8906,7 @@
       <c r="M462" s="94"/>
       <c r="N462" s="94"/>
     </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" s="94"/>
       <c r="B463" s="94"/>
       <c r="C463" s="94"/>
@@ -8922,7 +8922,7 @@
       <c r="M463" s="94"/>
       <c r="N463" s="94"/>
     </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" s="94"/>
       <c r="B464" s="94"/>
       <c r="C464" s="94"/>
@@ -8938,7 +8938,7 @@
       <c r="M464" s="94"/>
       <c r="N464" s="94"/>
     </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" s="94"/>
       <c r="B465" s="94"/>
       <c r="C465" s="94"/>
@@ -8954,7 +8954,7 @@
       <c r="M465" s="94"/>
       <c r="N465" s="94"/>
     </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" s="94"/>
       <c r="B466" s="94"/>
       <c r="C466" s="94"/>
@@ -8970,7 +8970,7 @@
       <c r="M466" s="94"/>
       <c r="N466" s="94"/>
     </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" s="94"/>
       <c r="B467" s="94"/>
       <c r="C467" s="94"/>
@@ -8986,7 +8986,7 @@
       <c r="M467" s="94"/>
       <c r="N467" s="94"/>
     </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" s="94"/>
       <c r="B468" s="94"/>
       <c r="C468" s="94"/>
@@ -9002,7 +9002,7 @@
       <c r="M468" s="94"/>
       <c r="N468" s="94"/>
     </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" s="94"/>
       <c r="B469" s="94"/>
       <c r="C469" s="94"/>
@@ -9018,7 +9018,7 @@
       <c r="M469" s="94"/>
       <c r="N469" s="94"/>
     </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" s="94"/>
       <c r="B470" s="94"/>
       <c r="C470" s="94"/>
@@ -9034,7 +9034,7 @@
       <c r="M470" s="94"/>
       <c r="N470" s="94"/>
     </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" s="94"/>
       <c r="B471" s="94"/>
       <c r="C471" s="94"/>
@@ -9050,7 +9050,7 @@
       <c r="M471" s="94"/>
       <c r="N471" s="94"/>
     </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" s="94"/>
       <c r="B472" s="94"/>
       <c r="C472" s="94"/>
@@ -9066,7 +9066,7 @@
       <c r="M472" s="94"/>
       <c r="N472" s="94"/>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" s="94"/>
       <c r="B473" s="94"/>
       <c r="C473" s="94"/>
@@ -9082,7 +9082,7 @@
       <c r="M473" s="94"/>
       <c r="N473" s="94"/>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" s="94"/>
       <c r="B474" s="94"/>
       <c r="C474" s="94"/>
@@ -9098,7 +9098,7 @@
       <c r="M474" s="94"/>
       <c r="N474" s="94"/>
     </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" s="94"/>
       <c r="B475" s="94"/>
       <c r="C475" s="94"/>
@@ -9114,7 +9114,7 @@
       <c r="M475" s="94"/>
       <c r="N475" s="94"/>
     </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" s="94"/>
       <c r="B476" s="94"/>
       <c r="C476" s="94"/>
@@ -9130,7 +9130,7 @@
       <c r="M476" s="94"/>
       <c r="N476" s="94"/>
     </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" s="94"/>
       <c r="B477" s="94"/>
       <c r="C477" s="94"/>
@@ -9146,7 +9146,7 @@
       <c r="M477" s="94"/>
       <c r="N477" s="94"/>
     </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" s="94"/>
       <c r="B478" s="94"/>
       <c r="C478" s="94"/>
@@ -9162,7 +9162,7 @@
       <c r="M478" s="94"/>
       <c r="N478" s="94"/>
     </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" s="94"/>
       <c r="B479" s="94"/>
       <c r="C479" s="94"/>
@@ -9178,7 +9178,7 @@
       <c r="M479" s="94"/>
       <c r="N479" s="94"/>
     </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" s="94"/>
       <c r="B480" s="94"/>
       <c r="C480" s="94"/>
@@ -9194,7 +9194,7 @@
       <c r="M480" s="94"/>
       <c r="N480" s="94"/>
     </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" s="94"/>
       <c r="B481" s="94"/>
       <c r="C481" s="94"/>
@@ -9210,7 +9210,7 @@
       <c r="M481" s="94"/>
       <c r="N481" s="94"/>
     </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" s="94"/>
       <c r="B482" s="94"/>
       <c r="C482" s="94"/>
@@ -9226,7 +9226,7 @@
       <c r="M482" s="94"/>
       <c r="N482" s="94"/>
     </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" s="94"/>
       <c r="B483" s="94"/>
       <c r="C483" s="94"/>
@@ -9242,7 +9242,7 @@
       <c r="M483" s="94"/>
       <c r="N483" s="94"/>
     </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" s="94"/>
       <c r="B484" s="94"/>
       <c r="C484" s="94"/>
@@ -9258,7 +9258,7 @@
       <c r="M484" s="94"/>
       <c r="N484" s="94"/>
     </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" s="94"/>
       <c r="B485" s="94"/>
       <c r="C485" s="94"/>
@@ -9274,7 +9274,7 @@
       <c r="M485" s="94"/>
       <c r="N485" s="94"/>
     </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" s="94"/>
       <c r="B486" s="94"/>
       <c r="C486" s="94"/>
@@ -9290,7 +9290,7 @@
       <c r="M486" s="94"/>
       <c r="N486" s="94"/>
     </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" s="94"/>
       <c r="B487" s="94"/>
       <c r="C487" s="94"/>
@@ -9306,7 +9306,7 @@
       <c r="M487" s="94"/>
       <c r="N487" s="94"/>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" s="94"/>
       <c r="B488" s="94"/>
       <c r="C488" s="94"/>
@@ -9322,7 +9322,7 @@
       <c r="M488" s="94"/>
       <c r="N488" s="94"/>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" s="94"/>
       <c r="B489" s="94"/>
       <c r="C489" s="94"/>
@@ -9338,7 +9338,7 @@
       <c r="M489" s="94"/>
       <c r="N489" s="94"/>
     </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" s="94"/>
       <c r="B490" s="94"/>
       <c r="C490" s="94"/>
@@ -9354,7 +9354,7 @@
       <c r="M490" s="94"/>
       <c r="N490" s="94"/>
     </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" s="94"/>
       <c r="B491" s="94"/>
       <c r="C491" s="94"/>
@@ -9370,7 +9370,7 @@
       <c r="M491" s="94"/>
       <c r="N491" s="94"/>
     </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" s="94"/>
       <c r="B492" s="94"/>
       <c r="C492" s="94"/>
@@ -9386,7 +9386,7 @@
       <c r="M492" s="94"/>
       <c r="N492" s="94"/>
     </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" s="94"/>
       <c r="B493" s="94"/>
       <c r="C493" s="94"/>
@@ -9402,7 +9402,7 @@
       <c r="M493" s="94"/>
       <c r="N493" s="94"/>
     </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" s="94"/>
       <c r="B494" s="94"/>
       <c r="C494" s="94"/>
@@ -9418,7 +9418,7 @@
       <c r="M494" s="94"/>
       <c r="N494" s="94"/>
     </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" s="94"/>
       <c r="B495" s="94"/>
       <c r="C495" s="94"/>
@@ -9434,7 +9434,7 @@
       <c r="M495" s="94"/>
       <c r="N495" s="94"/>
     </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" s="94"/>
       <c r="B496" s="94"/>
       <c r="C496" s="94"/>
@@ -9450,7 +9450,7 @@
       <c r="M496" s="94"/>
       <c r="N496" s="94"/>
     </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" s="94"/>
       <c r="B497" s="94"/>
       <c r="C497" s="94"/>
@@ -9466,7 +9466,7 @@
       <c r="M497" s="94"/>
       <c r="N497" s="94"/>
     </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" s="94"/>
       <c r="B498" s="94"/>
       <c r="C498" s="94"/>
@@ -9482,7 +9482,7 @@
       <c r="M498" s="94"/>
       <c r="N498" s="94"/>
     </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" s="94"/>
       <c r="B499" s="94"/>
       <c r="C499" s="94"/>
@@ -9498,7 +9498,7 @@
       <c r="M499" s="94"/>
       <c r="N499" s="94"/>
     </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" s="94"/>
       <c r="B500" s="94"/>
       <c r="C500" s="94"/>
@@ -9514,7 +9514,7 @@
       <c r="M500" s="94"/>
       <c r="N500" s="94"/>
     </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" s="94"/>
       <c r="B501" s="94"/>
       <c r="C501" s="94"/>
@@ -9530,7 +9530,7 @@
       <c r="M501" s="94"/>
       <c r="N501" s="94"/>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" s="94"/>
       <c r="B502" s="94"/>
       <c r="C502" s="94"/>
@@ -9546,7 +9546,7 @@
       <c r="M502" s="94"/>
       <c r="N502" s="94"/>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" s="94"/>
       <c r="B503" s="94"/>
       <c r="C503" s="94"/>
@@ -9562,7 +9562,7 @@
       <c r="M503" s="94"/>
       <c r="N503" s="94"/>
     </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" s="94"/>
       <c r="B504" s="94"/>
       <c r="C504" s="94"/>
@@ -9578,7 +9578,7 @@
       <c r="M504" s="94"/>
       <c r="N504" s="94"/>
     </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" s="94"/>
       <c r="B505" s="94"/>
       <c r="C505" s="94"/>
@@ -9594,7 +9594,7 @@
       <c r="M505" s="94"/>
       <c r="N505" s="94"/>
     </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" s="94"/>
       <c r="B506" s="94"/>
       <c r="C506" s="94"/>
@@ -9610,7 +9610,7 @@
       <c r="M506" s="94"/>
       <c r="N506" s="94"/>
     </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" s="94"/>
       <c r="B507" s="94"/>
       <c r="C507" s="94"/>
@@ -9626,7 +9626,7 @@
       <c r="M507" s="94"/>
       <c r="N507" s="94"/>
     </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" s="94"/>
       <c r="B508" s="94"/>
       <c r="C508" s="94"/>
@@ -9642,7 +9642,7 @@
       <c r="M508" s="94"/>
       <c r="N508" s="94"/>
     </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" s="94"/>
       <c r="B509" s="94"/>
       <c r="C509" s="94"/>
@@ -9658,7 +9658,7 @@
       <c r="M509" s="94"/>
       <c r="N509" s="94"/>
     </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" s="94"/>
       <c r="B510" s="94"/>
       <c r="C510" s="94"/>
@@ -9674,7 +9674,7 @@
       <c r="M510" s="94"/>
       <c r="N510" s="94"/>
     </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" s="94"/>
       <c r="B511" s="94"/>
       <c r="C511" s="94"/>
@@ -9690,7 +9690,7 @@
       <c r="M511" s="94"/>
       <c r="N511" s="94"/>
     </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A512" s="94"/>
       <c r="B512" s="94"/>
       <c r="C512" s="94"/>
@@ -9706,7 +9706,7 @@
       <c r="M512" s="94"/>
       <c r="N512" s="94"/>
     </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A513" s="94"/>
       <c r="B513" s="94"/>
       <c r="C513" s="94"/>
@@ -9722,7 +9722,7 @@
       <c r="M513" s="94"/>
       <c r="N513" s="94"/>
     </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A514" s="94"/>
       <c r="B514" s="94"/>
       <c r="C514" s="94"/>
@@ -9738,7 +9738,7 @@
       <c r="M514" s="94"/>
       <c r="N514" s="94"/>
     </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A515" s="94"/>
       <c r="B515" s="94"/>
       <c r="C515" s="94"/>
@@ -9754,7 +9754,7 @@
       <c r="M515" s="94"/>
       <c r="N515" s="94"/>
     </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A516" s="94"/>
       <c r="B516" s="94"/>
       <c r="C516" s="94"/>
@@ -9770,7 +9770,7 @@
       <c r="M516" s="94"/>
       <c r="N516" s="94"/>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" s="94"/>
       <c r="B517" s="94"/>
       <c r="C517" s="94"/>
@@ -9786,7 +9786,7 @@
       <c r="M517" s="94"/>
       <c r="N517" s="94"/>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A518" s="94"/>
       <c r="B518" s="94"/>
       <c r="C518" s="94"/>
@@ -9802,7 +9802,7 @@
       <c r="M518" s="94"/>
       <c r="N518" s="94"/>
     </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A519" s="94"/>
       <c r="B519" s="94"/>
       <c r="C519" s="94"/>
@@ -9818,7 +9818,7 @@
       <c r="M519" s="94"/>
       <c r="N519" s="94"/>
     </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A520" s="94"/>
       <c r="B520" s="94"/>
       <c r="C520" s="94"/>
@@ -9834,7 +9834,7 @@
       <c r="M520" s="94"/>
       <c r="N520" s="94"/>
     </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A521" s="94"/>
       <c r="B521" s="94"/>
       <c r="C521" s="94"/>
@@ -9850,7 +9850,7 @@
       <c r="M521" s="94"/>
       <c r="N521" s="94"/>
     </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" s="94"/>
       <c r="B522" s="94"/>
       <c r="C522" s="94"/>
@@ -9866,7 +9866,7 @@
       <c r="M522" s="94"/>
       <c r="N522" s="94"/>
     </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A523" s="94"/>
       <c r="B523" s="94"/>
       <c r="C523" s="94"/>
@@ -9882,7 +9882,7 @@
       <c r="M523" s="94"/>
       <c r="N523" s="94"/>
     </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A524" s="94"/>
       <c r="B524" s="94"/>
       <c r="C524" s="94"/>
@@ -9898,7 +9898,7 @@
       <c r="M524" s="94"/>
       <c r="N524" s="94"/>
     </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A525" s="94"/>
       <c r="B525" s="94"/>
       <c r="C525" s="94"/>
@@ -9914,7 +9914,7 @@
       <c r="M525" s="94"/>
       <c r="N525" s="94"/>
     </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" s="94"/>
       <c r="B526" s="94"/>
       <c r="C526" s="94"/>
@@ -9930,7 +9930,7 @@
       <c r="M526" s="94"/>
       <c r="N526" s="94"/>
     </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A527" s="94"/>
       <c r="B527" s="94"/>
       <c r="C527" s="94"/>
@@ -9946,7 +9946,7 @@
       <c r="M527" s="94"/>
       <c r="N527" s="94"/>
     </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A528" s="94"/>
       <c r="B528" s="94"/>
       <c r="C528" s="94"/>
@@ -9962,7 +9962,7 @@
       <c r="M528" s="94"/>
       <c r="N528" s="94"/>
     </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A529" s="94"/>
       <c r="B529" s="94"/>
       <c r="C529" s="94"/>
@@ -9978,7 +9978,7 @@
       <c r="M529" s="94"/>
       <c r="N529" s="94"/>
     </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A530" s="94"/>
       <c r="B530" s="94"/>
       <c r="C530" s="94"/>
@@ -9994,7 +9994,7 @@
       <c r="M530" s="94"/>
       <c r="N530" s="94"/>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A531" s="94"/>
       <c r="B531" s="94"/>
       <c r="C531" s="94"/>
@@ -10010,7 +10010,7 @@
       <c r="M531" s="94"/>
       <c r="N531" s="94"/>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A532" s="94"/>
       <c r="B532" s="94"/>
       <c r="C532" s="94"/>
@@ -10026,7 +10026,7 @@
       <c r="M532" s="94"/>
       <c r="N532" s="94"/>
     </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A533" s="94"/>
       <c r="B533" s="94"/>
       <c r="C533" s="94"/>
@@ -10042,7 +10042,7 @@
       <c r="M533" s="94"/>
       <c r="N533" s="94"/>
     </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A534" s="94"/>
       <c r="B534" s="94"/>
       <c r="C534" s="94"/>
@@ -10058,7 +10058,7 @@
       <c r="M534" s="94"/>
       <c r="N534" s="94"/>
     </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A535" s="94"/>
       <c r="B535" s="94"/>
       <c r="C535" s="94"/>
@@ -10074,7 +10074,7 @@
       <c r="M535" s="94"/>
       <c r="N535" s="94"/>
     </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A536" s="94"/>
       <c r="B536" s="94"/>
       <c r="C536" s="94"/>
@@ -10090,7 +10090,7 @@
       <c r="M536" s="94"/>
       <c r="N536" s="94"/>
     </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A537" s="94"/>
       <c r="B537" s="94"/>
       <c r="C537" s="94"/>
@@ -10106,7 +10106,7 @@
       <c r="M537" s="94"/>
       <c r="N537" s="94"/>
     </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A538" s="94"/>
       <c r="B538" s="94"/>
       <c r="C538" s="94"/>
@@ -10122,7 +10122,7 @@
       <c r="M538" s="94"/>
       <c r="N538" s="94"/>
     </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A539" s="94"/>
       <c r="B539" s="94"/>
       <c r="C539" s="94"/>
@@ -10138,7 +10138,7 @@
       <c r="M539" s="94"/>
       <c r="N539" s="94"/>
     </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A540" s="94"/>
       <c r="B540" s="94"/>
       <c r="C540" s="94"/>
@@ -10154,7 +10154,7 @@
       <c r="M540" s="94"/>
       <c r="N540" s="94"/>
     </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" s="94"/>
       <c r="B541" s="94"/>
       <c r="C541" s="94"/>
@@ -10170,7 +10170,7 @@
       <c r="M541" s="94"/>
       <c r="N541" s="94"/>
     </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542" s="94"/>
       <c r="B542" s="94"/>
       <c r="C542" s="94"/>
@@ -10186,7 +10186,7 @@
       <c r="M542" s="94"/>
       <c r="N542" s="94"/>
     </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" s="94"/>
       <c r="B543" s="94"/>
       <c r="C543" s="94"/>
@@ -10202,7 +10202,7 @@
       <c r="M543" s="94"/>
       <c r="N543" s="94"/>
     </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544" s="94"/>
       <c r="B544" s="94"/>
       <c r="C544" s="94"/>
@@ -10218,7 +10218,7 @@
       <c r="M544" s="94"/>
       <c r="N544" s="94"/>
     </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A545" s="94"/>
       <c r="B545" s="94"/>
       <c r="C545" s="94"/>
@@ -10234,7 +10234,7 @@
       <c r="M545" s="94"/>
       <c r="N545" s="94"/>
     </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A546" s="94"/>
       <c r="B546" s="94"/>
       <c r="C546" s="94"/>
@@ -10250,7 +10250,7 @@
       <c r="M546" s="94"/>
       <c r="N546" s="94"/>
     </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A547" s="94"/>
       <c r="B547" s="94"/>
       <c r="C547" s="94"/>
@@ -10266,7 +10266,7 @@
       <c r="M547" s="94"/>
       <c r="N547" s="94"/>
     </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A548" s="94"/>
       <c r="B548" s="94"/>
       <c r="C548" s="94"/>
@@ -10282,7 +10282,7 @@
       <c r="M548" s="94"/>
       <c r="N548" s="94"/>
     </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A549" s="94"/>
       <c r="B549" s="94"/>
       <c r="C549" s="94"/>
@@ -10298,7 +10298,7 @@
       <c r="M549" s="94"/>
       <c r="N549" s="94"/>
     </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A550" s="94"/>
       <c r="B550" s="94"/>
       <c r="C550" s="94"/>
@@ -10314,7 +10314,7 @@
       <c r="M550" s="94"/>
       <c r="N550" s="94"/>
     </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A551" s="94"/>
       <c r="B551" s="94"/>
       <c r="C551" s="94"/>
@@ -10330,7 +10330,7 @@
       <c r="M551" s="94"/>
       <c r="N551" s="94"/>
     </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A552" s="94"/>
       <c r="B552" s="94"/>
       <c r="C552" s="94"/>
@@ -10346,7 +10346,7 @@
       <c r="M552" s="94"/>
       <c r="N552" s="94"/>
     </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A553" s="94"/>
       <c r="B553" s="94"/>
       <c r="C553" s="94"/>
@@ -10362,7 +10362,7 @@
       <c r="M553" s="94"/>
       <c r="N553" s="94"/>
     </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A554" s="94"/>
       <c r="B554" s="94"/>
       <c r="C554" s="94"/>
@@ -10378,7 +10378,7 @@
       <c r="M554" s="94"/>
       <c r="N554" s="94"/>
     </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A555" s="94"/>
       <c r="B555" s="94"/>
       <c r="C555" s="94"/>
@@ -10394,7 +10394,7 @@
       <c r="M555" s="94"/>
       <c r="N555" s="94"/>
     </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A556" s="94"/>
       <c r="B556" s="94"/>
       <c r="C556" s="94"/>
@@ -10410,7 +10410,7 @@
       <c r="M556" s="94"/>
       <c r="N556" s="94"/>
     </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A557" s="94"/>
       <c r="B557" s="94"/>
       <c r="C557" s="94"/>
@@ -10426,7 +10426,7 @@
       <c r="M557" s="94"/>
       <c r="N557" s="94"/>
     </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A558" s="94"/>
       <c r="B558" s="94"/>
       <c r="C558" s="94"/>
@@ -10442,7 +10442,7 @@
       <c r="M558" s="94"/>
       <c r="N558" s="94"/>
     </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A559" s="94"/>
       <c r="B559" s="94"/>
       <c r="C559" s="94"/>
@@ -10458,7 +10458,7 @@
       <c r="M559" s="94"/>
       <c r="N559" s="94"/>
     </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A560" s="94"/>
       <c r="B560" s="94"/>
       <c r="C560" s="94"/>
@@ -10474,7 +10474,7 @@
       <c r="M560" s="94"/>
       <c r="N560" s="94"/>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A561" s="94"/>
       <c r="B561" s="94"/>
       <c r="C561" s="94"/>
@@ -10490,7 +10490,7 @@
       <c r="M561" s="94"/>
       <c r="N561" s="94"/>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A562" s="94"/>
       <c r="B562" s="94"/>
       <c r="C562" s="94"/>
@@ -10506,7 +10506,7 @@
       <c r="M562" s="94"/>
       <c r="N562" s="94"/>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A563" s="94"/>
       <c r="B563" s="94"/>
       <c r="C563" s="94"/>
@@ -10522,7 +10522,7 @@
       <c r="M563" s="94"/>
       <c r="N563" s="94"/>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A564" s="94"/>
       <c r="B564" s="94"/>
       <c r="C564" s="94"/>
@@ -10538,7 +10538,7 @@
       <c r="M564" s="94"/>
       <c r="N564" s="94"/>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A565" s="94"/>
       <c r="B565" s="94"/>
       <c r="C565" s="94"/>
@@ -10554,7 +10554,7 @@
       <c r="M565" s="94"/>
       <c r="N565" s="94"/>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A566" s="94"/>
       <c r="B566" s="94"/>
       <c r="C566" s="94"/>
@@ -10570,7 +10570,7 @@
       <c r="M566" s="94"/>
       <c r="N566" s="94"/>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A567" s="94"/>
       <c r="B567" s="94"/>
       <c r="C567" s="94"/>
@@ -10586,7 +10586,7 @@
       <c r="M567" s="94"/>
       <c r="N567" s="94"/>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A568" s="94"/>
       <c r="B568" s="94"/>
       <c r="C568" s="94"/>
@@ -10602,7 +10602,7 @@
       <c r="M568" s="94"/>
       <c r="N568" s="94"/>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A569" s="94"/>
       <c r="B569" s="94"/>
       <c r="C569" s="94"/>
@@ -10618,7 +10618,7 @@
       <c r="M569" s="94"/>
       <c r="N569" s="94"/>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A570" s="94"/>
       <c r="B570" s="94"/>
       <c r="C570" s="94"/>
@@ -10634,7 +10634,7 @@
       <c r="M570" s="94"/>
       <c r="N570" s="94"/>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A571" s="94"/>
       <c r="B571" s="94"/>
       <c r="C571" s="94"/>
@@ -10650,7 +10650,7 @@
       <c r="M571" s="94"/>
       <c r="N571" s="94"/>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A572" s="94"/>
       <c r="B572" s="94"/>
       <c r="C572" s="94"/>
@@ -10666,7 +10666,7 @@
       <c r="M572" s="94"/>
       <c r="N572" s="94"/>
     </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A573" s="94"/>
       <c r="B573" s="94"/>
       <c r="C573" s="94"/>
@@ -10682,7 +10682,7 @@
       <c r="M573" s="94"/>
       <c r="N573" s="94"/>
     </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A574" s="94"/>
       <c r="B574" s="94"/>
       <c r="C574" s="94"/>
@@ -10698,7 +10698,7 @@
       <c r="M574" s="94"/>
       <c r="N574" s="94"/>
     </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A575" s="94"/>
       <c r="B575" s="94"/>
       <c r="C575" s="94"/>
@@ -10714,7 +10714,7 @@
       <c r="M575" s="94"/>
       <c r="N575" s="94"/>
     </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A576" s="94"/>
       <c r="B576" s="94"/>
       <c r="C576" s="94"/>
@@ -10730,7 +10730,7 @@
       <c r="M576" s="94"/>
       <c r="N576" s="94"/>
     </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A577" s="94"/>
       <c r="B577" s="94"/>
       <c r="C577" s="94"/>
@@ -10746,7 +10746,7 @@
       <c r="M577" s="94"/>
       <c r="N577" s="94"/>
     </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A578" s="94"/>
       <c r="B578" s="94"/>
       <c r="C578" s="94"/>
@@ -10762,7 +10762,7 @@
       <c r="M578" s="94"/>
       <c r="N578" s="94"/>
     </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A579" s="94"/>
       <c r="B579" s="94"/>
       <c r="C579" s="94"/>
@@ -10778,7 +10778,7 @@
       <c r="M579" s="94"/>
       <c r="N579" s="94"/>
     </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A580" s="94"/>
       <c r="B580" s="94"/>
       <c r="C580" s="94"/>
@@ -10794,7 +10794,7 @@
       <c r="M580" s="94"/>
       <c r="N580" s="94"/>
     </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A581" s="94"/>
       <c r="B581" s="94"/>
       <c r="C581" s="94"/>
@@ -10810,7 +10810,7 @@
       <c r="M581" s="94"/>
       <c r="N581" s="94"/>
     </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A582" s="94"/>
       <c r="B582" s="94"/>
       <c r="C582" s="94"/>
@@ -10826,7 +10826,7 @@
       <c r="M582" s="94"/>
       <c r="N582" s="94"/>
     </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A583" s="94"/>
       <c r="B583" s="94"/>
       <c r="C583" s="94"/>
@@ -10842,7 +10842,7 @@
       <c r="M583" s="94"/>
       <c r="N583" s="94"/>
     </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A584" s="94"/>
       <c r="B584" s="94"/>
       <c r="C584" s="94"/>
@@ -10858,7 +10858,7 @@
       <c r="M584" s="94"/>
       <c r="N584" s="94"/>
     </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A585" s="94"/>
       <c r="B585" s="94"/>
       <c r="C585" s="94"/>
@@ -10874,7 +10874,7 @@
       <c r="M585" s="94"/>
       <c r="N585" s="94"/>
     </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A586" s="94"/>
       <c r="B586" s="94"/>
       <c r="C586" s="94"/>
@@ -10890,7 +10890,7 @@
       <c r="M586" s="94"/>
       <c r="N586" s="94"/>
     </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A587" s="94"/>
       <c r="B587" s="94"/>
       <c r="C587" s="94"/>
@@ -10906,7 +10906,7 @@
       <c r="M587" s="94"/>
       <c r="N587" s="94"/>
     </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A588" s="94"/>
       <c r="B588" s="94"/>
       <c r="C588" s="94"/>
@@ -10922,7 +10922,7 @@
       <c r="M588" s="94"/>
       <c r="N588" s="94"/>
     </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A589" s="94"/>
       <c r="B589" s="94"/>
       <c r="C589" s="94"/>
@@ -10938,7 +10938,7 @@
       <c r="M589" s="94"/>
       <c r="N589" s="94"/>
     </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A590" s="94"/>
       <c r="B590" s="94"/>
       <c r="C590" s="94"/>
@@ -10954,7 +10954,7 @@
       <c r="M590" s="94"/>
       <c r="N590" s="94"/>
     </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A591" s="94"/>
       <c r="B591" s="94"/>
       <c r="C591" s="94"/>
@@ -10970,7 +10970,7 @@
       <c r="M591" s="94"/>
       <c r="N591" s="94"/>
     </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A592" s="94"/>
       <c r="B592" s="94"/>
       <c r="C592" s="94"/>
@@ -10986,7 +10986,7 @@
       <c r="M592" s="94"/>
       <c r="N592" s="94"/>
     </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A593" s="94"/>
       <c r="B593" s="94"/>
       <c r="C593" s="94"/>
@@ -11002,7 +11002,7 @@
       <c r="M593" s="94"/>
       <c r="N593" s="94"/>
     </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A594" s="94"/>
       <c r="B594" s="94"/>
       <c r="C594" s="94"/>
@@ -11018,7 +11018,7 @@
       <c r="M594" s="94"/>
       <c r="N594" s="94"/>
     </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A595" s="94"/>
       <c r="B595" s="94"/>
       <c r="C595" s="94"/>
@@ -11034,7 +11034,7 @@
       <c r="M595" s="94"/>
       <c r="N595" s="94"/>
     </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A596" s="94"/>
       <c r="B596" s="94"/>
       <c r="C596" s="94"/>
@@ -11050,7 +11050,7 @@
       <c r="M596" s="94"/>
       <c r="N596" s="94"/>
     </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A597" s="94"/>
       <c r="B597" s="94"/>
       <c r="C597" s="94"/>
@@ -11066,7 +11066,7 @@
       <c r="M597" s="94"/>
       <c r="N597" s="94"/>
     </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A598" s="94"/>
       <c r="B598" s="94"/>
       <c r="C598" s="94"/>
@@ -11082,7 +11082,7 @@
       <c r="M598" s="94"/>
       <c r="N598" s="94"/>
     </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A599" s="94"/>
       <c r="B599" s="94"/>
       <c r="C599" s="94"/>
@@ -11098,7 +11098,7 @@
       <c r="M599" s="94"/>
       <c r="N599" s="94"/>
     </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A600" s="94"/>
       <c r="B600" s="94"/>
       <c r="C600" s="94"/>
@@ -11114,7 +11114,7 @@
       <c r="M600" s="94"/>
       <c r="N600" s="94"/>
     </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A601" s="94"/>
       <c r="B601" s="94"/>
       <c r="C601" s="94"/>
@@ -11130,7 +11130,7 @@
       <c r="M601" s="94"/>
       <c r="N601" s="94"/>
     </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A602" s="94"/>
       <c r="B602" s="94"/>
       <c r="C602" s="94"/>
@@ -11146,7 +11146,7 @@
       <c r="M602" s="94"/>
       <c r="N602" s="94"/>
     </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A603" s="94"/>
       <c r="B603" s="94"/>
       <c r="C603" s="94"/>
@@ -11162,7 +11162,7 @@
       <c r="M603" s="94"/>
       <c r="N603" s="94"/>
     </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A604" s="94"/>
       <c r="B604" s="94"/>
       <c r="C604" s="94"/>
@@ -11178,7 +11178,7 @@
       <c r="M604" s="94"/>
       <c r="N604" s="94"/>
     </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A605" s="94"/>
       <c r="B605" s="94"/>
       <c r="C605" s="94"/>
@@ -11194,7 +11194,7 @@
       <c r="M605" s="94"/>
       <c r="N605" s="94"/>
     </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A606" s="94"/>
       <c r="B606" s="94"/>
       <c r="C606" s="94"/>
@@ -11210,7 +11210,7 @@
       <c r="M606" s="94"/>
       <c r="N606" s="94"/>
     </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A607" s="94"/>
       <c r="B607" s="94"/>
       <c r="C607" s="94"/>
@@ -11226,7 +11226,7 @@
       <c r="M607" s="94"/>
       <c r="N607" s="94"/>
     </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A608" s="94"/>
       <c r="B608" s="94"/>
       <c r="C608" s="94"/>
@@ -11242,7 +11242,7 @@
       <c r="M608" s="94"/>
       <c r="N608" s="94"/>
     </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A609" s="94"/>
       <c r="B609" s="94"/>
       <c r="C609" s="94"/>
@@ -11258,7 +11258,7 @@
       <c r="M609" s="94"/>
       <c r="N609" s="94"/>
     </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A610" s="94"/>
       <c r="B610" s="94"/>
       <c r="C610" s="94"/>
@@ -11274,7 +11274,7 @@
       <c r="M610" s="94"/>
       <c r="N610" s="94"/>
     </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A611" s="94"/>
       <c r="B611" s="94"/>
       <c r="C611" s="94"/>
@@ -11290,7 +11290,7 @@
       <c r="M611" s="94"/>
       <c r="N611" s="94"/>
     </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A612" s="94"/>
       <c r="B612" s="94"/>
       <c r="C612" s="94"/>
@@ -11306,7 +11306,7 @@
       <c r="M612" s="94"/>
       <c r="N612" s="94"/>
     </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A613" s="94"/>
       <c r="B613" s="94"/>
       <c r="C613" s="94"/>
@@ -11322,7 +11322,7 @@
       <c r="M613" s="94"/>
       <c r="N613" s="94"/>
     </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A614" s="94"/>
       <c r="B614" s="94"/>
       <c r="C614" s="94"/>
@@ -11338,7 +11338,7 @@
       <c r="M614" s="94"/>
       <c r="N614" s="94"/>
     </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A615" s="94"/>
       <c r="B615" s="94"/>
       <c r="C615" s="94"/>
@@ -11354,7 +11354,7 @@
       <c r="M615" s="94"/>
       <c r="N615" s="94"/>
     </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A616" s="94"/>
       <c r="B616" s="94"/>
       <c r="C616" s="94"/>
@@ -11370,7 +11370,7 @@
       <c r="M616" s="94"/>
       <c r="N616" s="94"/>
     </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A617" s="94"/>
       <c r="B617" s="94"/>
       <c r="C617" s="94"/>
@@ -11386,7 +11386,7 @@
       <c r="M617" s="94"/>
       <c r="N617" s="94"/>
     </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A618" s="94"/>
       <c r="B618" s="94"/>
       <c r="C618" s="94"/>
@@ -11402,7 +11402,7 @@
       <c r="M618" s="94"/>
       <c r="N618" s="94"/>
     </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A619" s="94"/>
       <c r="B619" s="94"/>
       <c r="C619" s="94"/>
@@ -11418,7 +11418,7 @@
       <c r="M619" s="94"/>
       <c r="N619" s="94"/>
     </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A620" s="94"/>
       <c r="B620" s="94"/>
       <c r="C620" s="94"/>
@@ -11434,7 +11434,7 @@
       <c r="M620" s="94"/>
       <c r="N620" s="94"/>
     </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A621" s="94"/>
       <c r="B621" s="94"/>
       <c r="C621" s="94"/>
@@ -11450,7 +11450,7 @@
       <c r="M621" s="94"/>
       <c r="N621" s="94"/>
     </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A622" s="94"/>
       <c r="B622" s="94"/>
       <c r="C622" s="94"/>
@@ -11466,7 +11466,7 @@
       <c r="M622" s="94"/>
       <c r="N622" s="94"/>
     </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A623" s="94"/>
       <c r="B623" s="94"/>
       <c r="C623" s="94"/>
@@ -11482,7 +11482,7 @@
       <c r="M623" s="94"/>
       <c r="N623" s="94"/>
     </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A624" s="94"/>
       <c r="B624" s="94"/>
       <c r="C624" s="94"/>
@@ -11498,7 +11498,7 @@
       <c r="M624" s="94"/>
       <c r="N624" s="94"/>
     </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A625" s="94"/>
       <c r="B625" s="94"/>
       <c r="C625" s="94"/>
@@ -11514,7 +11514,7 @@
       <c r="M625" s="94"/>
       <c r="N625" s="94"/>
     </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A626" s="94"/>
       <c r="B626" s="94"/>
       <c r="C626" s="94"/>
@@ -11530,7 +11530,7 @@
       <c r="M626" s="94"/>
       <c r="N626" s="94"/>
     </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A627" s="94"/>
       <c r="B627" s="94"/>
       <c r="C627" s="94"/>
@@ -11546,7 +11546,7 @@
       <c r="M627" s="94"/>
       <c r="N627" s="94"/>
     </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A628" s="94"/>
       <c r="B628" s="94"/>
       <c r="C628" s="94"/>
@@ -11562,7 +11562,7 @@
       <c r="M628" s="94"/>
       <c r="N628" s="94"/>
     </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A629" s="94"/>
       <c r="B629" s="94"/>
       <c r="C629" s="94"/>
@@ -11578,7 +11578,7 @@
       <c r="M629" s="94"/>
       <c r="N629" s="94"/>
     </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A630" s="94"/>
       <c r="B630" s="94"/>
       <c r="C630" s="94"/>
@@ -11594,7 +11594,7 @@
       <c r="M630" s="94"/>
       <c r="N630" s="94"/>
     </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A631" s="94"/>
       <c r="B631" s="94"/>
       <c r="C631" s="94"/>
@@ -11610,7 +11610,7 @@
       <c r="M631" s="94"/>
       <c r="N631" s="94"/>
     </row>
-    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A632" s="94"/>
       <c r="B632" s="94"/>
       <c r="C632" s="94"/>
@@ -11626,7 +11626,7 @@
       <c r="M632" s="94"/>
       <c r="N632" s="94"/>
     </row>
-    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A633" s="94"/>
       <c r="B633" s="94"/>
       <c r="C633" s="94"/>
@@ -11642,7 +11642,7 @@
       <c r="M633" s="94"/>
       <c r="N633" s="94"/>
     </row>
-    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A634" s="94"/>
       <c r="B634" s="94"/>
       <c r="C634" s="94"/>
@@ -11658,7 +11658,7 @@
       <c r="M634" s="94"/>
       <c r="N634" s="94"/>
     </row>
-    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A635" s="94"/>
       <c r="B635" s="94"/>
       <c r="C635" s="94"/>
@@ -11674,7 +11674,7 @@
       <c r="M635" s="94"/>
       <c r="N635" s="94"/>
     </row>
-    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A636" s="94"/>
       <c r="B636" s="94"/>
       <c r="C636" s="94"/>
@@ -11690,7 +11690,7 @@
       <c r="M636" s="94"/>
       <c r="N636" s="94"/>
     </row>
-    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A637" s="94"/>
       <c r="B637" s="94"/>
       <c r="C637" s="94"/>
@@ -11706,7 +11706,7 @@
       <c r="M637" s="94"/>
       <c r="N637" s="94"/>
     </row>
-    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A638" s="94"/>
       <c r="B638" s="94"/>
       <c r="C638" s="94"/>
@@ -11722,7 +11722,7 @@
       <c r="M638" s="94"/>
       <c r="N638" s="94"/>
     </row>
-    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A639" s="94"/>
       <c r="B639" s="94"/>
       <c r="C639" s="94"/>
@@ -11738,7 +11738,7 @@
       <c r="M639" s="94"/>
       <c r="N639" s="94"/>
     </row>
-    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A640" s="94"/>
       <c r="B640" s="94"/>
       <c r="C640" s="94"/>
@@ -11754,7 +11754,7 @@
       <c r="M640" s="94"/>
       <c r="N640" s="94"/>
     </row>
-    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A641" s="94"/>
       <c r="B641" s="94"/>
       <c r="C641" s="94"/>
@@ -11770,7 +11770,7 @@
       <c r="M641" s="94"/>
       <c r="N641" s="94"/>
     </row>
-    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A642" s="94"/>
       <c r="B642" s="94"/>
       <c r="C642" s="94"/>
@@ -11786,7 +11786,7 @@
       <c r="M642" s="94"/>
       <c r="N642" s="94"/>
     </row>
-    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A643" s="94"/>
       <c r="B643" s="94"/>
       <c r="C643" s="94"/>
@@ -11802,7 +11802,7 @@
       <c r="M643" s="94"/>
       <c r="N643" s="94"/>
     </row>
-    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A644" s="94"/>
       <c r="B644" s="94"/>
       <c r="C644" s="94"/>
@@ -11818,7 +11818,7 @@
       <c r="M644" s="94"/>
       <c r="N644" s="94"/>
     </row>
-    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A645" s="94"/>
       <c r="B645" s="94"/>
       <c r="C645" s="94"/>
@@ -11834,7 +11834,7 @@
       <c r="M645" s="94"/>
       <c r="N645" s="94"/>
     </row>
-    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A646" s="94"/>
       <c r="B646" s="94"/>
       <c r="C646" s="94"/>
@@ -11850,7 +11850,7 @@
       <c r="M646" s="94"/>
       <c r="N646" s="94"/>
     </row>
-    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A647" s="94"/>
       <c r="B647" s="94"/>
       <c r="C647" s="94"/>
@@ -11866,7 +11866,7 @@
       <c r="M647" s="94"/>
       <c r="N647" s="94"/>
     </row>
-    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A648" s="94"/>
       <c r="B648" s="94"/>
       <c r="C648" s="94"/>
@@ -11882,7 +11882,7 @@
       <c r="M648" s="94"/>
       <c r="N648" s="94"/>
     </row>
-    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A649" s="94"/>
       <c r="B649" s="94"/>
       <c r="C649" s="94"/>
@@ -11898,7 +11898,7 @@
       <c r="M649" s="94"/>
       <c r="N649" s="94"/>
     </row>
-    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A650" s="94"/>
       <c r="B650" s="94"/>
       <c r="C650" s="94"/>
@@ -11914,7 +11914,7 @@
       <c r="M650" s="94"/>
       <c r="N650" s="94"/>
     </row>
-    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A651" s="94"/>
       <c r="B651" s="94"/>
       <c r="C651" s="94"/>
@@ -11930,7 +11930,7 @@
       <c r="M651" s="94"/>
       <c r="N651" s="94"/>
     </row>
-    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A652" s="94"/>
       <c r="B652" s="94"/>
       <c r="C652" s="94"/>
@@ -11946,7 +11946,7 @@
       <c r="M652" s="94"/>
       <c r="N652" s="94"/>
     </row>
-    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A653" s="94"/>
       <c r="B653" s="94"/>
       <c r="C653" s="94"/>
@@ -11962,7 +11962,7 @@
       <c r="M653" s="94"/>
       <c r="N653" s="94"/>
     </row>
-    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A654" s="94"/>
       <c r="B654" s="94"/>
       <c r="C654" s="94"/>
@@ -11978,7 +11978,7 @@
       <c r="M654" s="94"/>
       <c r="N654" s="94"/>
     </row>
-    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A655" s="94"/>
       <c r="B655" s="94"/>
       <c r="C655" s="94"/>
@@ -11994,7 +11994,7 @@
       <c r="M655" s="94"/>
       <c r="N655" s="94"/>
     </row>
-    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A656" s="94"/>
       <c r="B656" s="94"/>
       <c r="C656" s="94"/>
@@ -12010,7 +12010,7 @@
       <c r="M656" s="94"/>
       <c r="N656" s="94"/>
     </row>
-    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A657" s="94"/>
       <c r="B657" s="94"/>
       <c r="C657" s="94"/>
@@ -12026,7 +12026,7 @@
       <c r="M657" s="94"/>
       <c r="N657" s="94"/>
     </row>
-    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A658" s="94"/>
       <c r="B658" s="94"/>
       <c r="C658" s="94"/>
@@ -12042,7 +12042,7 @@
       <c r="M658" s="94"/>
       <c r="N658" s="94"/>
     </row>
-    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A659" s="94"/>
       <c r="B659" s="94"/>
       <c r="C659" s="94"/>
@@ -12058,7 +12058,7 @@
       <c r="M659" s="94"/>
       <c r="N659" s="94"/>
     </row>
-    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A660" s="94"/>
       <c r="B660" s="94"/>
       <c r="C660" s="94"/>
@@ -12074,7 +12074,7 @@
       <c r="M660" s="94"/>
       <c r="N660" s="94"/>
     </row>
-    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A661" s="94"/>
       <c r="B661" s="94"/>
       <c r="C661" s="94"/>
@@ -12090,7 +12090,7 @@
       <c r="M661" s="94"/>
       <c r="N661" s="94"/>
     </row>
-    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A662" s="94"/>
       <c r="B662" s="94"/>
       <c r="C662" s="94"/>
@@ -12106,7 +12106,7 @@
       <c r="M662" s="94"/>
       <c r="N662" s="94"/>
     </row>
-    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A663" s="94"/>
       <c r="B663" s="94"/>
       <c r="C663" s="94"/>
@@ -12122,7 +12122,7 @@
       <c r="M663" s="94"/>
       <c r="N663" s="94"/>
     </row>
-    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A664" s="94"/>
       <c r="B664" s="94"/>
       <c r="C664" s="94"/>
@@ -12138,7 +12138,7 @@
       <c r="M664" s="94"/>
       <c r="N664" s="94"/>
     </row>
-    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A665" s="94"/>
       <c r="B665" s="94"/>
       <c r="C665" s="94"/>
@@ -12154,7 +12154,7 @@
       <c r="M665" s="94"/>
       <c r="N665" s="94"/>
     </row>
-    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A666" s="94"/>
       <c r="B666" s="94"/>
       <c r="C666" s="94"/>
@@ -12170,7 +12170,7 @@
       <c r="M666" s="94"/>
       <c r="N666" s="94"/>
     </row>
-    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A667" s="94"/>
       <c r="B667" s="94"/>
       <c r="C667" s="94"/>
@@ -12186,7 +12186,7 @@
       <c r="M667" s="94"/>
       <c r="N667" s="94"/>
     </row>
-    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A668" s="94"/>
       <c r="B668" s="94"/>
       <c r="C668" s="94"/>
@@ -12202,7 +12202,7 @@
       <c r="M668" s="94"/>
       <c r="N668" s="94"/>
     </row>
-    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A669" s="94"/>
       <c r="B669" s="94"/>
       <c r="C669" s="94"/>
@@ -12218,7 +12218,7 @@
       <c r="M669" s="94"/>
       <c r="N669" s="94"/>
     </row>
-    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A670" s="94"/>
       <c r="B670" s="94"/>
       <c r="C670" s="94"/>
@@ -12234,7 +12234,7 @@
       <c r="M670" s="94"/>
       <c r="N670" s="94"/>
     </row>
-    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A671" s="94"/>
       <c r="B671" s="94"/>
       <c r="C671" s="94"/>
@@ -12250,7 +12250,7 @@
       <c r="M671" s="94"/>
       <c r="N671" s="94"/>
     </row>
-    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A672" s="94"/>
       <c r="B672" s="94"/>
       <c r="C672" s="94"/>
@@ -12266,7 +12266,7 @@
       <c r="M672" s="94"/>
       <c r="N672" s="94"/>
     </row>
-    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A673" s="94"/>
       <c r="B673" s="94"/>
       <c r="C673" s="94"/>
@@ -12282,7 +12282,7 @@
       <c r="M673" s="94"/>
       <c r="N673" s="94"/>
     </row>
-    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A674" s="94"/>
       <c r="B674" s="94"/>
       <c r="C674" s="94"/>
@@ -12298,7 +12298,7 @@
       <c r="M674" s="94"/>
       <c r="N674" s="94"/>
     </row>
-    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A675" s="94"/>
       <c r="B675" s="94"/>
       <c r="C675" s="94"/>
@@ -12314,7 +12314,7 @@
       <c r="M675" s="94"/>
       <c r="N675" s="94"/>
     </row>
-    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A676" s="94"/>
       <c r="B676" s="94"/>
       <c r="C676" s="94"/>
@@ -12330,7 +12330,7 @@
       <c r="M676" s="94"/>
       <c r="N676" s="94"/>
     </row>
-    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A677" s="94"/>
       <c r="B677" s="94"/>
       <c r="C677" s="94"/>
@@ -12346,7 +12346,7 @@
       <c r="M677" s="94"/>
       <c r="N677" s="94"/>
     </row>
-    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A678" s="94"/>
       <c r="B678" s="94"/>
       <c r="C678" s="94"/>
@@ -12362,7 +12362,7 @@
       <c r="M678" s="94"/>
       <c r="N678" s="94"/>
     </row>
-    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A679" s="94"/>
       <c r="B679" s="94"/>
       <c r="C679" s="94"/>
@@ -12378,7 +12378,7 @@
       <c r="M679" s="94"/>
       <c r="N679" s="94"/>
     </row>
-    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A680" s="94"/>
       <c r="B680" s="94"/>
       <c r="C680" s="94"/>
@@ -12394,7 +12394,7 @@
       <c r="M680" s="94"/>
       <c r="N680" s="94"/>
     </row>
-    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A681" s="94"/>
       <c r="B681" s="94"/>
       <c r="C681" s="94"/>
@@ -12410,7 +12410,7 @@
       <c r="M681" s="94"/>
       <c r="N681" s="94"/>
     </row>
-    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A682" s="94"/>
       <c r="B682" s="94"/>
       <c r="C682" s="94"/>
@@ -12426,7 +12426,7 @@
       <c r="M682" s="94"/>
       <c r="N682" s="94"/>
     </row>
-    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A683" s="94"/>
       <c r="B683" s="94"/>
       <c r="C683" s="94"/>
@@ -12442,7 +12442,7 @@
       <c r="M683" s="94"/>
       <c r="N683" s="94"/>
     </row>
-    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A684" s="94"/>
       <c r="B684" s="94"/>
       <c r="C684" s="94"/>
@@ -12458,7 +12458,7 @@
       <c r="M684" s="94"/>
       <c r="N684" s="94"/>
     </row>
-    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A685" s="94"/>
       <c r="B685" s="94"/>
       <c r="C685" s="94"/>
@@ -12474,7 +12474,7 @@
       <c r="M685" s="94"/>
       <c r="N685" s="94"/>
     </row>
-    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A686" s="94"/>
       <c r="B686" s="94"/>
       <c r="C686" s="94"/>
@@ -12490,7 +12490,7 @@
       <c r="M686" s="94"/>
       <c r="N686" s="94"/>
     </row>
-    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A687" s="94"/>
       <c r="B687" s="94"/>
       <c r="C687" s="94"/>
@@ -12506,7 +12506,7 @@
       <c r="M687" s="94"/>
       <c r="N687" s="94"/>
     </row>
-    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A688" s="94"/>
       <c r="B688" s="94"/>
       <c r="C688" s="94"/>
@@ -12522,7 +12522,7 @@
       <c r="M688" s="94"/>
       <c r="N688" s="94"/>
     </row>
-    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A689" s="94"/>
       <c r="B689" s="94"/>
       <c r="C689" s="94"/>
@@ -12538,7 +12538,7 @@
       <c r="M689" s="94"/>
       <c r="N689" s="94"/>
     </row>
-    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A690" s="94"/>
       <c r="B690" s="94"/>
       <c r="C690" s="94"/>
@@ -12554,7 +12554,7 @@
       <c r="M690" s="94"/>
       <c r="N690" s="94"/>
     </row>
-    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A691" s="94"/>
       <c r="B691" s="94"/>
       <c r="C691" s="94"/>
@@ -12570,7 +12570,7 @@
       <c r="M691" s="94"/>
       <c r="N691" s="94"/>
     </row>
-    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A692" s="94"/>
       <c r="B692" s="94"/>
       <c r="C692" s="94"/>
@@ -12586,7 +12586,7 @@
       <c r="M692" s="94"/>
       <c r="N692" s="94"/>
     </row>
-    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A693" s="94"/>
       <c r="B693" s="94"/>
       <c r="C693" s="94"/>
@@ -12602,7 +12602,7 @@
       <c r="M693" s="94"/>
       <c r="N693" s="94"/>
     </row>
-    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A694" s="94"/>
       <c r="B694" s="94"/>
       <c r="C694" s="94"/>
@@ -12618,7 +12618,7 @@
       <c r="M694" s="94"/>
       <c r="N694" s="94"/>
     </row>
-    <row r="695" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A695" s="94"/>
       <c r="B695" s="94"/>
       <c r="C695" s="94"/>
@@ -12634,7 +12634,7 @@
       <c r="M695" s="94"/>
       <c r="N695" s="94"/>
     </row>
-    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A696" s="94"/>
       <c r="B696" s="94"/>
       <c r="C696" s="94"/>
@@ -12650,7 +12650,7 @@
       <c r="M696" s="94"/>
       <c r="N696" s="94"/>
     </row>
-    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A697" s="94"/>
       <c r="B697" s="94"/>
       <c r="C697" s="94"/>
@@ -12666,7 +12666,7 @@
       <c r="M697" s="94"/>
       <c r="N697" s="94"/>
     </row>
-    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A698" s="94"/>
       <c r="B698" s="94"/>
       <c r="C698" s="94"/>
@@ -12682,7 +12682,7 @@
       <c r="M698" s="94"/>
       <c r="N698" s="94"/>
     </row>
-    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A699" s="94"/>
       <c r="B699" s="94"/>
       <c r="C699" s="94"/>
@@ -12698,7 +12698,7 @@
       <c r="M699" s="94"/>
       <c r="N699" s="94"/>
     </row>
-    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A700" s="94"/>
       <c r="B700" s="94"/>
       <c r="C700" s="94"/>
@@ -12714,7 +12714,7 @@
       <c r="M700" s="94"/>
       <c r="N700" s="94"/>
     </row>
-    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A701" s="94"/>
       <c r="B701" s="94"/>
       <c r="C701" s="94"/>
@@ -12730,7 +12730,7 @@
       <c r="M701" s="94"/>
       <c r="N701" s="94"/>
     </row>
-    <row r="702" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A702" s="94"/>
       <c r="B702" s="94"/>
       <c r="C702" s="94"/>
@@ -12746,7 +12746,7 @@
       <c r="M702" s="94"/>
       <c r="N702" s="94"/>
     </row>
-    <row r="703" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A703" s="94"/>
       <c r="B703" s="94"/>
       <c r="C703" s="94"/>
@@ -12762,7 +12762,7 @@
       <c r="M703" s="94"/>
       <c r="N703" s="94"/>
     </row>
-    <row r="704" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A704" s="94"/>
       <c r="B704" s="94"/>
       <c r="C704" s="94"/>
@@ -12778,7 +12778,7 @@
       <c r="M704" s="94"/>
       <c r="N704" s="94"/>
     </row>
-    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A705" s="94"/>
       <c r="B705" s="94"/>
       <c r="C705" s="94"/>
@@ -12794,7 +12794,7 @@
       <c r="M705" s="94"/>
       <c r="N705" s="94"/>
     </row>
-    <row r="706" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A706" s="94"/>
       <c r="B706" s="94"/>
       <c r="C706" s="94"/>
@@ -12810,7 +12810,7 @@
       <c r="M706" s="94"/>
       <c r="N706" s="94"/>
     </row>
-    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A707" s="94"/>
       <c r="B707" s="94"/>
       <c r="C707" s="94"/>
@@ -12826,7 +12826,7 @@
       <c r="M707" s="94"/>
       <c r="N707" s="94"/>
     </row>
-    <row r="708" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A708" s="94"/>
       <c r="B708" s="94"/>
       <c r="C708" s="94"/>
@@ -12842,7 +12842,7 @@
       <c r="M708" s="94"/>
       <c r="N708" s="94"/>
     </row>
-    <row r="709" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A709" s="94"/>
       <c r="B709" s="94"/>
       <c r="C709" s="94"/>
@@ -12858,7 +12858,7 @@
       <c r="M709" s="94"/>
       <c r="N709" s="94"/>
     </row>
-    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A710" s="94"/>
       <c r="B710" s="94"/>
       <c r="C710" s="94"/>
@@ -12874,7 +12874,7 @@
       <c r="M710" s="94"/>
       <c r="N710" s="94"/>
     </row>
-    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A711" s="94"/>
       <c r="B711" s="94"/>
       <c r="C711" s="94"/>
@@ -12890,7 +12890,7 @@
       <c r="M711" s="94"/>
       <c r="N711" s="94"/>
     </row>
-    <row r="712" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A712" s="94"/>
       <c r="B712" s="94"/>
       <c r="C712" s="94"/>
@@ -12906,7 +12906,7 @@
       <c r="M712" s="94"/>
       <c r="N712" s="94"/>
     </row>
-    <row r="713" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A713" s="94"/>
       <c r="B713" s="94"/>
       <c r="C713" s="94"/>
@@ -12922,7 +12922,7 @@
       <c r="M713" s="94"/>
       <c r="N713" s="94"/>
     </row>
-    <row r="714" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A714" s="94"/>
       <c r="B714" s="94"/>
       <c r="C714" s="94"/>
@@ -12938,7 +12938,7 @@
       <c r="M714" s="94"/>
       <c r="N714" s="94"/>
     </row>
-    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A715" s="94"/>
       <c r="B715" s="94"/>
       <c r="C715" s="94"/>
@@ -12954,7 +12954,7 @@
       <c r="M715" s="94"/>
       <c r="N715" s="94"/>
     </row>
-    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A716" s="94"/>
       <c r="B716" s="94"/>
       <c r="C716" s="94"/>
@@ -12970,7 +12970,7 @@
       <c r="M716" s="94"/>
       <c r="N716" s="94"/>
     </row>
-    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A717" s="94"/>
       <c r="B717" s="94"/>
       <c r="C717" s="94"/>
@@ -12986,7 +12986,7 @@
       <c r="M717" s="94"/>
       <c r="N717" s="94"/>
     </row>
-    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A718" s="94"/>
       <c r="B718" s="94"/>
       <c r="C718" s="94"/>
@@ -13002,7 +13002,7 @@
       <c r="M718" s="94"/>
       <c r="N718" s="94"/>
     </row>
-    <row r="719" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A719" s="94"/>
       <c r="B719" s="94"/>
       <c r="C719" s="94"/>
@@ -13018,7 +13018,7 @@
       <c r="M719" s="94"/>
       <c r="N719" s="94"/>
     </row>
-    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A720" s="94"/>
       <c r="B720" s="94"/>
       <c r="C720" s="94"/>
@@ -13034,7 +13034,7 @@
       <c r="M720" s="94"/>
       <c r="N720" s="94"/>
     </row>
-    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A721" s="94"/>
       <c r="B721" s="94"/>
       <c r="C721" s="94"/>
@@ -13050,7 +13050,7 @@
       <c r="M721" s="94"/>
       <c r="N721" s="94"/>
     </row>
-    <row r="722" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A722" s="94"/>
       <c r="B722" s="94"/>
       <c r="C722" s="94"/>
@@ -13066,7 +13066,7 @@
       <c r="M722" s="94"/>
       <c r="N722" s="94"/>
     </row>
-    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A723" s="94"/>
       <c r="B723" s="94"/>
       <c r="C723" s="94"/>
@@ -13082,7 +13082,7 @@
       <c r="M723" s="94"/>
       <c r="N723" s="94"/>
     </row>
-    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A724" s="94"/>
       <c r="B724" s="94"/>
       <c r="C724" s="94"/>
@@ -13098,7 +13098,7 @@
       <c r="M724" s="94"/>
       <c r="N724" s="94"/>
     </row>
-    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A725" s="94"/>
       <c r="B725" s="94"/>
       <c r="C725" s="94"/>
@@ -13114,7 +13114,7 @@
       <c r="M725" s="94"/>
       <c r="N725" s="94"/>
     </row>
-    <row r="726" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A726" s="94"/>
       <c r="B726" s="94"/>
       <c r="C726" s="94"/>
@@ -13130,7 +13130,7 @@
       <c r="M726" s="94"/>
       <c r="N726" s="94"/>
     </row>
-    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A727" s="94"/>
       <c r="B727" s="94"/>
       <c r="C727" s="94"/>
@@ -13146,7 +13146,7 @@
       <c r="M727" s="94"/>
       <c r="N727" s="94"/>
     </row>
-    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A728" s="94"/>
       <c r="B728" s="94"/>
       <c r="C728" s="94"/>
@@ -13162,7 +13162,7 @@
       <c r="M728" s="94"/>
       <c r="N728" s="94"/>
     </row>
-    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A729" s="94"/>
       <c r="B729" s="94"/>
       <c r="C729" s="94"/>
@@ -13178,7 +13178,7 @@
       <c r="M729" s="94"/>
       <c r="N729" s="94"/>
     </row>
-    <row r="730" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A730" s="94"/>
       <c r="B730" s="94"/>
       <c r="C730" s="94"/>
@@ -13194,7 +13194,7 @@
       <c r="M730" s="94"/>
       <c r="N730" s="94"/>
     </row>
-    <row r="731" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A731" s="94"/>
       <c r="B731" s="94"/>
       <c r="C731" s="94"/>
@@ -13210,7 +13210,7 @@
       <c r="M731" s="94"/>
       <c r="N731" s="94"/>
     </row>
-    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A732" s="94"/>
       <c r="B732" s="94"/>
       <c r="C732" s="94"/>
@@ -13226,7 +13226,7 @@
       <c r="M732" s="94"/>
       <c r="N732" s="94"/>
     </row>
-    <row r="733" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A733" s="94"/>
       <c r="B733" s="94"/>
       <c r="C733" s="94"/>
@@ -13242,7 +13242,7 @@
       <c r="M733" s="94"/>
       <c r="N733" s="94"/>
     </row>
-    <row r="734" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A734" s="94"/>
       <c r="B734" s="94"/>
       <c r="C734" s="94"/>
@@ -13258,7 +13258,7 @@
       <c r="M734" s="94"/>
       <c r="N734" s="94"/>
     </row>
-    <row r="735" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A735" s="94"/>
       <c r="B735" s="94"/>
       <c r="C735" s="94"/>
@@ -13274,7 +13274,7 @@
       <c r="M735" s="94"/>
       <c r="N735" s="94"/>
     </row>
-    <row r="736" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A736" s="94"/>
       <c r="B736" s="94"/>
       <c r="C736" s="94"/>
@@ -13290,7 +13290,7 @@
       <c r="M736" s="94"/>
       <c r="N736" s="94"/>
     </row>
-    <row r="737" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A737" s="94"/>
       <c r="B737" s="94"/>
       <c r="C737" s="94"/>
@@ -13306,7 +13306,7 @@
       <c r="M737" s="94"/>
       <c r="N737" s="94"/>
     </row>
-    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A738" s="94"/>
       <c r="B738" s="94"/>
       <c r="C738" s="94"/>
@@ -13322,7 +13322,7 @@
       <c r="M738" s="94"/>
       <c r="N738" s="94"/>
     </row>
-    <row r="739" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A739" s="94"/>
       <c r="B739" s="94"/>
       <c r="C739" s="94"/>
@@ -13338,7 +13338,7 @@
       <c r="M739" s="94"/>
       <c r="N739" s="94"/>
     </row>
-    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A740" s="94"/>
       <c r="B740" s="94"/>
       <c r="C740" s="94"/>
@@ -13354,7 +13354,7 @@
       <c r="M740" s="94"/>
       <c r="N740" s="94"/>
     </row>
-    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A741" s="94"/>
       <c r="B741" s="94"/>
       <c r="C741" s="94"/>
@@ -13370,7 +13370,7 @@
       <c r="M741" s="94"/>
       <c r="N741" s="94"/>
     </row>
-    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A742" s="94"/>
       <c r="B742" s="94"/>
       <c r="C742" s="94"/>
@@ -13386,7 +13386,7 @@
       <c r="M742" s="94"/>
       <c r="N742" s="94"/>
     </row>
-    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A743" s="94"/>
       <c r="B743" s="94"/>
       <c r="C743" s="94"/>
@@ -13402,7 +13402,7 @@
       <c r="M743" s="94"/>
       <c r="N743" s="94"/>
     </row>
-    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A744" s="94"/>
       <c r="B744" s="94"/>
       <c r="C744" s="94"/>
@@ -13418,7 +13418,7 @@
       <c r="M744" s="94"/>
       <c r="N744" s="94"/>
     </row>
-    <row r="745" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A745" s="94"/>
       <c r="B745" s="94"/>
       <c r="C745" s="94"/>
@@ -13434,7 +13434,7 @@
       <c r="M745" s="94"/>
       <c r="N745" s="94"/>
     </row>
-    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A746" s="94"/>
       <c r="B746" s="94"/>
       <c r="C746" s="94"/>
@@ -13450,7 +13450,7 @@
       <c r="M746" s="94"/>
       <c r="N746" s="94"/>
     </row>
-    <row r="747" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A747" s="94"/>
       <c r="B747" s="94"/>
       <c r="C747" s="94"/>
@@ -13466,7 +13466,7 @@
       <c r="M747" s="94"/>
       <c r="N747" s="94"/>
     </row>
-    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A748" s="94"/>
       <c r="B748" s="94"/>
       <c r="C748" s="94"/>
@@ -13482,7 +13482,7 @@
       <c r="M748" s="94"/>
       <c r="N748" s="94"/>
     </row>
-    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A749" s="94"/>
       <c r="B749" s="94"/>
       <c r="C749" s="94"/>
@@ -13498,7 +13498,7 @@
       <c r="M749" s="94"/>
       <c r="N749" s="94"/>
     </row>
-    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A750" s="94"/>
       <c r="B750" s="94"/>
       <c r="C750" s="94"/>
@@ -13514,7 +13514,7 @@
       <c r="M750" s="94"/>
       <c r="N750" s="94"/>
     </row>
-    <row r="751" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A751" s="94"/>
       <c r="B751" s="94"/>
       <c r="C751" s="94"/>
@@ -13530,7 +13530,7 @@
       <c r="M751" s="94"/>
       <c r="N751" s="94"/>
     </row>
-    <row r="752" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A752" s="94"/>
       <c r="B752" s="94"/>
       <c r="C752" s="94"/>
@@ -13546,7 +13546,7 @@
       <c r="M752" s="94"/>
       <c r="N752" s="94"/>
     </row>
-    <row r="753" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A753" s="94"/>
       <c r="B753" s="94"/>
       <c r="C753" s="94"/>
@@ -13562,7 +13562,7 @@
       <c r="M753" s="94"/>
       <c r="N753" s="94"/>
     </row>
-    <row r="754" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A754" s="94"/>
       <c r="B754" s="94"/>
       <c r="C754" s="94"/>
@@ -13578,7 +13578,7 @@
       <c r="M754" s="94"/>
       <c r="N754" s="94"/>
     </row>
-    <row r="755" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A755" s="94"/>
       <c r="B755" s="94"/>
       <c r="C755" s="94"/>
@@ -13594,7 +13594,7 @@
       <c r="M755" s="94"/>
       <c r="N755" s="94"/>
     </row>
-    <row r="756" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A756" s="94"/>
       <c r="B756" s="94"/>
       <c r="C756" s="94"/>
@@ -13610,7 +13610,7 @@
       <c r="M756" s="94"/>
       <c r="N756" s="94"/>
     </row>
-    <row r="757" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A757" s="94"/>
       <c r="B757" s="94"/>
       <c r="C757" s="94"/>
@@ -13626,7 +13626,7 @@
       <c r="M757" s="94"/>
       <c r="N757" s="94"/>
     </row>
-    <row r="758" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A758" s="94"/>
       <c r="B758" s="94"/>
       <c r="C758" s="94"/>
@@ -13642,7 +13642,7 @@
       <c r="M758" s="94"/>
       <c r="N758" s="94"/>
     </row>
-    <row r="759" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A759" s="94"/>
       <c r="B759" s="94"/>
       <c r="C759" s="94"/>
@@ -13658,7 +13658,7 @@
       <c r="M759" s="94"/>
       <c r="N759" s="94"/>
     </row>
-    <row r="760" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A760" s="94"/>
       <c r="B760" s="94"/>
       <c r="C760" s="94"/>
@@ -13674,7 +13674,7 @@
       <c r="M760" s="94"/>
       <c r="N760" s="94"/>
     </row>
-    <row r="761" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A761" s="94"/>
       <c r="B761" s="94"/>
       <c r="C761" s="94"/>
@@ -13690,7 +13690,7 @@
       <c r="M761" s="94"/>
       <c r="N761" s="94"/>
     </row>
-    <row r="762" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A762" s="94"/>
       <c r="B762" s="94"/>
       <c r="C762" s="94"/>
@@ -13706,7 +13706,7 @@
       <c r="M762" s="94"/>
       <c r="N762" s="94"/>
     </row>
-    <row r="763" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A763" s="94"/>
       <c r="B763" s="94"/>
       <c r="C763" s="94"/>
@@ -13722,7 +13722,7 @@
       <c r="M763" s="94"/>
       <c r="N763" s="94"/>
     </row>
-    <row r="764" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A764" s="94"/>
       <c r="B764" s="94"/>
       <c r="C764" s="94"/>
@@ -13738,7 +13738,7 @@
       <c r="M764" s="94"/>
       <c r="N764" s="94"/>
     </row>
-    <row r="765" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A765" s="94"/>
       <c r="B765" s="94"/>
       <c r="C765" s="94"/>
@@ -13754,7 +13754,7 @@
       <c r="M765" s="94"/>
       <c r="N765" s="94"/>
     </row>
-    <row r="766" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A766" s="94"/>
       <c r="B766" s="94"/>
       <c r="C766" s="94"/>
@@ -13770,7 +13770,7 @@
       <c r="M766" s="94"/>
       <c r="N766" s="94"/>
     </row>
-    <row r="767" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A767" s="94"/>
       <c r="B767" s="94"/>
       <c r="C767" s="94"/>
@@ -13786,7 +13786,7 @@
       <c r="M767" s="94"/>
       <c r="N767" s="94"/>
     </row>
-    <row r="768" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A768" s="94"/>
       <c r="B768" s="94"/>
       <c r="C768" s="94"/>
@@ -13802,7 +13802,7 @@
       <c r="M768" s="94"/>
       <c r="N768" s="94"/>
     </row>
-    <row r="769" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A769" s="94"/>
       <c r="B769" s="94"/>
       <c r="C769" s="94"/>
@@ -13818,7 +13818,7 @@
       <c r="M769" s="94"/>
       <c r="N769" s="94"/>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A770" s="94"/>
       <c r="B770" s="94"/>
       <c r="C770" s="94"/>
@@ -13834,7 +13834,7 @@
       <c r="M770" s="94"/>
       <c r="N770" s="94"/>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A771" s="94"/>
       <c r="B771" s="94"/>
       <c r="C771" s="94"/>
@@ -13850,7 +13850,7 @@
       <c r="M771" s="94"/>
       <c r="N771" s="94"/>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A772" s="94"/>
       <c r="B772" s="94"/>
       <c r="C772" s="94"/>
@@ -13866,7 +13866,7 @@
       <c r="M772" s="94"/>
       <c r="N772" s="94"/>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A773" s="94"/>
       <c r="B773" s="94"/>
       <c r="C773" s="94"/>
@@ -13882,7 +13882,7 @@
       <c r="M773" s="94"/>
       <c r="N773" s="94"/>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A774" s="94"/>
       <c r="B774" s="94"/>
       <c r="C774" s="94"/>
@@ -13898,7 +13898,7 @@
       <c r="M774" s="94"/>
       <c r="N774" s="94"/>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A775" s="94"/>
       <c r="B775" s="94"/>
       <c r="C775" s="94"/>
@@ -13914,7 +13914,7 @@
       <c r="M775" s="94"/>
       <c r="N775" s="94"/>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A776" s="94"/>
       <c r="B776" s="94"/>
       <c r="C776" s="94"/>
@@ -13930,7 +13930,7 @@
       <c r="M776" s="94"/>
       <c r="N776" s="94"/>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A777" s="94"/>
       <c r="B777" s="94"/>
       <c r="C777" s="94"/>
@@ -13946,7 +13946,7 @@
       <c r="M777" s="94"/>
       <c r="N777" s="94"/>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A778" s="94"/>
       <c r="B778" s="94"/>
       <c r="C778" s="94"/>
@@ -13962,7 +13962,7 @@
       <c r="M778" s="94"/>
       <c r="N778" s="94"/>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A779" s="94"/>
       <c r="B779" s="94"/>
       <c r="C779" s="94"/>
@@ -13978,7 +13978,7 @@
       <c r="M779" s="94"/>
       <c r="N779" s="94"/>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A780" s="94"/>
       <c r="B780" s="94"/>
       <c r="C780" s="94"/>
@@ -13994,7 +13994,7 @@
       <c r="M780" s="94"/>
       <c r="N780" s="94"/>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A781" s="94"/>
       <c r="B781" s="94"/>
       <c r="C781" s="94"/>
@@ -14010,7 +14010,7 @@
       <c r="M781" s="94"/>
       <c r="N781" s="94"/>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A782" s="94"/>
       <c r="B782" s="94"/>
       <c r="C782" s="94"/>
@@ -14026,7 +14026,7 @@
       <c r="M782" s="94"/>
       <c r="N782" s="94"/>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A783" s="94"/>
       <c r="B783" s="94"/>
       <c r="C783" s="94"/>
@@ -14042,7 +14042,7 @@
       <c r="M783" s="94"/>
       <c r="N783" s="94"/>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A784" s="94"/>
       <c r="B784" s="94"/>
       <c r="C784" s="94"/>
@@ -14058,7 +14058,7 @@
       <c r="M784" s="94"/>
       <c r="N784" s="94"/>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A785" s="94"/>
       <c r="B785" s="94"/>
       <c r="C785" s="94"/>
@@ -14074,7 +14074,7 @@
       <c r="M785" s="94"/>
       <c r="N785" s="94"/>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A786" s="94"/>
       <c r="B786" s="94"/>
       <c r="C786" s="94"/>
@@ -14090,7 +14090,7 @@
       <c r="M786" s="94"/>
       <c r="N786" s="94"/>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A787" s="94"/>
       <c r="B787" s="94"/>
       <c r="C787" s="94"/>
@@ -14106,7 +14106,7 @@
       <c r="M787" s="94"/>
       <c r="N787" s="94"/>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A788" s="94"/>
       <c r="B788" s="94"/>
       <c r="C788" s="94"/>
@@ -14122,7 +14122,7 @@
       <c r="M788" s="94"/>
       <c r="N788" s="94"/>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A789" s="94"/>
       <c r="B789" s="94"/>
       <c r="C789" s="94"/>
@@ -14138,7 +14138,7 @@
       <c r="M789" s="94"/>
       <c r="N789" s="94"/>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A790" s="94"/>
       <c r="B790" s="94"/>
       <c r="C790" s="94"/>
@@ -14154,7 +14154,7 @@
       <c r="M790" s="94"/>
       <c r="N790" s="94"/>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A791" s="94"/>
       <c r="B791" s="94"/>
       <c r="C791" s="94"/>
@@ -14170,7 +14170,7 @@
       <c r="M791" s="94"/>
       <c r="N791" s="94"/>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A792" s="94"/>
       <c r="B792" s="94"/>
       <c r="C792" s="94"/>
@@ -14186,7 +14186,7 @@
       <c r="M792" s="94"/>
       <c r="N792" s="94"/>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A793" s="94"/>
       <c r="B793" s="94"/>
       <c r="C793" s="94"/>
@@ -14202,7 +14202,7 @@
       <c r="M793" s="94"/>
       <c r="N793" s="94"/>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A794" s="94"/>
       <c r="B794" s="94"/>
       <c r="C794" s="94"/>
@@ -14218,7 +14218,7 @@
       <c r="M794" s="94"/>
       <c r="N794" s="94"/>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A795" s="94"/>
       <c r="B795" s="94"/>
       <c r="C795" s="94"/>
@@ -14234,7 +14234,7 @@
       <c r="M795" s="94"/>
       <c r="N795" s="94"/>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A796" s="94"/>
       <c r="B796" s="94"/>
       <c r="C796" s="94"/>
@@ -14250,7 +14250,7 @@
       <c r="M796" s="94"/>
       <c r="N796" s="94"/>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A797" s="94"/>
       <c r="B797" s="94"/>
       <c r="C797" s="94"/>
@@ -14266,7 +14266,7 @@
       <c r="M797" s="94"/>
       <c r="N797" s="94"/>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A798" s="94"/>
       <c r="B798" s="94"/>
       <c r="C798" s="94"/>
@@ -14282,7 +14282,7 @@
       <c r="M798" s="94"/>
       <c r="N798" s="94"/>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A799" s="94"/>
       <c r="B799" s="94"/>
       <c r="C799" s="94"/>
@@ -14298,7 +14298,7 @@
       <c r="M799" s="94"/>
       <c r="N799" s="94"/>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A800" s="94"/>
       <c r="B800" s="94"/>
       <c r="C800" s="94"/>
@@ -14314,7 +14314,7 @@
       <c r="M800" s="94"/>
       <c r="N800" s="94"/>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A801" s="94"/>
       <c r="B801" s="94"/>
       <c r="C801" s="94"/>
@@ -14330,7 +14330,7 @@
       <c r="M801" s="94"/>
       <c r="N801" s="94"/>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A802" s="94"/>
       <c r="B802" s="94"/>
       <c r="C802" s="94"/>
@@ -14346,7 +14346,7 @@
       <c r="M802" s="94"/>
       <c r="N802" s="94"/>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A803" s="94"/>
       <c r="B803" s="94"/>
       <c r="C803" s="94"/>
@@ -14362,7 +14362,7 @@
       <c r="M803" s="94"/>
       <c r="N803" s="94"/>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A804" s="94"/>
       <c r="B804" s="94"/>
       <c r="C804" s="94"/>
@@ -14378,7 +14378,7 @@
       <c r="M804" s="94"/>
       <c r="N804" s="94"/>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A805" s="94"/>
       <c r="B805" s="94"/>
       <c r="C805" s="94"/>
@@ -14394,7 +14394,7 @@
       <c r="M805" s="94"/>
       <c r="N805" s="94"/>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A806" s="94"/>
       <c r="B806" s="94"/>
       <c r="C806" s="94"/>
@@ -14410,7 +14410,7 @@
       <c r="M806" s="94"/>
       <c r="N806" s="94"/>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A807" s="94"/>
       <c r="B807" s="94"/>
       <c r="C807" s="94"/>
@@ -14426,7 +14426,7 @@
       <c r="M807" s="94"/>
       <c r="N807" s="94"/>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A808" s="94"/>
       <c r="B808" s="94"/>
       <c r="C808" s="94"/>
@@ -14442,7 +14442,7 @@
       <c r="M808" s="94"/>
       <c r="N808" s="94"/>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A809" s="94"/>
       <c r="B809" s="94"/>
       <c r="C809" s="94"/>
@@ -14458,7 +14458,7 @@
       <c r="M809" s="94"/>
       <c r="N809" s="94"/>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A810" s="94"/>
       <c r="B810" s="94"/>
       <c r="C810" s="94"/>
@@ -14474,7 +14474,7 @@
       <c r="M810" s="94"/>
       <c r="N810" s="94"/>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A811" s="94"/>
       <c r="B811" s="94"/>
       <c r="C811" s="94"/>
@@ -14490,7 +14490,7 @@
       <c r="M811" s="94"/>
       <c r="N811" s="94"/>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A812" s="94"/>
       <c r="B812" s="94"/>
       <c r="C812" s="94"/>
@@ -14506,7 +14506,7 @@
       <c r="M812" s="94"/>
       <c r="N812" s="94"/>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A813" s="94"/>
       <c r="B813" s="94"/>
       <c r="C813" s="94"/>
@@ -14522,7 +14522,7 @@
       <c r="M813" s="94"/>
       <c r="N813" s="94"/>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A814" s="94"/>
       <c r="B814" s="94"/>
       <c r="C814" s="94"/>
@@ -14538,7 +14538,7 @@
       <c r="M814" s="94"/>
       <c r="N814" s="94"/>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A815" s="94"/>
       <c r="B815" s="94"/>
       <c r="C815" s="94"/>
@@ -14554,7 +14554,7 @@
       <c r="M815" s="94"/>
       <c r="N815" s="94"/>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A816" s="94"/>
       <c r="B816" s="94"/>
       <c r="C816" s="94"/>
@@ -14570,7 +14570,7 @@
       <c r="M816" s="94"/>
       <c r="N816" s="94"/>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A817" s="94"/>
       <c r="B817" s="94"/>
       <c r="C817" s="94"/>
@@ -14586,7 +14586,7 @@
       <c r="M817" s="94"/>
       <c r="N817" s="94"/>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A818" s="94"/>
       <c r="B818" s="94"/>
       <c r="C818" s="94"/>
@@ -14602,7 +14602,7 @@
       <c r="M818" s="94"/>
       <c r="N818" s="94"/>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A819" s="94"/>
       <c r="B819" s="94"/>
       <c r="C819" s="94"/>
@@ -14618,7 +14618,7 @@
       <c r="M819" s="94"/>
       <c r="N819" s="94"/>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A820" s="94"/>
       <c r="B820" s="94"/>
       <c r="C820" s="94"/>
@@ -14634,7 +14634,7 @@
       <c r="M820" s="94"/>
       <c r="N820" s="94"/>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A821" s="94"/>
       <c r="B821" s="94"/>
       <c r="C821" s="94"/>
@@ -14650,7 +14650,7 @@
       <c r="M821" s="94"/>
       <c r="N821" s="94"/>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A822" s="94"/>
       <c r="B822" s="94"/>
       <c r="C822" s="94"/>
@@ -14666,7 +14666,7 @@
       <c r="M822" s="94"/>
       <c r="N822" s="94"/>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A823" s="94"/>
       <c r="B823" s="94"/>
       <c r="C823" s="94"/>
@@ -14682,7 +14682,7 @@
       <c r="M823" s="94"/>
       <c r="N823" s="94"/>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A824" s="94"/>
       <c r="B824" s="94"/>
       <c r="C824" s="94"/>
@@ -14698,7 +14698,7 @@
       <c r="M824" s="94"/>
       <c r="N824" s="94"/>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A825" s="94"/>
       <c r="B825" s="94"/>
       <c r="C825" s="94"/>
@@ -14714,7 +14714,7 @@
       <c r="M825" s="94"/>
       <c r="N825" s="94"/>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A826" s="94"/>
       <c r="B826" s="94"/>
       <c r="C826" s="94"/>
@@ -14730,7 +14730,7 @@
       <c r="M826" s="94"/>
       <c r="N826" s="94"/>
     </row>
-    <row r="827" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A827" s="94"/>
       <c r="B827" s="94"/>
       <c r="C827" s="94"/>
@@ -14746,7 +14746,7 @@
       <c r="M827" s="94"/>
       <c r="N827" s="94"/>
     </row>
-    <row r="828" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A828" s="94"/>
       <c r="B828" s="94"/>
       <c r="C828" s="94"/>
@@ -14762,7 +14762,7 @@
       <c r="M828" s="94"/>
       <c r="N828" s="94"/>
     </row>
-    <row r="829" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A829" s="94"/>
       <c r="B829" s="94"/>
       <c r="C829" s="94"/>
@@ -14778,7 +14778,7 @@
       <c r="M829" s="94"/>
       <c r="N829" s="94"/>
     </row>
-    <row r="830" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A830" s="94"/>
       <c r="B830" s="94"/>
       <c r="C830" s="94"/>
@@ -14794,7 +14794,7 @@
       <c r="M830" s="94"/>
       <c r="N830" s="94"/>
     </row>
-    <row r="831" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A831" s="94"/>
       <c r="B831" s="94"/>
       <c r="C831" s="94"/>
@@ -14810,7 +14810,7 @@
       <c r="M831" s="94"/>
       <c r="N831" s="94"/>
     </row>
-    <row r="832" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A832" s="94"/>
       <c r="B832" s="94"/>
       <c r="C832" s="94"/>
@@ -14826,7 +14826,7 @@
       <c r="M832" s="94"/>
       <c r="N832" s="94"/>
     </row>
-    <row r="833" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A833" s="94"/>
       <c r="B833" s="94"/>
       <c r="C833" s="94"/>
@@ -14842,7 +14842,7 @@
       <c r="M833" s="94"/>
       <c r="N833" s="94"/>
     </row>
-    <row r="834" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A834" s="94"/>
       <c r="B834" s="94"/>
       <c r="C834" s="94"/>
@@ -14858,7 +14858,7 @@
       <c r="M834" s="94"/>
       <c r="N834" s="94"/>
     </row>
-    <row r="835" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A835" s="94"/>
       <c r="B835" s="94"/>
       <c r="C835" s="94"/>
@@ -14874,7 +14874,7 @@
       <c r="M835" s="94"/>
       <c r="N835" s="94"/>
     </row>
-    <row r="836" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A836" s="94"/>
       <c r="B836" s="94"/>
       <c r="C836" s="94"/>
@@ -14890,7 +14890,7 @@
       <c r="M836" s="94"/>
       <c r="N836" s="94"/>
     </row>
-    <row r="837" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A837" s="94"/>
       <c r="B837" s="94"/>
       <c r="C837" s="94"/>
@@ -14906,7 +14906,7 @@
       <c r="M837" s="94"/>
       <c r="N837" s="94"/>
     </row>
-    <row r="838" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A838" s="94"/>
       <c r="B838" s="94"/>
       <c r="C838" s="94"/>
@@ -14922,7 +14922,7 @@
       <c r="M838" s="94"/>
       <c r="N838" s="94"/>
     </row>
-    <row r="839" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A839" s="94"/>
       <c r="B839" s="94"/>
       <c r="C839" s="94"/>
@@ -14938,7 +14938,7 @@
       <c r="M839" s="94"/>
       <c r="N839" s="94"/>
     </row>
-    <row r="840" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A840" s="94"/>
       <c r="B840" s="94"/>
       <c r="C840" s="94"/>
@@ -14954,7 +14954,7 @@
       <c r="M840" s="94"/>
       <c r="N840" s="94"/>
     </row>
-    <row r="841" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A841" s="94"/>
       <c r="B841" s="94"/>
       <c r="C841" s="94"/>
@@ -14970,7 +14970,7 @@
       <c r="M841" s="94"/>
       <c r="N841" s="94"/>
     </row>
-    <row r="842" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A842" s="94"/>
       <c r="B842" s="94"/>
       <c r="C842" s="94"/>
@@ -14986,7 +14986,7 @@
       <c r="M842" s="94"/>
       <c r="N842" s="94"/>
     </row>
-    <row r="843" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A843" s="94"/>
       <c r="B843" s="94"/>
       <c r="C843" s="94"/>
@@ -15002,7 +15002,7 @@
       <c r="M843" s="94"/>
       <c r="N843" s="94"/>
     </row>
-    <row r="844" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A844" s="94"/>
       <c r="B844" s="94"/>
       <c r="C844" s="94"/>
@@ -15018,7 +15018,7 @@
       <c r="M844" s="94"/>
       <c r="N844" s="94"/>
     </row>
-    <row r="845" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A845" s="94"/>
       <c r="B845" s="94"/>
       <c r="C845" s="94"/>
@@ -15034,7 +15034,7 @@
       <c r="M845" s="94"/>
       <c r="N845" s="94"/>
     </row>
-    <row r="846" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A846" s="94"/>
       <c r="B846" s="94"/>
       <c r="C846" s="94"/>
@@ -15050,7 +15050,7 @@
       <c r="M846" s="94"/>
       <c r="N846" s="94"/>
     </row>
-    <row r="847" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A847" s="94"/>
       <c r="B847" s="94"/>
       <c r="C847" s="94"/>
@@ -15066,7 +15066,7 @@
       <c r="M847" s="94"/>
       <c r="N847" s="94"/>
     </row>
-    <row r="848" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A848" s="94"/>
       <c r="B848" s="94"/>
       <c r="C848" s="94"/>
@@ -15082,7 +15082,7 @@
       <c r="M848" s="94"/>
       <c r="N848" s="94"/>
     </row>
-    <row r="849" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A849" s="94"/>
       <c r="B849" s="94"/>
       <c r="C849" s="94"/>
@@ -15098,7 +15098,7 @@
       <c r="M849" s="94"/>
       <c r="N849" s="94"/>
     </row>
-    <row r="850" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A850" s="94"/>
       <c r="B850" s="94"/>
       <c r="C850" s="94"/>
@@ -15114,7 +15114,7 @@
       <c r="M850" s="94"/>
       <c r="N850" s="94"/>
     </row>
-    <row r="851" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A851" s="94"/>
       <c r="B851" s="94"/>
       <c r="C851" s="94"/>
@@ -15130,7 +15130,7 @@
       <c r="M851" s="94"/>
       <c r="N851" s="94"/>
     </row>
-    <row r="852" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A852" s="94"/>
       <c r="B852" s="94"/>
       <c r="C852" s="94"/>
@@ -15146,7 +15146,7 @@
       <c r="M852" s="94"/>
       <c r="N852" s="94"/>
     </row>
-    <row r="853" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A853" s="94"/>
       <c r="B853" s="94"/>
       <c r="C853" s="94"/>
@@ -15162,7 +15162,7 @@
       <c r="M853" s="94"/>
       <c r="N853" s="94"/>
     </row>
-    <row r="854" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A854" s="94"/>
       <c r="B854" s="94"/>
       <c r="C854" s="94"/>
@@ -15178,7 +15178,7 @@
       <c r="M854" s="94"/>
       <c r="N854" s="94"/>
     </row>
-    <row r="855" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A855" s="94"/>
       <c r="B855" s="94"/>
       <c r="C855" s="94"/>
@@ -15194,7 +15194,7 @@
       <c r="M855" s="94"/>
       <c r="N855" s="94"/>
     </row>
-    <row r="856" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A856" s="94"/>
       <c r="B856" s="94"/>
       <c r="C856" s="94"/>
@@ -15210,7 +15210,7 @@
       <c r="M856" s="94"/>
       <c r="N856" s="94"/>
     </row>
-    <row r="857" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A857" s="94"/>
       <c r="B857" s="94"/>
       <c r="C857" s="94"/>
@@ -15226,7 +15226,7 @@
       <c r="M857" s="94"/>
       <c r="N857" s="94"/>
     </row>
-    <row r="858" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A858" s="94"/>
       <c r="B858" s="94"/>
       <c r="C858" s="94"/>
@@ -15242,7 +15242,7 @@
       <c r="M858" s="94"/>
       <c r="N858" s="94"/>
     </row>
-    <row r="859" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A859" s="94"/>
       <c r="B859" s="94"/>
       <c r="C859" s="94"/>
@@ -15258,7 +15258,7 @@
       <c r="M859" s="94"/>
       <c r="N859" s="94"/>
     </row>
-    <row r="860" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A860" s="94"/>
       <c r="B860" s="94"/>
       <c r="C860" s="94"/>
@@ -15274,7 +15274,7 @@
       <c r="M860" s="94"/>
       <c r="N860" s="94"/>
     </row>
-    <row r="861" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A861" s="94"/>
       <c r="B861" s="94"/>
       <c r="C861" s="94"/>
@@ -15290,7 +15290,7 @@
       <c r="M861" s="94"/>
       <c r="N861" s="94"/>
     </row>
-    <row r="862" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A862" s="94"/>
       <c r="B862" s="94"/>
       <c r="C862" s="94"/>
@@ -15306,7 +15306,7 @@
       <c r="M862" s="94"/>
       <c r="N862" s="94"/>
     </row>
-    <row r="863" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A863" s="94"/>
       <c r="B863" s="94"/>
       <c r="C863" s="94"/>
@@ -15322,7 +15322,7 @@
       <c r="M863" s="94"/>
       <c r="N863" s="94"/>
     </row>
-    <row r="864" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A864" s="94"/>
       <c r="B864" s="94"/>
       <c r="C864" s="94"/>
@@ -15338,7 +15338,7 @@
       <c r="M864" s="94"/>
       <c r="N864" s="94"/>
     </row>
-    <row r="865" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A865" s="94"/>
       <c r="B865" s="94"/>
       <c r="C865" s="94"/>
@@ -15354,7 +15354,7 @@
       <c r="M865" s="94"/>
       <c r="N865" s="94"/>
     </row>
-    <row r="866" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A866" s="94"/>
       <c r="B866" s="94"/>
       <c r="C866" s="94"/>
@@ -15370,7 +15370,7 @@
       <c r="M866" s="94"/>
       <c r="N866" s="94"/>
     </row>
-    <row r="867" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A867" s="94"/>
       <c r="B867" s="94"/>
       <c r="C867" s="94"/>
@@ -15386,7 +15386,7 @@
       <c r="M867" s="94"/>
       <c r="N867" s="94"/>
     </row>
-    <row r="868" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A868" s="94"/>
       <c r="B868" s="94"/>
       <c r="C868" s="94"/>
@@ -15402,7 +15402,7 @@
       <c r="M868" s="94"/>
       <c r="N868" s="94"/>
     </row>
-    <row r="869" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A869" s="94"/>
       <c r="B869" s="94"/>
       <c r="C869" s="94"/>
@@ -15418,7 +15418,7 @@
       <c r="M869" s="94"/>
       <c r="N869" s="94"/>
     </row>
-    <row r="870" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A870" s="94"/>
       <c r="B870" s="94"/>
       <c r="C870" s="94"/>
@@ -15434,7 +15434,7 @@
       <c r="M870" s="94"/>
       <c r="N870" s="94"/>
     </row>
-    <row r="871" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A871" s="94"/>
       <c r="B871" s="94"/>
       <c r="C871" s="94"/>
@@ -15450,7 +15450,7 @@
       <c r="M871" s="94"/>
       <c r="N871" s="94"/>
     </row>
-    <row r="872" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A872" s="94"/>
       <c r="B872" s="94"/>
       <c r="C872" s="94"/>
@@ -15466,7 +15466,7 @@
       <c r="M872" s="94"/>
       <c r="N872" s="94"/>
     </row>
-    <row r="873" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A873" s="94"/>
       <c r="B873" s="94"/>
       <c r="C873" s="94"/>
@@ -15482,7 +15482,7 @@
       <c r="M873" s="94"/>
       <c r="N873" s="94"/>
     </row>
-    <row r="874" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A874" s="94"/>
       <c r="B874" s="94"/>
       <c r="C874" s="94"/>
@@ -15498,7 +15498,7 @@
       <c r="M874" s="94"/>
       <c r="N874" s="94"/>
     </row>
-    <row r="875" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A875" s="94"/>
       <c r="B875" s="94"/>
       <c r="C875" s="94"/>
@@ -15514,7 +15514,7 @@
       <c r="M875" s="94"/>
       <c r="N875" s="94"/>
     </row>
-    <row r="876" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A876" s="94"/>
       <c r="B876" s="94"/>
       <c r="C876" s="94"/>
@@ -15530,7 +15530,7 @@
       <c r="M876" s="94"/>
       <c r="N876" s="94"/>
     </row>
-    <row r="877" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A877" s="94"/>
       <c r="B877" s="94"/>
       <c r="C877" s="94"/>
@@ -15548,21 +15548,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="K44:L47"/>
-    <mergeCell ref="H44:J47"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="M44:N49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="L13:N13"/>
@@ -15579,6 +15564,21 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="K44:L47"/>
+    <mergeCell ref="H44:J47"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="M44:N49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -841,11 +841,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -937,72 +1003,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 4 4 2" xfId="2"/>
@@ -1034,7 +1034,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>503543</xdr:colOff>
+      <xdr:colOff>436868</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
@@ -1477,13 +1477,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N877"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="38"/>
+    <col min="1" max="1" width="10.140625" style="38" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="38" customWidth="1"/>
     <col min="3" max="3" width="0.28515625" style="38" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="1" style="38" customWidth="1"/>
@@ -1653,9 +1653,9 @@
       <c r="K12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="134"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="136"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="113"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
@@ -1664,17 +1664,17 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="139"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="141"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="118"/>
     </row>
     <row r="14" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
@@ -1693,66 +1693,66 @@
       <c r="N14" s="19"/>
     </row>
     <row r="15" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="136"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="113"/>
     </row>
     <row r="16" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="136"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="112"/>
+      <c r="N16" s="113"/>
     </row>
     <row r="17" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="147"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+      <c r="M17" s="112"/>
+      <c r="N17" s="113"/>
     </row>
     <row r="18" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="147" t="s">
+      <c r="A18" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
       <c r="E18" s="33"/>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -1765,12 +1765,12 @@
       <c r="N18" s="34"/>
     </row>
     <row r="19" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="147" t="s">
+      <c r="A19" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -1783,12 +1783,12 @@
       <c r="N19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="147"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -1801,7 +1801,7 @@
       <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="110" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="47"/>
@@ -1835,41 +1835,41 @@
       <c r="N22" s="57"/>
     </row>
     <row r="23" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="145"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
     </row>
     <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="145"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
     </row>
     <row r="25" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="102" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="21"/>
@@ -1879,7 +1879,7 @@
       <c r="F25" s="58"/>
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
-      <c r="I25" s="151" t="s">
+      <c r="I25" s="105" t="s">
         <v>47</v>
       </c>
       <c r="J25" s="22"/>
@@ -1889,7 +1889,7 @@
       <c r="N25" s="60"/>
     </row>
     <row r="26" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="103" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="25"/>
@@ -1899,7 +1899,7 @@
       <c r="F26" s="62"/>
       <c r="G26" s="63"/>
       <c r="H26" s="64"/>
-      <c r="I26" s="152" t="s">
+      <c r="I26" s="106" t="s">
         <v>48</v>
       </c>
       <c r="J26" s="26"/>
@@ -1909,7 +1909,7 @@
       <c r="N26" s="64"/>
     </row>
     <row r="27" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="103" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="25"/>
@@ -1919,7 +1919,7 @@
       <c r="F27" s="62"/>
       <c r="G27" s="63"/>
       <c r="H27" s="64"/>
-      <c r="I27" s="153" t="s">
+      <c r="I27" s="107" t="s">
         <v>49</v>
       </c>
       <c r="J27" s="26"/>
@@ -1929,7 +1929,7 @@
       <c r="N27" s="64"/>
     </row>
     <row r="28" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="103" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="25"/>
@@ -1939,7 +1939,7 @@
       <c r="F28" s="62"/>
       <c r="G28" s="63"/>
       <c r="H28" s="64"/>
-      <c r="I28" s="153" t="s">
+      <c r="I28" s="107" t="s">
         <v>50</v>
       </c>
       <c r="J28" s="66"/>
@@ -1949,7 +1949,7 @@
       <c r="N28" s="64"/>
     </row>
     <row r="29" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="103" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="25"/>
@@ -1959,7 +1959,7 @@
       <c r="F29" s="62"/>
       <c r="G29" s="63"/>
       <c r="H29" s="64"/>
-      <c r="I29" s="154" t="s">
+      <c r="I29" s="108" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="26"/>
@@ -1969,7 +1969,7 @@
       <c r="N29" s="64"/>
     </row>
     <row r="30" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="103" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="25"/>
@@ -1979,7 +1979,7 @@
       <c r="F30" s="62"/>
       <c r="G30" s="63"/>
       <c r="H30" s="64"/>
-      <c r="I30" s="155" t="s">
+      <c r="I30" s="109" t="s">
         <v>51</v>
       </c>
       <c r="J30" s="26"/>
@@ -1989,7 +1989,7 @@
       <c r="N30" s="64"/>
     </row>
     <row r="31" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="103" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="25"/>
@@ -1999,7 +1999,7 @@
       <c r="F31" s="62"/>
       <c r="G31" s="63"/>
       <c r="H31" s="64"/>
-      <c r="I31" s="155" t="s">
+      <c r="I31" s="109" t="s">
         <v>52</v>
       </c>
       <c r="J31" s="26"/>
@@ -2009,7 +2009,7 @@
       <c r="N31" s="64"/>
     </row>
     <row r="32" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="149" t="s">
+      <c r="A32" s="103" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="25"/>
@@ -2019,7 +2019,7 @@
       <c r="F32" s="62"/>
       <c r="G32" s="63"/>
       <c r="H32" s="64"/>
-      <c r="I32" s="155" t="s">
+      <c r="I32" s="109" t="s">
         <v>53</v>
       </c>
       <c r="J32" s="26"/>
@@ -2029,7 +2029,7 @@
       <c r="N32" s="64"/>
     </row>
     <row r="33" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="149" t="s">
+      <c r="A33" s="103" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="25"/>
@@ -2039,7 +2039,7 @@
       <c r="F33" s="62"/>
       <c r="G33" s="63"/>
       <c r="H33" s="64"/>
-      <c r="I33" s="155" t="s">
+      <c r="I33" s="109" t="s">
         <v>54</v>
       </c>
       <c r="J33" s="26"/>
@@ -2049,7 +2049,7 @@
       <c r="N33" s="64"/>
     </row>
     <row r="34" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="104" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="25"/>
@@ -2069,7 +2069,7 @@
       <c r="N34" s="64"/>
     </row>
     <row r="35" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="104" t="s">
         <v>46</v>
       </c>
       <c r="B35" s="25"/>
@@ -2127,16 +2127,16 @@
       <c r="N37" s="76"/>
     </row>
     <row r="38" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="103" t="s">
+      <c r="A38" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
       <c r="I38" s="77"/>
       <c r="J38" s="77"/>
       <c r="K38" s="78"/>
@@ -2145,14 +2145,14 @@
       <c r="N38" s="79"/>
     </row>
     <row r="39" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
       <c r="I39" s="80"/>
       <c r="J39" s="80"/>
       <c r="K39" s="36"/>
@@ -2161,14 +2161,14 @@
       <c r="N39" s="81"/>
     </row>
     <row r="40" spans="1:14" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
+      <c r="A40" s="123"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
       <c r="I40" s="82"/>
       <c r="J40" s="82"/>
       <c r="K40" s="16" t="s">
@@ -2179,178 +2179,178 @@
       <c r="N40" s="81"/>
     </row>
     <row r="41" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
       <c r="I41" s="83"/>
-      <c r="J41" s="102" t="s">
+      <c r="J41" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="K41" s="102"/>
-      <c r="L41" s="102"/>
-      <c r="M41" s="102"/>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
       <c r="N41" s="84"/>
     </row>
     <row r="42" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="142"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="143"/>
-      <c r="D42" s="143"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="143"/>
-      <c r="K42" s="143"/>
-      <c r="L42" s="143"/>
-      <c r="M42" s="143"/>
-      <c r="N42" s="144"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="120"/>
+      <c r="K42" s="120"/>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120"/>
+      <c r="N42" s="121"/>
     </row>
     <row r="43" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="105" t="s">
+      <c r="B43" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="104" t="s">
+      <c r="C43" s="130"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="119" t="s">
+      <c r="G43" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="H43" s="117" t="s">
+      <c r="H43" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-      <c r="L43" s="117"/>
-      <c r="M43" s="117"/>
-      <c r="N43" s="118"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="142"/>
     </row>
     <row r="44" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="103"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="115" t="s">
+      <c r="A44" s="123"/>
+      <c r="B44" s="132"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="134"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="114" t="s">
+      <c r="I44" s="140"/>
+      <c r="J44" s="140"/>
+      <c r="K44" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="L44" s="114"/>
-      <c r="M44" s="120" t="s">
+      <c r="L44" s="138"/>
+      <c r="M44" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="N44" s="121"/>
+      <c r="N44" s="145"/>
     </row>
     <row r="45" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="103"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="104"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="114"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="122"/>
-      <c r="N45" s="123"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="134"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="138"/>
+      <c r="L45" s="138"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="147"/>
     </row>
     <row r="46" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="103"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="104"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="119"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="114"/>
-      <c r="L46" s="114"/>
-      <c r="M46" s="122"/>
-      <c r="N46" s="123"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="132"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="140"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="147"/>
     </row>
     <row r="47" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="103"/>
-      <c r="B47" s="108"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="114"/>
-      <c r="L47" s="114"/>
-      <c r="M47" s="122"/>
-      <c r="N47" s="123"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="132"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="134"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="140"/>
+      <c r="J47" s="140"/>
+      <c r="K47" s="138"/>
+      <c r="L47" s="138"/>
+      <c r="M47" s="146"/>
+      <c r="N47" s="147"/>
     </row>
     <row r="48" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="103"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="126" t="s">
+      <c r="A48" s="123"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="134"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="128" t="s">
+      <c r="I48" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="J48" s="130" t="s">
+      <c r="J48" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="K48" s="132" t="s">
+      <c r="K48" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="L48" s="133" t="s">
+      <c r="L48" s="157" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="122"/>
-      <c r="N48" s="123"/>
+      <c r="M48" s="146"/>
+      <c r="N48" s="147"/>
     </row>
     <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="103"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="112"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="131"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="116"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="125"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="140"/>
+      <c r="M49" s="148"/>
+      <c r="N49" s="149"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="37"/>
@@ -15602,6 +15602,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="K44:L47"/>
+    <mergeCell ref="H44:J47"/>
+    <mergeCell ref="H43:N43"/>
+    <mergeCell ref="G43:G49"/>
+    <mergeCell ref="M44:N49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="L13:N13"/>
@@ -15618,21 +15633,6 @@
     <mergeCell ref="E15:N15"/>
     <mergeCell ref="E16:N16"/>
     <mergeCell ref="E17:N17"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="K44:L47"/>
-    <mergeCell ref="H44:J47"/>
-    <mergeCell ref="H43:N43"/>
-    <mergeCell ref="G43:G49"/>
-    <mergeCell ref="M44:N49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0" bottom="0.25" header="0.12" footer="0.12"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <r>
       <t xml:space="preserve">
@@ -35,6 +35,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t/>
     </r>
@@ -95,9 +96,6 @@
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC):</t>
-  </si>
-  <si>
-    <t>158,400.00</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -215,13 +213,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="167" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -232,80 +229,94 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -313,6 +324,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -325,6 +337,12 @@
     <font>
       <i/>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -549,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -836,7 +854,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -852,6 +870,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1267,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:L844"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1576,7 @@
     </row>
     <row r="20" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -1581,7 +1608,7 @@
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1589,7 +1616,7 @@
       <c r="E22" s="41"/>
       <c r="F22" s="42"/>
       <c r="G22" s="72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20"/>
@@ -1599,7 +1626,7 @@
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1607,7 +1634,7 @@
       <c r="E23" s="45"/>
       <c r="F23" s="46"/>
       <c r="G23" s="70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
@@ -1617,7 +1644,7 @@
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1625,7 +1652,7 @@
       <c r="E24" s="45"/>
       <c r="F24" s="46"/>
       <c r="G24" s="69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
@@ -1635,7 +1662,7 @@
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1643,7 +1670,7 @@
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
       <c r="G25" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="48"/>
       <c r="I25" s="49"/>
@@ -1653,7 +1680,7 @@
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -1671,7 +1698,7 @@
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -1679,7 +1706,7 @@
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
       <c r="G27" s="71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="24"/>
@@ -1689,7 +1716,7 @@
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -1697,7 +1724,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
       <c r="G28" s="71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="24"/>
@@ -1707,7 +1734,7 @@
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -1715,7 +1742,7 @@
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
       <c r="G29" s="71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="24"/>
@@ -1725,7 +1752,7 @@
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -1733,7 +1760,7 @@
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
       <c r="G30" s="71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="24"/>
@@ -1759,7 +1786,7 @@
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -1778,8 +1805,8 @@
         <v>19</v>
       </c>
       <c r="B33" s="79"/>
-      <c r="C33" s="116" t="s">
-        <v>20</v>
+      <c r="C33" s="116">
+        <v>158400</v>
       </c>
       <c r="D33" s="116"/>
       <c r="E33" s="116"/>
@@ -1815,7 +1842,7 @@
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
       <c r="I35" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
@@ -1830,7 +1857,7 @@
       <c r="F36" s="116"/>
       <c r="G36" s="56"/>
       <c r="H36" s="78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="78"/>
       <c r="J36" s="78"/>
@@ -1853,22 +1880,22 @@
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="C38" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="D38" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="E38" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="89" t="s">
+      <c r="F38" s="87" t="s">
         <v>27</v>
-      </c>
-      <c r="F38" s="87" t="s">
-        <v>28</v>
       </c>
       <c r="G38" s="87"/>
       <c r="H38" s="87"/>
@@ -1884,16 +1911,16 @@
       <c r="D39" s="79"/>
       <c r="E39" s="89"/>
       <c r="F39" s="85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="86"/>
       <c r="H39" s="86"/>
       <c r="I39" s="84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J39" s="84"/>
       <c r="K39" s="90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L39" s="91"/>
     </row>
@@ -1946,19 +1973,19 @@
       <c r="D43" s="79"/>
       <c r="E43" s="89"/>
       <c r="F43" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="98" t="s">
+      <c r="H43" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="100" t="s">
+      <c r="I43" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="102" t="s">
+      <c r="J43" s="103" t="s">
         <v>35</v>
-      </c>
-      <c r="J43" s="103" t="s">
-        <v>36</v>
       </c>
       <c r="K43" s="92"/>
       <c r="L43" s="93"/>
@@ -2005,453 +2032,453 @@
       <c r="K46" s="58"/>
       <c r="L46" s="58"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="58"/>
-      <c r="J51" s="58"/>
-      <c r="K51" s="58"/>
-      <c r="L51" s="58"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="61"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="58"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="58"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="61"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="58"/>
-      <c r="J58" s="58"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="58"/>
-      <c r="J59" s="58"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="58"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
-      <c r="L63" s="58"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
-      <c r="L64" s="58"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="58"/>
-      <c r="J66" s="58"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="58"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
-      <c r="L68" s="58"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
-      <c r="K69" s="58"/>
-      <c r="L69" s="58"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="60"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="58"/>
-      <c r="J70" s="58"/>
-      <c r="K70" s="58"/>
-      <c r="L70" s="58"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="58"/>
-      <c r="J72" s="58"/>
-      <c r="K72" s="58"/>
-      <c r="L72" s="58"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="58"/>
-      <c r="J73" s="58"/>
-      <c r="K73" s="58"/>
-      <c r="L73" s="58"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="58"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="61"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="58"/>
-      <c r="K77" s="58"/>
-      <c r="L77" s="58"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="58"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="61"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="58"/>
-      <c r="K78" s="58"/>
-      <c r="L78" s="58"/>
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="122"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="122"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="122"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="122"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="122"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="122"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="122"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="122"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="122"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="122"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="122"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="122"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="122"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="122"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="122"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="122"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="122"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="122"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="122"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="122"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="122"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="122"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="122"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="122"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="122"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="122"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="122"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="122"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="122"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="122"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="122"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="122"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="122"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="122"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="122"/>
+      <c r="K66" s="122"/>
+      <c r="L66" s="122"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="122"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="122"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="122"/>
+      <c r="J67" s="122"/>
+      <c r="K67" s="122"/>
+      <c r="L67" s="122"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="122"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="122"/>
+      <c r="J68" s="122"/>
+      <c r="K68" s="122"/>
+      <c r="L68" s="122"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="122"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="122"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="122"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="122"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="122"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="122"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="123"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="122"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="122"/>
+      <c r="J71" s="122"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="122"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="122"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="122"/>
+      <c r="D72" s="123"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="122"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="122"/>
+      <c r="J72" s="122"/>
+      <c r="K72" s="122"/>
+      <c r="L72" s="122"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="122"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="122"/>
+      <c r="K73" s="122"/>
+      <c r="L73" s="122"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="122"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="122"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="122"/>
+      <c r="J74" s="122"/>
+      <c r="K74" s="122"/>
+      <c r="L74" s="122"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="122"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="122"/>
+      <c r="J75" s="122"/>
+      <c r="K75" s="122"/>
+      <c r="L75" s="122"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="122"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="122"/>
+      <c r="D76" s="123"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="124"/>
+      <c r="I76" s="122"/>
+      <c r="J76" s="122"/>
+      <c r="K76" s="122"/>
+      <c r="L76" s="122"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="122"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="124"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="122"/>
+      <c r="J77" s="122"/>
+      <c r="K77" s="122"/>
+      <c r="L77" s="122"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="122"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="122"/>
+      <c r="J78" s="122"/>
+      <c r="K78" s="122"/>
+      <c r="L78" s="122"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="58"/>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28305" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$52</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <r>
       <t xml:space="preserve">
@@ -35,7 +35,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
       </rPr>
       <t/>
     </r>
@@ -47,7 +46,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-154</t>
+    <t>2020-138</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -59,7 +58,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>July 30, 2020</t>
+    <t>July 17, 2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -86,16 +85,76 @@
     <t>PhilGEPS Registration No.:</t>
   </si>
   <si>
+    <t>Please quote your lowest price for the requirements listed hereunder subject to the Terms and Conditions stated below and submit to this office duly signed:</t>
+  </si>
+  <si>
     <t>TERMS AND CONDITIONS:</t>
+  </si>
+  <si>
+    <t>1. Bidders shall provide correct and accurate information required in this form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.  The item(s) shall be delivered within 10 calendar days from receipt of Purchase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Bidders may quote for any or all items. </t>
+  </si>
+  <si>
+    <t>Order (PO).</t>
+  </si>
+  <si>
+    <t>3. Price quotation(s) must be valid for a period of 60 calendar days from the date of submission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.  The DILG IV-A shall have the right to inspect and/or to test the goods to confirm their </t>
+  </si>
+  <si>
+    <t>4. Price quotation(s) to be denominated in Philippine Peso shall include all taxes duties and/or</t>
+  </si>
+  <si>
+    <t>conformity to the technical specifications.</t>
+  </si>
+  <si>
+    <t>levies payable.</t>
+  </si>
+  <si>
+    <t>10. Liquidated damages equivalent to one-tenth of one percent (0.1%) of the value of the</t>
+  </si>
+  <si>
+    <t>5. Quotations exceeding the Approved Budget for the Contract (ABC) shall be rejected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goods not delivered within the prescribed delivery period shall be imposed per day of delay.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.  Award of contract shall be made to the lowest quotation (for goods) or the highest rated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DILG IV-A shall rescind the contract once the cumulative amount of liquidated damages </t>
+  </si>
+  <si>
+    <t xml:space="preserve">offer (for consulting services) which complies with the minimum technical specifiactions and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaches ten (10) percent of the amount of the contract, without prejudice to other courses </t>
+  </si>
+  <si>
+    <t>other terms and conditions stated herein.</t>
+  </si>
+  <si>
+    <t>of action and remedies open to it.</t>
   </si>
   <si>
     <t>7.  Any interlineations, erasures, or overwriting shall be valid only if they are signed or</t>
   </si>
   <si>
-    <t>10. Liquidated damages equivalent to one-tenth of one percent (0.1%) of the value of the</t>
+    <t>initialed by the supplier or its authorized representative(s).</t>
   </si>
   <si>
     <t>Approved Budget for the Contract (ABC):</t>
+  </si>
+  <si>
+    <t>PHP 382,302.50</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -152,61 +211,66 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Please quote your lowest price for the requirements listed hereunder subject to the Terms and Conditions stated below and submit to this office duly signed:</t>
+    <t>Customized Washable Face Mask
+Neoprene, Non woven cotton, 2ply lightweight, breathable fabric, Adjustable ear bands, Sublimation design</t>
   </si>
   <si>
-    <t>1. Bidders shall provide correct and accurate information required in this form.</t>
+    <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">2. Bidders may quote for any or all items. </t>
+    <t>Alcohol 70%, (1 Gal)
+qwe</t>
   </si>
   <si>
-    <t>3. Price quotation(s) must be valid for a period of 60 calendar days from the date of submission.</t>
+    <t>gallon</t>
   </si>
   <si>
-    <t>4. Price quotation(s) to be denominated in Philippine Peso shall include all taxes duties and/or</t>
+    <t>Absorbent gauze 36sX100yds-2ply 40X28x24mesh
+qwe</t>
   </si>
   <si>
-    <t>5. Quotations exceeding the Approved Budget for the Contract (ABC) shall be rejected.</t>
+    <t>pack</t>
   </si>
   <si>
-    <t xml:space="preserve">6.  Award of contract shall be made to the lowest quotation (for goods) or the highest rated </t>
+    <t>1,552.50</t>
   </si>
   <si>
-    <t xml:space="preserve">offer (for consulting services) which complies with the minimum technical specifiactions and </t>
+    <t>Warranty:</t>
   </si>
   <si>
-    <t>levies payable.</t>
+    <t>Price Validity:</t>
   </si>
   <si>
-    <t>other terms and conditions stated herein.</t>
+    <t>TOTAL</t>
   </si>
   <si>
-    <t>initialed by the supplier or its authorized representative(s).</t>
+    <t>SUPPLIER DETAILS</t>
   </si>
   <si>
-    <t>Order (PO).</t>
+    <t>After having carefully read and accepted your General Conditions, I / WE quote on the item(s) at prices noted above.</t>
   </si>
   <si>
-    <t>conformity to the technical specifications.</t>
+    <t>Name:</t>
   </si>
   <si>
-    <t xml:space="preserve">goods not delivered within the prescribed delivery period shall be imposed per day of delay.  </t>
+    <t>Contact:</t>
   </si>
   <si>
-    <t xml:space="preserve">reaches ten (10) percent of the amount of the contract, without prejudice to other courses </t>
+    <t>Signature</t>
   </si>
   <si>
-    <t>of action and remedies open to it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.  The DILG IV-A shall have the right to inspect and/or to test the goods to confirm their </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.  The item(s) shall be delivered within 10 calendar days from receipt of Purchase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The DILG IV-A shall rescind the contract once the cumulative amount of liquidated damages </t>
+    <t>NOTE:
+*In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation the following Eligibility Documents:
+   1. Valid Business Permit 2021 ( Application for renewal with Official Receipt 2021)
+   2. PhilGEPS Registration No. (Please indicate on the space provided above)
+   3. a. Any documents to prove that the signatory of the quotation is autorized representative of the company.
+       b. Photocopy of ID bearing the pictures/ signature of the representatives.
+   4. Accomplished and Notarized Omnibus Sworn Statement
+ * Please submit your quotation using our official Request for Quotation (RFQ) Form. You can secure a copy of the 
+RFQ from the General Services and Supply Section, Finance and Administrative Division. 
+ *Please submit your quotation together with the Eligibility Documents through any of the following : 
+       a. Email us at dilg4a.bac@gmail.com
+     b. Deliver on hand at the receiving area of DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
 </sst>
 </file>
@@ -218,7 +282,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,94 +293,103 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -324,31 +397,9 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +421,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5B8BC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -448,26 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -516,12 +553,19 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -550,16 +594,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -613,19 +655,19 @@
     <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -646,17 +688,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,34 +710,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -714,54 +756,174 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -770,19 +932,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,94 +953,85 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -903,9 +1056,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>116205</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="752475" cy="762000"/>
     <xdr:pic>
@@ -923,8 +1076,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="116205" y="135255"/>
-          <a:ext cx="752475" cy="762000"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,8 +1447,8 @@
   </sheetPr>
   <dimension ref="A1:L844"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,11 +1585,11 @@
       <c r="I11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="106"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="146"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1444,21 +1597,21 @@
         <v>4</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="148"/>
       <c r="I12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="151"/>
     </row>
     <row r="13" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
@@ -1475,62 +1628,62 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="104" t="s">
+      <c r="B14" s="158"/>
+      <c r="C14" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="106"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="146"/>
     </row>
     <row r="15" spans="1:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119" t="s">
+      <c r="B15" s="158"/>
+      <c r="C15" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="161"/>
     </row>
     <row r="16" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="106"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="146"/>
     </row>
     <row r="17" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="118"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -1543,10 +1696,10 @@
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="118"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -1559,10 +1712,10 @@
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="117"/>
+      <c r="B19" s="157"/>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
@@ -1576,7 +1729,7 @@
     </row>
     <row r="20" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -1591,24 +1744,24 @@
       <c r="L20" s="77"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="115" t="s">
-        <v>16</v>
+      <c r="A21" s="155" t="s">
+        <v>17</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1616,7 +1769,7 @@
       <c r="E22" s="41"/>
       <c r="F22" s="42"/>
       <c r="G22" s="72" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20"/>
@@ -1626,7 +1779,7 @@
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1634,7 +1787,7 @@
       <c r="E23" s="45"/>
       <c r="F23" s="46"/>
       <c r="G23" s="70" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
@@ -1644,7 +1797,7 @@
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1652,7 +1805,7 @@
       <c r="E24" s="45"/>
       <c r="F24" s="46"/>
       <c r="G24" s="69" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
@@ -1662,7 +1815,7 @@
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1670,7 +1823,7 @@
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
       <c r="G25" s="69" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="H25" s="48"/>
       <c r="I25" s="49"/>
@@ -1680,7 +1833,7 @@
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -1688,7 +1841,7 @@
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="26" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
@@ -1698,7 +1851,7 @@
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -1706,7 +1859,7 @@
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
       <c r="G27" s="71" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="24"/>
@@ -1716,7 +1869,7 @@
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -1724,7 +1877,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
       <c r="G28" s="71" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="24"/>
@@ -1734,7 +1887,7 @@
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -1742,7 +1895,7 @@
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
       <c r="G29" s="71" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="24"/>
@@ -1752,7 +1905,7 @@
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -1760,7 +1913,7 @@
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
       <c r="G30" s="71" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="24"/>
@@ -1770,7 +1923,7 @@
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="68" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -1786,7 +1939,7 @@
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="68" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -1801,16 +1954,16 @@
       <c r="L32" s="46"/>
     </row>
     <row r="33" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
-        <v>19</v>
+      <c r="A33" s="119" t="s">
+        <v>38</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="116">
-        <v>158400</v>
+      <c r="B33" s="119"/>
+      <c r="C33" s="156" t="s">
+        <v>39</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
       <c r="G33" s="50"/>
       <c r="H33" s="50"/>
       <c r="I33" s="51"/>
@@ -1819,12 +1972,12 @@
       <c r="L33" s="52"/>
     </row>
     <row r="34" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
       <c r="I34" s="30"/>
@@ -1833,652 +1986,702 @@
       <c r="L34" s="54"/>
     </row>
     <row r="35" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
       <c r="I35" s="14" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="54"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
       <c r="G36" s="56"/>
-      <c r="H36" s="78" t="s">
-        <v>21</v>
+      <c r="H36" s="118" t="s">
+        <v>41</v>
       </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="118"/>
+      <c r="K36" s="118"/>
       <c r="L36" s="57"/>
     </row>
     <row r="37" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="114"/>
+      <c r="A37" s="152"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
+      <c r="K37" s="153"/>
+      <c r="L37" s="154"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
-        <v>22</v>
+      <c r="A38" s="119" t="s">
+        <v>42</v>
       </c>
-      <c r="B38" s="81" t="s">
-        <v>23</v>
+      <c r="B38" s="121" t="s">
+        <v>43</v>
       </c>
-      <c r="C38" s="80" t="s">
-        <v>24</v>
+      <c r="C38" s="120" t="s">
+        <v>44</v>
       </c>
-      <c r="D38" s="79" t="s">
-        <v>25</v>
+      <c r="D38" s="119" t="s">
+        <v>45</v>
       </c>
-      <c r="E38" s="89" t="s">
-        <v>26</v>
+      <c r="E38" s="129" t="s">
+        <v>46</v>
       </c>
-      <c r="F38" s="87" t="s">
-        <v>27</v>
+      <c r="F38" s="127" t="s">
+        <v>47</v>
       </c>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="88"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="128"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="85" t="s">
-        <v>28</v>
+      <c r="A39" s="119"/>
+      <c r="B39" s="122"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="119"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="125" t="s">
+        <v>48</v>
       </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="84" t="s">
-        <v>29</v>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="124" t="s">
+        <v>49</v>
       </c>
-      <c r="J39" s="84"/>
-      <c r="K39" s="90" t="s">
-        <v>30</v>
+      <c r="J39" s="124"/>
+      <c r="K39" s="130" t="s">
+        <v>50</v>
       </c>
-      <c r="L39" s="91"/>
+      <c r="L39" s="131"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="93"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="129"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="133"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="93"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="132"/>
+      <c r="L41" s="133"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="93"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="119"/>
+      <c r="E42" s="129"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="133"/>
     </row>
     <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="96" t="s">
-        <v>31</v>
+      <c r="A43" s="119"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="129"/>
+      <c r="F43" s="136" t="s">
+        <v>51</v>
       </c>
-      <c r="G43" s="98" t="s">
-        <v>32</v>
+      <c r="G43" s="138" t="s">
+        <v>52</v>
       </c>
-      <c r="H43" s="100" t="s">
-        <v>33</v>
+      <c r="H43" s="140" t="s">
+        <v>53</v>
       </c>
-      <c r="I43" s="102" t="s">
-        <v>34</v>
+      <c r="I43" s="142" t="s">
+        <v>54</v>
       </c>
-      <c r="J43" s="103" t="s">
-        <v>35</v>
+      <c r="J43" s="143" t="s">
+        <v>55</v>
       </c>
-      <c r="K43" s="92"/>
-      <c r="L43" s="93"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="133"/>
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="95"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="122"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="122"/>
-      <c r="J47" s="122"/>
-      <c r="K47" s="122"/>
-      <c r="L47" s="122"/>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="122"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="122"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="122"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="122"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="122"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="122"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="122"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="122"/>
-      <c r="B54" s="122"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
-      <c r="L54" s="122"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="122"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="122"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="122"/>
-      <c r="B57" s="122"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="122"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="122"/>
-      <c r="B59" s="122"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="122"/>
-      <c r="L59" s="122"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="122"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="122"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="122"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="122"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="122"/>
-      <c r="K62" s="122"/>
-      <c r="L62" s="122"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="122"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="123"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="122"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="122"/>
-      <c r="K63" s="122"/>
-      <c r="L63" s="122"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="122"/>
-      <c r="B64" s="122"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="122"/>
-      <c r="K64" s="122"/>
-      <c r="L64" s="122"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="122"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="122"/>
-      <c r="L65" s="122"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="122"/>
-      <c r="B66" s="122"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="122"/>
-      <c r="L66" s="122"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="122"/>
-      <c r="B67" s="122"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="122"/>
-      <c r="L67" s="122"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="122"/>
-      <c r="B68" s="122"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="124"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
-      <c r="L68" s="122"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="122"/>
-      <c r="B69" s="122"/>
-      <c r="C69" s="122"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="122"/>
-      <c r="L69" s="122"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="122"/>
-      <c r="B70" s="122"/>
-      <c r="C70" s="122"/>
-      <c r="D70" s="123"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="122"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="122"/>
-      <c r="L70" s="122"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="122"/>
-      <c r="B71" s="122"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="122"/>
-      <c r="L71" s="122"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="122"/>
-      <c r="B72" s="122"/>
-      <c r="C72" s="122"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="122"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="122"/>
-      <c r="L72" s="122"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="122"/>
-      <c r="B73" s="122"/>
-      <c r="C73" s="122"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="122"/>
-      <c r="L73" s="122"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="122"/>
-      <c r="B74" s="122"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="122"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="122"/>
-      <c r="J74" s="122"/>
-      <c r="K74" s="122"/>
-      <c r="L74" s="122"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="122"/>
-      <c r="B75" s="122"/>
-      <c r="C75" s="122"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="122"/>
-      <c r="L75" s="122"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="122"/>
-      <c r="B76" s="122"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122"/>
-      <c r="L76" s="122"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="122"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="123"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="122"/>
-      <c r="L77" s="122"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="122"/>
-      <c r="B78" s="122"/>
-      <c r="C78" s="122"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="122"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="122"/>
-      <c r="L78" s="122"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="120"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="143"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="135"/>
+    </row>
+    <row r="45" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="81">
+        <v>1</v>
+      </c>
+      <c r="B45" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="82">
+        <v>2000</v>
+      </c>
+      <c r="D45" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="84">
+        <v>190</v>
+      </c>
+      <c r="F45" s="85"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+    </row>
+    <row r="46" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="81">
+        <v>2</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="82">
+        <v>1</v>
+      </c>
+      <c r="D46" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="84">
+        <v>750</v>
+      </c>
+      <c r="F46" s="85"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="81">
+        <v>3</v>
+      </c>
+      <c r="B47" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="82">
+        <v>1</v>
+      </c>
+      <c r="D47" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="87"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+    </row>
+    <row r="48" spans="1:12" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="113"/>
+    </row>
+    <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="90"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="114"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="K49" s="116"/>
+      <c r="L49" s="92"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="103"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="108"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="92"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="92"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="92"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="94"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="92"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="92"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="97"/>
+      <c r="I54" s="93"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="92"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="78"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="78"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="78"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="78"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="78"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="78"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="78"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="78"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="78"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="78"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="78"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="78"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="78"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="78"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="78"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="78"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="78"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="78"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="78"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="78"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="78"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="78"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="80"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="78"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="80"/>
+      <c r="I78" s="78"/>
+      <c r="J78" s="78"/>
+      <c r="K78" s="78"/>
+      <c r="L78" s="78"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="58"/>
@@ -13206,7 +13409,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="31">
+  <mergeCells count="46">
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="J12:L12"/>
@@ -13238,9 +13441,24 @@
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="J43:J44"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:L53"/>
   </mergeCells>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0" bottom="0.23622047244094491" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.31496062992126" right="0.31496062992126" top="0" bottom="0.23622047244093999" header="0.11811023622047" footer="0.11811023622047"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28305" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$52</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <r>
       <t xml:space="preserve">
@@ -35,6 +35,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
+        <family val="1"/>
       </rPr>
       <t/>
     </r>
@@ -46,7 +47,7 @@
     <t>RFQ Number :</t>
   </si>
   <si>
-    <t>2020-138</t>
+    <t>2020-154</t>
   </si>
   <si>
     <t>Mode of Procurement:</t>
@@ -58,7 +59,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>July 17, 2020</t>
+    <t>July 30, 2020</t>
   </si>
   <si>
     <t>Office/End User:</t>
@@ -85,76 +86,16 @@
     <t>PhilGEPS Registration No.:</t>
   </si>
   <si>
-    <t>Please quote your lowest price for the requirements listed hereunder subject to the Terms and Conditions stated below and submit to this office duly signed:</t>
-  </si>
-  <si>
     <t>TERMS AND CONDITIONS:</t>
   </si>
   <si>
-    <t>1. Bidders shall provide correct and accurate information required in this form.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.  The item(s) shall be delivered within 10 calendar days from receipt of Purchase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Bidders may quote for any or all items. </t>
-  </si>
-  <si>
-    <t>Order (PO).</t>
-  </si>
-  <si>
-    <t>3. Price quotation(s) must be valid for a period of 60 calendar days from the date of submission.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.  The DILG IV-A shall have the right to inspect and/or to test the goods to confirm their </t>
-  </si>
-  <si>
-    <t>4. Price quotation(s) to be denominated in Philippine Peso shall include all taxes duties and/or</t>
-  </si>
-  <si>
-    <t>conformity to the technical specifications.</t>
-  </si>
-  <si>
-    <t>levies payable.</t>
+    <t>7.  Any interlineations, erasures, or overwriting shall be valid only if they are signed or</t>
   </si>
   <si>
     <t>10. Liquidated damages equivalent to one-tenth of one percent (0.1%) of the value of the</t>
   </si>
   <si>
-    <t>5. Quotations exceeding the Approved Budget for the Contract (ABC) shall be rejected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goods not delivered within the prescribed delivery period shall be imposed per day of delay.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.  Award of contract shall be made to the lowest quotation (for goods) or the highest rated </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The DILG IV-A shall rescind the contract once the cumulative amount of liquidated damages </t>
-  </si>
-  <si>
-    <t xml:space="preserve">offer (for consulting services) which complies with the minimum technical specifiactions and </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaches ten (10) percent of the amount of the contract, without prejudice to other courses </t>
-  </si>
-  <si>
-    <t>other terms and conditions stated herein.</t>
-  </si>
-  <si>
-    <t>of action and remedies open to it.</t>
-  </si>
-  <si>
-    <t>7.  Any interlineations, erasures, or overwriting shall be valid only if they are signed or</t>
-  </si>
-  <si>
-    <t>initialed by the supplier or its authorized representative(s).</t>
-  </si>
-  <si>
     <t>Approved Budget for the Contract (ABC):</t>
-  </si>
-  <si>
-    <t>PHP 382,302.50</t>
   </si>
   <si>
     <t>DR. CARINA S. CRUZ</t>
@@ -211,66 +152,61 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Customized Washable Face Mask
-Neoprene, Non woven cotton, 2ply lightweight, breathable fabric, Adjustable ear bands, Sublimation design</t>
+    <t>Please quote your lowest price for the requirements listed hereunder subject to the Terms and Conditions stated below and submit to this office duly signed:</t>
   </si>
   <si>
-    <t>piece</t>
+    <t>1. Bidders shall provide correct and accurate information required in this form.</t>
   </si>
   <si>
-    <t>Alcohol 70%, (1 Gal)
-qwe</t>
+    <t xml:space="preserve">2. Bidders may quote for any or all items. </t>
   </si>
   <si>
-    <t>gallon</t>
+    <t>3. Price quotation(s) must be valid for a period of 60 calendar days from the date of submission.</t>
   </si>
   <si>
-    <t>Absorbent gauze 36sX100yds-2ply 40X28x24mesh
-qwe</t>
+    <t>4. Price quotation(s) to be denominated in Philippine Peso shall include all taxes duties and/or</t>
   </si>
   <si>
-    <t>pack</t>
+    <t>5. Quotations exceeding the Approved Budget for the Contract (ABC) shall be rejected.</t>
   </si>
   <si>
-    <t>1,552.50</t>
+    <t xml:space="preserve">6.  Award of contract shall be made to the lowest quotation (for goods) or the highest rated </t>
   </si>
   <si>
-    <t>Warranty:</t>
+    <t xml:space="preserve">offer (for consulting services) which complies with the minimum technical specifiactions and </t>
   </si>
   <si>
-    <t>Price Validity:</t>
+    <t>levies payable.</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t>other terms and conditions stated herein.</t>
   </si>
   <si>
-    <t>SUPPLIER DETAILS</t>
+    <t>initialed by the supplier or its authorized representative(s).</t>
   </si>
   <si>
-    <t>After having carefully read and accepted your General Conditions, I / WE quote on the item(s) at prices noted above.</t>
+    <t>Order (PO).</t>
   </si>
   <si>
-    <t>Name:</t>
+    <t>conformity to the technical specifications.</t>
   </si>
   <si>
-    <t>Contact:</t>
+    <t xml:space="preserve">goods not delivered within the prescribed delivery period shall be imposed per day of delay.  </t>
   </si>
   <si>
-    <t>Signature</t>
+    <t xml:space="preserve">reaches ten (10) percent of the amount of the contract, without prejudice to other courses </t>
   </si>
   <si>
-    <t>NOTE:
-*In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation the following Eligibility Documents:
-   1. Valid Business Permit 2021 ( Application for renewal with Official Receipt 2021)
-   2. PhilGEPS Registration No. (Please indicate on the space provided above)
-   3. a. Any documents to prove that the signatory of the quotation is autorized representative of the company.
-       b. Photocopy of ID bearing the pictures/ signature of the representatives.
-   4. Accomplished and Notarized Omnibus Sworn Statement
- * Please submit your quotation using our official Request for Quotation (RFQ) Form. You can secure a copy of the 
-RFQ from the General Services and Supply Section, Finance and Administrative Division. 
- *Please submit your quotation together with the Eligibility Documents through any of the following : 
-       a. Email us at dilg4a.bac@gmail.com
-     b. Deliver on hand at the receiving area of DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
+    <t>of action and remedies open to it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.  The DILG IV-A shall have the right to inspect and/or to test the goods to confirm their </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.  The item(s) shall be delivered within 10 calendar days from receipt of Purchase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DILG IV-A shall rescind the contract once the cumulative amount of liquidated damages </t>
   </si>
 </sst>
 </file>
@@ -282,7 +218,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -293,63 +229,102 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -357,49 +332,23 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,14 +370,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB5B8BC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -505,6 +448,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -553,19 +516,12 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,14 +550,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -655,19 +613,19 @@
     <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -688,17 +646,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,34 +668,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -756,174 +714,54 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -932,19 +770,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,85 +791,94 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1056,9 +903,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>116205</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="752475" cy="762000"/>
     <xdr:pic>
@@ -1076,8 +923,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="116205" y="135255"/>
+          <a:ext cx="752475" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1447,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:L844"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,11 +1432,11 @@
       <c r="I11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="144" t="s">
+      <c r="J11" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="146"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="106"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1597,21 +1444,21 @@
         <v>4</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="148"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108"/>
       <c r="I12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="149" t="s">
+      <c r="J12" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="150"/>
-      <c r="L12" s="151"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="111"/>
     </row>
     <row r="13" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
@@ -1628,62 +1475,62 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="144" t="s">
+      <c r="B14" s="118"/>
+      <c r="C14" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="146"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="106"/>
     </row>
     <row r="15" spans="1:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="159" t="s">
+      <c r="B15" s="118"/>
+      <c r="C15" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="161"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="16" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="158" t="s">
+      <c r="A16" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="158"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="146"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="106"/>
     </row>
     <row r="17" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="158"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -1696,10 +1543,10 @@
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="158"/>
+      <c r="B18" s="118"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -1712,10 +1559,10 @@
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="157"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
@@ -1729,7 +1576,7 @@
     </row>
     <row r="20" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -1744,24 +1591,24 @@
       <c r="L20" s="77"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="155" t="s">
-        <v>17</v>
+      <c r="A21" s="115" t="s">
+        <v>16</v>
       </c>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1769,7 +1616,7 @@
       <c r="E22" s="41"/>
       <c r="F22" s="42"/>
       <c r="G22" s="72" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="20"/>
@@ -1779,7 +1626,7 @@
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1787,7 +1634,7 @@
       <c r="E23" s="45"/>
       <c r="F23" s="46"/>
       <c r="G23" s="70" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H23" s="23"/>
       <c r="I23" s="24"/>
@@ -1797,7 +1644,7 @@
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1805,7 +1652,7 @@
       <c r="E24" s="45"/>
       <c r="F24" s="46"/>
       <c r="G24" s="69" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H24" s="23"/>
       <c r="I24" s="24"/>
@@ -1815,7 +1662,7 @@
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -1823,7 +1670,7 @@
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
       <c r="G25" s="69" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H25" s="48"/>
       <c r="I25" s="49"/>
@@ -1833,7 +1680,7 @@
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -1841,7 +1688,7 @@
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H26" s="23"/>
       <c r="I26" s="24"/>
@@ -1851,7 +1698,7 @@
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="66" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -1859,7 +1706,7 @@
       <c r="E27" s="45"/>
       <c r="F27" s="46"/>
       <c r="G27" s="71" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="24"/>
@@ -1869,7 +1716,7 @@
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -1877,7 +1724,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
       <c r="G28" s="71" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="24"/>
@@ -1887,7 +1734,7 @@
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="66" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -1895,7 +1742,7 @@
       <c r="E29" s="45"/>
       <c r="F29" s="46"/>
       <c r="G29" s="71" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="24"/>
@@ -1905,7 +1752,7 @@
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -1913,7 +1760,7 @@
       <c r="E30" s="45"/>
       <c r="F30" s="46"/>
       <c r="G30" s="71" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="24"/>
@@ -1923,7 +1770,7 @@
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="68" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -1939,7 +1786,7 @@
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="68" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -1954,16 +1801,16 @@
       <c r="L32" s="46"/>
     </row>
     <row r="33" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="119" t="s">
-        <v>38</v>
+      <c r="A33" s="79" t="s">
+        <v>19</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="156" t="s">
-        <v>39</v>
+      <c r="B33" s="79"/>
+      <c r="C33" s="116">
+        <v>158400</v>
       </c>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
       <c r="G33" s="50"/>
       <c r="H33" s="50"/>
       <c r="I33" s="51"/>
@@ -1972,12 +1819,12 @@
       <c r="L33" s="52"/>
     </row>
     <row r="34" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
       <c r="I34" s="30"/>
@@ -1986,702 +1833,652 @@
       <c r="L34" s="54"/>
     </row>
     <row r="35" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
       <c r="I35" s="14" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="54"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
       <c r="G36" s="56"/>
-      <c r="H36" s="118" t="s">
-        <v>41</v>
+      <c r="H36" s="78" t="s">
+        <v>21</v>
       </c>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
       <c r="L36" s="57"/>
     </row>
     <row r="37" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="152"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="153"/>
-      <c r="D37" s="153"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
-      <c r="K37" s="153"/>
-      <c r="L37" s="154"/>
+      <c r="A37" s="112"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="114"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="119" t="s">
-        <v>42</v>
+      <c r="A38" s="79" t="s">
+        <v>22</v>
       </c>
-      <c r="B38" s="121" t="s">
-        <v>43</v>
+      <c r="B38" s="81" t="s">
+        <v>23</v>
       </c>
-      <c r="C38" s="120" t="s">
-        <v>44</v>
+      <c r="C38" s="80" t="s">
+        <v>24</v>
       </c>
-      <c r="D38" s="119" t="s">
-        <v>45</v>
+      <c r="D38" s="79" t="s">
+        <v>25</v>
       </c>
-      <c r="E38" s="129" t="s">
-        <v>46</v>
+      <c r="E38" s="89" t="s">
+        <v>26</v>
       </c>
-      <c r="F38" s="127" t="s">
-        <v>47</v>
+      <c r="F38" s="87" t="s">
+        <v>27</v>
       </c>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="127"/>
-      <c r="L38" s="128"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="88"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="119"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="125" t="s">
-        <v>48</v>
+      <c r="A39" s="79"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="85" t="s">
+        <v>28</v>
       </c>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="124" t="s">
-        <v>49</v>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="84" t="s">
+        <v>29</v>
       </c>
-      <c r="J39" s="124"/>
-      <c r="K39" s="130" t="s">
-        <v>50</v>
+      <c r="J39" s="84"/>
+      <c r="K39" s="90" t="s">
+        <v>30</v>
       </c>
-      <c r="L39" s="131"/>
+      <c r="L39" s="91"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="119"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="125"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="133"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="93"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="125"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="132"/>
-      <c r="L41" s="133"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="93"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="125"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="133"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="93"/>
     </row>
     <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="136" t="s">
-        <v>51</v>
+      <c r="A43" s="79"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="96" t="s">
+        <v>31</v>
       </c>
-      <c r="G43" s="138" t="s">
-        <v>52</v>
+      <c r="G43" s="98" t="s">
+        <v>32</v>
       </c>
-      <c r="H43" s="140" t="s">
-        <v>53</v>
+      <c r="H43" s="100" t="s">
+        <v>33</v>
       </c>
-      <c r="I43" s="142" t="s">
-        <v>54</v>
+      <c r="I43" s="102" t="s">
+        <v>34</v>
       </c>
-      <c r="J43" s="143" t="s">
-        <v>55</v>
+      <c r="J43" s="103" t="s">
+        <v>35</v>
       </c>
-      <c r="K43" s="132"/>
-      <c r="L43" s="133"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="93"/>
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
-      <c r="B44" s="123"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="135"/>
-    </row>
-    <row r="45" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="81">
-        <v>1</v>
-      </c>
-      <c r="B45" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="82">
-        <v>2000</v>
-      </c>
-      <c r="D45" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="84">
-        <v>190</v>
-      </c>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-    </row>
-    <row r="46" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="81">
-        <v>2</v>
-      </c>
-      <c r="B46" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="82">
-        <v>1</v>
-      </c>
-      <c r="D46" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="84">
-        <v>750</v>
-      </c>
-      <c r="F46" s="85"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-    </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="81">
-        <v>3</v>
-      </c>
-      <c r="B47" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="82">
-        <v>1</v>
-      </c>
-      <c r="D47" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-    </row>
-    <row r="48" spans="1:12" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="110"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="112"/>
-      <c r="H48" s="112"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
-      <c r="K48" s="110"/>
-      <c r="L48" s="113"/>
-    </row>
-    <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="90"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="G49" s="114"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="K49" s="116"/>
-      <c r="L49" s="92"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="103"/>
-    </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="107"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="108"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="92"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98"/>
-      <c r="L52" s="92"/>
-    </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="92"/>
-    </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="92"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="97"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
-      <c r="L54" s="92"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="78"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
-      <c r="L55" s="78"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="78"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="78"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="78"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="78"/>
-      <c r="B59" s="78"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="78"/>
-      <c r="L61" s="78"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="80"/>
-      <c r="H62" s="80"/>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="78"/>
-      <c r="L62" s="78"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="78"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="78"/>
-      <c r="L63" s="78"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="78"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="80"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="80"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="78"/>
-      <c r="L64" s="78"/>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="78"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="80"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="78"/>
-      <c r="L65" s="78"/>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="78"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="78"/>
-      <c r="L66" s="78"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="78"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="80"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="78"/>
-      <c r="L67" s="78"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="78"/>
-      <c r="L68" s="78"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="80"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
-      <c r="K69" s="78"/>
-      <c r="L69" s="78"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="78"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
-      <c r="K70" s="78"/>
-      <c r="L70" s="78"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="78"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="78"/>
-      <c r="L71" s="78"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="78"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="80"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="80"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="78"/>
-      <c r="L72" s="78"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="78"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="80"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="80"/>
-      <c r="H73" s="80"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="78"/>
-      <c r="L73" s="78"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="78"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="78"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="78"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="79"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="78"/>
-      <c r="J75" s="78"/>
-      <c r="K75" s="78"/>
-      <c r="L75" s="78"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="78"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="78"/>
-      <c r="J76" s="78"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="78"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="78"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="79"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="78"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="78"/>
-      <c r="L77" s="78"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="78"/>
-      <c r="J78" s="78"/>
-      <c r="K78" s="78"/>
-      <c r="L78" s="78"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="86"/>
+      <c r="K44" s="94"/>
+      <c r="L44" s="95"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="122"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="122"/>
+      <c r="J47" s="122"/>
+      <c r="K47" s="122"/>
+      <c r="L47" s="122"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="122"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="122"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="122"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="122"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="122"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="122"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="122"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="122"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="122"/>
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="122"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="122"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="122"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="122"/>
+      <c r="J53" s="122"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="122"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="122"/>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="122"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="122"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="122"/>
+      <c r="B55" s="122"/>
+      <c r="C55" s="122"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="122"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="122"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="122"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="122"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="122"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="122"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="122"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="124"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="122"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="122"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="124"/>
+      <c r="F60" s="122"/>
+      <c r="G60" s="124"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="122"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="122"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="124"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="124"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="122"/>
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="122"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="122"/>
+      <c r="J62" s="122"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="122"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="122"/>
+      <c r="B63" s="122"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="124"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="124"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="122"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="122"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="122"/>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="124"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="124"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="122"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="122"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="122"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="123"/>
+      <c r="E65" s="124"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="124"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="122"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="122"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="122"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="122"/>
+      <c r="K66" s="122"/>
+      <c r="L66" s="122"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="122"/>
+      <c r="B67" s="122"/>
+      <c r="C67" s="122"/>
+      <c r="D67" s="123"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="122"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="122"/>
+      <c r="J67" s="122"/>
+      <c r="K67" s="122"/>
+      <c r="L67" s="122"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="122"/>
+      <c r="B68" s="122"/>
+      <c r="C68" s="122"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="122"/>
+      <c r="J68" s="122"/>
+      <c r="K68" s="122"/>
+      <c r="L68" s="122"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="122"/>
+      <c r="B69" s="122"/>
+      <c r="C69" s="122"/>
+      <c r="D69" s="123"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="124"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="122"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="122"/>
+      <c r="B70" s="122"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="123"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="122"/>
+      <c r="G70" s="124"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="122"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="122"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="122"/>
+      <c r="B71" s="122"/>
+      <c r="C71" s="122"/>
+      <c r="D71" s="123"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="122"/>
+      <c r="G71" s="124"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="122"/>
+      <c r="J71" s="122"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="122"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="122"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="122"/>
+      <c r="D72" s="123"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="122"/>
+      <c r="G72" s="124"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="122"/>
+      <c r="J72" s="122"/>
+      <c r="K72" s="122"/>
+      <c r="L72" s="122"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="122"/>
+      <c r="B73" s="122"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="122"/>
+      <c r="K73" s="122"/>
+      <c r="L73" s="122"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="122"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="122"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="122"/>
+      <c r="J74" s="122"/>
+      <c r="K74" s="122"/>
+      <c r="L74" s="122"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="122"/>
+      <c r="B75" s="122"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="123"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="122"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="122"/>
+      <c r="J75" s="122"/>
+      <c r="K75" s="122"/>
+      <c r="L75" s="122"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="122"/>
+      <c r="B76" s="122"/>
+      <c r="C76" s="122"/>
+      <c r="D76" s="123"/>
+      <c r="E76" s="124"/>
+      <c r="F76" s="122"/>
+      <c r="G76" s="124"/>
+      <c r="H76" s="124"/>
+      <c r="I76" s="122"/>
+      <c r="J76" s="122"/>
+      <c r="K76" s="122"/>
+      <c r="L76" s="122"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="122"/>
+      <c r="B77" s="122"/>
+      <c r="C77" s="122"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="124"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="124"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="122"/>
+      <c r="J77" s="122"/>
+      <c r="K77" s="122"/>
+      <c r="L77" s="122"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="122"/>
+      <c r="B78" s="122"/>
+      <c r="C78" s="122"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="124"/>
+      <c r="F78" s="122"/>
+      <c r="G78" s="124"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="122"/>
+      <c r="J78" s="122"/>
+      <c r="K78" s="122"/>
+      <c r="L78" s="122"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="58"/>
@@ -13409,7 +13206,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="46">
+  <mergeCells count="31">
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="J12:L12"/>
@@ -13441,24 +13238,9 @@
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="J43:J44"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:L53"/>
   </mergeCells>
-  <pageMargins left="0.31496062992126" right="0.31496062992126" top="0" bottom="0.23622047244093999" header="0.11811023622047" footer="0.11811023622047"/>
-  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0" bottom="0.23622047244094491" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
